--- a/revref_test.xlsx
+++ b/revref_test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\72446246\Documents\wk\業務関連資料\LMS\70.逆引きマニュアル作成\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEBE19B2-838D-4A93-8E42-3422693BEFEC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45EC3CD6-1F37-403E-B390-E182DFE87780}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7605" xr2:uid="{5CD9017C-176B-471B-A8A0-D3A2BE76D3A3}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7605" firstSheet="1" activeTab="1" xr2:uid="{5CD9017C-176B-471B-A8A0-D3A2BE76D3A3}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="8" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="68">
   <si>
     <t>header1</t>
   </si>
@@ -138,9 +138,6 @@
     <t>正解設定が間違っていたので、修正して再評定したい</t>
   </si>
   <si>
-    <t>解答結果の一覧をダウンロードしたい</t>
-  </si>
-  <si>
     <t>学生への小テストの結果表示を調整したい</t>
   </si>
   <si>
@@ -278,10 +275,6 @@
   </si>
   <si>
     <t>test8.png</t>
-  </si>
-  <si>
-    <t>各設定のデフォルト値を説明します。必要に応じて設定してください。</t>
-    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>&lt;h3&gt;小テストの作成&lt;/h3&gt;</t>
@@ -308,15 +301,6 @@
       <t>サクセイ</t>
     </rPh>
     <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 総合フィードバックを入力します</t>
-  </si>
-  <si>
-    <t>&lt;ul&gt;&lt;li&gt;&lt;b&gt;すべての正答：&lt;/b&gt;正解の場合に表示するフィードバックを入力します。&lt;/li&gt;
-&lt;li&gt;&lt;b&gt;すべての部分的に正しい解答：&lt;/b&gt;部分的に正解だった時に表示するフィードバックを入力します。&lt;/li&gt;
-&lt;li&gt;&lt;b&gt;オプション：&lt;/b&gt;回答後に正答数を表示する場合はチェックします。&lt;/li&gt;
-&lt;li&gt;&lt;b&gt;すべての不正解：&lt;/b&gt;不正解の場合に表示するフィードバックを入力します。&lt;/li&gt;&lt;/ul&gt;</t>
   </si>
   <si>
     <t>&lt;h4&gt;&lt;a name="quiz_kizyutu"&gt;記述問題&lt;/a&gt;&lt;/h4&gt;</t>
@@ -349,49 +333,6 @@
     <t>設定完了後、「保存して表示する」をクリックします</t>
   </si>
   <si>
-    <t>「追加する問題タイプを選択する」ダイアログで、「多肢選択問題」を選択して、「追加」ボタンをクリックします</t>
-  </si>
-  <si>
-    <t>「多肢選択問題追加」画面で問題の内容を入力します</t>
-  </si>
-  <si>
-    <t>&lt;ul&gt;&lt;li&gt;&lt;b&gt;問題名：&lt;/b&gt;問題の名称を入力します。&lt;/li&gt;
-&lt;li&gt;&lt;b&gt;問題テキスト：&lt;/b&gt;「次のうち、正しいものを選びなさい。」などの問題文を入力します。&lt;/li&gt;
-&lt;li&gt;&lt;b&gt;デフォルト評点：&lt;/b&gt;この問題に正解したときに得られる得点を入力します。&lt;/li&gt;
-&lt;li&gt;&lt;b&gt;全体に対するフィードバック：&lt;/b&gt;解答後に表示されるフィードバックを入力します。&lt;/li&gt;
-&lt;li&gt;&lt;b&gt;単一または複数解答？：&lt;/b&gt;答えを 1 つだけ選べるようにするか、複数の答えを選べるようにするかを選択します。&lt;/li&gt;
-&lt;li&gt;&lt;b&gt;複数回答を許可する：&lt;/b&gt;選択肢はチェックボックスの形式です。複数の選択肢にチェックをつけて選択できます。&lt;/li&gt;
-&lt;li&gt;&lt;b&gt;単一の回答のみ：&lt;/b&gt;選択肢はオプションボタン（ラジオボタン）の形式です。1 つの選択肢だけを選択できます。&lt;/li&gt;
-&lt;li&gt;&lt;b&gt;選択肢をシャッフルしますか？：&lt;/b&gt;チェックすると、受験のたびに選択肢の順番を並べ替えます。
-※小テスト全体の設定をしたとき、「問題の挙動」の「問題内部をシャッフルする」で「Yes」を選択した場合に、チェックが可能です。&lt;/li&gt;
-&lt;li&gt;&lt;b&gt;選択肢に番号付けしますか？：&lt;/b&gt;好みの形式を選択してください。&lt;/li&gt;
-&lt;li&gt;&lt;b&gt;標準インストラクションを表示する：&lt;/b&gt;多肢選択解答の前に「1 つを選択する」または「１つまたはそれ以上を選択する」のインストラクションを表示するか選択できます。
-例）標準インストラクションを表示するを「Yes」にした場合&lt;/li&gt;&lt;/ul&gt;</t>
-  </si>
-  <si>
-    <t>解答の選択肢を入力します
-&lt;ul&gt;&lt;li&gt;&lt;b&gt;選択肢：&lt;/b&gt;選択肢の内容を入力します。&lt;/li&gt;
-&lt;li&gt;&lt;b&gt;評点：&lt;/b&gt;この選択肢を選んだときに得られる得点を、「デフォルト評点」に対するパーセントで入力します。
-例えば、「デフォルト評点」が 1 点の場合、ここを「50％」にしておくと、この選択肢を選んだときには 0.5 点になります。&lt;/li&gt;
-&lt;li&gt;&lt;b&gt;フィードバック：&lt;/b&gt;この選択肢を選んだ場合に表示するフィードバックを入力します。&lt;/li&gt;
-&lt;small&gt;※ 選択肢の入力欄が足りない場合は、「さらに 3 件の選択肢入力欄を追加する」ボタンをクリックしてください。&lt;/small&gt;
-&lt;/ul&gt;</t>
-  </si>
-  <si>
-    <t>必要に応じて複数受験を設定します&lt;br&gt;
-&lt;ul&gt;
-&lt;li&gt;&lt;b&gt;それぞれの不正解に対するペナルティ：&lt;/b&gt;小テスト全体の設定をしたとき、「問題の挙動」の「問題動作」で複数回の受験ができるようにしていた場合、ここで、不正解に対する減点の割合をパーセントで設定します。&lt;/li&gt;
-&lt;small&gt;※ 不正解を重ねて評点よりも減点が大きくなっても、マイナスの得点になることはありません。&lt;/small&gt;&lt;br&gt;
-&lt;li&gt;&lt;b&gt;ヒント：&lt;/b&gt;小テスト全体の設定をしたとき、「問題の挙動」の「問題動作」で「複数受験インタラクティブ」を選択していた場合、不正解のときに表示するヒントを入力します。
-学生は入力したヒントの数と同じ回数まで再受験できます。&lt;/li&gt;
-&lt;small&gt;※ ヒントの入力欄が足りないときは、「別のヒントを追加する」ボタンをクリックしてください。&lt;/small&gt;&lt;br&gt;
-&lt;li&gt;&lt;b&gt;ヒントオプション：&lt;/b&gt;
-&lt;ul&gt;&lt;li&gt;&lt;b&gt;正しくない解答をクリアする：&lt;/b&gt;再受験のとき、前回の解答を表示させないときはチェックします。&lt;/li&gt;
-&lt;li&gt;&lt;b&gt;正答数を表示する：&lt;/b&gt;回答後に、正答数を表示する場合はチェックします。&lt;/li&gt;&lt;/ul&gt;
-&lt;/li&gt;
-&lt;/ul&gt;</t>
-  </si>
-  <si>
     <t>必要な設定が完了したら、「変更を保存する」をクリックします</t>
   </si>
   <si>
@@ -423,99 +364,6 @@
     <t>必要な設定が完了したら、「変更を保存する」ボタンをクリックします</t>
   </si>
   <si>
-    <t>&lt;ul&gt;
-&lt;li&gt;
-「タイミング」は日時制限を設定することができます
-デフォルトは設定されていません
-受験可能期間や制限時間を設けたい場合は設定してください
-&lt;/li&gt;
-&lt;li&gt;
-「評定」は評定に関する設定をすることができます
-デフォルトでは合格点は設定されておらず、無制限で受験できるようになっています
-また、複数回受験した中の最高評点を評定するように設定されています
-&lt;/li&gt;
-&lt;li&gt;
-「レイアウト」は表示する問題数や問題のスキップ禁止を設定することができます
-&lt;/li&gt;
-&lt;li&gt;
-問題の挙動：問題のシャッフルや複数回解答等を設定する&lt;/li&gt;
-&lt;li&gt;
-レビューオプション：学生に公開する結果情報とタイミングを設定&lt;/li&gt;
-&lt;li&gt;
-アピアランス：小テストの表示に関する設定をする&lt;/li&gt;
-&lt;li&gt;
-受験に関する特別制限：パスワードやIPアドレスによる制限を設定&lt;/li&gt;
-&lt;li&gt;
-全体フィードバック：受験終了後に表示するテキストを指定&lt;/li&gt;
-&lt;li&gt;
-モジュール共通設定：利用状態の設定やIDナンバーを設定&lt;/li&gt;
-&lt;li&gt;
-利用制限
-&lt;/li&gt;
-&lt;li&gt;
-活動完了
-&lt;/li&gt;
-&lt;ul&gt;</t>
-    <rPh sb="41" eb="43">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="51" eb="53">
-      <t>ジュケン</t>
-    </rPh>
-    <rPh sb="53" eb="55">
-      <t>カノウ</t>
-    </rPh>
-    <rPh sb="55" eb="57">
-      <t>キカン</t>
-    </rPh>
-    <rPh sb="58" eb="62">
-      <t>セイゲンジカン</t>
-    </rPh>
-    <rPh sb="63" eb="64">
-      <t>モウ</t>
-    </rPh>
-    <rPh sb="67" eb="69">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="70" eb="72">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="121" eb="124">
-      <t>ゴウカクテン</t>
-    </rPh>
-    <rPh sb="125" eb="127">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="134" eb="137">
-      <t>ムセイゲン</t>
-    </rPh>
-    <rPh sb="138" eb="140">
-      <t>ジュケン</t>
-    </rPh>
-    <rPh sb="156" eb="159">
-      <t>フクスウカイ</t>
-    </rPh>
-    <rPh sb="159" eb="161">
-      <t>ジュケン</t>
-    </rPh>
-    <rPh sb="163" eb="164">
-      <t>ナカ</t>
-    </rPh>
-    <rPh sb="165" eb="167">
-      <t>サイコウ</t>
-    </rPh>
-    <rPh sb="167" eb="169">
-      <t>ヒョウテン</t>
-    </rPh>
-    <rPh sb="170" eb="172">
-      <t>ヒョウテイ</t>
-    </rPh>
-    <rPh sb="177" eb="179">
-      <t>セッテイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>コースから対象の小テストをクリックします</t>
     <rPh sb="5" eb="7">
       <t>タイショウ</t>
@@ -559,6 +407,1015 @@
     </rPh>
     <rPh sb="14" eb="16">
       <t>イチラン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>解答結果の一覧をダウンロードしたい</t>
+    <rPh sb="0" eb="2">
+      <t>カイトウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>各設定のデフォルトで設定されている内容を説明します。必要に応じて設定してください。</t>
+    <rPh sb="10" eb="12">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ナイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">&lt;ul&gt;
+&lt;li&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>&lt;b&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>「タイミング」</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>&lt;/b&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>は日時制限を設定することができます
+デフォルトは</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>&lt;u&gt;何も</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>設定されていません</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>&lt;/u&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">
+受験可能期間や制限時間を設けたい場合は設定してください&lt;/li&gt;
+&lt;li&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>&lt;b&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>「評定」</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>&lt;/b&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>は評定に関する設定をすることができます
+デフォルトでは</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>&lt;u&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>合格点の設定はなし</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>&lt;/b&gt;で</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>&lt;b&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>無制限で受験可能</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>&lt;/b&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>になっています
+また、複数回受験した中の</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>&lt;b&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>最高評点を評定する</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>&lt;/b&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">ように設定されています
+&lt;/li&gt;
+&lt;li&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>&lt;b&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>「レイアウト」</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>&lt;/b&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>は表示する問題数や問題のスキップ禁止を設定することができます
+デフォルトでは</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">&lt;u&gt;1ページに1問ごと表示される&lt;/u&gt;設定になっています
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>「ナビゲーションメソッド」が「</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>フリー」となっているため、学生は小テストを順番に受ける必要がなく&lt;u&gt;前の問題ページに戻ったり、問題をスキップすることができるように設定&lt;/u&gt;されています</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">
+&lt;/li&gt;
+&lt;li&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>&lt;b&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>「問題の挙動」</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>&lt;/b&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>は問題のシャッフルや複数回解答等を設定することができます
+デフォルトで問題のシャッフル設定は「</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>Yesとなっているため」各問題でシャッフルオプションを「有効」に設定すれば、受験するたびに&lt;u&gt;選択肢をシャッフル&lt;/u&gt;することができます
+問題動作は「遅延フィードバック」が設定されており、これは採点やフィードバックを受ける前に、&lt;u&gt;各問題への回答を入力してから、問題全体を提出&lt;/u&gt;するようになっています</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">
+&lt;/li&gt;
+&lt;li&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>&lt;b&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>「レビューオプション」</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>&lt;/b&gt;は</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>学生に公開する結果情報とタイミングを設定することができます
+デフォルトでは学生は</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>&lt;u&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>受験直後から小テストがクローズされても問題や結果情報を閲覧することができる</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>&lt;/u&gt;ように設定されています</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">
+&lt;/li&gt;
+&lt;li&gt;
+&lt;b&gt;「アピアランス」&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>b&gt;は小テストの表示に関する設定をすることができます
+デフォルトでは評点の小数位は「</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>2」で設定されています</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">
+&lt;/li&gt;
+&lt;li&gt;
+&lt;b&gt;「受験に関する特別制限」&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>b&gt;はパスワードやIPアドレスによる制限を設定することができます&lt;/li&gt;
+デフォルトは&lt;u&gt;何も設定されていません&lt;/u&gt;
+&lt;li&gt;
+&lt;b&gt;「全体フィードバック」&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>b&gt;は受験終了後に表示するテキストを指定することができます&lt;/li&gt;
+デフォルトは&lt;u&gt;何も設定されていません&lt;/u&gt;
+&lt;li&gt;
+&lt;b&gt;「モジュール共通設定」&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>b&gt;はコースページへの表示や言語の強制などを設定することができます&lt;/li&gt;
+デフォルトで&lt;u&gt;コースページに表示する&lt;/u&gt;ように設定されています
+作成中などで表示させたくない場合は、ここでコースページに表示しないように設定を変更することができます
+&lt;li&gt;
+&lt;b&gt;「利用制限」&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>b&gt;はアクセス制限を設定することができます
+デフォルトは&lt;u&gt;何も設定されていません&lt;/u&gt;
+&lt;/li&gt;
+&lt;li&gt;
+&lt;b&gt;「活動完了」&lt;b&gt;は活動完了を管理するかを設定することができます
+デフォルトは&lt;u&gt;何も設定されていません&lt;/u&gt;
+&lt;/li&gt;
+&lt;ul&gt;</t>
+    </r>
+    <rPh sb="51" eb="52">
+      <t>ナニ</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="67" eb="69">
+      <t>ジュケン</t>
+    </rPh>
+    <rPh sb="69" eb="71">
+      <t>カノウ</t>
+    </rPh>
+    <rPh sb="71" eb="73">
+      <t>キカン</t>
+    </rPh>
+    <rPh sb="74" eb="78">
+      <t>セイゲンジカン</t>
+    </rPh>
+    <rPh sb="79" eb="80">
+      <t>モウ</t>
+    </rPh>
+    <rPh sb="83" eb="85">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="86" eb="88">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="146" eb="149">
+      <t>ゴウカクテン</t>
+    </rPh>
+    <rPh sb="150" eb="152">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="164" eb="167">
+      <t>ムセイゲン</t>
+    </rPh>
+    <rPh sb="168" eb="170">
+      <t>ジュケン</t>
+    </rPh>
+    <rPh sb="170" eb="172">
+      <t>カノウ</t>
+    </rPh>
+    <rPh sb="187" eb="190">
+      <t>フクスウカイ</t>
+    </rPh>
+    <rPh sb="190" eb="192">
+      <t>ジュケン</t>
+    </rPh>
+    <rPh sb="194" eb="195">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="199" eb="201">
+      <t>サイコウ</t>
+    </rPh>
+    <rPh sb="201" eb="203">
+      <t>ヒョウテン</t>
+    </rPh>
+    <rPh sb="204" eb="206">
+      <t>ヒョウテイ</t>
+    </rPh>
+    <rPh sb="215" eb="217">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="296" eb="297">
+      <t>モン</t>
+    </rPh>
+    <rPh sb="299" eb="301">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="308" eb="310">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="349" eb="350">
+      <t>ショウ</t>
+    </rPh>
+    <rPh sb="354" eb="356">
+      <t>ジュンバン</t>
+    </rPh>
+    <rPh sb="357" eb="358">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="360" eb="362">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="368" eb="369">
+      <t>マエ</t>
+    </rPh>
+    <rPh sb="370" eb="372">
+      <t>モンダイ</t>
+    </rPh>
+    <rPh sb="376" eb="377">
+      <t>モド</t>
+    </rPh>
+    <rPh sb="381" eb="383">
+      <t>モンダイ</t>
+    </rPh>
+    <rPh sb="399" eb="401">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="472" eb="474">
+      <t>モンダイ</t>
+    </rPh>
+    <rPh sb="480" eb="482">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="496" eb="499">
+      <t>カクモンダイ</t>
+    </rPh>
+    <rPh sb="512" eb="514">
+      <t>ユウコウ</t>
+    </rPh>
+    <rPh sb="516" eb="518">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="522" eb="524">
+      <t>ジュケン</t>
+    </rPh>
+    <rPh sb="532" eb="535">
+      <t>センタクシ</t>
+    </rPh>
+    <rPh sb="555" eb="557">
+      <t>モンダイ</t>
+    </rPh>
+    <rPh sb="557" eb="559">
+      <t>ドウサ</t>
+    </rPh>
+    <rPh sb="561" eb="563">
+      <t>チエン</t>
+    </rPh>
+    <rPh sb="572" eb="574">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="708" eb="710">
+      <t>ガクセイ</t>
+    </rPh>
+    <rPh sb="714" eb="716">
+      <t>ジュケン</t>
+    </rPh>
+    <rPh sb="716" eb="718">
+      <t>チョクゴ</t>
+    </rPh>
+    <rPh sb="720" eb="721">
+      <t>ショウ</t>
+    </rPh>
+    <rPh sb="733" eb="735">
+      <t>モンダイ</t>
+    </rPh>
+    <rPh sb="736" eb="738">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="738" eb="740">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="741" eb="743">
+      <t>エツラン</t>
+    </rPh>
+    <rPh sb="758" eb="760">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="825" eb="827">
+      <t>ヒョウテン</t>
+    </rPh>
+    <rPh sb="828" eb="830">
+      <t>ショウスウ</t>
+    </rPh>
+    <rPh sb="830" eb="831">
+      <t>クライ</t>
+    </rPh>
+    <rPh sb="836" eb="838">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="1049" eb="1051">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="1052" eb="1054">
+      <t>ゲンゴ</t>
+    </rPh>
+    <rPh sb="1055" eb="1057">
+      <t>キョウセイ</t>
+    </rPh>
+    <rPh sb="1060" eb="1062">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="1093" eb="1095">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="1104" eb="1106">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="1113" eb="1116">
+      <t>サクセイチュウ</t>
+    </rPh>
+    <rPh sb="1119" eb="1121">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="1127" eb="1129">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="1141" eb="1143">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="1149" eb="1151">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="1152" eb="1154">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="1188" eb="1190">
+      <t>セイゲン</t>
+    </rPh>
+    <rPh sb="1191" eb="1193">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="1252" eb="1254">
+      <t>カツドウ</t>
+    </rPh>
+    <rPh sb="1254" eb="1256">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="1257" eb="1259">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="1263" eb="1265">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「問題を追加する」をクリックします</t>
+    <rPh sb="1" eb="3">
+      <t>モンダイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「追加 v 」をクリックし、「新しい問題」を選択します</t>
+    <rPh sb="1" eb="3">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>アタラ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>モンダイ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「追加する問題タイプを選択する」ダイアログで、「多肢選択問題」を選択して、「追加」をクリックします</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「多肢選択問題追加」画面で「問題名」と「問題テキスト」を入力します</t>
+    <rPh sb="20" eb="22">
+      <t>モンダイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>必要に応じて、各項目を設定してください</t>
+    <rPh sb="7" eb="8">
+      <t>カク</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;ul&gt;
+&lt;li&gt;&lt;b&gt;「デフォルト評点」&lt;/b&gt;はこの問題に正解したときに得られる得点を入力します&lt;/li&gt;
+&lt;li&gt;&lt;b&gt;「全体に対するフィードバック」&lt;/b&gt;は解答後に表示されるフィードバックを入力します&lt;/li&gt;
+&lt;li&gt;&lt;b&gt;「単一または複数解答？」&lt;/b&gt;は答えを 1 つだけ選べるようにするか、複数の答えを選べるようにするかを選択します&lt;/li&gt;
+&lt;li&gt;&lt;b&gt;「選択肢に番号付けしますか？」&lt;/b&gt;は選択肢への番号付けで好みの形式を選択してください
+デフォルトでは「1.2.3.」と付くように設定されています&lt;/li&gt;
+&lt;li&gt;&lt;b&gt;「標準インストラクションを表示する」&lt;/b&gt;は多肢選択解答の前に「1 つを選択する」または「１つまたはそれ以上を選択する」のインストラクションを表示するか選択できます。&lt;/li&gt;&lt;/ul&gt;</t>
+    <rPh sb="208" eb="211">
+      <t>センタクシ</t>
+    </rPh>
+    <rPh sb="213" eb="216">
+      <t>バンゴウツ</t>
+    </rPh>
+    <rPh sb="249" eb="250">
+      <t>ツ</t>
+    </rPh>
+    <rPh sb="254" eb="256">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;b&gt;「答え」&lt;/b&gt;に選択肢と評点を設定します
+&lt;b&gt;「フィードバック」&lt;/b&gt;はこの選択肢を選んだ場合に何か表示したい場合に入力します
+&lt;small&gt;※ 選択肢の入力欄が足りない場合は、「さらに 3 件の選択肢入力欄を追加する」ボタンをクリックしてください。&lt;/small&gt;</t>
+    <rPh sb="4" eb="5">
+      <t>コタ</t>
+    </rPh>
+    <rPh sb="12" eb="15">
+      <t>センタクシ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ヒョウテン</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="54" eb="55">
+      <t>ナニ</t>
+    </rPh>
+    <rPh sb="61" eb="63">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> &lt;b&gt;「総合フィードバック」&lt;/b&gt;は正答、部分的に正しい解答、不正解の3パターンで表示するフィードバックを設定することができます
+デフォルトメッセージが設定されています</t>
+    <rPh sb="20" eb="22">
+      <t>セイトウ</t>
+    </rPh>
+    <rPh sb="23" eb="26">
+      <t>ブブンテキ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>タダ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>カイトウ</t>
+    </rPh>
+    <rPh sb="33" eb="36">
+      <t>フセイカイ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="55" eb="57">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="78" eb="80">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;b&gt;「複数受験」&lt;/b&gt;は複数受験としている場合、不正解に対する減点の割合やヒントの設定をすることができます</t>
+    <rPh sb="14" eb="18">
+      <t>フクスウジュケン</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>セッテイ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1055,7 +1912,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B38953DD-C77F-4062-989A-FDF98227C4BA}">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
@@ -1226,7 +2083,7 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -1246,7 +2103,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>18</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1276,7 +2133,7 @@
     <row r="7" spans="1:4">
       <c r="A7" s="1"/>
       <c r="B7" s="22" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="6"/>
@@ -1284,7 +2141,7 @@
     <row r="8" spans="1:4">
       <c r="A8" s="1"/>
       <c r="B8" s="23" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="6"/>
@@ -1292,7 +2149,7 @@
     <row r="9" spans="1:4">
       <c r="A9" s="1"/>
       <c r="B9" s="22" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="6"/>
@@ -1300,7 +2157,7 @@
     <row r="10" spans="1:4" ht="27">
       <c r="A10" s="1"/>
       <c r="B10" s="22" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1368,7 +2225,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1481,7 +2338,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1594,7 +2451,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1707,7 +2564,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1820,7 +2677,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1933,7 +2790,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -2046,7 +2903,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -2159,7 +3016,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -2249,9 +3106,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D077C58-5FEC-48A5-A5C6-05E88FEFA561}">
-  <dimension ref="A1:D33"/>
+  <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
@@ -2300,59 +3157,59 @@
     <row r="7" spans="1:4" s="21" customFormat="1">
       <c r="A7" s="1"/>
       <c r="B7" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="40.5">
       <c r="A8" s="1"/>
       <c r="B8" s="12" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C8" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="14" t="s">
         <v>31</v>
-      </c>
-      <c r="D8" s="14" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1"/>
       <c r="B9" s="3"/>
       <c r="C9" s="15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D9" s="16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1"/>
       <c r="B10" s="17" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D10" s="20" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1"/>
       <c r="B11" s="17" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D11" s="20" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1"/>
       <c r="B12" s="18" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="C12" s="19"/>
       <c r="D12" s="20"/>
@@ -2360,7 +3217,7 @@
     <row r="13" spans="1:4" s="21" customFormat="1" ht="409.5">
       <c r="A13" s="1"/>
       <c r="B13" s="24" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C13" s="25"/>
       <c r="D13" s="26"/>
@@ -2368,25 +3225,25 @@
     <row r="14" spans="1:4" ht="40.5">
       <c r="A14" s="1"/>
       <c r="B14" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" s="26" t="s">
         <v>36</v>
-      </c>
-      <c r="C14" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="D14" s="26" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="1"/>
       <c r="B15" s="22" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C15" s="25" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D15" s="26" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -2395,93 +3252,71 @@
     <row r="17" spans="1:2">
       <c r="A17" s="1"/>
       <c r="B17" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" s="21" customFormat="1">
       <c r="A18" s="1"/>
-      <c r="B18" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
+      <c r="B18" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" s="21" customFormat="1">
       <c r="A19" s="1"/>
-      <c r="B19" s="2" t="s">
-        <v>51</v>
+      <c r="B19" s="3" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1"/>
-      <c r="B20" s="11" t="s">
-        <v>52</v>
+      <c r="B20" s="2" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1"/>
-      <c r="B21" s="11" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
+      <c r="B21" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" s="21" customFormat="1">
       <c r="A22" s="1"/>
-      <c r="B22" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
+      <c r="B22" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="168.75">
       <c r="A23" s="1"/>
-      <c r="B23" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
+      <c r="B23" s="11" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="75">
+      <c r="A24" s="1"/>
       <c r="B24" s="11" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="B25" s="2" t="s">
-        <v>55</v>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="56.25">
+      <c r="A25" s="1"/>
+      <c r="B25" s="11" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="26" spans="1:2">
-      <c r="B26" s="2" t="s">
-        <v>56</v>
+      <c r="A26" s="1"/>
+      <c r="B26" s="11" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="B27" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="B28" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="B29" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="B30" s="11" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="B31" s="11" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
-      <c r="B32" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="33" spans="2:2">
-      <c r="B33" s="2" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -2516,7 +3351,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -2629,7 +3464,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -2742,7 +3577,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -2855,7 +3690,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -2945,10 +3780,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFABB89B-389D-4E53-86E8-1C489CE9D7CA}">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="B16" sqref="B16:B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -3033,21 +3868,44 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="1"/>
-    </row>
-    <row r="17" spans="1:1">
+      <c r="B16" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
       <c r="A17" s="1"/>
-    </row>
-    <row r="18" spans="1:1">
+      <c r="B17" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
       <c r="A18" s="1"/>
-    </row>
-    <row r="19" spans="1:1">
+      <c r="B18" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="187.5">
       <c r="A19" s="1"/>
-    </row>
-    <row r="20" spans="1:1">
+      <c r="B19" s="11" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="187.5">
       <c r="A20" s="1"/>
-    </row>
-    <row r="21" spans="1:1">
+      <c r="B20" s="11" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
       <c r="A21" s="1"/>
+      <c r="B21" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="B22" s="2" t="s">
+        <v>47</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
@@ -3735,12 +4593,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <SharedWithUsers xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="f2582d4f-4605-4da6-a8d6-8d696d30c27c">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3993,27 +4860,21 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <SharedWithUsers xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="f2582d4f-4605-4da6-a8d6-8d696d30c27c">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A3B1469-BE58-4E2A-BFC6-1F894EC8921D}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A965309B-2D00-4C69-AAF2-00F76E145C17}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="c1e6ffc9-f5b9-4159-9447-bea3a992def6"/>
+    <ds:schemaRef ds:uri="f2582d4f-4605-4da6-a8d6-8d696d30c27c"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -4038,12 +4899,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A965309B-2D00-4C69-AAF2-00F76E145C17}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A3B1469-BE58-4E2A-BFC6-1F894EC8921D}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="c1e6ffc9-f5b9-4159-9447-bea3a992def6"/>
-    <ds:schemaRef ds:uri="f2582d4f-4605-4da6-a8d6-8d696d30c27c"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/revref_test.xlsx
+++ b/revref_test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\72446246\Documents\wk\業務関連資料\LMS\70.逆引きマニュアル作成\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45EC3CD6-1F37-403E-B390-E182DFE87780}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D431117-CE5F-4135-9638-3A3032535A1D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7605" firstSheet="1" activeTab="1" xr2:uid="{5CD9017C-176B-471B-A8A0-D3A2BE76D3A3}"/>
   </bookViews>
@@ -428,863 +428,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">&lt;ul&gt;
-&lt;li&gt;
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>&lt;b&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック "/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>「タイミング」</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>&lt;/b&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック "/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>は日時制限を設定することができます
-デフォルトは</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>&lt;u&gt;何も</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック "/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>設定されていません</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>&lt;/u&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック "/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">
-受験可能期間や制限時間を設けたい場合は設定してください&lt;/li&gt;
-&lt;li&gt;
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>&lt;b&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック "/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>「評定」</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>&lt;/b&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック "/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>は評定に関する設定をすることができます
-デフォルトでは</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>&lt;u&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック "/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>合格点の設定はなし</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>&lt;/b&gt;で</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック "/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>&lt;b&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック "/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>無制限で受験可能</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>&lt;/b&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック "/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>になっています
-また、複数回受験した中の</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>&lt;b&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック "/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>最高評点を評定する</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>&lt;/b&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック "/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">ように設定されています
-&lt;/li&gt;
-&lt;li&gt;
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>&lt;b&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック "/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>「レイアウト」</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>&lt;/b&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック "/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>は表示する問題数や問題のスキップ禁止を設定することができます
-デフォルトでは</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">&lt;u&gt;1ページに1問ごと表示される&lt;/u&gt;設定になっています
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック "/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>「ナビゲーションメソッド」が「</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>フリー」となっているため、学生は小テストを順番に受ける必要がなく&lt;u&gt;前の問題ページに戻ったり、問題をスキップすることができるように設定&lt;/u&gt;されています</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック "/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">
-&lt;/li&gt;
-&lt;li&gt;
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>&lt;b&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック "/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>「問題の挙動」</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>&lt;/b&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック "/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>は問題のシャッフルや複数回解答等を設定することができます
-デフォルトで問題のシャッフル設定は「</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>Yesとなっているため」各問題でシャッフルオプションを「有効」に設定すれば、受験するたびに&lt;u&gt;選択肢をシャッフル&lt;/u&gt;することができます
-問題動作は「遅延フィードバック」が設定されており、これは採点やフィードバックを受ける前に、&lt;u&gt;各問題への回答を入力してから、問題全体を提出&lt;/u&gt;するようになっています</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック "/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">
-&lt;/li&gt;
-&lt;li&gt;
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>&lt;b&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック "/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>「レビューオプション」</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>&lt;/b&gt;は</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック "/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>学生に公開する結果情報とタイミングを設定することができます
-デフォルトでは学生は</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>&lt;u&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック "/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>受験直後から小テストがクローズされても問題や結果情報を閲覧することができる</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>&lt;/u&gt;ように設定されています</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック "/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">
-&lt;/li&gt;
-&lt;li&gt;
-&lt;b&gt;「アピアランス」&lt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック "/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>b&gt;は小テストの表示に関する設定をすることができます
-デフォルトでは評点の小数位は「</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>2」で設定されています</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック "/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">
-&lt;/li&gt;
-&lt;li&gt;
-&lt;b&gt;「受験に関する特別制限」&lt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック "/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>b&gt;はパスワードやIPアドレスによる制限を設定することができます&lt;/li&gt;
-デフォルトは&lt;u&gt;何も設定されていません&lt;/u&gt;
-&lt;li&gt;
-&lt;b&gt;「全体フィードバック」&lt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック "/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>b&gt;は受験終了後に表示するテキストを指定することができます&lt;/li&gt;
-デフォルトは&lt;u&gt;何も設定されていません&lt;/u&gt;
-&lt;li&gt;
-&lt;b&gt;「モジュール共通設定」&lt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック "/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>b&gt;はコースページへの表示や言語の強制などを設定することができます&lt;/li&gt;
-デフォルトで&lt;u&gt;コースページに表示する&lt;/u&gt;ように設定されています
-作成中などで表示させたくない場合は、ここでコースページに表示しないように設定を変更することができます
-&lt;li&gt;
-&lt;b&gt;「利用制限」&lt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック "/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>b&gt;はアクセス制限を設定することができます
-デフォルトは&lt;u&gt;何も設定されていません&lt;/u&gt;
-&lt;/li&gt;
-&lt;li&gt;
-&lt;b&gt;「活動完了」&lt;b&gt;は活動完了を管理するかを設定することができます
-デフォルトは&lt;u&gt;何も設定されていません&lt;/u&gt;
-&lt;/li&gt;
-&lt;ul&gt;</t>
-    </r>
-    <rPh sb="51" eb="52">
-      <t>ナニ</t>
-    </rPh>
-    <rPh sb="53" eb="55">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="67" eb="69">
-      <t>ジュケン</t>
-    </rPh>
-    <rPh sb="69" eb="71">
-      <t>カノウ</t>
-    </rPh>
-    <rPh sb="71" eb="73">
-      <t>キカン</t>
-    </rPh>
-    <rPh sb="74" eb="78">
-      <t>セイゲンジカン</t>
-    </rPh>
-    <rPh sb="79" eb="80">
-      <t>モウ</t>
-    </rPh>
-    <rPh sb="83" eb="85">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="86" eb="88">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="146" eb="149">
-      <t>ゴウカクテン</t>
-    </rPh>
-    <rPh sb="150" eb="152">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="164" eb="167">
-      <t>ムセイゲン</t>
-    </rPh>
-    <rPh sb="168" eb="170">
-      <t>ジュケン</t>
-    </rPh>
-    <rPh sb="170" eb="172">
-      <t>カノウ</t>
-    </rPh>
-    <rPh sb="187" eb="190">
-      <t>フクスウカイ</t>
-    </rPh>
-    <rPh sb="190" eb="192">
-      <t>ジュケン</t>
-    </rPh>
-    <rPh sb="194" eb="195">
-      <t>ナカ</t>
-    </rPh>
-    <rPh sb="199" eb="201">
-      <t>サイコウ</t>
-    </rPh>
-    <rPh sb="201" eb="203">
-      <t>ヒョウテン</t>
-    </rPh>
-    <rPh sb="204" eb="206">
-      <t>ヒョウテイ</t>
-    </rPh>
-    <rPh sb="215" eb="217">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="296" eb="297">
-      <t>モン</t>
-    </rPh>
-    <rPh sb="299" eb="301">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="308" eb="310">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="349" eb="350">
-      <t>ショウ</t>
-    </rPh>
-    <rPh sb="354" eb="356">
-      <t>ジュンバン</t>
-    </rPh>
-    <rPh sb="357" eb="358">
-      <t>ウ</t>
-    </rPh>
-    <rPh sb="360" eb="362">
-      <t>ヒツヨウ</t>
-    </rPh>
-    <rPh sb="368" eb="369">
-      <t>マエ</t>
-    </rPh>
-    <rPh sb="370" eb="372">
-      <t>モンダイ</t>
-    </rPh>
-    <rPh sb="376" eb="377">
-      <t>モド</t>
-    </rPh>
-    <rPh sb="381" eb="383">
-      <t>モンダイ</t>
-    </rPh>
-    <rPh sb="399" eb="401">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="472" eb="474">
-      <t>モンダイ</t>
-    </rPh>
-    <rPh sb="480" eb="482">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="496" eb="499">
-      <t>カクモンダイ</t>
-    </rPh>
-    <rPh sb="512" eb="514">
-      <t>ユウコウ</t>
-    </rPh>
-    <rPh sb="516" eb="518">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="522" eb="524">
-      <t>ジュケン</t>
-    </rPh>
-    <rPh sb="532" eb="535">
-      <t>センタクシ</t>
-    </rPh>
-    <rPh sb="555" eb="557">
-      <t>モンダイ</t>
-    </rPh>
-    <rPh sb="557" eb="559">
-      <t>ドウサ</t>
-    </rPh>
-    <rPh sb="561" eb="563">
-      <t>チエン</t>
-    </rPh>
-    <rPh sb="572" eb="574">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="708" eb="710">
-      <t>ガクセイ</t>
-    </rPh>
-    <rPh sb="714" eb="716">
-      <t>ジュケン</t>
-    </rPh>
-    <rPh sb="716" eb="718">
-      <t>チョクゴ</t>
-    </rPh>
-    <rPh sb="720" eb="721">
-      <t>ショウ</t>
-    </rPh>
-    <rPh sb="733" eb="735">
-      <t>モンダイ</t>
-    </rPh>
-    <rPh sb="736" eb="738">
-      <t>ケッカ</t>
-    </rPh>
-    <rPh sb="738" eb="740">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="741" eb="743">
-      <t>エツラン</t>
-    </rPh>
-    <rPh sb="758" eb="760">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="825" eb="827">
-      <t>ヒョウテン</t>
-    </rPh>
-    <rPh sb="828" eb="830">
-      <t>ショウスウ</t>
-    </rPh>
-    <rPh sb="830" eb="831">
-      <t>クライ</t>
-    </rPh>
-    <rPh sb="836" eb="838">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="1049" eb="1051">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="1052" eb="1054">
-      <t>ゲンゴ</t>
-    </rPh>
-    <rPh sb="1055" eb="1057">
-      <t>キョウセイ</t>
-    </rPh>
-    <rPh sb="1060" eb="1062">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="1093" eb="1095">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="1104" eb="1106">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="1113" eb="1116">
-      <t>サクセイチュウ</t>
-    </rPh>
-    <rPh sb="1119" eb="1121">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="1127" eb="1129">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="1141" eb="1143">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="1149" eb="1151">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="1152" eb="1154">
-      <t>ヘンコウ</t>
-    </rPh>
-    <rPh sb="1188" eb="1190">
-      <t>セイゲン</t>
-    </rPh>
-    <rPh sb="1191" eb="1193">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="1252" eb="1254">
-      <t>カツドウ</t>
-    </rPh>
-    <rPh sb="1254" eb="1256">
-      <t>カンリョウ</t>
-    </rPh>
-    <rPh sb="1257" eb="1259">
-      <t>カンリ</t>
-    </rPh>
-    <rPh sb="1263" eb="1265">
-      <t>セッテイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>「問題を追加する」をクリックします</t>
     <rPh sb="1" eb="3">
       <t>モンダイ</t>
@@ -1338,7 +481,7 @@
 &lt;li&gt;&lt;b&gt;「単一または複数解答？」&lt;/b&gt;は答えを 1 つだけ選べるようにするか、複数の答えを選べるようにするかを選択します&lt;/li&gt;
 &lt;li&gt;&lt;b&gt;「選択肢に番号付けしますか？」&lt;/b&gt;は選択肢への番号付けで好みの形式を選択してください
 デフォルトでは「1.2.3.」と付くように設定されています&lt;/li&gt;
-&lt;li&gt;&lt;b&gt;「標準インストラクションを表示する」&lt;/b&gt;は多肢選択解答の前に「1 つを選択する」または「１つまたはそれ以上を選択する」のインストラクションを表示するか選択できます。&lt;/li&gt;&lt;/ul&gt;</t>
+&lt;li&gt;&lt;b&gt;「標準インストラクションを表示する」&lt;/b&gt;は多肢選択解答の前に「1 つを選択する」または「１つまたはそれ以上を選択する」のインストラクションを表示するか選択できます。&lt;/li&gt;</t>
     <rPh sb="208" eb="211">
       <t>センタクシ</t>
     </rPh>
@@ -1354,67 +497,945 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>&lt;b&gt;「答え」&lt;/b&gt;に選択肢と評点を設定します
+    <t>&lt;li&gt;&lt;b&gt;「答え」&lt;/b&gt;に選択肢と評点を設定します
 &lt;b&gt;「フィードバック」&lt;/b&gt;はこの選択肢を選んだ場合に何か表示したい場合に入力します
-&lt;small&gt;※ 選択肢の入力欄が足りない場合は、「さらに 3 件の選択肢入力欄を追加する」ボタンをクリックしてください。&lt;/small&gt;</t>
-    <rPh sb="4" eb="5">
+&lt;small&gt;※ 選択肢の入力欄が足りない場合は、「さらに 3 件の選択肢入力欄を追加する」ボタンをクリックしてください。&lt;/small&gt;&lt;/li&gt;</t>
+    <rPh sb="8" eb="9">
       <t>コタ</t>
     </rPh>
-    <rPh sb="12" eb="15">
+    <rPh sb="16" eb="19">
       <t>センタクシ</t>
     </rPh>
-    <rPh sb="16" eb="18">
+    <rPh sb="20" eb="22">
       <t>ヒョウテン</t>
     </rPh>
-    <rPh sb="19" eb="21">
+    <rPh sb="23" eb="25">
       <t>セッテイ</t>
     </rPh>
-    <rPh sb="54" eb="55">
+    <rPh sb="58" eb="59">
       <t>ナニ</t>
     </rPh>
-    <rPh sb="61" eb="63">
+    <rPh sb="65" eb="67">
       <t>バアイ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t xml:space="preserve"> &lt;b&gt;「総合フィードバック」&lt;/b&gt;は正答、部分的に正しい解答、不正解の3パターンで表示するフィードバックを設定することができます
-デフォルトメッセージが設定されています</t>
-    <rPh sb="20" eb="22">
+    <t xml:space="preserve"> &lt;li&gt;&lt;b&gt;「総合フィードバック」&lt;/b&gt;は正答、部分的に正しい解答、不正解の3パターンで表示するフィードバックを設定することができます
+デフォルトメッセージが設定されています&lt;/li&gt;</t>
+    <rPh sb="24" eb="26">
       <t>セイトウ</t>
     </rPh>
-    <rPh sb="23" eb="26">
+    <rPh sb="27" eb="30">
       <t>ブブンテキ</t>
     </rPh>
-    <rPh sb="27" eb="28">
+    <rPh sb="31" eb="32">
       <t>タダ</t>
     </rPh>
-    <rPh sb="30" eb="32">
+    <rPh sb="34" eb="36">
       <t>カイトウ</t>
     </rPh>
-    <rPh sb="33" eb="36">
+    <rPh sb="37" eb="40">
       <t>フセイカイ</t>
     </rPh>
-    <rPh sb="43" eb="45">
+    <rPh sb="47" eb="49">
       <t>ヒョウジ</t>
     </rPh>
-    <rPh sb="55" eb="57">
+    <rPh sb="59" eb="61">
       <t>セッテイ</t>
     </rPh>
-    <rPh sb="78" eb="80">
+    <rPh sb="82" eb="84">
       <t>セッテイ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>&lt;b&gt;「複数受験」&lt;/b&gt;は複数受験としている場合、不正解に対する減点の割合やヒントの設定をすることができます</t>
-    <rPh sb="14" eb="18">
+    <t>&lt;li&gt;&lt;b&gt;「複数受験」&lt;/b&gt;は複数受験としている場合、不正解に対する減点の割合やヒントの設定をすることができます&lt;/li&gt;
+&lt;/ul&gt;</t>
+    <rPh sb="18" eb="22">
       <t>フクスウジュケン</t>
     </rPh>
-    <rPh sb="23" eb="25">
+    <rPh sb="27" eb="29">
       <t>バアイ</t>
     </rPh>
-    <rPh sb="43" eb="45">
+    <rPh sb="47" eb="49">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">&lt;ul&gt;
+&lt;li&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>&lt;b&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>「タイミング」</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>&lt;/b&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>は日時制限を設定することができます
+デフォルトは</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>&lt;u&gt;何も</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>設定されていません</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>&lt;/u&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">
+受験可能期間や制限時間を設けたい場合は設定してください&lt;/li&gt;
+&lt;li&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>&lt;b&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>「評定」</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>&lt;/b&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>は評定に関する設定をすることができます
+デフォルトでは</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>&lt;u&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>合格点の設定はなし</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>&lt;/u&gt;で</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>&lt;u&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>無制限で受験可能</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>&lt;/u&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>になっています
+また、複数回受験した中の</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>&lt;b&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>最高評点を評定する</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>&lt;/b&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">ように設定されています
+&lt;/li&gt;
+&lt;li&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>&lt;b&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>「レイアウト」</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>&lt;/b&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>は表示する問題数や問題のスキップ禁止を設定することができます
+デフォルトでは</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">&lt;u&gt;1ページに1問ごと表示される&lt;/u&gt;設定になっています
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>「ナビゲーションメソッド」が「</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>フリー」となっているため、学生は小テストを順番に受ける必要がなく&lt;u&gt;前の問題ページに戻ったり、問題をスキップすることができるように設定&lt;/u&gt;されています</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">
+&lt;/li&gt;
+&lt;li&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>&lt;b&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>「問題の挙動」</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>&lt;/b&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>は問題のシャッフルや複数回解答等を設定することができます
+デフォルトで問題のシャッフル設定は「</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>Yesとなっているため」各問題でシャッフルオプションを「有効」に設定すれば、受験するたびに&lt;u&gt;選択肢をシャッフル&lt;/u&gt;することができます
+問題動作は「遅延フィードバック」が設定されており、これは採点やフィードバックを受ける前に、&lt;u&gt;各問題への回答を入力してから、問題全体を提出&lt;/u&gt;するようになっています</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">
+&lt;/li&gt;
+&lt;li&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>&lt;b&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>「レビューオプション」</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>&lt;/b&gt;は</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>学生に公開する結果情報とタイミングを設定することができます
+デフォルトでは学生は</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>&lt;u&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>受験直後から小テストがクローズされても問題や結果情報を閲覧することができる</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>&lt;/u&gt;ように設定されています</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">
+&lt;/li&gt;
+&lt;li&gt;
+&lt;b&gt;「アピアランス」&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>b&gt;は小テストの表示に関する設定をすることができます
+デフォルトでは評点の小数位は「</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>2」で設定されています</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">
+&lt;/li&gt;
+&lt;li&gt;
+&lt;b&gt;「受験に関する特別制限」&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>b&gt;はパスワードやIPアドレスによる制限を設定することができます&lt;/li&gt;
+デフォルトは&lt;u&gt;何も設定されていません&lt;/u&gt;
+&lt;li&gt;
+&lt;b&gt;「全体フィードバック」&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>b&gt;は受験終了後に表示するテキストを指定することができます&lt;/li&gt;
+デフォルトは&lt;u&gt;何も設定されていません&lt;/u&gt;
+&lt;li&gt;
+&lt;b&gt;「モジュール共通設定」&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>b&gt;はコースページへの表示や言語の強制などを設定することができます&lt;/li&gt;
+デフォルトで&lt;u&gt;コースページに表示する&lt;/u&gt;ように設定されています
+作成中などで表示させたくない場合は、ここでコースページに表示しないように設定を変更することができます
+&lt;li&gt;
+&lt;b&gt;「利用制限」&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>b&gt;はアクセス制限を設定することができます
+デフォルトは&lt;u&gt;何も設定されていません&lt;/u&gt;
+&lt;/li&gt;
+&lt;li&gt;
+&lt;b&gt;「活動完了」&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>b&gt;は活動完了を管理するかを設定することができます
+デフォルトは&lt;u&gt;何も設定されていません&lt;/u&gt;
+&lt;/li&gt;
+&lt;ul&gt;</t>
+    </r>
+    <rPh sb="51" eb="52">
+      <t>ナニ</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="67" eb="69">
+      <t>ジュケン</t>
+    </rPh>
+    <rPh sb="69" eb="71">
+      <t>カノウ</t>
+    </rPh>
+    <rPh sb="71" eb="73">
+      <t>キカン</t>
+    </rPh>
+    <rPh sb="74" eb="78">
+      <t>セイゲンジカン</t>
+    </rPh>
+    <rPh sb="79" eb="80">
+      <t>モウ</t>
+    </rPh>
+    <rPh sb="83" eb="85">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="86" eb="88">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="146" eb="149">
+      <t>ゴウカクテン</t>
+    </rPh>
+    <rPh sb="150" eb="152">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="164" eb="167">
+      <t>ムセイゲン</t>
+    </rPh>
+    <rPh sb="168" eb="170">
+      <t>ジュケン</t>
+    </rPh>
+    <rPh sb="170" eb="172">
+      <t>カノウ</t>
+    </rPh>
+    <rPh sb="187" eb="190">
+      <t>フクスウカイ</t>
+    </rPh>
+    <rPh sb="190" eb="192">
+      <t>ジュケン</t>
+    </rPh>
+    <rPh sb="194" eb="195">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="199" eb="201">
+      <t>サイコウ</t>
+    </rPh>
+    <rPh sb="201" eb="203">
+      <t>ヒョウテン</t>
+    </rPh>
+    <rPh sb="204" eb="206">
+      <t>ヒョウテイ</t>
+    </rPh>
+    <rPh sb="215" eb="217">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="296" eb="297">
+      <t>モン</t>
+    </rPh>
+    <rPh sb="299" eb="301">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="308" eb="310">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="349" eb="350">
+      <t>ショウ</t>
+    </rPh>
+    <rPh sb="354" eb="356">
+      <t>ジュンバン</t>
+    </rPh>
+    <rPh sb="357" eb="358">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="360" eb="362">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="368" eb="369">
+      <t>マエ</t>
+    </rPh>
+    <rPh sb="370" eb="372">
+      <t>モンダイ</t>
+    </rPh>
+    <rPh sb="376" eb="377">
+      <t>モド</t>
+    </rPh>
+    <rPh sb="381" eb="383">
+      <t>モンダイ</t>
+    </rPh>
+    <rPh sb="399" eb="401">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="472" eb="474">
+      <t>モンダイ</t>
+    </rPh>
+    <rPh sb="480" eb="482">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="496" eb="499">
+      <t>カクモンダイ</t>
+    </rPh>
+    <rPh sb="512" eb="514">
+      <t>ユウコウ</t>
+    </rPh>
+    <rPh sb="516" eb="518">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="522" eb="524">
+      <t>ジュケン</t>
+    </rPh>
+    <rPh sb="532" eb="535">
+      <t>センタクシ</t>
+    </rPh>
+    <rPh sb="555" eb="557">
+      <t>モンダイ</t>
+    </rPh>
+    <rPh sb="557" eb="559">
+      <t>ドウサ</t>
+    </rPh>
+    <rPh sb="561" eb="563">
+      <t>チエン</t>
+    </rPh>
+    <rPh sb="572" eb="574">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="708" eb="710">
+      <t>ガクセイ</t>
+    </rPh>
+    <rPh sb="714" eb="716">
+      <t>ジュケン</t>
+    </rPh>
+    <rPh sb="716" eb="718">
+      <t>チョクゴ</t>
+    </rPh>
+    <rPh sb="720" eb="721">
+      <t>ショウ</t>
+    </rPh>
+    <rPh sb="733" eb="735">
+      <t>モンダイ</t>
+    </rPh>
+    <rPh sb="736" eb="738">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="738" eb="740">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="741" eb="743">
+      <t>エツラン</t>
+    </rPh>
+    <rPh sb="758" eb="760">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="825" eb="827">
+      <t>ヒョウテン</t>
+    </rPh>
+    <rPh sb="828" eb="830">
+      <t>ショウスウ</t>
+    </rPh>
+    <rPh sb="830" eb="831">
+      <t>クライ</t>
+    </rPh>
+    <rPh sb="836" eb="838">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="1049" eb="1051">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="1052" eb="1054">
+      <t>ゲンゴ</t>
+    </rPh>
+    <rPh sb="1055" eb="1057">
+      <t>キョウセイ</t>
+    </rPh>
+    <rPh sb="1060" eb="1062">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="1093" eb="1095">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="1104" eb="1106">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="1113" eb="1116">
+      <t>サクセイチュウ</t>
+    </rPh>
+    <rPh sb="1119" eb="1121">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="1127" eb="1129">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="1141" eb="1143">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="1149" eb="1151">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="1152" eb="1154">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="1188" eb="1190">
+      <t>セイゲン</t>
+    </rPh>
+    <rPh sb="1191" eb="1193">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="1253" eb="1255">
+      <t>カツドウ</t>
+    </rPh>
+    <rPh sb="1255" eb="1257">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="1258" eb="1260">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="1264" eb="1266">
       <t>セッテイ</t>
     </rPh>
     <phoneticPr fontId="2"/>
@@ -3108,7 +3129,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D077C58-5FEC-48A5-A5C6-05E88FEFA561}">
   <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
@@ -3217,7 +3240,7 @@
     <row r="13" spans="1:4" s="21" customFormat="1" ht="409.5">
       <c r="A13" s="1"/>
       <c r="B13" s="24" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="C13" s="25"/>
       <c r="D13" s="26"/>
@@ -3258,55 +3281,55 @@
     <row r="18" spans="1:2" s="21" customFormat="1">
       <c r="A18" s="1"/>
       <c r="B18" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="19" spans="1:2" s="21" customFormat="1">
       <c r="A19" s="1"/>
       <c r="B19" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1"/>
       <c r="B20" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1"/>
       <c r="B21" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="22" spans="1:2" s="21" customFormat="1">
       <c r="A22" s="1"/>
       <c r="B22" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="168.75">
       <c r="A23" s="1"/>
       <c r="B23" s="11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="75">
       <c r="A24" s="1"/>
       <c r="B24" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="56.25">
       <c r="A25" s="1"/>
       <c r="B25" s="11" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="56.25">
       <c r="A26" s="1"/>
       <c r="B26" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -4593,24 +4616,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <SharedWithUsers xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="f2582d4f-4605-4da6-a8d6-8d696d30c27c">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100AFAE8A2D61E2864A87743AC8EBD33013" ma:contentTypeVersion="17" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="131c1c820a00e4fca6ce65346d03e485">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="f2582d4f-4605-4da6-a8d6-8d696d30c27c" xmlns:ns3="c1e6ffc9-f5b9-4159-9447-bea3a992def6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="555fe79fdee1cb282876e6f1e8fa0f7e" ns2:_="" ns3:_="">
     <xsd:import namespace="f2582d4f-4605-4da6-a8d6-8d696d30c27c"/>
@@ -4859,6 +4864,24 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <SharedWithUsers xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="f2582d4f-4605-4da6-a8d6-8d696d30c27c">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -4869,17 +4892,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A965309B-2D00-4C69-AAF2-00F76E145C17}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="c1e6ffc9-f5b9-4159-9447-bea3a992def6"/>
-    <ds:schemaRef ds:uri="f2582d4f-4605-4da6-a8d6-8d696d30c27c"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{61B073EA-019B-49F1-927B-E5A470D8398D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4898,6 +4910,17 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A965309B-2D00-4C69-AAF2-00F76E145C17}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="c1e6ffc9-f5b9-4159-9447-bea3a992def6"/>
+    <ds:schemaRef ds:uri="f2582d4f-4605-4da6-a8d6-8d696d30c27c"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A3B1469-BE58-4E2A-BFC6-1F894EC8921D}">
   <ds:schemaRefs>

--- a/revref_test.xlsx
+++ b/revref_test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\72446246\Documents\wk\業務関連資料\LMS\70.逆引きマニュアル作成\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D431117-CE5F-4135-9638-3A3032535A1D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{554A6061-4456-44B9-8DF0-6FBA1FF9EF22}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7605" firstSheet="1" activeTab="1" xr2:uid="{5CD9017C-176B-471B-A8A0-D3A2BE76D3A3}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7605" firstSheet="1" activeTab="3" xr2:uid="{5CD9017C-176B-471B-A8A0-D3A2BE76D3A3}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="8" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="75">
   <si>
     <t>header1</t>
   </si>
@@ -301,19 +301,6 @@
       <t>サクセイ</t>
     </rPh>
     <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>&lt;h4&gt;&lt;a name="quiz_kizyutu"&gt;記述問題&lt;/a&gt;&lt;/h4&gt;</t>
-  </si>
-  <si>
-    <t>設定項目を入力します
-&lt;ul&gt;
-&lt;li&gt;&lt;b&gt;問題名：&lt;/b&gt;問題の名称を入力します&lt;/li&gt;
-&lt;li&gt;&lt;b&gt;問題テキスト：&lt;/b&gt;「次のうち、正しいものを選びなさい。」などの、問題文を入力します&lt;/li&gt;
-&lt;li&gt;&lt;b&gt;デフォルト評点：&lt;/b&gt;この問題に正解したときに得られる得点を入力します&lt;/li&gt;
-&lt;li&gt;&lt;b&gt;全体に対するフィードバック：&lt;/b&gt;解答後に表示されるフィードバックを入力します&lt;/li&gt;
-&lt;li&gt;&lt;b&gt;大文字小文字の区別：&lt;/b&gt;解答欄に入力された文字の、大文字小文字の区別をするかどうかを選択します&lt;/li&gt;
-&lt;/ul&gt;</t>
   </si>
   <si>
     <t xml:space="preserve">編集モードを開始し、小テストを作成したいセクションのリンクをクリックし表示されたページの「+ 活動またはリソースを追加する」をクリックします
@@ -339,28 +326,6 @@
     <t>「小テストの編集」画面で、問題が追加されていることを確認します</t>
   </si>
   <si>
-    <t xml:space="preserve"> 「追加する問題タイプを選択する」ダイアログボックスで、「記述問題」を選択し、「追加」ボタンをクリックします</t>
-  </si>
-  <si>
-    <t>正解を入力します
-&lt;ul&gt;
-&lt;li&gt;&lt;b&gt;答え：&lt;/b&gt;正解の文章を入力します。文章が複数パターン考えられる場合には、「答え 2」や「答え 3」など、複数の欄に分けて入力してください。&lt;/li&gt;
-&lt;li&gt;&lt;b&gt;評点：&lt;/b&gt;この選択肢を選んだ時に得られる評点を「デフォルト評点」に対するパーセントで指定します。
-例えば、「デフォルト評点」が 1 点の場合、ここを「100％」にしておくと、この選択肢を選んだときには 1 点になります&lt;/li&gt;
-&lt;li&gt;&lt;b&gt;フィードバッグ：&lt;/b&gt;この選択肢を選んだ場合に表示するフィードバックを入力します。&lt;/li&gt;
-&lt;small&gt;※ 入力欄が足りない場合は、「さらに 3 個の答え入力欄を追加する」をクリックしてください。&lt;/small&gt;
-&lt;/ul&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 必要に応じて複数受験を設定します
-&lt;ul&gt;
-&lt;li&gt;&lt;b&gt;それぞれの不正解に対するペナルティ：&lt;/b&gt;小テスト全体の設定をしたとき、「問題の挙動」の「問題動作」で複数回の受験ができるようにしていた場合、ここで、不正解に対する減点の割合をパーセントで設定します。&lt;/li&gt;
-&lt;small&gt;※不正解を重ねて評点よりも減点が大きくなっても、マイナスの得点になることはありません。&lt;/small&gt;
-&lt;li&gt;&lt;b&gt;ヒント：&lt;/b&gt;小テスト全体の設定をしたとき、「問題の挙動」の「問題動作」で「複数受験インタラクティブ」を選択していた場合、不正解のときに表示するヒントを入力します。学生は入力したヒントの数と同じ回数まで再受験できます。&lt;/li&gt;
-&lt;small&gt;※ ヒントの入力欄が足りないときは、「別のヒントを追加する」ボタンをクリックしてください。&lt;/small&gt;
-&lt;/ul&gt;</t>
-  </si>
-  <si>
     <t>必要な設定が完了したら、「変更を保存する」ボタンをクリックします</t>
   </si>
   <si>
@@ -471,6 +436,1756 @@
     </rPh>
     <rPh sb="11" eb="13">
       <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">&lt;ul&gt;
+&lt;li&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>&lt;b&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>「タイミング」</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>&lt;/b&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>は日時制限を設定することができます
+デフォルトは</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>&lt;u&gt;何も</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>設定されていません</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>&lt;/u&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">
+受験可能期間や制限時間を設けたい場合は設定してください&lt;/li&gt;
+&lt;li&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>&lt;b&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>「評定」</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>&lt;/b&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>は評定に関する設定をすることができます
+デフォルトでは</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>&lt;u&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>合格点の設定はなし</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>&lt;/u&gt;で</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>&lt;u&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>無制限で受験可能</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>&lt;/u&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>になっています
+また、複数回受験した中の</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>&lt;b&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>最高評点を評定する</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>&lt;/b&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">ように設定されています
+&lt;/li&gt;
+&lt;li&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>&lt;b&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>「レイアウト」</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>&lt;/b&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>は表示する問題数や問題のスキップ禁止を設定することができます
+デフォルトでは</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">&lt;u&gt;1ページに1問ごと表示される&lt;/u&gt;設定になっています
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>「ナビゲーションメソッド」が「</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>フリー」となっているため、学生は小テストを順番に受ける必要がなく&lt;u&gt;前の問題ページに戻ったり、問題をスキップすることができるように設定&lt;/u&gt;されています</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">
+&lt;/li&gt;
+&lt;li&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>&lt;b&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>「問題の挙動」</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>&lt;/b&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>は問題のシャッフルや複数回解答等を設定することができます
+デフォルトで問題のシャッフル設定は「</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>Yesとなっているため」各問題でシャッフルオプションを「有効」に設定すれば、受験するたびに&lt;u&gt;選択肢をシャッフル&lt;/u&gt;することができます
+問題動作は「遅延フィードバック」が設定されており、これは採点やフィードバックを受ける前に、&lt;u&gt;各問題への回答を入力してから、問題全体を提出&lt;/u&gt;するようになっています</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">
+&lt;/li&gt;
+&lt;li&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>&lt;b&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>「レビューオプション」</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>&lt;/b&gt;は</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>学生に公開する結果情報とタイミングを設定することができます
+デフォルトでは学生は</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>&lt;u&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>受験直後から小テストがクローズされても問題や結果情報を閲覧することができる</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>&lt;/u&gt;ように設定されています</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">
+&lt;/li&gt;
+&lt;li&gt;
+&lt;b&gt;「アピアランス」&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>b&gt;は小テストの表示に関する設定をすることができます
+デフォルトでは評点の小数位は「</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>2」で設定されています</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">
+&lt;/li&gt;
+&lt;li&gt;
+&lt;b&gt;「受験に関する特別制限」&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>b&gt;はパスワードやIPアドレスによる制限を設定することができます&lt;/li&gt;
+デフォルトは&lt;u&gt;何も設定されていません&lt;/u&gt;
+&lt;li&gt;
+&lt;b&gt;「全体フィードバック」&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>b&gt;は受験終了後に表示するテキストを指定することができます&lt;/li&gt;
+デフォルトは&lt;u&gt;何も設定されていません&lt;/u&gt;
+&lt;li&gt;
+&lt;b&gt;「モジュール共通設定」&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>b&gt;はコースページへの表示や言語の強制などを設定することができます&lt;/li&gt;
+デフォルトで&lt;u&gt;コースページに表示する&lt;/u&gt;ように設定されています
+作成中などで表示させたくない場合は、ここでコースページに表示しないように設定を変更することができます
+&lt;li&gt;
+&lt;b&gt;「利用制限」&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>b&gt;はアクセス制限を設定することができます
+デフォルトは&lt;u&gt;何も設定されていません&lt;/u&gt;
+&lt;/li&gt;
+&lt;li&gt;
+&lt;b&gt;「活動完了」&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>b&gt;は活動完了を管理するかを設定することができます
+デフォルトは&lt;u&gt;何も設定されていません&lt;/u&gt;
+&lt;/li&gt;
+&lt;ul&gt;</t>
+    </r>
+    <rPh sb="51" eb="52">
+      <t>ナニ</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="67" eb="69">
+      <t>ジュケン</t>
+    </rPh>
+    <rPh sb="69" eb="71">
+      <t>カノウ</t>
+    </rPh>
+    <rPh sb="71" eb="73">
+      <t>キカン</t>
+    </rPh>
+    <rPh sb="74" eb="78">
+      <t>セイゲンジカン</t>
+    </rPh>
+    <rPh sb="79" eb="80">
+      <t>モウ</t>
+    </rPh>
+    <rPh sb="83" eb="85">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="86" eb="88">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="146" eb="149">
+      <t>ゴウカクテン</t>
+    </rPh>
+    <rPh sb="150" eb="152">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="164" eb="167">
+      <t>ムセイゲン</t>
+    </rPh>
+    <rPh sb="168" eb="170">
+      <t>ジュケン</t>
+    </rPh>
+    <rPh sb="170" eb="172">
+      <t>カノウ</t>
+    </rPh>
+    <rPh sb="187" eb="190">
+      <t>フクスウカイ</t>
+    </rPh>
+    <rPh sb="190" eb="192">
+      <t>ジュケン</t>
+    </rPh>
+    <rPh sb="194" eb="195">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="199" eb="201">
+      <t>サイコウ</t>
+    </rPh>
+    <rPh sb="201" eb="203">
+      <t>ヒョウテン</t>
+    </rPh>
+    <rPh sb="204" eb="206">
+      <t>ヒョウテイ</t>
+    </rPh>
+    <rPh sb="215" eb="217">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="296" eb="297">
+      <t>モン</t>
+    </rPh>
+    <rPh sb="299" eb="301">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="308" eb="310">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="349" eb="350">
+      <t>ショウ</t>
+    </rPh>
+    <rPh sb="354" eb="356">
+      <t>ジュンバン</t>
+    </rPh>
+    <rPh sb="357" eb="358">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="360" eb="362">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="368" eb="369">
+      <t>マエ</t>
+    </rPh>
+    <rPh sb="370" eb="372">
+      <t>モンダイ</t>
+    </rPh>
+    <rPh sb="376" eb="377">
+      <t>モド</t>
+    </rPh>
+    <rPh sb="381" eb="383">
+      <t>モンダイ</t>
+    </rPh>
+    <rPh sb="399" eb="401">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="472" eb="474">
+      <t>モンダイ</t>
+    </rPh>
+    <rPh sb="480" eb="482">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="496" eb="499">
+      <t>カクモンダイ</t>
+    </rPh>
+    <rPh sb="512" eb="514">
+      <t>ユウコウ</t>
+    </rPh>
+    <rPh sb="516" eb="518">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="522" eb="524">
+      <t>ジュケン</t>
+    </rPh>
+    <rPh sb="532" eb="535">
+      <t>センタクシ</t>
+    </rPh>
+    <rPh sb="555" eb="557">
+      <t>モンダイ</t>
+    </rPh>
+    <rPh sb="557" eb="559">
+      <t>ドウサ</t>
+    </rPh>
+    <rPh sb="561" eb="563">
+      <t>チエン</t>
+    </rPh>
+    <rPh sb="572" eb="574">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="708" eb="710">
+      <t>ガクセイ</t>
+    </rPh>
+    <rPh sb="714" eb="716">
+      <t>ジュケン</t>
+    </rPh>
+    <rPh sb="716" eb="718">
+      <t>チョクゴ</t>
+    </rPh>
+    <rPh sb="720" eb="721">
+      <t>ショウ</t>
+    </rPh>
+    <rPh sb="733" eb="735">
+      <t>モンダイ</t>
+    </rPh>
+    <rPh sb="736" eb="738">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="738" eb="740">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="741" eb="743">
+      <t>エツラン</t>
+    </rPh>
+    <rPh sb="758" eb="760">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="825" eb="827">
+      <t>ヒョウテン</t>
+    </rPh>
+    <rPh sb="828" eb="830">
+      <t>ショウスウ</t>
+    </rPh>
+    <rPh sb="830" eb="831">
+      <t>クライ</t>
+    </rPh>
+    <rPh sb="836" eb="838">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="1049" eb="1051">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="1052" eb="1054">
+      <t>ゲンゴ</t>
+    </rPh>
+    <rPh sb="1055" eb="1057">
+      <t>キョウセイ</t>
+    </rPh>
+    <rPh sb="1060" eb="1062">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="1093" eb="1095">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="1104" eb="1106">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="1113" eb="1116">
+      <t>サクセイチュウ</t>
+    </rPh>
+    <rPh sb="1119" eb="1121">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="1127" eb="1129">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="1141" eb="1143">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="1149" eb="1151">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="1152" eb="1154">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="1188" eb="1190">
+      <t>セイゲン</t>
+    </rPh>
+    <rPh sb="1191" eb="1193">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="1253" eb="1255">
+      <t>カツドウ</t>
+    </rPh>
+    <rPh sb="1255" eb="1257">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="1258" eb="1260">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="1264" eb="1266">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">&lt;ul&gt;
+&lt;li&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>&lt;b&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>「タイミング」</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>&lt;/b&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>は日時制限を設定することができます
+デフォルトは</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>&lt;u&gt;何も</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>設定されていません</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>&lt;/u&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">
+受験可能期間や制限時間を設けたい場合は設定してください&lt;/li&gt;
+&lt;li&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>&lt;b&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>「評定」</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>&lt;/b&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>は評定に関する設定をすることができます
+デフォルトでは</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>&lt;u&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>合格点の設定はなし</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>&lt;/u&gt;で</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>&lt;u&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>無制限で受験可能</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>&lt;/u&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>になっています
+また、複数回受験した中の</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>&lt;b&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>最高評点を評定する</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>&lt;/b&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">ように設定されています
+&lt;/li&gt;
+&lt;li&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>&lt;b&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>「レイアウト」</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>&lt;/b&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>は表示する問題数や問題のスキップ禁止を設定することができます
+デフォルトでは</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">&lt;u&gt;1ページに1問ごと表示される&lt;/u&gt;設定になっています
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>「ナビゲーションメソッド」が「</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>フリー」となっているため、学生は小テストを順番に受ける必要がなく&lt;u&gt;前の問題ページに戻ったり、問題をスキップすることができるように設定&lt;/u&gt;されています</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">
+&lt;/li&gt;
+&lt;li&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>&lt;b&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>「問題の挙動」</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>&lt;/b&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>は問題のシャッフルや複数回解答等を設定することができます
+デフォルトで</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>問題動作は「遅延フィードバック」が設定されており、これは採点やフィードバックを受ける前に、&lt;u&gt;各問題への回答を入力してから、問題全体を提出&lt;/u&gt;するようになっています</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">
+&lt;/li&gt;
+&lt;li&gt;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>&lt;b&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>「レビューオプション」</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>&lt;/b&gt;は</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>学生に公開する結果情報とタイミングを設定することができます
+デフォルトでは学生は</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>&lt;u&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>受験直後から小テストがクローズされても問題や結果情報を閲覧することができる</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>&lt;/u&gt;ように設定されています</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">
+&lt;/li&gt;
+&lt;li&gt;
+&lt;b&gt;「アピアランス」&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>b&gt;は小テストの表示に関する設定をすることができます
+デフォルトでは評点の小数位は「</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>2」で設定されています</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">
+&lt;/li&gt;
+&lt;li&gt;
+&lt;b&gt;「受験に関する特別制限」&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>b&gt;はパスワードやIPアドレスによる制限を設定することができます&lt;/li&gt;
+デフォルトは&lt;u&gt;何も設定されていません&lt;/u&gt;
+&lt;li&gt;
+&lt;b&gt;「全体フィードバック」&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>b&gt;は受験終了後に表示するテキストを指定することができます&lt;/li&gt;
+デフォルトは&lt;u&gt;何も設定されていません&lt;/u&gt;
+&lt;li&gt;
+&lt;b&gt;「モジュール共通設定」&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>b&gt;はコースページへの表示や言語の強制などを設定することができます&lt;/li&gt;
+デフォルトで&lt;u&gt;コースページに表示する&lt;/u&gt;ように設定されています
+作成中などで表示させたくない場合は、ここでコースページに表示しないように設定を変更することができます
+&lt;li&gt;
+&lt;b&gt;「利用制限」&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>b&gt;はアクセス制限を設定することができます
+デフォルトは&lt;u&gt;何も設定されていません&lt;/u&gt;
+&lt;/li&gt;
+&lt;li&gt;
+&lt;b&gt;「活動完了」&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>b&gt;は活動完了を管理するかを設定することができます
+デフォルトは&lt;u&gt;何も設定されていません&lt;/u&gt;
+&lt;/li&gt;
+&lt;ul&gt;</t>
+    </r>
+    <rPh sb="51" eb="52">
+      <t>ナニ</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="67" eb="69">
+      <t>ジュケン</t>
+    </rPh>
+    <rPh sb="69" eb="71">
+      <t>カノウ</t>
+    </rPh>
+    <rPh sb="71" eb="73">
+      <t>キカン</t>
+    </rPh>
+    <rPh sb="74" eb="78">
+      <t>セイゲンジカン</t>
+    </rPh>
+    <rPh sb="79" eb="80">
+      <t>モウ</t>
+    </rPh>
+    <rPh sb="83" eb="85">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="86" eb="88">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="146" eb="149">
+      <t>ゴウカクテン</t>
+    </rPh>
+    <rPh sb="150" eb="152">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="164" eb="167">
+      <t>ムセイゲン</t>
+    </rPh>
+    <rPh sb="168" eb="170">
+      <t>ジュケン</t>
+    </rPh>
+    <rPh sb="170" eb="172">
+      <t>カノウ</t>
+    </rPh>
+    <rPh sb="187" eb="190">
+      <t>フクスウカイ</t>
+    </rPh>
+    <rPh sb="190" eb="192">
+      <t>ジュケン</t>
+    </rPh>
+    <rPh sb="194" eb="195">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="199" eb="201">
+      <t>サイコウ</t>
+    </rPh>
+    <rPh sb="201" eb="203">
+      <t>ヒョウテン</t>
+    </rPh>
+    <rPh sb="204" eb="206">
+      <t>ヒョウテイ</t>
+    </rPh>
+    <rPh sb="215" eb="217">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="296" eb="297">
+      <t>モン</t>
+    </rPh>
+    <rPh sb="299" eb="301">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="308" eb="310">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="349" eb="350">
+      <t>ショウ</t>
+    </rPh>
+    <rPh sb="354" eb="356">
+      <t>ジュンバン</t>
+    </rPh>
+    <rPh sb="357" eb="358">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="360" eb="362">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="368" eb="369">
+      <t>マエ</t>
+    </rPh>
+    <rPh sb="370" eb="372">
+      <t>モンダイ</t>
+    </rPh>
+    <rPh sb="376" eb="377">
+      <t>モド</t>
+    </rPh>
+    <rPh sb="381" eb="383">
+      <t>モンダイ</t>
+    </rPh>
+    <rPh sb="399" eb="401">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="472" eb="474">
+      <t>モンダイ</t>
+    </rPh>
+    <rPh sb="474" eb="476">
+      <t>ドウサ</t>
+    </rPh>
+    <rPh sb="478" eb="480">
+      <t>チエン</t>
+    </rPh>
+    <rPh sb="489" eb="491">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="625" eb="627">
+      <t>ガクセイ</t>
+    </rPh>
+    <rPh sb="631" eb="633">
+      <t>ジュケン</t>
+    </rPh>
+    <rPh sb="633" eb="635">
+      <t>チョクゴ</t>
+    </rPh>
+    <rPh sb="637" eb="638">
+      <t>ショウ</t>
+    </rPh>
+    <rPh sb="650" eb="652">
+      <t>モンダイ</t>
+    </rPh>
+    <rPh sb="653" eb="655">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="655" eb="657">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="658" eb="660">
+      <t>エツラン</t>
+    </rPh>
+    <rPh sb="675" eb="677">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="742" eb="744">
+      <t>ヒョウテン</t>
+    </rPh>
+    <rPh sb="745" eb="747">
+      <t>ショウスウ</t>
+    </rPh>
+    <rPh sb="747" eb="748">
+      <t>クライ</t>
+    </rPh>
+    <rPh sb="753" eb="755">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="966" eb="968">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="969" eb="971">
+      <t>ゲンゴ</t>
+    </rPh>
+    <rPh sb="972" eb="974">
+      <t>キョウセイ</t>
+    </rPh>
+    <rPh sb="977" eb="979">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="1010" eb="1012">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="1021" eb="1023">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="1030" eb="1033">
+      <t>サクセイチュウ</t>
+    </rPh>
+    <rPh sb="1036" eb="1038">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="1044" eb="1046">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="1058" eb="1060">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="1066" eb="1068">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="1069" eb="1071">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="1105" eb="1107">
+      <t>セイゲン</t>
+    </rPh>
+    <rPh sb="1108" eb="1110">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="1170" eb="1172">
+      <t>カツドウ</t>
+    </rPh>
+    <rPh sb="1172" eb="1174">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="1175" eb="1177">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="1181" eb="1183">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;h3&gt;記述問題の作成&lt;/h3&gt;</t>
+    <rPh sb="9" eb="11">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 「追加する問題タイプを選択する」ダイアログボックスで、「記述問題」を選択し、「追加」をクリックします</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「問題名」と「問題テキスト」を入力します</t>
+    <rPh sb="7" eb="9">
+      <t>モンダイ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -481,7 +2196,14 @@
 &lt;li&gt;&lt;b&gt;「単一または複数解答？」&lt;/b&gt;は答えを 1 つだけ選べるようにするか、複数の答えを選べるようにするかを選択します&lt;/li&gt;
 &lt;li&gt;&lt;b&gt;「選択肢に番号付けしますか？」&lt;/b&gt;は選択肢への番号付けで好みの形式を選択してください
 デフォルトでは「1.2.3.」と付くように設定されています&lt;/li&gt;
-&lt;li&gt;&lt;b&gt;「標準インストラクションを表示する」&lt;/b&gt;は多肢選択解答の前に「1 つを選択する」または「１つまたはそれ以上を選択する」のインストラクションを表示するか選択できます。&lt;/li&gt;</t>
+&lt;li&gt;&lt;b&gt;「標準インストラクションを表示する」&lt;/b&gt;は多肢選択解答の前に「1 つを選択する」または「１つまたはそれ以上を選択する」のインストラクションを表示するか選択できます。&lt;/li&gt;
+&lt;li&gt;&lt;b&gt;「答え」&lt;/b&gt;に選択肢と評点を設定します
+&lt;b&gt;「フィードバック」&lt;/b&gt;はこの選択肢を選んだ場合に表示したい内容に入力します
+&lt;small&gt;※ 選択肢の入力欄が足りない場合は、「さらに 3 件の選択肢入力欄を追加する」ボタンをクリックしてください。&lt;/small&gt;&lt;/li&gt;
+ &lt;li&gt;&lt;b&gt;「総合フィードバック」&lt;/b&gt;は正答、部分的に正しい解答、不正解の3パターンで表示するフィードバックを設定することができます
+デフォルトメッセージが設定されています&lt;/li&gt;
+&lt;li&gt;&lt;b&gt;「複数受験」&lt;/b&gt;は複数受験としている場合、不正解に対する減点の割合やヒントの設定をすることができます&lt;/li&gt;
+&lt;/ul&gt;</t>
     <rPh sb="208" eb="211">
       <t>センタクシ</t>
     </rPh>
@@ -494,949 +2216,217 @@
     <rPh sb="254" eb="256">
       <t>セッテイ</t>
     </rPh>
+    <rPh sb="428" eb="430">
+      <t>ナイヨウ</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>&lt;li&gt;&lt;b&gt;「答え」&lt;/b&gt;に選択肢と評点を設定します
-&lt;b&gt;「フィードバック」&lt;/b&gt;はこの選択肢を選んだ場合に何か表示したい場合に入力します
-&lt;small&gt;※ 選択肢の入力欄が足りない場合は、「さらに 3 件の選択肢入力欄を追加する」ボタンをクリックしてください。&lt;/small&gt;&lt;/li&gt;</t>
-    <rPh sb="8" eb="9">
+    <t>&lt;ul&gt;
+&lt;li&gt;&lt;b&gt;「デフォルト評点」&lt;/b&gt;はこの問題に正解したときに得られる得点を入力します&lt;/li&gt;
+&lt;li&gt;&lt;b&gt;「全体に対するフィードバック」&lt;/b&gt;は解答後に表示されるフィードバックを入力します&lt;/li&gt;
+&lt;li&gt;&lt;b&gt;「大文字小文字の区別」&lt;/b&gt;は答えの大文字小文字を区別するかを設定できます
+デフォルトでは区別しないように設定しています&lt;/li&gt;
+&lt;li&gt;&lt;b&gt;「答え」&lt;/b&gt;に答えと評点を設定します
+「*」はどのような文字にでも合致するワイルドカードとして使用することができます
+例えば、「答え」を「広島*」とした場合、「広島県」「広島市」「広島大学」どれもあてはまります
+&lt;b&gt;「フィードバック」&lt;/b&gt;はこの答えを記述した場合に何か表示したい内容を入力します
+&lt;small&gt;※ 選択肢の入力欄が足りない場合は、「さらに 3 件の入力欄を追加する」ボタンをクリックしてください。&lt;/small&gt;&lt;/li&gt;
+&lt;li&gt;&lt;b&gt;「複数受験」&lt;/b&gt;は複数受験としている場合、不正解に対する減点の割合やヒントの設定をすることができます&lt;/li&gt;
+&lt;/ul&gt;</t>
+    <rPh sb="134" eb="135">
       <t>コタ</t>
     </rPh>
-    <rPh sb="16" eb="19">
-      <t>センタクシ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>ヒョウテン</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="58" eb="59">
-      <t>ナニ</t>
-    </rPh>
-    <rPh sb="65" eb="67">
-      <t>バアイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> &lt;li&gt;&lt;b&gt;「総合フィードバック」&lt;/b&gt;は正答、部分的に正しい解答、不正解の3パターンで表示するフィードバックを設定することができます
-デフォルトメッセージが設定されています&lt;/li&gt;</t>
-    <rPh sb="24" eb="26">
-      <t>セイトウ</t>
-    </rPh>
-    <rPh sb="27" eb="30">
-      <t>ブブンテキ</t>
-    </rPh>
-    <rPh sb="31" eb="32">
-      <t>タダ</t>
-    </rPh>
-    <rPh sb="34" eb="36">
-      <t>カイトウ</t>
-    </rPh>
-    <rPh sb="37" eb="40">
-      <t>フセイカイ</t>
-    </rPh>
-    <rPh sb="47" eb="49">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="59" eb="61">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="82" eb="84">
-      <t>セッテイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>&lt;li&gt;&lt;b&gt;「複数受験」&lt;/b&gt;は複数受験としている場合、不正解に対する減点の割合やヒントの設定をすることができます&lt;/li&gt;
-&lt;/ul&gt;</t>
-    <rPh sb="18" eb="22">
-      <t>フクスウジュケン</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="47" eb="49">
-      <t>セッテイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">&lt;ul&gt;
-&lt;li&gt;
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>&lt;b&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック "/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>「タイミング」</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>&lt;/b&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック "/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>は日時制限を設定することができます
-デフォルトは</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>&lt;u&gt;何も</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック "/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>設定されていません</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>&lt;/u&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック "/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">
-受験可能期間や制限時間を設けたい場合は設定してください&lt;/li&gt;
-&lt;li&gt;
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>&lt;b&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック "/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>「評定」</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>&lt;/b&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック "/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>は評定に関する設定をすることができます
-デフォルトでは</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>&lt;u&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック "/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>合格点の設定はなし</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>&lt;/u&gt;で</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック "/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>&lt;u&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック "/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>無制限で受験可能</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>&lt;/u&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック "/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>になっています
-また、複数回受験した中の</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>&lt;b&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック "/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>最高評点を評定する</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>&lt;/b&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック "/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">ように設定されています
-&lt;/li&gt;
-&lt;li&gt;
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>&lt;b&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック "/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>「レイアウト」</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>&lt;/b&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック "/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>は表示する問題数や問題のスキップ禁止を設定することができます
-デフォルトでは</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">&lt;u&gt;1ページに1問ごと表示される&lt;/u&gt;設定になっています
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック "/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>「ナビゲーションメソッド」が「</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>フリー」となっているため、学生は小テストを順番に受ける必要がなく&lt;u&gt;前の問題ページに戻ったり、問題をスキップすることができるように設定&lt;/u&gt;されています</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック "/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">
-&lt;/li&gt;
-&lt;li&gt;
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>&lt;b&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック "/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>「問題の挙動」</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>&lt;/b&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック "/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>は問題のシャッフルや複数回解答等を設定することができます
-デフォルトで問題のシャッフル設定は「</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>Yesとなっているため」各問題でシャッフルオプションを「有効」に設定すれば、受験するたびに&lt;u&gt;選択肢をシャッフル&lt;/u&gt;することができます
-問題動作は「遅延フィードバック」が設定されており、これは採点やフィードバックを受ける前に、&lt;u&gt;各問題への回答を入力してから、問題全体を提出&lt;/u&gt;するようになっています</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック "/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">
-&lt;/li&gt;
-&lt;li&gt;
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>&lt;b&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック "/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>「レビューオプション」</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>&lt;/b&gt;は</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック "/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>学生に公開する結果情報とタイミングを設定することができます
-デフォルトでは学生は</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>&lt;u&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック "/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>受験直後から小テストがクローズされても問題や結果情報を閲覧することができる</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>&lt;/u&gt;ように設定されています</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック "/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">
-&lt;/li&gt;
-&lt;li&gt;
-&lt;b&gt;「アピアランス」&lt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック "/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>b&gt;は小テストの表示に関する設定をすることができます
-デフォルトでは評点の小数位は「</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>2」で設定されています</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック "/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">
-&lt;/li&gt;
-&lt;li&gt;
-&lt;b&gt;「受験に関する特別制限」&lt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック "/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>b&gt;はパスワードやIPアドレスによる制限を設定することができます&lt;/li&gt;
-デフォルトは&lt;u&gt;何も設定されていません&lt;/u&gt;
-&lt;li&gt;
-&lt;b&gt;「全体フィードバック」&lt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック "/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>b&gt;は受験終了後に表示するテキストを指定することができます&lt;/li&gt;
-デフォルトは&lt;u&gt;何も設定されていません&lt;/u&gt;
-&lt;li&gt;
-&lt;b&gt;「モジュール共通設定」&lt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック "/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>b&gt;はコースページへの表示や言語の強制などを設定することができます&lt;/li&gt;
-デフォルトで&lt;u&gt;コースページに表示する&lt;/u&gt;ように設定されています
-作成中などで表示させたくない場合は、ここでコースページに表示しないように設定を変更することができます
-&lt;li&gt;
-&lt;b&gt;「利用制限」&lt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック "/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>b&gt;はアクセス制限を設定することができます
-デフォルトは&lt;u&gt;何も設定されていません&lt;/u&gt;
-&lt;/li&gt;
-&lt;li&gt;
-&lt;b&gt;「活動完了」&lt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック "/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>b&gt;は活動完了を管理するかを設定することができます
-デフォルトは&lt;u&gt;何も設定されていません&lt;/u&gt;
-&lt;/li&gt;
-&lt;ul&gt;</t>
-    </r>
-    <rPh sb="51" eb="52">
-      <t>ナニ</t>
-    </rPh>
-    <rPh sb="53" eb="55">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="67" eb="69">
-      <t>ジュケン</t>
-    </rPh>
-    <rPh sb="69" eb="71">
-      <t>カノウ</t>
-    </rPh>
-    <rPh sb="71" eb="73">
-      <t>キカン</t>
-    </rPh>
-    <rPh sb="74" eb="78">
-      <t>セイゲンジカン</t>
-    </rPh>
-    <rPh sb="79" eb="80">
-      <t>モウ</t>
-    </rPh>
-    <rPh sb="83" eb="85">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="86" eb="88">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="146" eb="149">
-      <t>ゴウカクテン</t>
+    <rPh sb="137" eb="140">
+      <t>オオモジ</t>
+    </rPh>
+    <rPh sb="140" eb="143">
+      <t>コモジ</t>
+    </rPh>
+    <rPh sb="144" eb="146">
+      <t>クベツ</t>
     </rPh>
     <rPh sb="150" eb="152">
       <t>セッテイ</t>
     </rPh>
-    <rPh sb="164" eb="167">
-      <t>ムセイゲン</t>
-    </rPh>
-    <rPh sb="168" eb="170">
-      <t>ジュケン</t>
-    </rPh>
-    <rPh sb="170" eb="172">
-      <t>カノウ</t>
-    </rPh>
-    <rPh sb="187" eb="190">
-      <t>フクスウカイ</t>
-    </rPh>
-    <rPh sb="190" eb="192">
-      <t>ジュケン</t>
-    </rPh>
-    <rPh sb="194" eb="195">
-      <t>ナカ</t>
-    </rPh>
-    <rPh sb="199" eb="201">
-      <t>サイコウ</t>
-    </rPh>
-    <rPh sb="201" eb="203">
+    <rPh sb="164" eb="166">
+      <t>クベツ</t>
+    </rPh>
+    <rPh sb="172" eb="174">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="201" eb="202">
+      <t>コタ</t>
+    </rPh>
+    <rPh sb="253" eb="254">
+      <t>タト</t>
+    </rPh>
+    <rPh sb="258" eb="259">
+      <t>コタ</t>
+    </rPh>
+    <rPh sb="263" eb="265">
+      <t>ヒロシマ</t>
+    </rPh>
+    <rPh sb="270" eb="272">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="274" eb="277">
+      <t>ヒロシマケン</t>
+    </rPh>
+    <rPh sb="279" eb="282">
+      <t>ヒロシマシ</t>
+    </rPh>
+    <rPh sb="284" eb="288">
+      <t>ヒロシマダイガク</t>
+    </rPh>
+    <rPh sb="319" eb="320">
+      <t>コタ</t>
+    </rPh>
+    <rPh sb="322" eb="324">
+      <t>キジュツ</t>
+    </rPh>
+    <rPh sb="336" eb="338">
+      <t>ナイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;h3&gt;穴埋め問題の作成&lt;/h3&gt;</t>
+    <rPh sb="4" eb="6">
+      <t>アナウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「追加する問題タイプを選択する」ダイアログボックスで、「穴埋め問題」を選択し、「追加」をクリックします</t>
+  </si>
+  <si>
+    <t>「小テストの編集」画面で、問題が追加されていることを確認します。</t>
+  </si>
+  <si>
+    <t>&lt;small&gt;※ 穴埋め問題で使用する記号は以下となります。&lt;/small&gt; 
+&lt;table border="1" width="550"&gt;
+    &lt;tr&gt;
+      &lt;td&gt; {} &lt;/td&gt;&lt;td&gt; 問題となる部分全体をくくります&lt;/td&gt;
+    &lt;/tr&gt;
+    &lt;tr&gt;
+      &lt;td&gt; ｛1 (フォーマット先頭の数字) &lt;/td&gt;&lt;td&gt; 問題の比重（配点）を表します&lt;/td&gt;
+    &lt;/tr&gt;
+    &lt;tr&gt;
+      &lt;td&gt; : （半角コロン） &lt;/td&gt;&lt;td&gt; 問題形式をくくります&lt;/td&gt;
+    &lt;/tr&gt;
+    &lt;tr&gt;
+      &lt;td&gt; ~ &lt;/td&gt;&lt;td&gt; 答と答の区切り記号です&lt;/td&gt;
+   &lt;/tr&gt;
+    &lt;tr&gt;
+      &lt;td&gt; # &lt;/td&gt;&lt;td&gt; 答とフィードバックの間を区切ります&lt;/td&gt;
+    &lt;/tr&gt;
+    &lt;tr&gt;
+      &lt;td&gt; =  &lt;/td&gt;&lt;td&gt; 以下に続く答えが正答であることを示します&lt;/td&gt;
+    &lt;/tr&gt;
+  &lt;/table&gt;</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 問題入力後、各空欄に登録した正解や配点の確認のために「問題テキストをデコードおよび確認する」ボタンをクリックします</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>必要に応じて各設定を行います
+&lt;ul&gt;
+&lt;li&gt;&lt;b&gt;それぞれの不正解に対するペナルティ：&lt;/b&gt;小テスト全体の設定をしたとき、「問題の挙動」の「問題動作」で複数回の受験ができるようにしていた場合、ここで、不正解に対する減点の割合をパーセントで設定します。&lt;/li&gt;
+&lt;small&gt;※ 不正解を重ねて評点よりも減点が大きくなっても、マイナスの得点になることはありません。&lt;/small&gt;
+&lt;li&gt;&lt;b&gt;ヒント：&lt;/b&gt;小テスト全体の設定をしたとき、「問題の挙動」の「問題動作」で「複数受験インタラクティブ」を選択していた場合、不正解のときに表示するヒントを入力します。学生は入力したヒントの数と同じ回数まで再受験できます。&lt;/li&gt;
+&lt;small&gt;※ ヒントの入力欄が足りないときは、「別のヒントを追加する」ボタンをクリックしてください。&lt;/small&gt;
+&lt;li&gt;&lt;b&gt;ヒントオプション：&lt;/b&gt;
+&lt;ul&gt;&lt;li&gt;&lt;b&gt;正しくない解答をクリアする：&lt;/b&gt;再受験のとき、前回の解答を表示させないときはチェックします。&lt;/li&gt;
+&lt;li&gt;&lt;b&gt;正答数を表示する：&lt;/b&gt;回答後に、正答数を表示する場合はチェックします。&lt;/li&gt;&lt;/ul&gt;
+&lt;/li&gt;&lt;/ul&gt;</t>
+    <rPh sb="6" eb="7">
+      <t>カク</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;b&gt;「全体に対するフィードバック」&lt;/b&gt;は解答後に表示したい内容を入力します</t>
+    <rPh sb="32" eb="34">
+      <t>ナイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>記述例）
+{1:SHORTANSWER:~%100%犬#正解です}も歩けば棒に当たる
+と入力すると右の画像のような問題が作成されます
+学生は「犬」と解答すると評点の100%が得点に加算されます</t>
+    <rPh sb="0" eb="3">
+      <t>キジュツレイ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="49" eb="50">
+      <t>ミギ</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="57" eb="59">
+      <t>モンダイ</t>
+    </rPh>
+    <rPh sb="60" eb="62">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="67" eb="69">
+      <t>ガクセイ</t>
+    </rPh>
+    <rPh sb="71" eb="72">
+      <t>イヌ</t>
+    </rPh>
+    <rPh sb="74" eb="76">
+      <t>カイトウ</t>
+    </rPh>
+    <rPh sb="79" eb="81">
       <t>ヒョウテン</t>
     </rPh>
-    <rPh sb="204" eb="206">
-      <t>ヒョウテイ</t>
-    </rPh>
-    <rPh sb="215" eb="217">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="296" eb="297">
-      <t>モン</t>
-    </rPh>
-    <rPh sb="299" eb="301">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="308" eb="310">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="349" eb="350">
-      <t>ショウ</t>
-    </rPh>
-    <rPh sb="354" eb="356">
-      <t>ジュンバン</t>
-    </rPh>
-    <rPh sb="357" eb="358">
-      <t>ウ</t>
-    </rPh>
-    <rPh sb="360" eb="362">
-      <t>ヒツヨウ</t>
-    </rPh>
-    <rPh sb="368" eb="369">
-      <t>マエ</t>
-    </rPh>
-    <rPh sb="370" eb="372">
+    <rPh sb="87" eb="89">
+      <t>トクテン</t>
+    </rPh>
+    <rPh sb="90" eb="92">
+      <t>カサン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>test9.png</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;&lt;b&gt;「問題名」&lt;/b&gt;を入力します&lt;/li&gt;
+問題テキストは記号を使用して、穴埋め問題を作成してください</t>
+    <rPh sb="32" eb="34">
       <t>モンダイ</t>
     </rPh>
-    <rPh sb="376" eb="377">
-      <t>モド</t>
-    </rPh>
-    <rPh sb="381" eb="383">
+    <rPh sb="39" eb="41">
+      <t>キゴウ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>アナウ</t>
+    </rPh>
+    <rPh sb="50" eb="52">
       <t>モンダイ</t>
     </rPh>
-    <rPh sb="399" eb="401">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="472" eb="474">
-      <t>モンダイ</t>
-    </rPh>
-    <rPh sb="480" eb="482">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="496" eb="499">
-      <t>カクモンダイ</t>
-    </rPh>
-    <rPh sb="512" eb="514">
-      <t>ユウコウ</t>
-    </rPh>
-    <rPh sb="516" eb="518">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="522" eb="524">
-      <t>ジュケン</t>
-    </rPh>
-    <rPh sb="532" eb="535">
-      <t>センタクシ</t>
-    </rPh>
-    <rPh sb="555" eb="557">
-      <t>モンダイ</t>
-    </rPh>
-    <rPh sb="557" eb="559">
-      <t>ドウサ</t>
-    </rPh>
-    <rPh sb="561" eb="563">
-      <t>チエン</t>
-    </rPh>
-    <rPh sb="572" eb="574">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="708" eb="710">
-      <t>ガクセイ</t>
-    </rPh>
-    <rPh sb="714" eb="716">
-      <t>ジュケン</t>
-    </rPh>
-    <rPh sb="716" eb="718">
-      <t>チョクゴ</t>
-    </rPh>
-    <rPh sb="720" eb="721">
-      <t>ショウ</t>
-    </rPh>
-    <rPh sb="733" eb="735">
-      <t>モンダイ</t>
-    </rPh>
-    <rPh sb="736" eb="738">
-      <t>ケッカ</t>
-    </rPh>
-    <rPh sb="738" eb="740">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="741" eb="743">
-      <t>エツラン</t>
-    </rPh>
-    <rPh sb="758" eb="760">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="825" eb="827">
-      <t>ヒョウテン</t>
-    </rPh>
-    <rPh sb="828" eb="830">
-      <t>ショウスウ</t>
-    </rPh>
-    <rPh sb="830" eb="831">
-      <t>クライ</t>
-    </rPh>
-    <rPh sb="836" eb="838">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="1049" eb="1051">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="1052" eb="1054">
-      <t>ゲンゴ</t>
-    </rPh>
-    <rPh sb="1055" eb="1057">
-      <t>キョウセイ</t>
-    </rPh>
-    <rPh sb="1060" eb="1062">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="1093" eb="1095">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="1104" eb="1106">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="1113" eb="1116">
-      <t>サクセイチュウ</t>
-    </rPh>
-    <rPh sb="1119" eb="1121">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="1127" eb="1129">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="1141" eb="1143">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="1149" eb="1151">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="1152" eb="1154">
-      <t>ヘンコウ</t>
-    </rPh>
-    <rPh sb="1188" eb="1190">
-      <t>セイゲン</t>
-    </rPh>
-    <rPh sb="1191" eb="1193">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="1253" eb="1255">
-      <t>カツドウ</t>
-    </rPh>
-    <rPh sb="1255" eb="1257">
-      <t>カンリョウ</t>
-    </rPh>
-    <rPh sb="1258" eb="1260">
-      <t>カンリ</t>
-    </rPh>
-    <rPh sb="1264" eb="1266">
-      <t>セッテイ</t>
+    <rPh sb="53" eb="55">
+      <t>サクセイ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1539,7 +2529,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1616,6 +2606,9 @@
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2124,7 +3117,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -2154,7 +3147,7 @@
     <row r="7" spans="1:4">
       <c r="A7" s="1"/>
       <c r="B7" s="22" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="6"/>
@@ -2162,7 +3155,7 @@
     <row r="8" spans="1:4">
       <c r="A8" s="1"/>
       <c r="B8" s="23" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="6"/>
@@ -2170,7 +3163,7 @@
     <row r="9" spans="1:4">
       <c r="A9" s="1"/>
       <c r="B9" s="22" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="6"/>
@@ -2178,7 +3171,7 @@
     <row r="10" spans="1:4" ht="27">
       <c r="A10" s="1"/>
       <c r="B10" s="22" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -3127,10 +4120,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D077C58-5FEC-48A5-A5C6-05E88FEFA561}">
-  <dimension ref="A1:D28"/>
+  <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -3186,7 +4179,7 @@
     <row r="8" spans="1:4" ht="40.5">
       <c r="A8" s="1"/>
       <c r="B8" s="12" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C8" s="13" t="s">
         <v>30</v>
@@ -3208,7 +4201,7 @@
     <row r="10" spans="1:4">
       <c r="A10" s="1"/>
       <c r="B10" s="17" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C10" s="19" t="s">
         <v>30</v>
@@ -3220,7 +4213,7 @@
     <row r="11" spans="1:4">
       <c r="A11" s="1"/>
       <c r="B11" s="17" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C11" s="19" t="s">
         <v>30</v>
@@ -3232,7 +4225,7 @@
     <row r="12" spans="1:4">
       <c r="A12" s="1"/>
       <c r="B12" s="18" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C12" s="19"/>
       <c r="D12" s="20"/>
@@ -3240,7 +4233,7 @@
     <row r="13" spans="1:4" s="21" customFormat="1" ht="409.5">
       <c r="A13" s="1"/>
       <c r="B13" s="24" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="C13" s="25"/>
       <c r="D13" s="26"/>
@@ -3260,7 +4253,7 @@
     <row r="15" spans="1:4">
       <c r="A15" s="1"/>
       <c r="B15" s="22" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C15" s="25" t="s">
         <v>30</v>
@@ -3281,65 +4274,47 @@
     <row r="18" spans="1:2" s="21" customFormat="1">
       <c r="A18" s="1"/>
       <c r="B18" s="3" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="19" spans="1:2" s="21" customFormat="1">
       <c r="A19" s="1"/>
       <c r="B19" s="3" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1"/>
       <c r="B20" s="2" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1"/>
       <c r="B21" s="2" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="22" spans="1:2" s="21" customFormat="1">
       <c r="A22" s="1"/>
       <c r="B22" s="3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="168.75">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="356.25">
       <c r="A23" s="1"/>
       <c r="B23" s="11" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="75">
-      <c r="A24" s="1"/>
-      <c r="B24" s="11" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="56.25">
-      <c r="A25" s="1"/>
-      <c r="B25" s="11" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="56.25">
-      <c r="A26" s="1"/>
-      <c r="B26" s="11" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="B27" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="B28" s="2" t="s">
-        <v>47</v>
+    <row r="24" spans="1:2">
+      <c r="B24" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="B25" s="2" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -3803,10 +4778,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFABB89B-389D-4E53-86E8-1C489CE9D7CA}">
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16:B22"/>
+    <sheetView topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19:B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -3853,81 +4828,155 @@
       <c r="A6" s="1"/>
       <c r="B6" s="3"/>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" s="21" customFormat="1">
       <c r="A7" s="1"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="6"/>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="B7" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" s="21" customFormat="1" ht="40.5">
       <c r="A8" s="1"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="6"/>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="B8" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="26" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" s="21" customFormat="1">
       <c r="A9" s="1"/>
       <c r="B9" s="3"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="6"/>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="C9" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" s="26" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" s="21" customFormat="1">
       <c r="A10" s="1"/>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="B10" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="26" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" s="21" customFormat="1">
       <c r="A11" s="1"/>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="B11" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" s="26" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" s="21" customFormat="1">
       <c r="A12" s="1"/>
-    </row>
-    <row r="13" spans="1:4">
+      <c r="B12" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="C12" s="25"/>
+      <c r="D12" s="26"/>
+    </row>
+    <row r="13" spans="1:4" s="21" customFormat="1" ht="409.5">
       <c r="A13" s="1"/>
-    </row>
-    <row r="14" spans="1:4">
+      <c r="B13" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="C13" s="25"/>
+      <c r="D13" s="26"/>
+    </row>
+    <row r="14" spans="1:4" s="21" customFormat="1" ht="40.5">
       <c r="A14" s="1"/>
-    </row>
-    <row r="15" spans="1:4">
+      <c r="B14" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" s="26" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" s="21" customFormat="1">
       <c r="A15" s="1"/>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="B15" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="D15" s="26" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" s="21" customFormat="1">
       <c r="A16" s="1"/>
-      <c r="B16" s="2" t="s">
-        <v>40</v>
-      </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1"/>
-      <c r="B17" s="2" t="s">
-        <v>48</v>
-      </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1"/>
       <c r="B18" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="187.5">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" s="21" customFormat="1">
       <c r="A19" s="1"/>
-      <c r="B19" s="11" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="187.5">
+      <c r="B19" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" s="21" customFormat="1">
       <c r="A20" s="1"/>
-      <c r="B20" s="11" t="s">
-        <v>50</v>
+      <c r="B20" s="3" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1"/>
       <c r="B21" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="B22" s="2" t="s">
-        <v>47</v>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" s="21" customFormat="1">
+      <c r="A22" s="1"/>
+      <c r="B22" s="21" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" s="21" customFormat="1">
+      <c r="A23" s="1"/>
+      <c r="B23" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" s="21" customFormat="1" ht="262.5">
+      <c r="A24" s="1"/>
+      <c r="B24" s="11" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="1"/>
+      <c r="B25" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="B26" s="2" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -3939,10 +4988,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD05E85A-61D0-40F4-AA01-CFF3E660149A}">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:D29"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -3991,57 +5040,196 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="6"/>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="B7" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="21"/>
+      <c r="D7" s="21"/>
+    </row>
+    <row r="8" spans="1:4" ht="40.5">
       <c r="A8" s="1"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="6"/>
+      <c r="B8" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="26" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1"/>
       <c r="B9" s="3"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="6"/>
+      <c r="C9" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" s="26" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1"/>
+      <c r="B10" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="26" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1"/>
+      <c r="B11" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" s="26" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1"/>
-    </row>
-    <row r="13" spans="1:4">
+      <c r="B12" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="C12" s="25"/>
+      <c r="D12" s="26"/>
+    </row>
+    <row r="13" spans="1:4" ht="409.5">
       <c r="A13" s="1"/>
-    </row>
-    <row r="14" spans="1:4">
+      <c r="B13" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="C13" s="25"/>
+      <c r="D13" s="26"/>
+    </row>
+    <row r="14" spans="1:4" ht="40.5">
       <c r="A14" s="1"/>
+      <c r="B14" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" s="26" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="1"/>
+      <c r="B15" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="D15" s="26" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="1"/>
-    </row>
-    <row r="17" spans="1:1">
+      <c r="B16" s="21"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="21"/>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="1"/>
-    </row>
-    <row r="18" spans="1:1">
+      <c r="B17" s="21"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="21"/>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" s="1"/>
-    </row>
-    <row r="19" spans="1:1">
+      <c r="B18" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="C18" s="21"/>
+      <c r="D18" s="21"/>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" s="1"/>
-    </row>
-    <row r="20" spans="1:1">
+      <c r="B19" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" s="1"/>
-    </row>
-    <row r="21" spans="1:1">
-      <c r="A21" s="1"/>
+      <c r="B20" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="B21" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="C21" s="25"/>
+      <c r="D21"/>
+    </row>
+    <row r="22" spans="1:4" ht="37.5">
+      <c r="B22" s="27" t="s">
+        <v>74</v>
+      </c>
+      <c r="C22"/>
+      <c r="D22"/>
+    </row>
+    <row r="23" spans="1:4" ht="393.75">
+      <c r="B23" s="27" t="s">
+        <v>68</v>
+      </c>
+      <c r="C23"/>
+      <c r="D23"/>
+    </row>
+    <row r="24" spans="1:4" s="21" customFormat="1" ht="75">
+      <c r="B24" s="27" t="s">
+        <v>72</v>
+      </c>
+      <c r="C24" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="D24" s="26" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="B25" s="27" t="s">
+        <v>71</v>
+      </c>
+      <c r="C25"/>
+      <c r="D25"/>
+    </row>
+    <row r="26" spans="1:4" ht="37.5">
+      <c r="B26" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="C26" s="25"/>
+      <c r="D26"/>
+    </row>
+    <row r="27" spans="1:4" ht="262.5">
+      <c r="B27" s="27" t="s">
+        <v>70</v>
+      </c>
+      <c r="C27"/>
+      <c r="D27"/>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="B28" t="s">
+        <v>44</v>
+      </c>
+      <c r="C28"/>
+      <c r="D28"/>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="B29" s="27" t="s">
+        <v>67</v>
+      </c>
+      <c r="C29"/>
+      <c r="D29"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
@@ -4616,6 +5804,33 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <SharedWithUsers xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="f2582d4f-4605-4da6-a8d6-8d696d30c27c">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100AFAE8A2D61E2864A87743AC8EBD33013" ma:contentTypeVersion="17" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="131c1c820a00e4fca6ce65346d03e485">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="f2582d4f-4605-4da6-a8d6-8d696d30c27c" xmlns:ns3="c1e6ffc9-f5b9-4159-9447-bea3a992def6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="555fe79fdee1cb282876e6f1e8fa0f7e" ns2:_="" ns3:_="">
     <xsd:import namespace="f2582d4f-4605-4da6-a8d6-8d696d30c27c"/>
@@ -4864,34 +6079,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <SharedWithUsers xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="f2582d4f-4605-4da6-a8d6-8d696d30c27c">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A3B1469-BE58-4E2A-BFC6-1F894EC8921D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A965309B-2D00-4C69-AAF2-00F76E145C17}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="c1e6ffc9-f5b9-4159-9447-bea3a992def6"/>
+    <ds:schemaRef ds:uri="f2582d4f-4605-4da6-a8d6-8d696d30c27c"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{61B073EA-019B-49F1-927B-E5A470D8398D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4908,23 +6115,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A965309B-2D00-4C69-AAF2-00F76E145C17}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="c1e6ffc9-f5b9-4159-9447-bea3a992def6"/>
-    <ds:schemaRef ds:uri="f2582d4f-4605-4da6-a8d6-8d696d30c27c"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A3B1469-BE58-4E2A-BFC6-1F894EC8921D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/revref_test.xlsx
+++ b/revref_test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\72446246\Documents\wk\業務関連資料\LMS\70.逆引きマニュアル作成\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{554A6061-4456-44B9-8DF0-6FBA1FF9EF22}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D6BCD9A-C70A-4409-BE3E-A9401DAB79CF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7605" firstSheet="1" activeTab="3" xr2:uid="{5CD9017C-176B-471B-A8A0-D3A2BE76D3A3}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7605" activeTab="3" xr2:uid="{5CD9017C-176B-471B-A8A0-D3A2BE76D3A3}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="8" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="81">
   <si>
     <t>header1</t>
   </si>
@@ -282,22 +282,6 @@
       <t>ショウ</t>
     </rPh>
     <rPh sb="9" eb="11">
-      <t>サクセイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>&lt;h3&gt;多肢選択問題の作成&lt;/h3&gt;</t>
-    <rPh sb="4" eb="6">
-      <t>タシ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>センタク</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>モンダイ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
       <t>サクセイ</t>
     </rPh>
     <phoneticPr fontId="2"/>
@@ -423,19 +407,6 @@
     <t>「多肢選択問題追加」画面で「問題名」と「問題テキスト」を入力します</t>
     <rPh sb="20" eb="22">
       <t>モンダイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>必要に応じて、各項目を設定してください</t>
-    <rPh sb="7" eb="8">
-      <t>カク</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>コウモク</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>セッテイ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -2172,13 +2143,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>&lt;h3&gt;記述問題の作成&lt;/h3&gt;</t>
-    <rPh sb="9" eb="11">
-      <t>サクセイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t xml:space="preserve"> 「追加する問題タイプを選択する」ダイアログボックスで、「記述問題」を選択し、「追加」をクリックします</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -2186,117 +2150,6 @@
     <t>「問題名」と「問題テキスト」を入力します</t>
     <rPh sb="7" eb="9">
       <t>モンダイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>&lt;ul&gt;
-&lt;li&gt;&lt;b&gt;「デフォルト評点」&lt;/b&gt;はこの問題に正解したときに得られる得点を入力します&lt;/li&gt;
-&lt;li&gt;&lt;b&gt;「全体に対するフィードバック」&lt;/b&gt;は解答後に表示されるフィードバックを入力します&lt;/li&gt;
-&lt;li&gt;&lt;b&gt;「単一または複数解答？」&lt;/b&gt;は答えを 1 つだけ選べるようにするか、複数の答えを選べるようにするかを選択します&lt;/li&gt;
-&lt;li&gt;&lt;b&gt;「選択肢に番号付けしますか？」&lt;/b&gt;は選択肢への番号付けで好みの形式を選択してください
-デフォルトでは「1.2.3.」と付くように設定されています&lt;/li&gt;
-&lt;li&gt;&lt;b&gt;「標準インストラクションを表示する」&lt;/b&gt;は多肢選択解答の前に「1 つを選択する」または「１つまたはそれ以上を選択する」のインストラクションを表示するか選択できます。&lt;/li&gt;
-&lt;li&gt;&lt;b&gt;「答え」&lt;/b&gt;に選択肢と評点を設定します
-&lt;b&gt;「フィードバック」&lt;/b&gt;はこの選択肢を選んだ場合に表示したい内容に入力します
-&lt;small&gt;※ 選択肢の入力欄が足りない場合は、「さらに 3 件の選択肢入力欄を追加する」ボタンをクリックしてください。&lt;/small&gt;&lt;/li&gt;
- &lt;li&gt;&lt;b&gt;「総合フィードバック」&lt;/b&gt;は正答、部分的に正しい解答、不正解の3パターンで表示するフィードバックを設定することができます
-デフォルトメッセージが設定されています&lt;/li&gt;
-&lt;li&gt;&lt;b&gt;「複数受験」&lt;/b&gt;は複数受験としている場合、不正解に対する減点の割合やヒントの設定をすることができます&lt;/li&gt;
-&lt;/ul&gt;</t>
-    <rPh sb="208" eb="211">
-      <t>センタクシ</t>
-    </rPh>
-    <rPh sb="213" eb="216">
-      <t>バンゴウツ</t>
-    </rPh>
-    <rPh sb="249" eb="250">
-      <t>ツ</t>
-    </rPh>
-    <rPh sb="254" eb="256">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="428" eb="430">
-      <t>ナイヨウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>&lt;ul&gt;
-&lt;li&gt;&lt;b&gt;「デフォルト評点」&lt;/b&gt;はこの問題に正解したときに得られる得点を入力します&lt;/li&gt;
-&lt;li&gt;&lt;b&gt;「全体に対するフィードバック」&lt;/b&gt;は解答後に表示されるフィードバックを入力します&lt;/li&gt;
-&lt;li&gt;&lt;b&gt;「大文字小文字の区別」&lt;/b&gt;は答えの大文字小文字を区別するかを設定できます
-デフォルトでは区別しないように設定しています&lt;/li&gt;
-&lt;li&gt;&lt;b&gt;「答え」&lt;/b&gt;に答えと評点を設定します
-「*」はどのような文字にでも合致するワイルドカードとして使用することができます
-例えば、「答え」を「広島*」とした場合、「広島県」「広島市」「広島大学」どれもあてはまります
-&lt;b&gt;「フィードバック」&lt;/b&gt;はこの答えを記述した場合に何か表示したい内容を入力します
-&lt;small&gt;※ 選択肢の入力欄が足りない場合は、「さらに 3 件の入力欄を追加する」ボタンをクリックしてください。&lt;/small&gt;&lt;/li&gt;
-&lt;li&gt;&lt;b&gt;「複数受験」&lt;/b&gt;は複数受験としている場合、不正解に対する減点の割合やヒントの設定をすることができます&lt;/li&gt;
-&lt;/ul&gt;</t>
-    <rPh sb="134" eb="135">
-      <t>コタ</t>
-    </rPh>
-    <rPh sb="137" eb="140">
-      <t>オオモジ</t>
-    </rPh>
-    <rPh sb="140" eb="143">
-      <t>コモジ</t>
-    </rPh>
-    <rPh sb="144" eb="146">
-      <t>クベツ</t>
-    </rPh>
-    <rPh sb="150" eb="152">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="164" eb="166">
-      <t>クベツ</t>
-    </rPh>
-    <rPh sb="172" eb="174">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="201" eb="202">
-      <t>コタ</t>
-    </rPh>
-    <rPh sb="253" eb="254">
-      <t>タト</t>
-    </rPh>
-    <rPh sb="258" eb="259">
-      <t>コタ</t>
-    </rPh>
-    <rPh sb="263" eb="265">
-      <t>ヒロシマ</t>
-    </rPh>
-    <rPh sb="270" eb="272">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="274" eb="277">
-      <t>ヒロシマケン</t>
-    </rPh>
-    <rPh sb="279" eb="282">
-      <t>ヒロシマシ</t>
-    </rPh>
-    <rPh sb="284" eb="288">
-      <t>ヒロシマダイガク</t>
-    </rPh>
-    <rPh sb="319" eb="320">
-      <t>コタ</t>
-    </rPh>
-    <rPh sb="322" eb="324">
-      <t>キジュツ</t>
-    </rPh>
-    <rPh sb="336" eb="338">
-      <t>ナイヨウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>&lt;h3&gt;穴埋め問題の作成&lt;/h3&gt;</t>
-    <rPh sb="4" eb="6">
-      <t>アナウ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>サクセイ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -2335,25 +2188,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>必要に応じて各設定を行います
-&lt;ul&gt;
-&lt;li&gt;&lt;b&gt;それぞれの不正解に対するペナルティ：&lt;/b&gt;小テスト全体の設定をしたとき、「問題の挙動」の「問題動作」で複数回の受験ができるようにしていた場合、ここで、不正解に対する減点の割合をパーセントで設定します。&lt;/li&gt;
-&lt;small&gt;※ 不正解を重ねて評点よりも減点が大きくなっても、マイナスの得点になることはありません。&lt;/small&gt;
-&lt;li&gt;&lt;b&gt;ヒント：&lt;/b&gt;小テスト全体の設定をしたとき、「問題の挙動」の「問題動作」で「複数受験インタラクティブ」を選択していた場合、不正解のときに表示するヒントを入力します。学生は入力したヒントの数と同じ回数まで再受験できます。&lt;/li&gt;
-&lt;small&gt;※ ヒントの入力欄が足りないときは、「別のヒントを追加する」ボタンをクリックしてください。&lt;/small&gt;
-&lt;li&gt;&lt;b&gt;ヒントオプション：&lt;/b&gt;
-&lt;ul&gt;&lt;li&gt;&lt;b&gt;正しくない解答をクリアする：&lt;/b&gt;再受験のとき、前回の解答を表示させないときはチェックします。&lt;/li&gt;
-&lt;li&gt;&lt;b&gt;正答数を表示する：&lt;/b&gt;回答後に、正答数を表示する場合はチェックします。&lt;/li&gt;&lt;/ul&gt;
-&lt;/li&gt;&lt;/ul&gt;</t>
-    <rPh sb="6" eb="7">
-      <t>カク</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>オコナ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>&lt;b&gt;「全体に対するフィードバック」&lt;/b&gt;は解答後に表示したい内容を入力します</t>
     <rPh sb="32" eb="34">
       <t>ナイヨウ</t>
@@ -2361,72 +2195,490 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
+    <t>test9.png</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;&lt;b&gt;「問題名」&lt;/b&gt;を入力します&lt;/li&gt;
+問題テキストは記号を使用して、穴埋め問題を作成してください</t>
+    <rPh sb="32" eb="34">
+      <t>モンダイ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>キゴウ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>アナウ</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>モンダイ</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">参加者へ新しく作成したことや更新したことを通知したい場合は、「コンテンツ変更通知を送信する」にチェックを入れてください
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MS UI Gothic"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t>※保存する度に通知が届きますので、通知したい時以外はチェックを外してください。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">
+対象の小テストにアクセスできるユーザのみに通知を受信することができます。</t>
+    </r>
+    <rPh sb="0" eb="3">
+      <t>サンカシャ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>アタラ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ツウチ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="52" eb="53">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="61" eb="63">
+      <t>ホゾン</t>
+    </rPh>
+    <rPh sb="65" eb="66">
+      <t>タビ</t>
+    </rPh>
+    <rPh sb="67" eb="69">
+      <t>ツウチ</t>
+    </rPh>
+    <rPh sb="70" eb="71">
+      <t>トド</t>
+    </rPh>
+    <rPh sb="77" eb="79">
+      <t>ツウチ</t>
+    </rPh>
+    <rPh sb="82" eb="85">
+      <t>トキイガイ</t>
+    </rPh>
+    <rPh sb="91" eb="92">
+      <t>ハズ</t>
+    </rPh>
+    <rPh sb="100" eb="102">
+      <t>タイショウ</t>
+    </rPh>
+    <rPh sb="103" eb="104">
+      <t>ショウ</t>
+    </rPh>
+    <rPh sb="121" eb="123">
+      <t>ツウチ</t>
+    </rPh>
+    <rPh sb="124" eb="126">
+      <t>ジュシン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
     <t>記述例）
+&lt;pre&gt;&lt;code&gt;
 {1:SHORTANSWER:~%100%犬#正解です}も歩けば棒に当たる
+&lt;/code&gt;&lt;/pre&gt;
 と入力すると右の画像のような問題が作成されます
 学生は「犬」と解答すると評点の100%が得点に加算されます</t>
     <rPh sb="0" eb="3">
       <t>キジュツレイ</t>
     </rPh>
-    <rPh sb="44" eb="46">
+    <rPh sb="70" eb="72">
       <t>ニュウリョク</t>
     </rPh>
-    <rPh sb="49" eb="50">
+    <rPh sb="75" eb="76">
       <t>ミギ</t>
     </rPh>
-    <rPh sb="51" eb="53">
+    <rPh sb="77" eb="79">
       <t>ガゾウ</t>
     </rPh>
-    <rPh sb="57" eb="59">
+    <rPh sb="83" eb="85">
       <t>モンダイ</t>
     </rPh>
-    <rPh sb="60" eb="62">
+    <rPh sb="86" eb="88">
       <t>サクセイ</t>
     </rPh>
+    <rPh sb="93" eb="95">
+      <t>ガクセイ</t>
+    </rPh>
+    <rPh sb="97" eb="98">
+      <t>イヌ</t>
+    </rPh>
+    <rPh sb="100" eb="102">
+      <t>カイトウ</t>
+    </rPh>
+    <rPh sb="105" eb="107">
+      <t>ヒョウテン</t>
+    </rPh>
+    <rPh sb="113" eb="115">
+      <t>トクテン</t>
+    </rPh>
+    <rPh sb="116" eb="118">
+      <t>カサン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;h3&gt;コースに小テストの作成する&lt;/h3&gt;</t>
+    <rPh sb="8" eb="9">
+      <t>ショウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;h3&gt;&lt;a name="tashi"&gt;&lt;/a&gt;多肢選択問題の作成&lt;/h3&gt;</t>
+    <rPh sb="24" eb="26">
+      <t>タシ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>モンダイ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>すでに小テストを作成している場合は、&lt;a href="#tashi"&gt;多肢選択問題の作成&lt;/a&gt;から行ってください</t>
+    <rPh sb="3" eb="4">
+      <t>ショウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="35" eb="39">
+      <t>タシセンタク</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>モンダイ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="50" eb="51">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;h3&gt;&lt;a name="kijyutsu"&gt;&lt;/a&gt;記述問題の作成&lt;/h3&gt;</t>
+    <rPh sb="32" eb="34">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>すでに小テストを作成している場合は、&lt;a href="#kijyutsu"&gt;記述問題の作成&lt;/a&gt;から行ってください</t>
+    <rPh sb="3" eb="4">
+      <t>ショウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>キジュツ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>モンダイ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="51" eb="52">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;h3&gt;&lt;a name="anaume"&gt;&lt;/a&gt;穴埋め問題の作成&lt;/h3&gt;</t>
+    <rPh sb="25" eb="27">
+      <t>アナウ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>すでに小テストを作成している場合は、&lt;a href="#kanaume"&gt;穴埋め問題の作成&lt;/a&gt;から行ってください</t>
+    <rPh sb="3" eb="4">
+      <t>ショウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>アナウ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>モンダイ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="51" eb="52">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>各設定のデフォルトで設定されている内容を説明します。必要に応じて設定してください。
+&lt;ul&gt;
+&lt;li&gt;
+&lt;b&gt;「タイミング」&lt;/b&gt;は日時制限を設定することができます
+デフォルトは&lt;u&gt;何も設定されていません&lt;/u&gt;
+受験可能期間や制限時間を設けたい場合は設定してください&lt;/li&gt;
+&lt;li&gt;
+&lt;b&gt;「評定」&lt;/b&gt;は評定に関する設定をすることができます
+デフォルトでは&lt;u&gt;合格点の設定はなし&lt;/u&gt;で、&lt;u&gt;無制限で受験可能&lt;/u&gt;になっています
+また、複数回受験した中の&lt;b&gt;最高評点を評定する&lt;/b&gt;ように設定されています
+&lt;/li&gt;
+&lt;li&gt;
+&lt;b&gt;「レイアウト」&lt;/b&gt;は表示する問題数や問題のスキップ禁止を設定することができます
+デフォルトでは&lt;u&gt;1ページに1問ごと表示される&lt;/u&gt;設定になっています
+「ナビゲーションメソッド」が「フリー」となっているため、学生は小テストを順番に受ける必要がなく&lt;u&gt;前の問題ページに戻ったり、問題をスキップすることができるように設定&lt;/u&gt;されています
+&lt;/li&gt;
+&lt;li&gt;
+&lt;b&gt;「問題の挙動」&lt;/b&gt;は問題のシャッフルや複数回解答等を設定することができます
+デフォルトで問題動作は「遅延フィードバック」が設定されており、これは採点やフィードバックを受ける前に、&lt;u&gt;各問題への回答を入力してから、問題全体を提出&lt;/u&gt;するようになっています
+&lt;/li&gt;
+&lt;li&gt;
+&lt;b&gt;「レビューオプション」&lt;/b&gt;は学生に公開する結果情報とタイミングを設定することができます
+デフォルトでは学生は&lt;u&gt;受験直後から小テストがクローズされても問題や結果情報を閲覧することができる&lt;/u&gt;ように設定されています
+&lt;/li&gt;
+&lt;li&gt;
+&lt;b&gt;「アピアランス」&lt;/b&gt;は小テストの表示に関する設定をすることができます
+デフォルトでは評点の小数位は「2」で設定されています
+&lt;/li&gt;
+&lt;li&gt;
+&lt;b&gt;「受験に関する特別制限」&lt;/b&gt;はパスワードやIPアドレスによる制限を設定することができます&lt;/li&gt;
+デフォルトは&lt;u&gt;何も設定されていません&lt;/u&gt;
+&lt;li&gt;
+&lt;b&gt;「全体フィードバック」&lt;/b&gt;は受験終了後に表示するテキストを指定することができます&lt;/li&gt;
+デフォルトは&lt;u&gt;何も設定されていません&lt;/u&gt;
+&lt;li&gt;
+&lt;b&gt;「モジュール共通設定」&lt;/b&gt;はコースページへの表示や言語の強制などを設定することができます&lt;/li&gt;
+デフォルトで&lt;u&gt;コースページに表示する&lt;/u&gt;ように設定されています
+作成中などで表示させたくない場合は、ここでコースページに表示しないように設定を変更することができます
+&lt;li&gt;
+&lt;b&gt;「利用制限」&lt;/b&gt;はアクセス制限を設定することができます
+デフォルトは&lt;u&gt;何も設定されていません&lt;/u&gt;
+&lt;/li&gt;
+&lt;li&gt;
+&lt;b&gt;「活動完了」&lt;/b&gt;は活動完了を管理するかを設定することができます
+デフォルトは&lt;u&gt;何も設定されていません&lt;/u&gt;
+&lt;/li&gt;
+&lt;ul&gt;</t>
+    <rPh sb="10" eb="12">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ナイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">参加者へ新しく作成したことや更新したことを通知したい場合は、「コンテンツ変更通知を送信する」にチェックを入れてください
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MS UI Gothic"/>
+        <family val="3"/>
+        <charset val="1"/>
+      </rPr>
+      <t>※保存する度に通知が届きますので、通知したい時以外はチェックを外してください</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">
+対象の小テストにアクセスできるユーザのみに通知を受信することができます</t>
+    </r>
+    <rPh sb="0" eb="3">
+      <t>サンカシャ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>アタラ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ツウチ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="52" eb="53">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="61" eb="63">
+      <t>ホゾン</t>
+    </rPh>
+    <rPh sb="65" eb="66">
+      <t>タビ</t>
+    </rPh>
     <rPh sb="67" eb="69">
-      <t>ガクセイ</t>
-    </rPh>
-    <rPh sb="71" eb="72">
-      <t>イヌ</t>
-    </rPh>
-    <rPh sb="74" eb="76">
-      <t>カイトウ</t>
-    </rPh>
-    <rPh sb="79" eb="81">
-      <t>ヒョウテン</t>
-    </rPh>
-    <rPh sb="87" eb="89">
-      <t>トクテン</t>
-    </rPh>
-    <rPh sb="90" eb="92">
-      <t>カサン</t>
+      <t>ツウチ</t>
+    </rPh>
+    <rPh sb="70" eb="71">
+      <t>トド</t>
+    </rPh>
+    <rPh sb="77" eb="79">
+      <t>ツウチ</t>
+    </rPh>
+    <rPh sb="82" eb="85">
+      <t>トキイガイ</t>
+    </rPh>
+    <rPh sb="91" eb="92">
+      <t>ハズ</t>
+    </rPh>
+    <rPh sb="99" eb="101">
+      <t>タイショウ</t>
+    </rPh>
+    <rPh sb="102" eb="103">
+      <t>ショウ</t>
+    </rPh>
+    <rPh sb="120" eb="122">
+      <t>ツウチ</t>
+    </rPh>
+    <rPh sb="123" eb="125">
+      <t>ジュシン</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>test9.png</t>
+    <t>必要に応じて&lt;b&gt;「複数受験」&lt;/b&gt;の設定を行います
+複数受験を許可している場合、不正解に対する減点の割合やヒントの設定をすることができます</t>
+    <rPh sb="10" eb="12">
+      <t>フクスウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ジュケン</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>キョカ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>バアイ</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>&lt;ul&gt;&lt;li&gt;&lt;b&gt;「問題名」&lt;/b&gt;を入力します&lt;/li&gt;
-問題テキストは記号を使用して、穴埋め問題を作成してください</t>
-    <rPh sb="32" eb="34">
-      <t>モンダイ</t>
-    </rPh>
-    <rPh sb="39" eb="41">
-      <t>キゴウ</t>
-    </rPh>
-    <rPh sb="42" eb="44">
-      <t>シヨウ</t>
-    </rPh>
-    <rPh sb="47" eb="49">
-      <t>アナウ</t>
-    </rPh>
-    <rPh sb="50" eb="52">
-      <t>モンダイ</t>
-    </rPh>
-    <rPh sb="53" eb="55">
-      <t>サクセイ</t>
+    <t>必要に応じて、各項目を設定してください
+&lt;ul&gt;
+&lt;li&gt;&lt;b&gt;「デフォルト評点」&lt;/b&gt;はこの問題に正解したときに得られる得点を入力します&lt;/li&gt;
+&lt;li&gt;&lt;b&gt;「全体に対するフィードバック」&lt;/b&gt;は解答後に表示されるフィードバックを入力します&lt;/li&gt;
+&lt;li&gt;&lt;b&gt;「大文字小文字の区別」&lt;/b&gt;は答えの大文字小文字を区別するかを設定できます
+デフォルトでは区別しないように設定しています&lt;/li&gt;
+&lt;li&gt;&lt;b&gt;「答え」&lt;/b&gt;に答えと評点を設定します
+「*」はどのような文字にでも合致するワイルドカードとして使用することができます
+例えば、「答え」を「広島*」とした場合、「広島県」「広島市」「広島大学」どれもあてはまります
+&lt;b&gt;「フィードバック」&lt;/b&gt;はこの答えを記述した場合に何か表示したい内容を入力します
+&lt;small&gt;※ 選択肢の入力欄が足りない場合は、「さらに 3 件の入力欄を追加する」ボタンをクリックしてください。&lt;/small&gt;&lt;/li&gt;
+&lt;li&gt;&lt;b&gt;「複数受験」&lt;/b&gt;は複数受験を許可している場合、不正解に対する減点の割合やヒントの設定をすることができます&lt;/li&gt;
+&lt;/ul&gt;</t>
+    <rPh sb="7" eb="8">
+      <t>カク</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="460" eb="462">
+      <t>キョカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>必要に応じて、各項目を設定してください
+&lt;ul&gt;
+&lt;li&gt;&lt;b&gt;「デフォルト評点」&lt;/b&gt;はこの問題に正解したときに得られる得点を入力します&lt;/li&gt;
+&lt;li&gt;&lt;b&gt;「全体に対するフィードバック」&lt;/b&gt;は解答後に表示されるフィードバックを入力します&lt;/li&gt;
+&lt;li&gt;&lt;b&gt;「単一または複数解答？」&lt;/b&gt;は答えを 1 つだけ選べるようにするか、複数の答えを選べるようにするかを選択します&lt;/li&gt;
+&lt;li&gt;&lt;b&gt;「選択肢に番号付けしますか？」&lt;/b&gt;は選択肢への番号付けで好みの形式を選択してください
+デフォルトでは「1.2.3.」と付くように設定されています&lt;/li&gt;
+&lt;li&gt;&lt;b&gt;「標準インストラクションを表示する」&lt;/b&gt;は多肢選択解答の前に「1 つを選択する」または「１つまたはそれ以上を選択する」のインストラクションを表示するか選択できます。&lt;/li&gt;
+&lt;li&gt;&lt;b&gt;「答え」&lt;/b&gt;に選択肢と評点を設定します
+&lt;b&gt;「フィードバック」&lt;/b&gt;はこの選択肢を選んだ場合に表示したい内容に入力します
+&lt;small&gt;※ 選択肢の入力欄が足りない場合は、「さらに 3 件の選択肢入力欄を追加する」ボタンをクリックしてください。&lt;/small&gt;&lt;/li&gt;
+ &lt;li&gt;&lt;b&gt;「総合フィードバック」&lt;/b&gt;は正答、部分的に正しい解答、不正解の3パターンで表示するフィードバックを設定することができます
+デフォルトメッセージが設定されています&lt;/li&gt;
+&lt;li&gt;&lt;b&gt;「複数受験」&lt;/b&gt;は複数受験を許可している場合、不正解に対する減点の割合やヒントの設定をすることができます&lt;/li&gt;
+&lt;/ul&gt;</t>
+    <rPh sb="7" eb="8">
+      <t>カク</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="651" eb="653">
+      <t>キョカ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -3117,7 +3369,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -3147,7 +3399,7 @@
     <row r="7" spans="1:4">
       <c r="A7" s="1"/>
       <c r="B7" s="22" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="6"/>
@@ -3155,7 +3407,7 @@
     <row r="8" spans="1:4">
       <c r="A8" s="1"/>
       <c r="B8" s="23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="6"/>
@@ -3163,7 +3415,7 @@
     <row r="9" spans="1:4">
       <c r="A9" s="1"/>
       <c r="B9" s="22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="6"/>
@@ -3171,7 +3423,7 @@
     <row r="10" spans="1:4" ht="27">
       <c r="A10" s="1"/>
       <c r="B10" s="22" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -4122,7 +4374,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D077C58-5FEC-48A5-A5C6-05E88FEFA561}">
   <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
@@ -4173,148 +4425,148 @@
     <row r="7" spans="1:4" s="21" customFormat="1">
       <c r="A7" s="1"/>
       <c r="B7" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="40.5">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" s="21" customFormat="1">
       <c r="A8" s="1"/>
-      <c r="B8" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="C8" s="13" t="s">
+      <c r="B8" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="40.5">
+      <c r="A9" s="1"/>
+      <c r="B9" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="D8" s="14" t="s">
+      <c r="D9" s="14" t="s">
         <v>31</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="1"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="D9" s="16" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1"/>
-      <c r="B10" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="C10" s="19" t="s">
+      <c r="B10" s="3"/>
+      <c r="C10" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="D10" s="20" t="s">
-        <v>33</v>
+      <c r="D10" s="16" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1"/>
       <c r="B11" s="17" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C11" s="19" t="s">
         <v>30</v>
       </c>
       <c r="D11" s="20" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1"/>
-      <c r="B12" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="C12" s="19"/>
-      <c r="D12" s="20"/>
-    </row>
-    <row r="13" spans="1:4" s="21" customFormat="1" ht="409.5">
+      <c r="B12" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" s="20" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="1"/>
-      <c r="B13" s="24" t="s">
-        <v>58</v>
-      </c>
-      <c r="C13" s="25"/>
-      <c r="D13" s="26"/>
-    </row>
-    <row r="14" spans="1:4" ht="40.5">
+      <c r="B13" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="C13" s="19"/>
+      <c r="D13" s="20"/>
+    </row>
+    <row r="14" spans="1:4" s="21" customFormat="1" ht="409.5">
       <c r="A14" s="1"/>
       <c r="B14" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="C14" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="D14" s="26" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>56</v>
+      </c>
+      <c r="C14" s="25"/>
+      <c r="D14" s="26"/>
+    </row>
+    <row r="15" spans="1:4" ht="54">
       <c r="A15" s="1"/>
-      <c r="B15" s="22" t="s">
-        <v>43</v>
+      <c r="B15" s="24" t="s">
+        <v>67</v>
       </c>
       <c r="C15" s="25" t="s">
         <v>30</v>
       </c>
       <c r="D15" s="26" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="1"/>
+      <c r="B16" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="C16" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="D16" s="26" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1"/>
-      <c r="B17" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" s="21" customFormat="1">
+    </row>
+    <row r="18" spans="1:2">
       <c r="A18" s="1"/>
       <c r="B18" s="3" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
     </row>
     <row r="19" spans="1:2" s="21" customFormat="1">
       <c r="A19" s="1"/>
       <c r="B19" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" s="21" customFormat="1">
       <c r="A20" s="1"/>
-      <c r="B20" s="2" t="s">
-        <v>55</v>
+      <c r="B20" s="3" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1"/>
       <c r="B21" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" s="21" customFormat="1">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
       <c r="A22" s="1"/>
-      <c r="B22" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="356.25">
+      <c r="B22" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" s="21" customFormat="1" ht="229.5">
       <c r="A23" s="1"/>
-      <c r="B23" s="11" t="s">
-        <v>63</v>
+      <c r="B23" s="3" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="B24" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="B25" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -4780,8 +5032,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFABB89B-389D-4E53-86E8-1C489CE9D7CA}">
   <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19:B21"/>
+    <sheetView topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -4834,149 +5086,149 @@
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:4" s="21" customFormat="1" ht="40.5">
+    <row r="8" spans="1:4" s="21" customFormat="1">
       <c r="A8" s="1"/>
-      <c r="B8" s="24" t="s">
-        <v>40</v>
-      </c>
-      <c r="C8" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="D8" s="26" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" s="21" customFormat="1">
+      <c r="B8" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" s="21" customFormat="1" ht="40.5">
       <c r="A9" s="1"/>
-      <c r="B9" s="3"/>
+      <c r="B9" s="24" t="s">
+        <v>39</v>
+      </c>
       <c r="C9" s="25" t="s">
         <v>30</v>
       </c>
       <c r="D9" s="26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:4" s="21" customFormat="1">
       <c r="A10" s="1"/>
-      <c r="B10" s="17" t="s">
-        <v>41</v>
-      </c>
+      <c r="B10" s="3"/>
       <c r="C10" s="25" t="s">
         <v>30</v>
       </c>
       <c r="D10" s="26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:4" s="21" customFormat="1">
       <c r="A11" s="1"/>
       <c r="B11" s="17" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C11" s="25" t="s">
         <v>30</v>
       </c>
       <c r="D11" s="26" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:4" s="21" customFormat="1">
       <c r="A12" s="1"/>
-      <c r="B12" s="24" t="s">
-        <v>52</v>
-      </c>
-      <c r="C12" s="25"/>
-      <c r="D12" s="26"/>
-    </row>
-    <row r="13" spans="1:4" s="21" customFormat="1" ht="409.5">
+      <c r="B12" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" s="26" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" s="21" customFormat="1">
       <c r="A13" s="1"/>
       <c r="B13" s="24" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="C13" s="25"/>
       <c r="D13" s="26"/>
     </row>
-    <row r="14" spans="1:4" s="21" customFormat="1" ht="40.5">
+    <row r="14" spans="1:4" s="21" customFormat="1" ht="409.5">
       <c r="A14" s="1"/>
       <c r="B14" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="C14" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="D14" s="26" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" s="21" customFormat="1">
+        <v>57</v>
+      </c>
+      <c r="C14" s="25"/>
+      <c r="D14" s="26"/>
+    </row>
+    <row r="15" spans="1:4" s="21" customFormat="1" ht="54">
       <c r="A15" s="1"/>
-      <c r="B15" s="22" t="s">
-        <v>43</v>
+      <c r="B15" s="24" t="s">
+        <v>77</v>
       </c>
       <c r="C15" s="25" t="s">
         <v>30</v>
       </c>
       <c r="D15" s="26" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:4" s="21" customFormat="1">
       <c r="A16" s="1"/>
-    </row>
-    <row r="17" spans="1:2">
+      <c r="B16" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="C16" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="D16" s="26" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" s="21" customFormat="1">
       <c r="A17" s="1"/>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1"/>
-      <c r="B18" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" s="21" customFormat="1">
+    </row>
+    <row r="19" spans="1:2">
       <c r="A19" s="1"/>
-      <c r="B19" s="3" t="s">
-        <v>53</v>
+      <c r="B19" s="2" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="20" spans="1:2" s="21" customFormat="1">
       <c r="A20" s="1"/>
       <c r="B20" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" s="21" customFormat="1">
       <c r="A21" s="1"/>
-      <c r="B21" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" s="21" customFormat="1">
+      <c r="B21" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
       <c r="A22" s="1"/>
-      <c r="B22" s="21" t="s">
-        <v>62</v>
+      <c r="B22" s="2" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="23" spans="1:2" s="21" customFormat="1">
       <c r="A23" s="1"/>
-      <c r="B23" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" s="21" customFormat="1" ht="262.5">
+      <c r="B23" s="21" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" s="21" customFormat="1" ht="175.5">
       <c r="A24" s="1"/>
-      <c r="B24" s="11" t="s">
-        <v>64</v>
+      <c r="B24" s="3" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="1"/>
       <c r="B25" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="B26" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -4990,9 +5242,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD05E85A-61D0-40F4-AA01-CFF3E660149A}">
   <dimension ref="A1:D29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
@@ -5046,64 +5296,62 @@
       <c r="C7" s="21"/>
       <c r="D7" s="21"/>
     </row>
-    <row r="8" spans="1:4" ht="40.5">
+    <row r="8" spans="1:4" s="21" customFormat="1">
       <c r="A8" s="1"/>
-      <c r="B8" s="24" t="s">
-        <v>40</v>
-      </c>
-      <c r="C8" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="D8" s="26" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="B8" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="40.5">
       <c r="A9" s="1"/>
-      <c r="B9" s="3"/>
+      <c r="B9" s="24" t="s">
+        <v>39</v>
+      </c>
       <c r="C9" s="25" t="s">
         <v>30</v>
       </c>
       <c r="D9" s="26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1"/>
-      <c r="B10" s="17" t="s">
-        <v>41</v>
-      </c>
+      <c r="B10" s="3"/>
       <c r="C10" s="25" t="s">
         <v>30</v>
       </c>
       <c r="D10" s="26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1"/>
       <c r="B11" s="17" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C11" s="25" t="s">
         <v>30</v>
       </c>
       <c r="D11" s="26" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1"/>
-      <c r="B12" s="24" t="s">
-        <v>52</v>
-      </c>
-      <c r="C12" s="25"/>
-      <c r="D12" s="26"/>
+      <c r="B12" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" s="26" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="13" spans="1:4" ht="409.5">
       <c r="A13" s="1"/>
       <c r="B13" s="24" t="s">
-        <v>59</v>
+        <v>76</v>
       </c>
       <c r="C13" s="25"/>
       <c r="D13" s="26"/>
@@ -5123,7 +5371,7 @@
     <row r="15" spans="1:4">
       <c r="A15" s="1"/>
       <c r="B15" s="22" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C15" s="25" t="s">
         <v>30</v>
@@ -5147,7 +5395,7 @@
     <row r="18" spans="1:4">
       <c r="A18" s="1"/>
       <c r="B18" s="21" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="C18" s="21"/>
       <c r="D18" s="21"/>
@@ -5155,78 +5403,78 @@
     <row r="19" spans="1:4">
       <c r="A19" s="1"/>
       <c r="B19" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="1"/>
       <c r="B20" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="B21" s="27" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C21" s="25"/>
       <c r="D21"/>
     </row>
     <row r="22" spans="1:4" ht="37.5">
       <c r="B22" s="27" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="C22"/>
       <c r="D22"/>
     </row>
     <row r="23" spans="1:4" ht="393.75">
       <c r="B23" s="27" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C23"/>
       <c r="D23"/>
     </row>
-    <row r="24" spans="1:4" s="21" customFormat="1" ht="75">
+    <row r="24" spans="1:4" s="21" customFormat="1" ht="112.5">
       <c r="B24" s="27" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C24" s="25" t="s">
         <v>30</v>
       </c>
       <c r="D24" s="26" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="B25" s="27" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="C25"/>
       <c r="D25"/>
     </row>
     <row r="26" spans="1:4" ht="37.5">
       <c r="B26" s="11" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C26" s="25"/>
       <c r="D26"/>
     </row>
-    <row r="27" spans="1:4" ht="262.5">
+    <row r="27" spans="1:4" ht="37.5">
       <c r="B27" s="27" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="C27"/>
       <c r="D27"/>
     </row>
     <row r="28" spans="1:4">
       <c r="B28" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C28"/>
       <c r="D28"/>
     </row>
     <row r="29" spans="1:4">
       <c r="B29" s="27" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C29"/>
       <c r="D29"/>
@@ -5804,33 +6052,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <SharedWithUsers xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="f2582d4f-4605-4da6-a8d6-8d696d30c27c">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100AFAE8A2D61E2864A87743AC8EBD33013" ma:contentTypeVersion="17" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="131c1c820a00e4fca6ce65346d03e485">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="f2582d4f-4605-4da6-a8d6-8d696d30c27c" xmlns:ns3="c1e6ffc9-f5b9-4159-9447-bea3a992def6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="555fe79fdee1cb282876e6f1e8fa0f7e" ns2:_="" ns3:_="">
     <xsd:import namespace="f2582d4f-4605-4da6-a8d6-8d696d30c27c"/>
@@ -6079,10 +6300,48 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <SharedWithUsers xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="f2582d4f-4605-4da6-a8d6-8d696d30c27c">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A3B1469-BE58-4E2A-BFC6-1F894EC8921D}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{61B073EA-019B-49F1-927B-E5A470D8398D}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="f2582d4f-4605-4da6-a8d6-8d696d30c27c"/>
+    <ds:schemaRef ds:uri="c1e6ffc9-f5b9-4159-9447-bea3a992def6"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -6099,20 +6358,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{61B073EA-019B-49F1-927B-E5A470D8398D}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A3B1469-BE58-4E2A-BFC6-1F894EC8921D}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="f2582d4f-4605-4da6-a8d6-8d696d30c27c"/>
-    <ds:schemaRef ds:uri="c1e6ffc9-f5b9-4159-9447-bea3a992def6"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/revref_test.xlsx
+++ b/revref_test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\72446246\Documents\wk\業務関連資料\LMS\70.逆引きマニュアル作成\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D6BCD9A-C70A-4409-BE3E-A9401DAB79CF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9168707D-A126-4DA5-BE8C-53DA9832B384}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7605" activeTab="3" xr2:uid="{5CD9017C-176B-471B-A8A0-D3A2BE76D3A3}"/>
   </bookViews>
@@ -2184,44 +2184,10 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t xml:space="preserve"> 問題入力後、各空欄に登録した正解や配点の確認のために「問題テキストをデコードおよび確認する」ボタンをクリックします</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>&lt;b&gt;「全体に対するフィードバック」&lt;/b&gt;は解答後に表示したい内容を入力します</t>
-    <rPh sb="32" eb="34">
-      <t>ナイヨウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>test9.png</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>&lt;ul&gt;&lt;li&gt;&lt;b&gt;「問題名」&lt;/b&gt;を入力します&lt;/li&gt;
-問題テキストは記号を使用して、穴埋め問題を作成してください</t>
-    <rPh sb="32" eb="34">
-      <t>モンダイ</t>
-    </rPh>
-    <rPh sb="39" eb="41">
-      <t>キゴウ</t>
-    </rPh>
-    <rPh sb="42" eb="44">
-      <t>シヨウ</t>
-    </rPh>
-    <rPh sb="47" eb="49">
-      <t>アナウ</t>
-    </rPh>
-    <rPh sb="50" eb="52">
-      <t>モンダイ</t>
-    </rPh>
-    <rPh sb="53" eb="55">
-      <t>サクセイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">参加者へ新しく作成したことや更新したことを通知したい場合は、「コンテンツ変更通知を送信する」にチェックを入れてください
 </t>
@@ -2300,51 +2266,6 @@
     </rPh>
     <rPh sb="124" eb="126">
       <t>ジュシン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>記述例）
-&lt;pre&gt;&lt;code&gt;
-{1:SHORTANSWER:~%100%犬#正解です}も歩けば棒に当たる
-&lt;/code&gt;&lt;/pre&gt;
-と入力すると右の画像のような問題が作成されます
-学生は「犬」と解答すると評点の100%が得点に加算されます</t>
-    <rPh sb="0" eb="3">
-      <t>キジュツレイ</t>
-    </rPh>
-    <rPh sb="70" eb="72">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="75" eb="76">
-      <t>ミギ</t>
-    </rPh>
-    <rPh sb="77" eb="79">
-      <t>ガゾウ</t>
-    </rPh>
-    <rPh sb="83" eb="85">
-      <t>モンダイ</t>
-    </rPh>
-    <rPh sb="86" eb="88">
-      <t>サクセイ</t>
-    </rPh>
-    <rPh sb="93" eb="95">
-      <t>ガクセイ</t>
-    </rPh>
-    <rPh sb="97" eb="98">
-      <t>イヌ</t>
-    </rPh>
-    <rPh sb="100" eb="102">
-      <t>カイトウ</t>
-    </rPh>
-    <rPh sb="105" eb="107">
-      <t>ヒョウテン</t>
-    </rPh>
-    <rPh sb="113" eb="115">
-      <t>トクテン</t>
-    </rPh>
-    <rPh sb="116" eb="118">
-      <t>カサン</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -2605,26 +2526,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>必要に応じて&lt;b&gt;「複数受験」&lt;/b&gt;の設定を行います
-複数受験を許可している場合、不正解に対する減点の割合やヒントの設定をすることができます</t>
-    <rPh sb="10" eb="12">
-      <t>フクスウ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ジュケン</t>
-    </rPh>
-    <rPh sb="23" eb="24">
-      <t>オコナ</t>
-    </rPh>
-    <rPh sb="33" eb="35">
-      <t>キョカ</t>
-    </rPh>
-    <rPh sb="39" eb="41">
-      <t>バアイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>必要に応じて、各項目を設定してください
 &lt;ul&gt;
 &lt;li&gt;&lt;b&gt;「デフォルト評点」&lt;/b&gt;はこの問題に正解したときに得られる得点を入力します&lt;/li&gt;
@@ -2679,6 +2580,102 @@
     </rPh>
     <rPh sb="651" eb="653">
       <t>キョカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;ul&gt;&lt;li&gt;&lt;b&gt;「問題名」&lt;/b&gt;を入力します&lt;/li&gt;
+&lt;li&gt;&lt;b&gt;問題テキストは記号を使用して、穴埋め問題を作成してください</t>
+    <rPh sb="39" eb="41">
+      <t>モンダイ</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>キゴウ</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="54" eb="56">
+      <t>アナウ</t>
+    </rPh>
+    <rPh sb="57" eb="59">
+      <t>モンダイ</t>
+    </rPh>
+    <rPh sb="60" eb="62">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>記述例）
+&lt;pre&gt;&lt;code&gt;
+{1:SHORTANSWER:~%100%犬#正解です}も歩けば棒に当たる
+&lt;/code&gt;&lt;/pre&gt;
+と入力すると右の画像のような問題が作成されます
+学生は「犬」と解答すると評点の100%が得点に加算されます&lt;/li&gt;</t>
+    <rPh sb="0" eb="3">
+      <t>キジュツレイ</t>
+    </rPh>
+    <rPh sb="70" eb="72">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="75" eb="76">
+      <t>ミギ</t>
+    </rPh>
+    <rPh sb="77" eb="79">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="83" eb="85">
+      <t>モンダイ</t>
+    </rPh>
+    <rPh sb="86" eb="88">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="93" eb="95">
+      <t>ガクセイ</t>
+    </rPh>
+    <rPh sb="97" eb="98">
+      <t>イヌ</t>
+    </rPh>
+    <rPh sb="100" eb="102">
+      <t>カイトウ</t>
+    </rPh>
+    <rPh sb="105" eb="107">
+      <t>ヒョウテン</t>
+    </rPh>
+    <rPh sb="113" eb="115">
+      <t>トクテン</t>
+    </rPh>
+    <rPh sb="116" eb="118">
+      <t>カサン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;li&gt;&lt;b&gt;「全体に対するフィードバック」&lt;/b&gt;は解答後に表示したい内容を入力します</t>
+    <rPh sb="36" eb="38">
+      <t>ナイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 問題入力後、各空欄に登録した正解や配点の確認のために「問題テキストをデコードおよび確認する」ボタンをクリックします&lt;/li&gt;</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;li&gt;&lt;b&gt;「複数受験」&lt;/b&gt;は複数受験を許可している場合、不正解に対する減点の割合やヒントの設定をすることができます&lt;/li&gt;
+&lt;/ul&gt;</t>
+    <rPh sb="8" eb="10">
+      <t>フクスウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ジュケン</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>キョカ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>バアイ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -4425,13 +4422,13 @@
     <row r="7" spans="1:4" s="21" customFormat="1">
       <c r="A7" s="1"/>
       <c r="B7" s="3" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:4" s="21" customFormat="1">
       <c r="A8" s="1"/>
       <c r="B8" s="3" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="40.5">
@@ -4499,7 +4496,7 @@
     <row r="15" spans="1:4" ht="54">
       <c r="A15" s="1"/>
       <c r="B15" s="24" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C15" s="25" t="s">
         <v>30</v>
@@ -4526,7 +4523,7 @@
     <row r="18" spans="1:2">
       <c r="A18" s="1"/>
       <c r="B18" s="3" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="19" spans="1:2" s="21" customFormat="1">
@@ -4556,7 +4553,7 @@
     <row r="23" spans="1:2" s="21" customFormat="1" ht="229.5">
       <c r="A23" s="1"/>
       <c r="B23" s="3" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -5089,7 +5086,7 @@
     <row r="8" spans="1:4" s="21" customFormat="1">
       <c r="A8" s="1"/>
       <c r="B8" s="3" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="9" spans="1:4" s="21" customFormat="1" ht="40.5">
@@ -5157,7 +5154,7 @@
     <row r="15" spans="1:4" s="21" customFormat="1" ht="54">
       <c r="A15" s="1"/>
       <c r="B15" s="24" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C15" s="25" t="s">
         <v>30</v>
@@ -5187,7 +5184,7 @@
     <row r="19" spans="1:2">
       <c r="A19" s="1"/>
       <c r="B19" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="20" spans="1:2" s="21" customFormat="1">
@@ -5217,7 +5214,7 @@
     <row r="24" spans="1:2" s="21" customFormat="1" ht="175.5">
       <c r="A24" s="1"/>
       <c r="B24" s="3" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -5299,7 +5296,7 @@
     <row r="8" spans="1:4" s="21" customFormat="1">
       <c r="A8" s="1"/>
       <c r="B8" s="3" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="40.5">
@@ -5351,7 +5348,7 @@
     <row r="13" spans="1:4" ht="409.5">
       <c r="A13" s="1"/>
       <c r="B13" s="24" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C13" s="25"/>
       <c r="D13" s="26"/>
@@ -5395,7 +5392,7 @@
     <row r="18" spans="1:4">
       <c r="A18" s="1"/>
       <c r="B18" s="21" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C18" s="21"/>
       <c r="D18" s="21"/>
@@ -5421,7 +5418,7 @@
     </row>
     <row r="22" spans="1:4" ht="37.5">
       <c r="B22" s="27" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="C22"/>
       <c r="D22"/>
@@ -5435,32 +5432,32 @@
     </row>
     <row r="24" spans="1:4" s="21" customFormat="1" ht="112.5">
       <c r="B24" s="27" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="C24" s="25" t="s">
         <v>30</v>
       </c>
       <c r="D24" s="26" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="B25" s="27" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="C25"/>
       <c r="D25"/>
     </row>
     <row r="26" spans="1:4" ht="37.5">
       <c r="B26" s="11" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="C26" s="25"/>
       <c r="D26"/>
     </row>
-    <row r="27" spans="1:4" ht="37.5">
+    <row r="27" spans="1:4" ht="56.25">
       <c r="B27" s="27" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C27"/>
       <c r="D27"/>
@@ -6052,6 +6049,33 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <SharedWithUsers xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="f2582d4f-4605-4da6-a8d6-8d696d30c27c">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100AFAE8A2D61E2864A87743AC8EBD33013" ma:contentTypeVersion="17" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="131c1c820a00e4fca6ce65346d03e485">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="f2582d4f-4605-4da6-a8d6-8d696d30c27c" xmlns:ns3="c1e6ffc9-f5b9-4159-9447-bea3a992def6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="555fe79fdee1cb282876e6f1e8fa0f7e" ns2:_="" ns3:_="">
     <xsd:import namespace="f2582d4f-4605-4da6-a8d6-8d696d30c27c"/>
@@ -6300,34 +6324,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <SharedWithUsers xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="f2582d4f-4605-4da6-a8d6-8d696d30c27c">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A3B1469-BE58-4E2A-BFC6-1F894EC8921D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A965309B-2D00-4C69-AAF2-00F76E145C17}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="c1e6ffc9-f5b9-4159-9447-bea3a992def6"/>
+    <ds:schemaRef ds:uri="f2582d4f-4605-4da6-a8d6-8d696d30c27c"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{61B073EA-019B-49F1-927B-E5A470D8398D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6344,23 +6360,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A965309B-2D00-4C69-AAF2-00F76E145C17}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="c1e6ffc9-f5b9-4159-9447-bea3a992def6"/>
-    <ds:schemaRef ds:uri="f2582d4f-4605-4da6-a8d6-8d696d30c27c"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A3B1469-BE58-4E2A-BFC6-1F894EC8921D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/revref_test.xlsx
+++ b/revref_test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\72446246\Documents\wk\業務関連資料\LMS\70.逆引きマニュアル作成\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9168707D-A126-4DA5-BE8C-53DA9832B384}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF3A3338-EE24-4C68-8039-B4291AC98A67}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7605" activeTab="3" xr2:uid="{5CD9017C-176B-471B-A8A0-D3A2BE76D3A3}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7605" activeTab="13" xr2:uid="{5CD9017C-176B-471B-A8A0-D3A2BE76D3A3}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="8" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="119">
   <si>
     <t>header1</t>
   </si>
@@ -121,9 +121,6 @@
   </si>
   <si>
     <t>〇〇形式の問題を作りたい</t>
-  </si>
-  <si>
-    <t>解答群から複数選択できる質問で、選択状態が完全に正しくないと配点しないようにしたい</t>
   </si>
   <si>
     <t>用意された質問群のなかから、ランダムに出題したい</t>
@@ -319,22 +316,6 @@
     </rPh>
     <rPh sb="8" eb="9">
       <t>ショウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>コース名の下に表示されているメニューの「受験結果」をクリックします</t>
-    <rPh sb="3" eb="4">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>シタ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="20" eb="24">
-      <t>ジュケンケッカ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -2160,27 +2141,7 @@
     <t>「小テストの編集」画面で、問題が追加されていることを確認します。</t>
   </si>
   <si>
-    <t>&lt;small&gt;※ 穴埋め問題で使用する記号は以下となります。&lt;/small&gt; 
-&lt;table border="1" width="550"&gt;
-    &lt;tr&gt;
-      &lt;td&gt; {} &lt;/td&gt;&lt;td&gt; 問題となる部分全体をくくります&lt;/td&gt;
-    &lt;/tr&gt;
-    &lt;tr&gt;
-      &lt;td&gt; ｛1 (フォーマット先頭の数字) &lt;/td&gt;&lt;td&gt; 問題の比重（配点）を表します&lt;/td&gt;
-    &lt;/tr&gt;
-    &lt;tr&gt;
-      &lt;td&gt; : （半角コロン） &lt;/td&gt;&lt;td&gt; 問題形式をくくります&lt;/td&gt;
-    &lt;/tr&gt;
-    &lt;tr&gt;
-      &lt;td&gt; ~ &lt;/td&gt;&lt;td&gt; 答と答の区切り記号です&lt;/td&gt;
-   &lt;/tr&gt;
-    &lt;tr&gt;
-      &lt;td&gt; # &lt;/td&gt;&lt;td&gt; 答とフィードバックの間を区切ります&lt;/td&gt;
-    &lt;/tr&gt;
-    &lt;tr&gt;
-      &lt;td&gt; =  &lt;/td&gt;&lt;td&gt; 以下に続く答えが正答であることを示します&lt;/td&gt;
-    &lt;/tr&gt;
-  &lt;/table&gt;</t>
+    <t xml:space="preserve"> 問題入力後、各空欄に登録した正解や配点の確認のために「問題テキストをデコードおよび確認する」ボタンをクリックします</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -2584,29 +2545,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>&lt;ul&gt;&lt;li&gt;&lt;b&gt;「問題名」&lt;/b&gt;を入力します&lt;/li&gt;
-&lt;li&gt;&lt;b&gt;問題テキストは記号を使用して、穴埋め問題を作成してください</t>
-    <rPh sb="39" eb="41">
-      <t>モンダイ</t>
-    </rPh>
-    <rPh sb="46" eb="48">
-      <t>キゴウ</t>
-    </rPh>
-    <rPh sb="49" eb="51">
-      <t>シヨウ</t>
-    </rPh>
-    <rPh sb="54" eb="56">
-      <t>アナウ</t>
-    </rPh>
-    <rPh sb="57" eb="59">
-      <t>モンダイ</t>
-    </rPh>
-    <rPh sb="60" eb="62">
-      <t>サクセイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>記述例）
 &lt;pre&gt;&lt;code&gt;
 {1:SHORTANSWER:~%100%犬#正解です}も歩けば棒に当たる
@@ -2652,30 +2590,777 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>&lt;li&gt;&lt;b&gt;「全体に対するフィードバック」&lt;/b&gt;は解答後に表示したい内容を入力します</t>
+    <t>&lt;ul&gt;&lt;li&gt;&lt;b&gt;「問題名」&lt;/b&gt;を入力します&lt;/li&gt;
+&lt;li&gt;&lt;b&gt;「問題テキスト」&lt;/b&gt;は記号を使用して、穴埋め問題を作成してください
+&lt;small&gt;※ 穴埋め問題で使用する記号は以下となります。&lt;/small&gt; 
+&lt;table border="1" width="550"&gt;
+    &lt;tr&gt;
+      &lt;td&gt; {} &lt;/td&gt;&lt;td&gt; 問題となる部分全体をくくります&lt;/td&gt;
+    &lt;/tr&gt;
+    &lt;tr&gt;
+      &lt;td&gt; ｛1 (フォーマット先頭の数字) &lt;/td&gt;&lt;td&gt; 問題の比重（配点）を表します&lt;/td&gt;
+    &lt;/tr&gt;
+    &lt;tr&gt;
+      &lt;td&gt; : （半角コロン） &lt;/td&gt;&lt;td&gt; 問題形式をくくります&lt;/td&gt;
+    &lt;/tr&gt;
+    &lt;tr&gt;
+      &lt;td&gt; ~ &lt;/td&gt;&lt;td&gt; 答と答の区切り記号です&lt;/td&gt;
+   &lt;/tr&gt;
+    &lt;tr&gt;
+      &lt;td&gt; # &lt;/td&gt;&lt;td&gt; 答とフィードバックの間を区切ります&lt;/td&gt;
+    &lt;/tr&gt;
+    &lt;tr&gt;
+      &lt;td&gt; =  &lt;/td&gt;&lt;td&gt; 以下に続く答えが正答であることを示します&lt;/td&gt;
+    &lt;/tr&gt;
+  &lt;/table&gt;</t>
+    <rPh sb="40" eb="42">
+      <t>モンダイ</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>キゴウ</t>
+    </rPh>
+    <rPh sb="55" eb="57">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="60" eb="62">
+      <t>アナウ</t>
+    </rPh>
+    <rPh sb="63" eb="65">
+      <t>モンダイ</t>
+    </rPh>
+    <rPh sb="66" eb="68">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;li&gt;&lt;b&gt;「全体に対するフィードバック」&lt;/b&gt;は解答後に表示したい内容を入力します&lt;/li&gt;&lt;/ul&gt;</t>
     <rPh sb="36" eb="38">
       <t>ナイヨウ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t xml:space="preserve"> 問題入力後、各空欄に登録した正解や配点の確認のために「問題テキストをデコードおよび確認する」ボタンをクリックします&lt;/li&gt;</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>&lt;li&gt;&lt;b&gt;「複数受験」&lt;/b&gt;は複数受験を許可している場合、不正解に対する減点の割合やヒントの設定をすることができます&lt;/li&gt;
-&lt;/ul&gt;</t>
+    <t>&lt;b&gt;「複数受験」&lt;/b&gt;は複数受験を許可している場合、不正解に対する減点の割合やヒントの設定をすることができます</t>
+    <rPh sb="4" eb="6">
+      <t>フクスウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ジュケン</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>キョカ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>作成中です</t>
+    <rPh sb="0" eb="2">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>チュウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>解答群から複数選択できる質問で、選択状態が完全に正しくないと配点しないようにしたい</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;a href="https://support.vle.hiroshima-u.ac.jp/mdl:faqk#q%E8%A4%87%E6%95%B0%E9%81%B8%E6%8A%9E%E3%81%99%E3%82%8B%E5%95%8F%E9%A1%8C%E3%81%A7_%E9%81%8E%E4%B8%8D%E8%B6%B3%E3%81%AA%E3%81%8F%E6%AD%A3%E8%A7%A3%E3%81%AE%E9%81%B8%E6%8A%9E%E8%82%A2%E3%82%92%E9%81%B8%E3%82%93%E3%81%A0%E3%81%A8%E3%81%8D%E3%81%A0%E3%81%91%E7%82%B9%E6%95%B0%E3%81%8C%E3%81%A7%E3%82%8B%E3%82%88%E3%81%86%E3%81%AB%E3%81%97%E3%81%9F%E3%81%84"&gt;FAQ&lt;/a&gt;を参照</t>
+    <rPh sb="419" eb="421">
+      <t>サンショウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>作成中</t>
+    <rPh sb="0" eb="3">
+      <t>サクセイチュウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ランダム問題について</t>
+    <rPh sb="4" eb="6">
+      <t>モンダイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>シャッフル</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>chartn</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>test-s2.png</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;h3&gt;設定例：受験後の正解非表示&lt;/h3&gt;デフォルトの状態では、テストの問題、学生の解答、解答の正誤などが表示されるようになっています&lt;br&gt;受験を終わった学生はすぐに正解を知ることができます&lt;br&gt;&lt;br&gt;例えばグループごとに受験時期をずらしてテストを課す場合など、受験後の学生にテストの正解を見せたくない時は、&lt;b&gt;「答えの正誤」&lt;/b&gt;や&lt;b&gt;「正解」&lt;/b&gt;のチェックを外すとテストの正解を隠すことができます&lt;br&gt;&lt;br&gt;また、テストの正解だけでなく、問題や評点も見せたくない場合は、&lt;b&gt;すべてのチェック&lt;/b&gt;を外したください&lt;br&gt;そうすると「評定」にも評点が表示されなくなります。この場合、学生がテストを開いた場合に表示されるのは、受験回数と受験日時のみです</t>
+    <rPh sb="4" eb="6">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>レイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;h5&gt;小テストの設定項目「レビューオプション」を設定することで、学生への結果表示を調節することができます&lt;/h5&gt;</t>
+    <rPh sb="4" eb="5">
+      <t>ショウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ガクセイ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>チョウセツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>編集モードをONにし、対象の小テストを開いてください</t>
+    <rPh sb="0" eb="2">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>タイショウ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ショウ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ヒラ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>小テスト名の下に表示されているメニューの「受験結果」をクリックします</t>
+    <rPh sb="0" eb="1">
+      <t>ショウ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>シタ</t>
+    </rPh>
     <rPh sb="8" eb="10">
-      <t>フクスウ</t>
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="21" eb="25">
+      <t>ジュケンケッカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>小テスト名の下に表示されているメニューの「設定」をクリックします</t>
+    <rPh sb="0" eb="1">
+      <t>ショウ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;b&gt;「レビューオプション」&lt;/b&gt;を設定していきます</t>
+    <rPh sb="19" eb="21">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>学生が小テストの受験結果のうちのどの情報を確認できるか、またいつ確認できるかを指定します
+チェックボックスにチェックされている項目がそのタイミングで表示されます</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;h4&gt;学生の受験直後&lt;/h4&gt;学生が小テストを終えて「すべてを送信して終了する」ボタンをクリックしてから 2 分以内です。</t>
+    <rPh sb="4" eb="6">
+      <t>ガクセイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>チョクゴ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>&lt;h4&gt;学生の受験後、小テストがクローズされるまで&lt;/h4&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>受験を終了した後でかつ小テスト終了日時より前です</t>
+    </r>
+    <rPh sb="4" eb="6">
+      <t>ガクセイ</t>
+    </rPh>
+    <rPh sb="7" eb="10">
+      <t>ジュケンゴ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ショウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;h4&gt;学生の受験最中&lt;/h4&gt;「複数受験」のような、特定の挙動のみに関連します。</t>
+    <rPh sb="4" eb="6">
+      <t>ガクセイ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>サイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;h4&gt;小テストのクローズ後&lt;/h4&gt;小テスト終了日時を経過した後です。小テストに終了日時が設定されていない場合は無視されます&lt;br&gt;&lt;br&gt;</t>
+    <rPh sb="13" eb="14">
+      <t>ゴ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;h3&gt;小テストの設定&lt;/h3&gt;</t>
+    <rPh sb="4" eb="5">
+      <t>ショウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>h3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>&gt;使用上の注意：バージョン管理</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>&lt;/h3&gt;</t>
+    </r>
+    <rPh sb="4" eb="7">
+      <t>シヨウジョウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>チュウイ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;h3&gt;小テストの問題を再利用する方法&lt;/h3&gt;</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>小テストに登録した問題は「問題バンク」に登録されます。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>また「問題バンク」内でも問題を作成することができます
+「問題バンク」の問題は、他の小テストに再利用できるだけでなく、コース内の他の教員も利用することができます</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;h3&gt;問題バンクから問題を再利用する方法&lt;/h3&gt;</t>
+    <rPh sb="4" eb="6">
+      <t>モンダイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>モンダイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>問題バンクとは利用する問題の保管庫の役割を担うもので、小テストから問題バンクの問題を参照して使用することができます。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>h4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>&gt;小テストで使用する問題のバージョンの設定方法</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>&lt;/h4&gt;</t>
+    </r>
+    <rPh sb="4" eb="5">
+      <t>ショウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>モンダイ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ホウホウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>小テストで参照する問題は最新バージョンを常に参照するか、特定のバージョンを参照するかを指定することができます</t>
+    <rPh sb="0" eb="1">
+      <t>ショウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>サンショウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>モンダイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>サイシン</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ツネ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>サンショウ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>トクテイ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>サンショウ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>シテイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>小テスト名の下に表示されているメニューの「問題」をクリックします</t>
+    <rPh sb="0" eb="1">
+      <t>ショウ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>モンダイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「追加」をクリックします</t>
+    <rPh sb="1" eb="3">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「＋問題バンクから」をクリックします</t>
+    <rPh sb="2" eb="4">
+      <t>モンダイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>例）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>小テスト</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t>A</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>の問題1を</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>小テスト</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t>B</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>で再利用している場合</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">
+小テスト</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>Bで再利用する際に、問題の内容を修正してしまうと小テストA内の問題1の内容も変わってしまいます</t>
+    </r>
+    <rPh sb="0" eb="1">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ショウ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ショウ</t>
+    </rPh>
+    <rPh sb="18" eb="21">
+      <t>サイリヨウ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>ショウ</t>
+    </rPh>
+    <rPh sb="34" eb="37">
+      <t>サイリヨウ</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>モンダイ</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="56" eb="57">
+      <t>ショウ</t>
+    </rPh>
+    <rPh sb="61" eb="62">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="63" eb="65">
+      <t>モンダイ</t>
+    </rPh>
+    <rPh sb="67" eb="69">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="70" eb="71">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1つ問題を複数の小テストから参照している場合、常に最新バージョンを参照するように設定していると、
+問題が編集されると小テスト内の問題も更新されてしまうため注意が必要です</t>
+    <rPh sb="49" eb="51">
+      <t>モンダイ</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <rPh sb="58" eb="59">
+      <t>ショウ</t>
+    </rPh>
+    <rPh sb="62" eb="63">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="64" eb="66">
+      <t>モンダイ</t>
+    </rPh>
+    <rPh sb="67" eb="69">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="77" eb="79">
+      <t>チュウイ</t>
+    </rPh>
+    <rPh sb="80" eb="82">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>利用したい問題にチェックを入れます</t>
+    <rPh sb="0" eb="2">
+      <t>リヨウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>モンダイ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>イ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「選択した問題を小テストに追加する」をクリックする</t>
+    <rPh sb="1" eb="3">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>モンダイ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ショウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>bank1.png</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>bank2.png</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>bank3.png</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>バージョンを変更し、右横にある虫眼鏡マークをクリックするとそのバージョンの問題がプレビューで確認できます</t>
+    <rPh sb="6" eb="8">
+      <t>ヘンコウ</t>
     </rPh>
     <rPh sb="10" eb="12">
-      <t>ジュケン</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>キョカ</t>
-    </rPh>
-    <rPh sb="29" eb="31">
-      <t>バアイ</t>
+      <t>ミギヨコ</t>
+    </rPh>
+    <rPh sb="15" eb="18">
+      <t>ムシメガネ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>モンダイ</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>各問題の横に表示されている「常に最新」をクリックして、特定のバージョンを選んでください</t>
+    <rPh sb="0" eb="3">
+      <t>カクモンダイ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ヨコ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ツネ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>サイシン</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>トクテイ</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>エラ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>moodleは問題のバージョン管理を行っています
+問題を編集するたびに、新しいバージョンに更新されます
+（問題を作成すると「</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>v1」になり、その問題を編集し保存すると「v2」となる）</t>
+    </r>
+    <rPh sb="7" eb="9">
+      <t>モンダイ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>モンダイ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>アタラ</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>モンダイ</t>
+    </rPh>
+    <rPh sb="56" eb="58">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="71" eb="73">
+      <t>モンダイ</t>
+    </rPh>
+    <rPh sb="74" eb="76">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <rPh sb="77" eb="79">
+      <t>ホゾン</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -2684,7 +3369,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2755,6 +3440,26 @@
       <family val="3"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -2778,7 +3483,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2858,6 +3563,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3233,7 +3941,7 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -3253,7 +3961,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -3282,7 +3990,9 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1"/>
-      <c r="B7" s="3"/>
+      <c r="B7" s="3" t="s">
+        <v>81</v>
+      </c>
       <c r="C7" s="5"/>
       <c r="D7" s="6"/>
     </row>
@@ -3343,128 +4053,6 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97CA7D00-3CE9-4FAB-ABCE-6F83EB66B458}">
-  <dimension ref="A1:D21"/>
-  <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
-  <cols>
-    <col min="1" max="1" width="9" style="2"/>
-    <col min="2" max="2" width="103.875" style="2" customWidth="1"/>
-    <col min="3" max="16384" width="9" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="1"/>
-      <c r="B5" s="4"/>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="1"/>
-      <c r="B6" s="3"/>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="1"/>
-      <c r="B7" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="6"/>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="1"/>
-      <c r="B8" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="6"/>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="1"/>
-      <c r="B9" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="C9" s="5"/>
-      <c r="D9" s="6"/>
-    </row>
-    <row r="10" spans="1:4" ht="27">
-      <c r="A10" s="1"/>
-      <c r="B10" s="22" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="1"/>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="1"/>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="1"/>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="1"/>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="1"/>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="1"/>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" s="1"/>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18" s="1"/>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19" s="1"/>
-    </row>
-    <row r="20" spans="1:1">
-      <c r="A20" s="1"/>
-    </row>
-    <row r="21" spans="1:1">
-      <c r="A21" s="1"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE888650-29AB-44D9-93E0-6544C395E693}">
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -3488,7 +4076,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>18</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -3517,24 +4105,33 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1"/>
-      <c r="B7" s="3"/>
+      <c r="B7" s="22" t="s">
+        <v>47</v>
+      </c>
       <c r="C7" s="5"/>
       <c r="D7" s="6"/>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1"/>
-      <c r="B8" s="3"/>
+      <c r="B8" s="23" t="s">
+        <v>45</v>
+      </c>
       <c r="C8" s="5"/>
       <c r="D8" s="6"/>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1"/>
-      <c r="B9" s="3"/>
+      <c r="B9" s="22" t="s">
+        <v>89</v>
+      </c>
       <c r="C9" s="5"/>
       <c r="D9" s="6"/>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" ht="27">
       <c r="A10" s="1"/>
+      <c r="B10" s="22" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1"/>
@@ -3568,6 +4165,179 @@
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE888650-29AB-44D9-93E0-6544C395E693}">
+  <dimension ref="A1:D25"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9:XFD10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <cols>
+    <col min="1" max="1" width="9" style="2"/>
+    <col min="2" max="2" width="103.875" style="2" customWidth="1"/>
+    <col min="3" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1"/>
+      <c r="B5" s="4"/>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="1"/>
+      <c r="B6" s="3"/>
+    </row>
+    <row r="7" spans="1:4" s="21" customFormat="1">
+      <c r="A7" s="1"/>
+      <c r="B7" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="1"/>
+      <c r="B8" t="s">
+        <v>87</v>
+      </c>
+      <c r="C8"/>
+      <c r="D8"/>
+    </row>
+    <row r="9" spans="1:4" s="21" customFormat="1">
+      <c r="A9" s="1"/>
+      <c r="B9" t="s">
+        <v>88</v>
+      </c>
+      <c r="C9"/>
+      <c r="D9"/>
+    </row>
+    <row r="10" spans="1:4" s="21" customFormat="1">
+      <c r="A10" s="1"/>
+      <c r="B10" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="C10"/>
+      <c r="D10"/>
+    </row>
+    <row r="11" spans="1:4" s="21" customFormat="1">
+      <c r="A11" s="1"/>
+      <c r="B11" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="C11"/>
+      <c r="D11"/>
+    </row>
+    <row r="12" spans="1:4" ht="27">
+      <c r="A12" s="1"/>
+      <c r="B12" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="C12" s="25" t="s">
+        <v>84</v>
+      </c>
+      <c r="D12" s="26" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="1"/>
+      <c r="B13" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="1"/>
+      <c r="B14" s="22" t="s">
+        <v>93</v>
+      </c>
+      <c r="C14"/>
+      <c r="D14"/>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="1"/>
+      <c r="B15" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="C15"/>
+      <c r="D15"/>
+    </row>
+    <row r="16" spans="1:4" ht="27">
+      <c r="A16" s="1"/>
+      <c r="B16" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="C16"/>
+      <c r="D16"/>
+    </row>
+    <row r="17" spans="1:4" ht="81">
+      <c r="A17" s="1"/>
+      <c r="B17" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="C17"/>
+      <c r="D17"/>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="1"/>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="1"/>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="1"/>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="1"/>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="1"/>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="1"/>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="1"/>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
@@ -3578,9 +4348,233 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0599CD2D-A19F-491F-9CE9-A195EBA2FB94}">
+  <dimension ref="A1:D30"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <cols>
+    <col min="1" max="1" width="9" style="2"/>
+    <col min="2" max="2" width="103.875" style="2" customWidth="1"/>
+    <col min="3" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1"/>
+      <c r="B5" s="4"/>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="1"/>
+      <c r="B6" s="3"/>
+    </row>
+    <row r="7" spans="1:4" s="21" customFormat="1">
+      <c r="A7" s="1"/>
+      <c r="B7" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" s="21" customFormat="1">
+      <c r="A8" s="1"/>
+      <c r="B8" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" s="21" customFormat="1">
+      <c r="A9" s="1"/>
+      <c r="B9" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="40.5">
+      <c r="A10" s="1"/>
+      <c r="B10" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="C10" s="5"/>
+      <c r="D10" s="6"/>
+    </row>
+    <row r="11" spans="1:4" s="21" customFormat="1">
+      <c r="A11" s="1"/>
+      <c r="B11" s="23"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="26"/>
+    </row>
+    <row r="12" spans="1:4" s="21" customFormat="1">
+      <c r="A12" s="1"/>
+      <c r="B12" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C12" s="25"/>
+      <c r="D12" s="26"/>
+    </row>
+    <row r="13" spans="1:4" s="21" customFormat="1">
+      <c r="A13" s="1"/>
+      <c r="B13" t="s">
+        <v>88</v>
+      </c>
+      <c r="C13"/>
+      <c r="D13"/>
+    </row>
+    <row r="14" spans="1:4" s="21" customFormat="1">
+      <c r="A14" s="1"/>
+      <c r="B14" s="22" t="s">
+        <v>106</v>
+      </c>
+      <c r="C14"/>
+      <c r="D14"/>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="1"/>
+      <c r="B15" s="17" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" s="21" customFormat="1">
+      <c r="A16" s="1"/>
+      <c r="B16" s="17" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" s="21" customFormat="1">
+      <c r="A17" s="1"/>
+      <c r="B17" s="28" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" s="21" customFormat="1">
+      <c r="A18" s="1"/>
+      <c r="B18" s="28" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="1"/>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="1"/>
+      <c r="B20" s="17" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="40.5">
+      <c r="A21" s="1"/>
+      <c r="B21" s="24" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="1"/>
+      <c r="B22" s="17" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" s="21" customFormat="1" ht="27">
+      <c r="A23" s="1"/>
+      <c r="B23" s="24" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" s="21" customFormat="1" ht="32.25">
+      <c r="A24" s="1"/>
+      <c r="B24" s="24" t="s">
+        <v>109</v>
+      </c>
+      <c r="C24" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="D24" s="21" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" s="21" customFormat="1">
+      <c r="A25" s="1"/>
+      <c r="B25" s="24"/>
+      <c r="C25" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="D25" s="21" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="1"/>
+      <c r="B26" s="17" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="1"/>
+      <c r="B27" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="1"/>
+      <c r="B28" s="22" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="1"/>
+      <c r="B29" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C29" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="D29" s="21" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="1"/>
+      <c r="B30" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09EECFC8-488D-48E9-8D75-D6B3BBDB7240}">
   <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
@@ -3600,121 +4594,8 @@
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="10" t="s">
         <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="1"/>
-      <c r="B5" s="4"/>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="1"/>
-      <c r="B6" s="3"/>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="1"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="6"/>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="1"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="6"/>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="1"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="6"/>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="1"/>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="1"/>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="1"/>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="1"/>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="1"/>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="1"/>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="1"/>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" s="1"/>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18" s="1"/>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19" s="1"/>
-    </row>
-    <row r="20" spans="1:1">
-      <c r="A20" s="1"/>
-    </row>
-    <row r="21" spans="1:1">
-      <c r="A21" s="1"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09EECFC8-488D-48E9-8D75-D6B3BBDB7240}">
-  <dimension ref="A1:D21"/>
-  <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
-  <cols>
-    <col min="1" max="1" width="9" style="2"/>
-    <col min="2" max="2" width="103.875" style="2" customWidth="1"/>
-    <col min="3" max="16384" width="9" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -3827,7 +4708,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -3940,7 +4821,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -4053,7 +4934,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -4166,7 +5047,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -4279,7 +5160,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -4371,8 +5252,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D077C58-5FEC-48A5-A5C6-05E88FEFA561}">
   <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -4422,65 +5303,65 @@
     <row r="7" spans="1:4" s="21" customFormat="1">
       <c r="A7" s="1"/>
       <c r="B7" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:4" s="21" customFormat="1">
       <c r="A8" s="1"/>
       <c r="B8" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="40.5">
       <c r="A9" s="1"/>
       <c r="B9" s="12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C9" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="14" t="s">
         <v>30</v>
-      </c>
-      <c r="D9" s="14" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1"/>
       <c r="B10" s="3"/>
       <c r="C10" s="15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D10" s="16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1"/>
       <c r="B11" s="17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D11" s="20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1"/>
       <c r="B12" s="17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C12" s="19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D12" s="20" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1"/>
       <c r="B13" s="18" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C13" s="19"/>
       <c r="D13" s="20"/>
@@ -4488,7 +5369,7 @@
     <row r="14" spans="1:4" s="21" customFormat="1" ht="409.5">
       <c r="A14" s="1"/>
       <c r="B14" s="24" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C14" s="25"/>
       <c r="D14" s="26"/>
@@ -4496,25 +5377,25 @@
     <row r="15" spans="1:4" ht="54">
       <c r="A15" s="1"/>
       <c r="B15" s="24" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C15" s="25" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D15" s="26" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="1"/>
       <c r="B16" s="22" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C16" s="25" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D16" s="26" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -4523,47 +5404,47 @@
     <row r="18" spans="1:2">
       <c r="A18" s="1"/>
       <c r="B18" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="19" spans="1:2" s="21" customFormat="1">
       <c r="A19" s="1"/>
       <c r="B19" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="20" spans="1:2" s="21" customFormat="1">
       <c r="A20" s="1"/>
       <c r="B20" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1"/>
       <c r="B21" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1"/>
       <c r="B22" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="23" spans="1:2" s="21" customFormat="1" ht="229.5">
       <c r="A23" s="1"/>
       <c r="B23" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="B24" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="B25" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -4598,7 +5479,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -4711,7 +5592,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -4824,7 +5705,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -4937,7 +5818,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -5029,7 +5910,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFABB89B-389D-4E53-86E8-1C489CE9D7CA}">
   <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
@@ -5080,65 +5961,65 @@
     <row r="7" spans="1:4" s="21" customFormat="1">
       <c r="A7" s="1"/>
       <c r="B7" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:4" s="21" customFormat="1">
       <c r="A8" s="1"/>
       <c r="B8" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:4" s="21" customFormat="1" ht="40.5">
       <c r="A9" s="1"/>
       <c r="B9" s="24" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C9" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="26" t="s">
         <v>30</v>
-      </c>
-      <c r="D9" s="26" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:4" s="21" customFormat="1">
       <c r="A10" s="1"/>
       <c r="B10" s="3"/>
       <c r="C10" s="25" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D10" s="26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:4" s="21" customFormat="1">
       <c r="A11" s="1"/>
       <c r="B11" s="17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C11" s="25" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D11" s="26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:4" s="21" customFormat="1">
       <c r="A12" s="1"/>
       <c r="B12" s="17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C12" s="25" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D12" s="26" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:4" s="21" customFormat="1">
       <c r="A13" s="1"/>
       <c r="B13" s="24" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C13" s="25"/>
       <c r="D13" s="26"/>
@@ -5146,7 +6027,7 @@
     <row r="14" spans="1:4" s="21" customFormat="1" ht="409.5">
       <c r="A14" s="1"/>
       <c r="B14" s="24" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C14" s="25"/>
       <c r="D14" s="26"/>
@@ -5154,25 +6035,25 @@
     <row r="15" spans="1:4" s="21" customFormat="1" ht="54">
       <c r="A15" s="1"/>
       <c r="B15" s="24" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C15" s="25" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D15" s="26" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:4" s="21" customFormat="1">
       <c r="A16" s="1"/>
       <c r="B16" s="22" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C16" s="25" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D16" s="26" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="17" spans="1:2" s="21" customFormat="1">
@@ -5184,48 +6065,48 @@
     <row r="19" spans="1:2">
       <c r="A19" s="1"/>
       <c r="B19" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="20" spans="1:2" s="21" customFormat="1">
       <c r="A20" s="1"/>
       <c r="B20" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="21" spans="1:2" s="21" customFormat="1">
       <c r="A21" s="1"/>
       <c r="B21" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1"/>
       <c r="B22" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="23" spans="1:2" s="21" customFormat="1">
       <c r="A23" s="1"/>
       <c r="B23" s="21" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="24" spans="1:2" s="21" customFormat="1" ht="175.5">
       <c r="A24" s="1"/>
       <c r="B24" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="1"/>
       <c r="B25" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="B26" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -5237,9 +6118,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD05E85A-61D0-40F4-AA01-CFF3E660149A}">
-  <dimension ref="A1:D29"/>
+  <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
@@ -5288,7 +6171,7 @@
     <row r="7" spans="1:4">
       <c r="A7" s="1"/>
       <c r="B7" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C7" s="21"/>
       <c r="D7" s="21"/>
@@ -5296,59 +6179,59 @@
     <row r="8" spans="1:4" s="21" customFormat="1">
       <c r="A8" s="1"/>
       <c r="B8" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="40.5">
       <c r="A9" s="1"/>
       <c r="B9" s="24" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C9" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="26" t="s">
         <v>30</v>
-      </c>
-      <c r="D9" s="26" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1"/>
       <c r="B10" s="3"/>
       <c r="C10" s="25" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D10" s="26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1"/>
       <c r="B11" s="17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C11" s="25" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D11" s="26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1"/>
       <c r="B12" s="17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C12" s="25" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D12" s="26" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="409.5">
       <c r="A13" s="1"/>
       <c r="B13" s="24" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C13" s="25"/>
       <c r="D13" s="26"/>
@@ -5356,25 +6239,25 @@
     <row r="14" spans="1:4" ht="40.5">
       <c r="A14" s="1"/>
       <c r="B14" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14" s="26" t="s">
         <v>35</v>
-      </c>
-      <c r="C14" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="D14" s="26" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="1"/>
       <c r="B15" s="22" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C15" s="25" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D15" s="26" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -5392,7 +6275,7 @@
     <row r="18" spans="1:4">
       <c r="A18" s="1"/>
       <c r="B18" s="21" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C18" s="21"/>
       <c r="D18" s="21"/>
@@ -5400,81 +6283,74 @@
     <row r="19" spans="1:4">
       <c r="A19" s="1"/>
       <c r="B19" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="1"/>
       <c r="B20" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="B21" s="27" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C21" s="25"/>
       <c r="D21"/>
     </row>
-    <row r="22" spans="1:4" ht="37.5">
+    <row r="22" spans="1:4" ht="409.5">
       <c r="B22" s="27" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C22"/>
       <c r="D22"/>
     </row>
-    <row r="23" spans="1:4" ht="393.75">
+    <row r="23" spans="1:4" s="21" customFormat="1" ht="112.5">
       <c r="B23" s="27" t="s">
-        <v>62</v>
-      </c>
-      <c r="C23"/>
-      <c r="D23"/>
-    </row>
-    <row r="24" spans="1:4" s="21" customFormat="1" ht="112.5">
+        <v>74</v>
+      </c>
+      <c r="C23" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="D23" s="26" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="B24" s="27" t="s">
+        <v>76</v>
+      </c>
+      <c r="C24"/>
+      <c r="D24"/>
+    </row>
+    <row r="25" spans="1:4" ht="37.5">
+      <c r="B25" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="C25" s="25"/>
+      <c r="D25"/>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="B26" s="27" t="s">
         <v>77</v>
       </c>
-      <c r="C24" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="D24" s="26" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="B25" s="27" t="s">
-        <v>78</v>
-      </c>
-      <c r="C25"/>
-      <c r="D25"/>
-    </row>
-    <row r="26" spans="1:4" ht="37.5">
-      <c r="B26" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="C26" s="25"/>
+      <c r="C26"/>
       <c r="D26"/>
     </row>
-    <row r="27" spans="1:4" ht="56.25">
-      <c r="B27" s="27" t="s">
-        <v>80</v>
+    <row r="27" spans="1:4">
+      <c r="B27" t="s">
+        <v>42</v>
       </c>
       <c r="C27"/>
       <c r="D27"/>
     </row>
     <row r="28" spans="1:4">
-      <c r="B28" t="s">
-        <v>43</v>
+      <c r="B28" s="27" t="s">
+        <v>59</v>
       </c>
       <c r="C28"/>
       <c r="D28"/>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="B29" s="27" t="s">
-        <v>61</v>
-      </c>
-      <c r="C29"/>
-      <c r="D29"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
@@ -5488,7 +6364,7 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -5537,7 +6413,9 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1"/>
-      <c r="B7" s="3"/>
+      <c r="B7" s="3" t="s">
+        <v>78</v>
+      </c>
       <c r="C7" s="5"/>
       <c r="D7" s="6"/>
     </row>
@@ -5601,7 +6479,7 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -5621,7 +6499,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>13</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -5654,9 +6532,11 @@
       <c r="C7" s="5"/>
       <c r="D7" s="6"/>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" ht="67.5">
       <c r="A8" s="1"/>
-      <c r="B8" s="3"/>
+      <c r="B8" s="3" t="s">
+        <v>80</v>
+      </c>
       <c r="C8" s="5"/>
       <c r="D8" s="6"/>
     </row>
@@ -5714,7 +6594,7 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -5734,7 +6614,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -5763,13 +6643,17 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1"/>
-      <c r="B7" s="3"/>
+      <c r="B7" s="3" t="s">
+        <v>81</v>
+      </c>
       <c r="C7" s="5"/>
       <c r="D7" s="6"/>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1"/>
-      <c r="B8" s="3"/>
+      <c r="B8" s="3" t="s">
+        <v>82</v>
+      </c>
       <c r="C8" s="5"/>
       <c r="D8" s="6"/>
     </row>
@@ -5827,7 +6711,7 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -5847,7 +6731,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -5876,13 +6760,17 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1"/>
-      <c r="B7" s="3"/>
+      <c r="B7" s="3" t="s">
+        <v>81</v>
+      </c>
       <c r="C7" s="5"/>
       <c r="D7" s="6"/>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1"/>
-      <c r="B8" s="3"/>
+      <c r="B8" s="3" t="s">
+        <v>83</v>
+      </c>
       <c r="C8" s="5"/>
       <c r="D8" s="6"/>
     </row>
@@ -5940,7 +6828,7 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -5960,7 +6848,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -5989,7 +6877,9 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1"/>
-      <c r="B7" s="3"/>
+      <c r="B7" s="3" t="s">
+        <v>81</v>
+      </c>
       <c r="C7" s="5"/>
       <c r="D7" s="6"/>
     </row>

--- a/revref_test.xlsx
+++ b/revref_test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\72446246\Documents\wk\業務関連資料\LMS\70.逆引きマニュアル作成\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF3A3338-EE24-4C68-8039-B4291AC98A67}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B38948F4-20D4-4759-AC40-887E8EF84B1E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7605" activeTab="13" xr2:uid="{5CD9017C-176B-471B-A8A0-D3A2BE76D3A3}"/>
   </bookViews>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="120">
   <si>
     <t>header1</t>
   </si>
@@ -2704,16 +2704,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>&lt;h3&gt;設定例：受験後の正解非表示&lt;/h3&gt;デフォルトの状態では、テストの問題、学生の解答、解答の正誤などが表示されるようになっています&lt;br&gt;受験を終わった学生はすぐに正解を知ることができます&lt;br&gt;&lt;br&gt;例えばグループごとに受験時期をずらしてテストを課す場合など、受験後の学生にテストの正解を見せたくない時は、&lt;b&gt;「答えの正誤」&lt;/b&gt;や&lt;b&gt;「正解」&lt;/b&gt;のチェックを外すとテストの正解を隠すことができます&lt;br&gt;&lt;br&gt;また、テストの正解だけでなく、問題や評点も見せたくない場合は、&lt;b&gt;すべてのチェック&lt;/b&gt;を外したください&lt;br&gt;そうすると「評定」にも評点が表示されなくなります。この場合、学生がテストを開いた場合に表示されるのは、受験回数と受験日時のみです</t>
-    <rPh sb="4" eb="6">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>レイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>&lt;h5&gt;小テストの設定項目「レビューオプション」を設定することで、学生への結果表示を調節することができます&lt;/h5&gt;</t>
     <rPh sb="4" eb="5">
       <t>ショウ</t>
@@ -2808,65 +2798,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>&lt;h4&gt;学生の受験直後&lt;/h4&gt;学生が小テストを終えて「すべてを送信して終了する」ボタンをクリックしてから 2 分以内です。</t>
-    <rPh sb="4" eb="6">
-      <t>ガクセイ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>チョクゴ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>&lt;h4&gt;学生の受験後、小テストがクローズされるまで&lt;/h4&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="ＭＳ Ｐゴシック "/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>受験を終了した後でかつ小テスト終了日時より前です</t>
-    </r>
-    <rPh sb="4" eb="6">
-      <t>ガクセイ</t>
-    </rPh>
-    <rPh sb="7" eb="10">
-      <t>ジュケンゴ</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>ショウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>&lt;h4&gt;学生の受験最中&lt;/h4&gt;「複数受験」のような、特定の挙動のみに関連します。</t>
-    <rPh sb="4" eb="6">
-      <t>ガクセイ</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>サイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>&lt;h4&gt;小テストのクローズ後&lt;/h4&gt;小テスト終了日時を経過した後です。小テストに終了日時が設定されていない場合は無視されます&lt;br&gt;&lt;br&gt;</t>
-    <rPh sb="13" eb="14">
-      <t>ゴ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>&lt;h3&gt;小テストの設定&lt;/h3&gt;</t>
     <rPh sb="4" eb="5">
       <t>ショウ</t>
@@ -3060,139 +2991,6 @@
     <t>「＋問題バンクから」をクリックします</t>
     <rPh sb="2" eb="4">
       <t>モンダイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <r>
-      <t>例）</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>小テスト</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t>A</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>の問題1を</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>小テスト</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t>B</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>で再利用している場合</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック "/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">
-小テスト</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>Bで再利用する際に、問題の内容を修正してしまうと小テストA内の問題1の内容も変わってしまいます</t>
-    </r>
-    <rPh sb="0" eb="1">
-      <t>レイ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ショウ</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>ショウ</t>
-    </rPh>
-    <rPh sb="18" eb="21">
-      <t>サイリヨウ</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="28" eb="29">
-      <t>ショウ</t>
-    </rPh>
-    <rPh sb="34" eb="37">
-      <t>サイリヨウ</t>
-    </rPh>
-    <rPh sb="39" eb="40">
-      <t>サイ</t>
-    </rPh>
-    <rPh sb="42" eb="44">
-      <t>モンダイ</t>
-    </rPh>
-    <rPh sb="45" eb="47">
-      <t>ナイヨウ</t>
-    </rPh>
-    <rPh sb="48" eb="50">
-      <t>シュウセイ</t>
-    </rPh>
-    <rPh sb="56" eb="57">
-      <t>ショウ</t>
-    </rPh>
-    <rPh sb="61" eb="62">
-      <t>ナイ</t>
-    </rPh>
-    <rPh sb="63" eb="65">
-      <t>モンダイ</t>
-    </rPh>
-    <rPh sb="67" eb="69">
-      <t>ナイヨウ</t>
-    </rPh>
-    <rPh sb="70" eb="71">
-      <t>カ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -3361,6 +3159,328 @@
     </rPh>
     <rPh sb="77" eb="79">
       <t>ホゾン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>例）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>小テスト</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t>A</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>の問題1を</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>小テスト</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t>B</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>で再利用している場合
+小テストAで問題1「ここは&lt;b&gt;日本&lt;/b&gt;ですか？」という問題を作成後に、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">
+小テスト</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>Bで再利用する際に、問題の内容を「ここは&lt;b&gt;広島&lt;/b&gt;ですか？」と修正してしまうと小テストA内の問題1の内容も「ここは&lt;b&gt;広島&lt;/b&gt;ですか？」に変わります</t>
+    </r>
+    <rPh sb="0" eb="1">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ショウ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ショウ</t>
+    </rPh>
+    <rPh sb="18" eb="21">
+      <t>サイリヨウ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>モンダイ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>ニホン</t>
+    </rPh>
+    <rPh sb="58" eb="60">
+      <t>モンダイ</t>
+    </rPh>
+    <rPh sb="61" eb="63">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="63" eb="64">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="67" eb="68">
+      <t>ショウ</t>
+    </rPh>
+    <rPh sb="73" eb="76">
+      <t>サイリヨウ</t>
+    </rPh>
+    <rPh sb="78" eb="79">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="81" eb="83">
+      <t>モンダイ</t>
+    </rPh>
+    <rPh sb="84" eb="86">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="94" eb="96">
+      <t>ヒロシマ</t>
+    </rPh>
+    <rPh sb="106" eb="108">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="114" eb="115">
+      <t>ショウ</t>
+    </rPh>
+    <rPh sb="119" eb="120">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="121" eb="123">
+      <t>モンダイ</t>
+    </rPh>
+    <rPh sb="125" eb="127">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="147" eb="148">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;h3&gt;設定例：受験後の正解非表示&lt;/h3&gt;デフォルトの状態では、テストの問題、学生の解答、解答の正誤などが表示されるようになっています
+受験を終わった学生はすぐに正解を知ることができます&lt;br&gt;
+例えばグループごとに受験時期をずらしてテストを課す場合など、受験後の学生にテストの正解を見せたくない時は、
+&lt;b&gt;「学生の受験直後(2分間)」&lt;/b&gt;の&lt;b&gt;「答えの正誤」&lt;/b&gt;や&lt;b&gt;「正解」&lt;/b&gt;のチェックを外すとテストの正解を隠すことができます&lt;br&gt;
+&lt;br&gt;また、テストの正解だけでなく、問題や評点も見せたくない場合は、&lt;b&gt;すべてのチェック&lt;/b&gt;を外したください
+そうすると「評定」にも評点が表示されなくなります。
+この場合、学生がテストを開いた場合に表示されるのは、受験回数と受験日時のみです</t>
+    <rPh sb="4" eb="6">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="157" eb="159">
+      <t>ガクセイ</t>
+    </rPh>
+    <rPh sb="160" eb="164">
+      <t>ジュケンチョクゴ</t>
+    </rPh>
+    <rPh sb="166" eb="168">
+      <t>フンカン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;h3&gt;小テストの各質問の配点を変更する方法&lt;/h3&gt;</t>
+    <rPh sb="9" eb="12">
+      <t>カクシツモン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ハイテン</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>右上に表示されている合計評点は配点の合計値（満点）になります</t>
+    <rPh sb="0" eb="2">
+      <t>ミギウエ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ゴウケイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ヒョウテン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ハイテン</t>
+    </rPh>
+    <rPh sb="18" eb="21">
+      <t>ゴウケイチ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>マンテン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>右上に表示されている最大評点は学生が小テストで満点を取ったときにコース全体の評定に加算される点数のため、配点を変更しても最大評点は変わりません</t>
+    <rPh sb="0" eb="2">
+      <t>ミギウエ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ガクセイ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ショウ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>マンテン</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>ゼンタイ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>ヒョウテイ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>カサン</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>テンスウ</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>ハイテン</t>
+    </rPh>
+    <rPh sb="55" eb="57">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="60" eb="62">
+      <t>サイダイ</t>
+    </rPh>
+    <rPh sb="62" eb="64">
+      <t>ヒョウテン</t>
+    </rPh>
+    <rPh sb="65" eb="66">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>各質問の右横に表示されている数字が各質問の配点です
+鉛筆マークをクリックして、配点を編集してください</t>
+    <rPh sb="0" eb="1">
+      <t>カク</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>シツモン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ミギヨコ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>スウジ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>カク</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>シツモン</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ハイテン</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>エンピツ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>ハイテン</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>キーボードのEnterキーを押すか、枠外をクリックすると編集を終了します
+キャンセルしたいときは、escapeキーを押します</t>
+    <rPh sb="14" eb="15">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ワクガイ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>シュウリョウ</t>
+    </rPh>
+    <rPh sb="58" eb="59">
+      <t>オ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -3369,7 +3489,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3439,13 +3559,6 @@
       <name val="MS UI Gothic"/>
       <family val="3"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="游ゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
     </font>
     <font>
       <sz val="11"/>
@@ -3564,7 +3677,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -4122,7 +4235,7 @@
     <row r="9" spans="1:4">
       <c r="A9" s="1"/>
       <c r="B9" s="22" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="6"/>
@@ -4175,10 +4288,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE888650-29AB-44D9-93E0-6544C395E693}">
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:XFD10"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -4228,13 +4341,13 @@
     <row r="7" spans="1:4" s="21" customFormat="1">
       <c r="A7" s="1"/>
       <c r="B7" s="3" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1"/>
       <c r="B8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C8"/>
       <c r="D8"/>
@@ -4242,7 +4355,7 @@
     <row r="9" spans="1:4" s="21" customFormat="1">
       <c r="A9" s="1"/>
       <c r="B9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C9"/>
       <c r="D9"/>
@@ -4250,7 +4363,7 @@
     <row r="10" spans="1:4" s="21" customFormat="1">
       <c r="A10" s="1"/>
       <c r="B10" s="22" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C10"/>
       <c r="D10"/>
@@ -4258,7 +4371,7 @@
     <row r="11" spans="1:4" s="21" customFormat="1">
       <c r="A11" s="1"/>
       <c r="B11" s="22" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C11"/>
       <c r="D11"/>
@@ -4266,7 +4379,7 @@
     <row r="12" spans="1:4" ht="27">
       <c r="A12" s="1"/>
       <c r="B12" s="23" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C12" s="25" t="s">
         <v>84</v>
@@ -4277,67 +4390,41 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1"/>
-      <c r="B13" s="22" t="s">
-        <v>95</v>
-      </c>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-    </row>
-    <row r="14" spans="1:4">
+      <c r="B13" s="22"/>
+      <c r="C13"/>
+      <c r="D13"/>
+    </row>
+    <row r="14" spans="1:4" ht="121.5">
       <c r="A14" s="1"/>
       <c r="B14" s="22" t="s">
-        <v>93</v>
+        <v>114</v>
       </c>
       <c r="C14"/>
       <c r="D14"/>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="1"/>
-      <c r="B15" s="23" t="s">
-        <v>94</v>
-      </c>
-      <c r="C15"/>
-      <c r="D15"/>
-    </row>
-    <row r="16" spans="1:4" ht="27">
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="1"/>
-      <c r="B16" s="22" t="s">
-        <v>96</v>
-      </c>
-      <c r="C16"/>
-      <c r="D16"/>
-    </row>
-    <row r="17" spans="1:4" ht="81">
+    </row>
+    <row r="17" spans="1:1">
       <c r="A17" s="1"/>
-      <c r="B17" s="22" t="s">
-        <v>86</v>
-      </c>
-      <c r="C17"/>
-      <c r="D17"/>
-    </row>
-    <row r="18" spans="1:4">
+    </row>
+    <row r="18" spans="1:1">
       <c r="A18" s="1"/>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:1">
       <c r="A19" s="1"/>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:1">
       <c r="A20" s="1"/>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:1">
       <c r="A21" s="1"/>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:1">
       <c r="A22" s="1"/>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="1"/>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" s="1"/>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
@@ -4351,7 +4438,7 @@
   <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="B13" sqref="B13:B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -4401,25 +4488,25 @@
     <row r="7" spans="1:4" s="21" customFormat="1">
       <c r="A7" s="1"/>
       <c r="B7" s="3" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="8" spans="1:4" s="21" customFormat="1">
       <c r="A8" s="1"/>
       <c r="B8" s="3" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="9" spans="1:4" s="21" customFormat="1">
       <c r="A9" s="1"/>
       <c r="B9" s="3" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="40.5">
       <c r="A10" s="1"/>
       <c r="B10" s="23" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="6"/>
@@ -4433,7 +4520,7 @@
     <row r="12" spans="1:4" s="21" customFormat="1">
       <c r="A12" s="1"/>
       <c r="B12" s="3" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="C12" s="25"/>
       <c r="D12" s="26"/>
@@ -4441,7 +4528,7 @@
     <row r="13" spans="1:4" s="21" customFormat="1">
       <c r="A13" s="1"/>
       <c r="B13" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C13"/>
       <c r="D13"/>
@@ -4449,7 +4536,7 @@
     <row r="14" spans="1:4" s="21" customFormat="1">
       <c r="A14" s="1"/>
       <c r="B14" s="22" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="C14"/>
       <c r="D14"/>
@@ -4457,25 +4544,25 @@
     <row r="15" spans="1:4">
       <c r="A15" s="1"/>
       <c r="B15" s="17" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="16" spans="1:4" s="21" customFormat="1">
       <c r="A16" s="1"/>
       <c r="B16" s="17" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="17" spans="1:4" s="21" customFormat="1">
       <c r="A17" s="1"/>
       <c r="B17" s="28" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
     </row>
     <row r="18" spans="1:4" s="21" customFormat="1">
       <c r="A18" s="1"/>
       <c r="B18" s="28" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -4484,37 +4571,37 @@
     <row r="20" spans="1:4">
       <c r="A20" s="1"/>
       <c r="B20" s="17" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="40.5">
       <c r="A21" s="1"/>
       <c r="B21" s="24" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="1"/>
       <c r="B22" s="17" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="23" spans="1:4" s="21" customFormat="1" ht="27">
       <c r="A23" s="1"/>
       <c r="B23" s="24" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" s="21" customFormat="1" ht="32.25">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" s="21" customFormat="1" ht="59.25">
       <c r="A24" s="1"/>
       <c r="B24" s="24" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="C24" s="25" t="s">
         <v>29</v>
       </c>
       <c r="D24" s="21" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="25" spans="1:4" s="21" customFormat="1">
@@ -4524,43 +4611,43 @@
         <v>29</v>
       </c>
       <c r="D25" s="21" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="1"/>
       <c r="B26" s="17" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="1"/>
       <c r="B27" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="1"/>
       <c r="B28" s="22" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="1"/>
       <c r="B29" s="2" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="C29" s="25" t="s">
         <v>29</v>
       </c>
       <c r="D29" s="21" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="1"/>
       <c r="B30" s="2" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -4572,10 +4659,10 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09EECFC8-488D-48E9-8D75-D6B3BBDB7240}">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -4624,33 +4711,51 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1"/>
-      <c r="B7" s="3"/>
+      <c r="B7" s="3" t="s">
+        <v>115</v>
+      </c>
       <c r="C7" s="5"/>
       <c r="D7" s="6"/>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1"/>
-      <c r="B8" s="3"/>
+      <c r="B8" t="s">
+        <v>87</v>
+      </c>
       <c r="C8" s="5"/>
       <c r="D8" s="6"/>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1"/>
-      <c r="B9" s="3"/>
+      <c r="B9" s="22" t="s">
+        <v>101</v>
+      </c>
       <c r="C9" s="5"/>
       <c r="D9" s="6"/>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" ht="37.5">
       <c r="A10" s="1"/>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="B10" s="11" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" s="21" customFormat="1" ht="37.5">
       <c r="A11" s="1"/>
+      <c r="B11" s="11" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1"/>
+      <c r="B12" s="11" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1"/>
+      <c r="B13" s="2" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="1"/>
@@ -4675,6 +4780,9 @@
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="1"/>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>

--- a/revref_test.xlsx
+++ b/revref_test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\72446246\Documents\wk\業務関連資料\LMS\70.逆引きマニュアル作成\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B38948F4-20D4-4759-AC40-887E8EF84B1E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF386A2A-6E9A-466D-AEF1-7C3BB966E29D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7605" activeTab="13" xr2:uid="{5CD9017C-176B-471B-A8A0-D3A2BE76D3A3}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7605" firstSheet="11" activeTab="22" xr2:uid="{5CD9017C-176B-471B-A8A0-D3A2BE76D3A3}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="8" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="153">
   <si>
     <t>header1</t>
   </si>
@@ -145,18 +145,9 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>小テストのページわけを変更したい</t>
-  </si>
-  <si>
     <t>CSVで問題を一括作成したい</t>
   </si>
   <si>
-    <t>制限時間のあるテストを作りたい</t>
-  </si>
-  <si>
-    <t>受験できる人を、パスワードや端末IPアドレスで制限したい</t>
-  </si>
-  <si>
     <t>自由記述の問題（作文問題）を評定したい</t>
   </si>
   <si>
@@ -167,9 +158,6 @@
   </si>
   <si>
     <t>問題を受験するたびに選択肢の順番をシャッフルさせたい</t>
-  </si>
-  <si>
-    <t>合格点や受験可能回数を変更したい</t>
   </si>
   <si>
     <t>chartn</t>
@@ -2685,17 +2673,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>ランダム問題について</t>
-    <rPh sb="4" eb="6">
-      <t>モンダイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>シャッフル</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>chartn</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -3353,80 +3330,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>右上に表示されている合計評点は配点の合計値（満点）になります</t>
-    <rPh sb="0" eb="2">
-      <t>ミギウエ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ゴウケイ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ヒョウテン</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>ハイテン</t>
-    </rPh>
-    <rPh sb="18" eb="21">
-      <t>ゴウケイチ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>マンテン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>右上に表示されている最大評点は学生が小テストで満点を取ったときにコース全体の評定に加算される点数のため、配点を変更しても最大評点は変わりません</t>
-    <rPh sb="0" eb="2">
-      <t>ミギウエ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>ガクセイ</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>ショウ</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>マンテン</t>
-    </rPh>
-    <rPh sb="26" eb="27">
-      <t>ト</t>
-    </rPh>
-    <rPh sb="35" eb="37">
-      <t>ゼンタイ</t>
-    </rPh>
-    <rPh sb="38" eb="40">
-      <t>ヒョウテイ</t>
-    </rPh>
-    <rPh sb="41" eb="43">
-      <t>カサン</t>
-    </rPh>
-    <rPh sb="46" eb="48">
-      <t>テンスウ</t>
-    </rPh>
-    <rPh sb="52" eb="54">
-      <t>ハイテン</t>
-    </rPh>
-    <rPh sb="55" eb="57">
-      <t>ヘンコウ</t>
-    </rPh>
-    <rPh sb="60" eb="62">
-      <t>サイダイ</t>
-    </rPh>
-    <rPh sb="62" eb="64">
-      <t>ヒョウテン</t>
-    </rPh>
-    <rPh sb="65" eb="66">
-      <t>カ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>各質問の右横に表示されている数字が各質問の配点です
 鉛筆マークをクリックして、配点を編集してください</t>
     <rPh sb="0" eb="1">
@@ -3481,6 +3384,710 @@
     </rPh>
     <rPh sb="58" eb="59">
       <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「合計評点」が配点の合計値（満点）になります</t>
+    <rPh sb="1" eb="3">
+      <t>ゴウケイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヒョウテン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ハイテン</t>
+    </rPh>
+    <rPh sb="10" eb="13">
+      <t>ゴウケイチ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>マンテン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>右上に表示されている「最大評点」は学生が小テストで満点を取ったときにコース全体の評定に加算される点数です
+配点を変更しても最大評点は変わりませんので、必要に応じて変更してください</t>
+    <rPh sb="0" eb="2">
+      <t>ミギウエ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ガクセイ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ショウ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>マンテン</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>ゼンタイ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>ヒョウテイ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>カサン</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>テンスウ</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>ハイテン</t>
+    </rPh>
+    <rPh sb="56" eb="58">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="61" eb="63">
+      <t>サイダイ</t>
+    </rPh>
+    <rPh sb="63" eb="65">
+      <t>ヒョウテン</t>
+    </rPh>
+    <rPh sb="66" eb="67">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="75" eb="77">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="78" eb="79">
+      <t>オウ</t>
+    </rPh>
+    <rPh sb="81" eb="83">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>小テストのページ分けを変更したい</t>
+    <rPh sb="8" eb="9">
+      <t>ワ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;h3&gt;小テストのページ分けを変更する方法&lt;/h3&gt;</t>
+    <rPh sb="12" eb="13">
+      <t>ワ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ランダム問題について説明（作成中）</t>
+    <rPh sb="4" eb="6">
+      <t>モンダイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>セツメイ</t>
+    </rPh>
+    <rPh sb="13" eb="16">
+      <t>サクセイチュウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>シャッフルについて説明（作成中）</t>
+    <rPh sb="9" eb="11">
+      <t>セツメイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>チュウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>test11.png</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「改ページ調整」をクリックします</t>
+    <rPh sb="1" eb="2">
+      <t>カイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>チョウセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;h4&gt;改ページを設定する&lt;/h4&gt;</t>
+    <rPh sb="9" eb="11">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>選択ができたら、「Go」をクリックします</t>
+    <rPh sb="0" eb="2">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>小テストのプレビューから改ページが設定できていることを確認してください</t>
+    <rPh sb="0" eb="1">
+      <t>ショウ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>カイ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;h4&gt;&lt;a name="manual"&gt;&lt;/a&gt;手動で改ページの位置を変更する方法&lt;/h4&gt;</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>小テストのページ分けは、以下の設定がすることができます
+&lt;ul&gt;
+&lt;li&gt;1問ずつ表示させる&lt;/li&gt;
+&lt;li&gt;一定の問題数(2～50問)ずつ表示させる&lt;/li&gt;
+&lt;li&gt;全問1ページに表示させる&lt;/li&gt;
+&lt;li&gt;手動で改ページの位置を変更する&lt;/li&gt;
+&lt;/ul&gt;
+&lt;u&gt;手動で改ページの位置を変更する方法&lt;/u&gt;のみ設定する方法が異なるため、&lt;a href="#manual"&gt;こちら&lt;/a&gt;を参照してください
+それ以外の設定は、改ページを設定方法を参照してください。</t>
+    <rPh sb="12" eb="14">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>モン</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="56" eb="58">
+      <t>イッテイ</t>
+    </rPh>
+    <rPh sb="59" eb="62">
+      <t>モンダイスウ</t>
+    </rPh>
+    <rPh sb="71" eb="73">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="86" eb="88">
+      <t>ゼンモン</t>
+    </rPh>
+    <rPh sb="93" eb="95">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="119" eb="121">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="149" eb="151">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="161" eb="163">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="165" eb="167">
+      <t>ホウホウ</t>
+    </rPh>
+    <rPh sb="168" eb="169">
+      <t>コト</t>
+    </rPh>
+    <rPh sb="211" eb="213">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="214" eb="216">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="218" eb="219">
+      <t>カイ</t>
+    </rPh>
+    <rPh sb="223" eb="225">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="225" eb="227">
+      <t>ホウホウ</t>
+    </rPh>
+    <rPh sb="228" eb="230">
+      <t>サンショウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「1ページあたりの問題数」の選択メニューから選択してください
+&lt;b&gt;「問題１問ごと」&lt;/b&gt;を選択すると、1ページに1問表示されるように設定されています
+&lt;b&gt;「なし、すべての問題を１ページに表示する｣&lt;/b&gt;を選択すると、すべての問題は同一ページに表示されます
+&lt;b&gt;「問題2問ごと」&lt;/b&gt;～&lt;b&gt;「問題50問ごと」&lt;/b&gt;を選択すると、選択した問題数ずつ1ページに表示されます</t>
+    <rPh sb="14" eb="16">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>モンダイ</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>モン</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="59" eb="60">
+      <t>モン</t>
+    </rPh>
+    <rPh sb="60" eb="62">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="68" eb="70">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>問題と問題の間に表示されている改ページアイコンをクリックすることでその問題の間に改ページの追加・削除ができます
+ページがすでに分かれている場合は、アイコンをクリックすると改ページが&lt;u&gt;削除&lt;/u&gt;されます（矢印が外側を指しているアイコン）
+同一ページに表示されている場合は、アイコンをクリックすると改ページが&lt;u&gt;追加&lt;/u&gt;されます（矢印が内側を指しているアイコン）</t>
+    <rPh sb="0" eb="2">
+      <t>モンダイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>モンダイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>アイダ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>カイ</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>カイ</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="63" eb="64">
+      <t>ワ</t>
+    </rPh>
+    <rPh sb="69" eb="71">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="85" eb="86">
+      <t>カイ</t>
+    </rPh>
+    <rPh sb="93" eb="95">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="104" eb="106">
+      <t>ヤジルシ</t>
+    </rPh>
+    <rPh sb="107" eb="109">
+      <t>ソトガワ</t>
+    </rPh>
+    <rPh sb="110" eb="111">
+      <t>サ</t>
+    </rPh>
+    <rPh sb="121" eb="123">
+      <t>ドウイツ</t>
+    </rPh>
+    <rPh sb="127" eb="129">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="134" eb="136">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="150" eb="151">
+      <t>カイ</t>
+    </rPh>
+    <rPh sb="158" eb="160">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="169" eb="171">
+      <t>ヤジルシ</t>
+    </rPh>
+    <rPh sb="172" eb="174">
+      <t>ウチガワ</t>
+    </rPh>
+    <rPh sb="175" eb="176">
+      <t>サ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;h3&gt;制限時間のあるテストの作成&lt;/h3&gt;</t>
+    <rPh sb="15" eb="17">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>制限時間のあるテストを作りたい</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;h5&gt;小テストの設定項目「タイミング」を設定することで、制限時間のあるテストにすることができます&lt;/h5&gt;</t>
+    <rPh sb="4" eb="5">
+      <t>ショウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>セイゲン</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ジカン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;b&gt;「制限時間」&lt;/b&gt;の横に表示されている「有効にする」のチェックボックスをクリックします
+制限時間の時間と単位を設定します</t>
+    <rPh sb="14" eb="15">
+      <t>ヨコ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ユウコウ</t>
+    </rPh>
+    <rPh sb="48" eb="52">
+      <t>セイゲンジカン</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="56" eb="58">
+      <t>タンイ</t>
+    </rPh>
+    <rPh sb="59" eb="61">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;b&gt;「制限を経過した場合」&lt;/b&gt;で問題を解き始め、まだ提出していない状態で学生がログアウトし、その間に制限時間を過ぎた場合の対処について選択します
+学生がログイン中で小テストを開いている場合は、自動的にその時点での回答が提出されます
+&lt;ul&gt;&lt;li&gt;&lt;b&gt;開いている受験は自動的に提出されます&lt;/b&gt;：制限時間になった時点での解答が自動的に提出されます。&lt;/li&gt;&lt;li&gt;&lt;b&gt;開いている受験を送信できる場合は送信猶予期間を設けますが、問題には解答できません&lt;/b&gt;：送信するためだけの猶予期間が与えられますが、制限時間後に問題を解くことはできません。提出できる答案は制限時間内に解いたもののみです。&lt;/li&gt;&lt;li&gt;&lt;b&gt;受験は制限時間内に提出される必要がありますが、そうでない場合はカウントされません&lt;/b&gt;：小テストは受験したことにはなりません。&lt;/li&gt;&lt;/ul&gt;</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>選択ができたら、「保存して表示する」をクリックします</t>
+    <rPh sb="0" eb="2">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ホゾン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ダイアログから「小テスト」を選択します</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>新しく小テストを作成する場合は、編集モードを開始し、小テストを作成したいセクションのリンクをクリックし表示されたページの「+ 活動またはリソースを追加する」をクリックします</t>
+    <rPh sb="0" eb="1">
+      <t>アタラ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ショウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「名称」と必要であれば「説明」を入力します</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;h4&gt;&lt;a name="timing"&gt;&lt;/a&gt;タイミングの設定&lt;/h4&gt;</t>
+    <rPh sb="31" eb="33">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>受験できる人を、パスワードや端末IPアドレスで制限したい</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;h3&gt;受験できる人を、パスワードや端末IPアドレスで制限する方法&lt;/h3&gt;</t>
+    <rPh sb="4" eb="6">
+      <t>ジュケン</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ヒト</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>タンマツ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>セイゲン</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ホウホウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;h4&gt;&lt;a name="restrict"&gt;&lt;/a&gt;受験に関する特別制限の設定&lt;/h4&gt;</t>
+    <rPh sb="38" eb="40">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>すでに小テストを作成している場合は、編集モードをONにし、対象の小テストを開いてください
+小テスト名の下に表示されているメニューの「設定」をクリックします
+&lt;a href="#timing"&gt;タイミングの設定&lt;/a&gt;を行ってください</t>
+    <rPh sb="3" eb="4">
+      <t>ショウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="102" eb="104">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="109" eb="110">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>すでに小テストを作成している場合は、編集モードをONにし、対象の小テストを開いてください
+小テスト名の下に表示されているメニューの「設定」をクリックします
+&lt;a href="#restrict"&gt;受験に関する特別制限の設定&lt;/a&gt;を行ってください</t>
+    <rPh sb="3" eb="4">
+      <t>ショウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="109" eb="111">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="116" eb="117">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;b&gt;「タイミング」&lt;/b&gt;を設定します</t>
+    <rPh sb="15" eb="17">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「保存して表示する」をクリックします</t>
+    <rPh sb="1" eb="3">
+      <t>ホゾン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;b&gt;「受験に関する特別制限」&lt;/b&gt;を設定します
+&lt;ul&gt;
+&lt;/li&gt;&lt;b&gt;「パスワードを要求する」&lt;/b&gt;にパスワードを設定すると、学生は、同じパスワードを入力してから受験するように設定できます&lt;/li&gt;
+&lt;li&gt;&lt;b&gt;「ネットワークアドレスを要求する」&lt;/b&gt;を設定すると、特定の IP アドレスの端末のみ、受験できるようになります
+例えば、「192.168」とだけ入力すれば「192.168」から始まるすべてのアドレスを許可します&lt;/li&gt;
+&lt;/ul&gt;</t>
+    <rPh sb="20" eb="22">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;h4&gt;小テストの作成&lt;/h4&gt;</t>
+    <rPh sb="4" eb="5">
+      <t>ショウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>合格点や受験可能回数を変更したい</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;h3&gt;合格点や受験可能回数を変更する方法&lt;/h3&gt;</t>
+    <rPh sb="4" eb="7">
+      <t>ゴウカクテン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ジュケン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>カノウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>カイスウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ホウホウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;h5&gt;小テストの設定項目「受験に関する特別制限」を設定することで、パスワードや端末IPアドレスで受験制限することができます&lt;/h5&gt;</t>
+    <rPh sb="4" eb="5">
+      <t>ショウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>タンマツ</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>ジュケン</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>セイゲン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;h5&gt;小テストの設定項目「評点」を設定することで、合格点や受験可能回数を変更することができます&lt;/h5&gt;</t>
+    <rPh sb="4" eb="5">
+      <t>ショウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>テン</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="26" eb="29">
+      <t>ゴウカクテン</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ジュケン</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>カノウ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>カイスウ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;h4&gt;&lt;a name="score"&gt;&lt;/a&gt;評点の設定&lt;/h4&gt;</t>
+    <rPh sb="25" eb="26">
+      <t>テン</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>すでに小テストを作成している場合は、編集モードをONにし、対象の小テストを開いてください
+小テスト名の下に表示されているメニューの「設定」をクリックします
+&lt;a href="#score"&gt;評点の設定&lt;/a&gt;を行ってください</t>
+    <rPh sb="3" eb="4">
+      <t>ショウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="98" eb="100">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="105" eb="106">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;b&gt;「評点」&lt;/b&gt;を設定します
+&lt;ul&gt;
+&lt;li&gt;&lt;b&gt;「合格点」&lt;/b&gt;に点数を入力することで、このテストの合格点が設定できます&lt;/li&gt;
+&lt;li&gt;&lt;b&gt;「受験可能回数」&lt;/b&gt;で小テストを受験可能な回数を指定します
+「無制限」または「1～10」の範囲から選択することができます&lt;/li&gt;
+&lt;/ul&gt;</t>
+    <rPh sb="4" eb="6">
+      <t>ヒョウテン</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>テンスウ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="61" eb="63">
+      <t>セッテイ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -3489,7 +4096,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3573,6 +4180,14 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -3596,7 +4211,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3679,6 +4294,9 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4104,7 +4722,7 @@
     <row r="7" spans="1:4">
       <c r="A7" s="1"/>
       <c r="B7" s="3" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="6"/>
@@ -4189,7 +4807,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -4219,7 +4837,7 @@
     <row r="7" spans="1:4">
       <c r="A7" s="1"/>
       <c r="B7" s="22" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="6"/>
@@ -4227,7 +4845,7 @@
     <row r="8" spans="1:4">
       <c r="A8" s="1"/>
       <c r="B8" s="23" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="6"/>
@@ -4235,7 +4853,7 @@
     <row r="9" spans="1:4">
       <c r="A9" s="1"/>
       <c r="B9" s="22" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="6"/>
@@ -4243,7 +4861,7 @@
     <row r="10" spans="1:4" ht="27">
       <c r="A10" s="1"/>
       <c r="B10" s="22" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -4291,7 +4909,7 @@
   <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="B8" sqref="B8:B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -4341,13 +4959,13 @@
     <row r="7" spans="1:4" s="21" customFormat="1">
       <c r="A7" s="1"/>
       <c r="B7" s="3" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1"/>
       <c r="B8" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="C8"/>
       <c r="D8"/>
@@ -4355,7 +4973,7 @@
     <row r="9" spans="1:4" s="21" customFormat="1">
       <c r="A9" s="1"/>
       <c r="B9" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="C9"/>
       <c r="D9"/>
@@ -4363,7 +4981,7 @@
     <row r="10" spans="1:4" s="21" customFormat="1">
       <c r="A10" s="1"/>
       <c r="B10" s="22" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="C10"/>
       <c r="D10"/>
@@ -4371,7 +4989,7 @@
     <row r="11" spans="1:4" s="21" customFormat="1">
       <c r="A11" s="1"/>
       <c r="B11" s="22" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="C11"/>
       <c r="D11"/>
@@ -4379,13 +4997,13 @@
     <row r="12" spans="1:4" ht="27">
       <c r="A12" s="1"/>
       <c r="B12" s="23" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C12" s="25" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="D12" s="26" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -4397,7 +5015,7 @@
     <row r="14" spans="1:4" ht="121.5">
       <c r="A14" s="1"/>
       <c r="B14" s="22" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="C14"/>
       <c r="D14"/>
@@ -4438,7 +5056,7 @@
   <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13:B14"/>
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -4488,25 +5106,25 @@
     <row r="7" spans="1:4" s="21" customFormat="1">
       <c r="A7" s="1"/>
       <c r="B7" s="3" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
     </row>
     <row r="8" spans="1:4" s="21" customFormat="1">
       <c r="A8" s="1"/>
       <c r="B8" s="3" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
     </row>
     <row r="9" spans="1:4" s="21" customFormat="1">
       <c r="A9" s="1"/>
       <c r="B9" s="3" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="40.5">
       <c r="A10" s="1"/>
       <c r="B10" s="23" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="6"/>
@@ -4520,7 +5138,7 @@
     <row r="12" spans="1:4" s="21" customFormat="1">
       <c r="A12" s="1"/>
       <c r="B12" s="3" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="C12" s="25"/>
       <c r="D12" s="26"/>
@@ -4528,7 +5146,7 @@
     <row r="13" spans="1:4" s="21" customFormat="1">
       <c r="A13" s="1"/>
       <c r="B13" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="C13"/>
       <c r="D13"/>
@@ -4536,7 +5154,7 @@
     <row r="14" spans="1:4" s="21" customFormat="1">
       <c r="A14" s="1"/>
       <c r="B14" s="22" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="C14"/>
       <c r="D14"/>
@@ -4544,25 +5162,25 @@
     <row r="15" spans="1:4">
       <c r="A15" s="1"/>
       <c r="B15" s="17" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
     </row>
     <row r="16" spans="1:4" s="21" customFormat="1">
       <c r="A16" s="1"/>
       <c r="B16" s="17" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:4" s="21" customFormat="1">
       <c r="A17" s="1"/>
       <c r="B17" s="28" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
     <row r="18" spans="1:4" s="21" customFormat="1">
       <c r="A18" s="1"/>
       <c r="B18" s="28" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -4571,83 +5189,83 @@
     <row r="20" spans="1:4">
       <c r="A20" s="1"/>
       <c r="B20" s="17" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="40.5">
       <c r="A21" s="1"/>
       <c r="B21" s="24" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="1"/>
       <c r="B22" s="17" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
     </row>
     <row r="23" spans="1:4" s="21" customFormat="1" ht="27">
       <c r="A23" s="1"/>
       <c r="B23" s="24" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
     </row>
     <row r="24" spans="1:4" s="21" customFormat="1" ht="59.25">
       <c r="A24" s="1"/>
       <c r="B24" s="24" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="C24" s="25" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D24" s="21" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
     </row>
     <row r="25" spans="1:4" s="21" customFormat="1">
       <c r="A25" s="1"/>
       <c r="B25" s="24"/>
       <c r="C25" s="25" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D25" s="21" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="1"/>
       <c r="B26" s="17" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="1"/>
       <c r="B27" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="1"/>
       <c r="B28" s="22" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="1"/>
       <c r="B29" s="2" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="C29" s="25" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D29" s="21" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="1"/>
       <c r="B30" s="2" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -4661,8 +5279,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09EECFC8-488D-48E9-8D75-D6B3BBDB7240}">
   <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B9" sqref="B8:B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -4712,7 +5330,7 @@
     <row r="7" spans="1:4">
       <c r="A7" s="1"/>
       <c r="B7" s="3" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="6"/>
@@ -4720,7 +5338,7 @@
     <row r="8" spans="1:4">
       <c r="A8" s="1"/>
       <c r="B8" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="6"/>
@@ -4728,7 +5346,7 @@
     <row r="9" spans="1:4">
       <c r="A9" s="1"/>
       <c r="B9" s="22" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="6"/>
@@ -4736,25 +5354,25 @@
     <row r="10" spans="1:4" ht="37.5">
       <c r="A10" s="1"/>
       <c r="B10" s="11" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
     </row>
     <row r="11" spans="1:4" s="21" customFormat="1" ht="37.5">
       <c r="A11" s="1"/>
       <c r="B11" s="11" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1"/>
       <c r="B12" s="11" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="37.5">
       <c r="A13" s="1"/>
-      <c r="B13" s="2" t="s">
-        <v>117</v>
+      <c r="B13" s="11" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -4795,9 +5413,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21CE9593-2F03-41A2-AB98-644932EEAD3B}">
   <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
@@ -4816,7 +5432,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>20</v>
+        <v>114</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -4845,57 +5461,95 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1"/>
-      <c r="B7" s="3"/>
+      <c r="B7" s="3" t="s">
+        <v>115</v>
+      </c>
       <c r="C7" s="5"/>
       <c r="D7" s="6"/>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" s="21" customFormat="1" ht="121.5">
       <c r="A8" s="1"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="6"/>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="B8" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="C8" s="25"/>
+      <c r="D8" s="26"/>
+    </row>
+    <row r="9" spans="1:4" s="21" customFormat="1">
       <c r="A9" s="1"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="6"/>
+      <c r="B9" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="C9" s="25"/>
+      <c r="D9" s="26"/>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1"/>
+      <c r="B10" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1"/>
+      <c r="B11" s="22" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1"/>
-    </row>
-    <row r="13" spans="1:4">
+      <c r="B12" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="54">
       <c r="A13" s="1"/>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="1"/>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="1"/>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="1"/>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" s="1"/>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18" s="1"/>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19" s="1"/>
-    </row>
-    <row r="20" spans="1:1">
-      <c r="A20" s="1"/>
-    </row>
-    <row r="21" spans="1:1">
-      <c r="A21" s="1"/>
+      <c r="B13" s="22" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" s="21" customFormat="1">
+      <c r="B14" s="29" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" s="21" customFormat="1">
+      <c r="B15" s="29" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" s="21" customFormat="1">
+      <c r="B16" s="29"/>
+    </row>
+    <row r="17" spans="2:4">
+      <c r="B17" s="3" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4">
+      <c r="B18" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4">
+      <c r="B19" s="22" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" ht="93.75">
+      <c r="B20" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="C20" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4">
+      <c r="B21" s="29" t="s">
+        <v>122</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
@@ -4929,7 +5583,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -5019,10 +5673,10 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B299C3BF-BE77-4078-80C4-A276B5FF6349}">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -5042,7 +5696,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>22</v>
+        <v>128</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -5069,59 +5723,127 @@
       <c r="A6" s="1"/>
       <c r="B6" s="3"/>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" s="21" customFormat="1">
       <c r="A7" s="1"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="6"/>
+      <c r="B7" s="3" t="s">
+        <v>127</v>
+      </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1"/>
-      <c r="B8" s="3"/>
+      <c r="B8" t="s">
+        <v>129</v>
+      </c>
       <c r="C8" s="5"/>
       <c r="D8" s="6"/>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" s="21" customFormat="1">
       <c r="A9" s="1"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="6"/>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="B9"/>
+      <c r="C9" s="25"/>
+      <c r="D9" s="26"/>
+    </row>
+    <row r="10" spans="1:4" s="21" customFormat="1">
       <c r="A10" s="1"/>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="B10" s="27" t="s">
+        <v>145</v>
+      </c>
+      <c r="C10" s="25"/>
+      <c r="D10" s="26"/>
+    </row>
+    <row r="11" spans="1:4" s="21" customFormat="1" ht="56.25">
       <c r="A11" s="1"/>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="B11" s="27" t="s">
+        <v>140</v>
+      </c>
+      <c r="C11" s="25"/>
+      <c r="D11" s="26"/>
+    </row>
+    <row r="12" spans="1:4" ht="37.5">
       <c r="A12" s="1"/>
-    </row>
-    <row r="13" spans="1:4">
+      <c r="B12" s="27" t="s">
+        <v>134</v>
+      </c>
+      <c r="C12" s="5"/>
+      <c r="D12" s="6"/>
+    </row>
+    <row r="13" spans="1:4" s="21" customFormat="1">
       <c r="A13" s="1"/>
-    </row>
-    <row r="14" spans="1:4">
+      <c r="B13" s="27" t="s">
+        <v>133</v>
+      </c>
+      <c r="C13" s="25"/>
+      <c r="D13" s="26"/>
+    </row>
+    <row r="14" spans="1:4" s="21" customFormat="1">
       <c r="A14" s="1"/>
-    </row>
-    <row r="15" spans="1:4">
+      <c r="B14" s="27" t="s">
+        <v>135</v>
+      </c>
+      <c r="C14" s="25"/>
+      <c r="D14" s="26"/>
+    </row>
+    <row r="15" spans="1:4" s="21" customFormat="1">
       <c r="A15" s="1"/>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="B15" s="27"/>
+      <c r="C15" s="25"/>
+      <c r="D15" s="26"/>
+    </row>
+    <row r="16" spans="1:4" s="21" customFormat="1">
       <c r="A16" s="1"/>
-    </row>
-    <row r="17" spans="1:1">
+      <c r="B16" s="27" t="s">
+        <v>136</v>
+      </c>
+      <c r="C16" s="25"/>
+      <c r="D16" s="26"/>
+    </row>
+    <row r="17" spans="1:2">
       <c r="A17" s="1"/>
-    </row>
-    <row r="18" spans="1:1">
+      <c r="B17" s="22" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="37.5">
       <c r="A18" s="1"/>
-    </row>
-    <row r="19" spans="1:1">
+      <c r="B18" s="11" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="150">
       <c r="A19" s="1"/>
-    </row>
-    <row r="20" spans="1:1">
+      <c r="B19" s="11" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
       <c r="A20" s="1"/>
-    </row>
-    <row r="21" spans="1:1">
+      <c r="B20" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
       <c r="A21" s="1"/>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="1"/>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="1"/>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="1"/>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="1"/>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="1"/>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="1"/>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
@@ -5132,10 +5854,10 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6327553-9D51-4204-9881-C945808BEADB}">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -5155,7 +5877,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>23</v>
+        <v>137</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -5184,57 +5906,93 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1"/>
-      <c r="B7" s="3"/>
+      <c r="B7" s="3" t="s">
+        <v>138</v>
+      </c>
       <c r="C7" s="5"/>
       <c r="D7" s="6"/>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1"/>
-      <c r="B8" s="3"/>
+      <c r="B8" t="s">
+        <v>148</v>
+      </c>
       <c r="C8" s="5"/>
       <c r="D8" s="6"/>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" s="21" customFormat="1">
       <c r="A9" s="1"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="6"/>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="B9"/>
+      <c r="C9" s="25"/>
+      <c r="D9" s="26"/>
+    </row>
+    <row r="10" spans="1:4" s="21" customFormat="1">
       <c r="A10" s="1"/>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="B10" s="27" t="s">
+        <v>145</v>
+      </c>
+      <c r="C10" s="25"/>
+      <c r="D10" s="26"/>
+    </row>
+    <row r="11" spans="1:4" ht="56.25">
       <c r="A11" s="1"/>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="B11" s="27" t="s">
+        <v>141</v>
+      </c>
+      <c r="C11" s="5"/>
+      <c r="D11" s="6"/>
+    </row>
+    <row r="12" spans="1:4" ht="37.5">
       <c r="A12" s="1"/>
+      <c r="B12" s="27" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1"/>
+      <c r="B13" s="27" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="1"/>
+      <c r="B14" s="27" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="1"/>
+      <c r="B15" s="27"/>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="1"/>
-    </row>
-    <row r="17" spans="1:1">
+      <c r="B16" s="27" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="94.5">
       <c r="A17" s="1"/>
-    </row>
-    <row r="18" spans="1:1">
+      <c r="B17" s="22" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
       <c r="A18" s="1"/>
-    </row>
-    <row r="19" spans="1:1">
+      <c r="B18" s="11" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
       <c r="A19" s="1"/>
     </row>
-    <row r="20" spans="1:1">
+    <row r="20" spans="1:2">
       <c r="A20" s="1"/>
     </row>
-    <row r="21" spans="1:1">
+    <row r="21" spans="1:2">
       <c r="A21" s="1"/>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
@@ -5268,7 +6026,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -5360,8 +6118,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D077C58-5FEC-48A5-A5C6-05E88FEFA561}">
   <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -5411,65 +6169,65 @@
     <row r="7" spans="1:4" s="21" customFormat="1">
       <c r="A7" s="1"/>
       <c r="B7" s="3" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:4" s="21" customFormat="1">
       <c r="A8" s="1"/>
       <c r="B8" s="3" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="40.5">
       <c r="A9" s="1"/>
       <c r="B9" s="12" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1"/>
       <c r="B10" s="3"/>
       <c r="C10" s="15" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D10" s="16" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1"/>
       <c r="B11" s="17" t="s">
-        <v>39</v>
+        <v>133</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D11" s="20" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1"/>
       <c r="B12" s="17" t="s">
-        <v>40</v>
+        <v>135</v>
       </c>
       <c r="C12" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" s="20" t="s">
         <v>29</v>
-      </c>
-      <c r="D12" s="20" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1"/>
       <c r="B13" s="18" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C13" s="19"/>
       <c r="D13" s="20"/>
@@ -5477,7 +6235,7 @@
     <row r="14" spans="1:4" s="21" customFormat="1" ht="409.5">
       <c r="A14" s="1"/>
       <c r="B14" s="24" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C14" s="25"/>
       <c r="D14" s="26"/>
@@ -5485,25 +6243,25 @@
     <row r="15" spans="1:4" ht="54">
       <c r="A15" s="1"/>
       <c r="B15" s="24" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C15" s="25" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D15" s="26" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="1"/>
       <c r="B16" s="22" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C16" s="25" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D16" s="26" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -5512,47 +6270,47 @@
     <row r="18" spans="1:2">
       <c r="A18" s="1"/>
       <c r="B18" s="3" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="19" spans="1:2" s="21" customFormat="1">
       <c r="A19" s="1"/>
       <c r="B19" s="3" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="20" spans="1:2" s="21" customFormat="1">
       <c r="A20" s="1"/>
       <c r="B20" s="3" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1"/>
       <c r="B21" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1"/>
       <c r="B22" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="23" spans="1:2" s="21" customFormat="1" ht="229.5">
       <c r="A23" s="1"/>
       <c r="B23" s="3" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="B24" s="2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="B25" s="2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -5587,7 +6345,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -5700,7 +6458,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -5813,7 +6571,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -5905,8 +6663,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7407A9D5-C992-4914-B9BF-52E27D2A4B1A}">
   <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -5926,7 +6684,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>28</v>
+        <v>146</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -5955,56 +6713,85 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1"/>
-      <c r="B7" s="3"/>
+      <c r="B7" s="3" t="s">
+        <v>147</v>
+      </c>
       <c r="C7" s="5"/>
       <c r="D7" s="6"/>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1"/>
-      <c r="B8" s="3"/>
+      <c r="B8" t="s">
+        <v>149</v>
+      </c>
       <c r="C8" s="5"/>
       <c r="D8" s="6"/>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1"/>
-      <c r="B9" s="3"/>
+      <c r="B9"/>
       <c r="C9" s="5"/>
       <c r="D9" s="6"/>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1"/>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="B10" s="27" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="56.25">
       <c r="A11" s="1"/>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="B11" s="27" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="37.5">
       <c r="A12" s="1"/>
+      <c r="B12" s="27" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1"/>
+      <c r="B13" s="27" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="1"/>
+      <c r="B14" s="27" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="1"/>
+      <c r="B15" s="27"/>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="1"/>
-    </row>
-    <row r="17" spans="1:1">
+      <c r="B16" s="27" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="112.5">
       <c r="A17" s="1"/>
-    </row>
-    <row r="18" spans="1:1">
+      <c r="B17" s="11" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
       <c r="A18" s="1"/>
-    </row>
-    <row r="19" spans="1:1">
+      <c r="B18" s="11" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
       <c r="A19" s="1"/>
     </row>
-    <row r="20" spans="1:1">
+    <row r="20" spans="1:2">
       <c r="A20" s="1"/>
     </row>
-    <row r="21" spans="1:1">
+    <row r="21" spans="1:2">
       <c r="A21" s="1"/>
     </row>
   </sheetData>
@@ -6069,65 +6856,65 @@
     <row r="7" spans="1:4" s="21" customFormat="1">
       <c r="A7" s="1"/>
       <c r="B7" s="3" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:4" s="21" customFormat="1">
       <c r="A8" s="1"/>
       <c r="B8" s="3" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:4" s="21" customFormat="1" ht="40.5">
       <c r="A9" s="1"/>
       <c r="B9" s="24" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C9" s="25" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D9" s="26" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:4" s="21" customFormat="1">
       <c r="A10" s="1"/>
       <c r="B10" s="3"/>
       <c r="C10" s="25" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D10" s="26" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:4" s="21" customFormat="1">
       <c r="A11" s="1"/>
       <c r="B11" s="17" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C11" s="25" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D11" s="26" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:4" s="21" customFormat="1">
       <c r="A12" s="1"/>
       <c r="B12" s="17" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C12" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" s="26" t="s">
         <v>29</v>
-      </c>
-      <c r="D12" s="26" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:4" s="21" customFormat="1">
       <c r="A13" s="1"/>
       <c r="B13" s="24" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C13" s="25"/>
       <c r="D13" s="26"/>
@@ -6135,7 +6922,7 @@
     <row r="14" spans="1:4" s="21" customFormat="1" ht="409.5">
       <c r="A14" s="1"/>
       <c r="B14" s="24" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C14" s="25"/>
       <c r="D14" s="26"/>
@@ -6143,25 +6930,25 @@
     <row r="15" spans="1:4" s="21" customFormat="1" ht="54">
       <c r="A15" s="1"/>
       <c r="B15" s="24" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C15" s="25" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D15" s="26" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:4" s="21" customFormat="1">
       <c r="A16" s="1"/>
       <c r="B16" s="22" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C16" s="25" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D16" s="26" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:2" s="21" customFormat="1">
@@ -6173,48 +6960,48 @@
     <row r="19" spans="1:2">
       <c r="A19" s="1"/>
       <c r="B19" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="20" spans="1:2" s="21" customFormat="1">
       <c r="A20" s="1"/>
       <c r="B20" s="3" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="21" spans="1:2" s="21" customFormat="1">
       <c r="A21" s="1"/>
       <c r="B21" s="3" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1"/>
       <c r="B22" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="23" spans="1:2" s="21" customFormat="1">
       <c r="A23" s="1"/>
       <c r="B23" s="21" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="24" spans="1:2" s="21" customFormat="1" ht="175.5">
       <c r="A24" s="1"/>
       <c r="B24" s="3" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="1"/>
       <c r="B25" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="B26" s="2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -6229,7 +7016,7 @@
   <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -6279,7 +7066,7 @@
     <row r="7" spans="1:4">
       <c r="A7" s="1"/>
       <c r="B7" s="3" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C7" s="21"/>
       <c r="D7" s="21"/>
@@ -6287,59 +7074,59 @@
     <row r="8" spans="1:4" s="21" customFormat="1">
       <c r="A8" s="1"/>
       <c r="B8" s="3" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="40.5">
       <c r="A9" s="1"/>
       <c r="B9" s="24" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C9" s="25" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D9" s="26" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1"/>
       <c r="B10" s="3"/>
       <c r="C10" s="25" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D10" s="26" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1"/>
       <c r="B11" s="17" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C11" s="25" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D11" s="26" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1"/>
       <c r="B12" s="17" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C12" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" s="26" t="s">
         <v>29</v>
-      </c>
-      <c r="D12" s="26" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="409.5">
       <c r="A13" s="1"/>
       <c r="B13" s="24" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C13" s="25"/>
       <c r="D13" s="26"/>
@@ -6347,25 +7134,25 @@
     <row r="14" spans="1:4" ht="40.5">
       <c r="A14" s="1"/>
       <c r="B14" s="24" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C14" s="25" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D14" s="26" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="1"/>
       <c r="B15" s="22" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C15" s="25" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D15" s="26" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -6383,7 +7170,7 @@
     <row r="18" spans="1:4">
       <c r="A18" s="1"/>
       <c r="B18" s="21" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C18" s="21"/>
       <c r="D18" s="21"/>
@@ -6391,71 +7178,71 @@
     <row r="19" spans="1:4">
       <c r="A19" s="1"/>
       <c r="B19" s="3" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="1"/>
       <c r="B20" s="3" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="B21" s="27" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C21" s="25"/>
       <c r="D21"/>
     </row>
     <row r="22" spans="1:4" ht="409.5">
       <c r="B22" s="27" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C22"/>
       <c r="D22"/>
     </row>
     <row r="23" spans="1:4" s="21" customFormat="1" ht="112.5">
       <c r="B23" s="27" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C23" s="25" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D23" s="26" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="B24" s="27" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C24"/>
       <c r="D24"/>
     </row>
     <row r="25" spans="1:4" ht="37.5">
       <c r="B25" s="11" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C25" s="25"/>
       <c r="D25"/>
     </row>
     <row r="26" spans="1:4">
       <c r="B26" s="27" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C26"/>
       <c r="D26"/>
     </row>
     <row r="27" spans="1:4">
       <c r="B27" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C27"/>
       <c r="D27"/>
     </row>
     <row r="28" spans="1:4">
       <c r="B28" s="27" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C28"/>
       <c r="D28"/>
@@ -6522,7 +7309,7 @@
     <row r="7" spans="1:4">
       <c r="A7" s="1"/>
       <c r="B7" s="3" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="6"/>
@@ -6607,7 +7394,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -6643,7 +7430,7 @@
     <row r="8" spans="1:4" ht="67.5">
       <c r="A8" s="1"/>
       <c r="B8" s="3" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="6"/>
@@ -6702,7 +7489,7 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -6752,16 +7539,13 @@
     <row r="7" spans="1:4">
       <c r="A7" s="1"/>
       <c r="B7" s="3" t="s">
-        <v>81</v>
+        <v>116</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="6"/>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1"/>
-      <c r="B8" s="3" t="s">
-        <v>82</v>
-      </c>
       <c r="C8" s="5"/>
       <c r="D8" s="6"/>
     </row>
@@ -6819,7 +7603,7 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -6869,16 +7653,13 @@
     <row r="7" spans="1:4">
       <c r="A7" s="1"/>
       <c r="B7" s="3" t="s">
-        <v>81</v>
+        <v>117</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="6"/>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1"/>
-      <c r="B8" s="3" t="s">
-        <v>83</v>
-      </c>
       <c r="C8" s="5"/>
       <c r="D8" s="6"/>
     </row>
@@ -6986,7 +7767,7 @@
     <row r="7" spans="1:4">
       <c r="A7" s="1"/>
       <c r="B7" s="3" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="6"/>
@@ -7047,33 +7828,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <SharedWithUsers xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="f2582d4f-4605-4da6-a8d6-8d696d30c27c">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100AFAE8A2D61E2864A87743AC8EBD33013" ma:contentTypeVersion="17" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="131c1c820a00e4fca6ce65346d03e485">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="f2582d4f-4605-4da6-a8d6-8d696d30c27c" xmlns:ns3="c1e6ffc9-f5b9-4159-9447-bea3a992def6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="555fe79fdee1cb282876e6f1e8fa0f7e" ns2:_="" ns3:_="">
     <xsd:import namespace="f2582d4f-4605-4da6-a8d6-8d696d30c27c"/>
@@ -7322,10 +8076,48 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <SharedWithUsers xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="f2582d4f-4605-4da6-a8d6-8d696d30c27c">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A3B1469-BE58-4E2A-BFC6-1F894EC8921D}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{61B073EA-019B-49F1-927B-E5A470D8398D}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="f2582d4f-4605-4da6-a8d6-8d696d30c27c"/>
+    <ds:schemaRef ds:uri="c1e6ffc9-f5b9-4159-9447-bea3a992def6"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -7342,20 +8134,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{61B073EA-019B-49F1-927B-E5A470D8398D}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A3B1469-BE58-4E2A-BFC6-1F894EC8921D}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="f2582d4f-4605-4da6-a8d6-8d696d30c27c"/>
-    <ds:schemaRef ds:uri="c1e6ffc9-f5b9-4159-9447-bea3a992def6"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/revref_test.xlsx
+++ b/revref_test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\72446246\Documents\wk\業務関連資料\LMS\70.逆引きマニュアル作成\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF386A2A-6E9A-466D-AEF1-7C3BB966E29D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B0A35E4-79A9-424D-8D77-07D4B497531F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7605" firstSheet="11" activeTab="22" xr2:uid="{5CD9017C-176B-471B-A8A0-D3A2BE76D3A3}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7605" firstSheet="10" activeTab="16" xr2:uid="{5CD9017C-176B-471B-A8A0-D3A2BE76D3A3}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="8" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="154">
   <si>
     <t>header1</t>
   </si>
@@ -3292,31 +3292,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>&lt;h3&gt;設定例：受験後の正解非表示&lt;/h3&gt;デフォルトの状態では、テストの問題、学生の解答、解答の正誤などが表示されるようになっています
-受験を終わった学生はすぐに正解を知ることができます&lt;br&gt;
-例えばグループごとに受験時期をずらしてテストを課す場合など、受験後の学生にテストの正解を見せたくない時は、
-&lt;b&gt;「学生の受験直後(2分間)」&lt;/b&gt;の&lt;b&gt;「答えの正誤」&lt;/b&gt;や&lt;b&gt;「正解」&lt;/b&gt;のチェックを外すとテストの正解を隠すことができます&lt;br&gt;
-&lt;br&gt;また、テストの正解だけでなく、問題や評点も見せたくない場合は、&lt;b&gt;すべてのチェック&lt;/b&gt;を外したください
-そうすると「評定」にも評点が表示されなくなります。
-この場合、学生がテストを開いた場合に表示されるのは、受験回数と受験日時のみです</t>
-    <rPh sb="4" eb="6">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>レイ</t>
-    </rPh>
-    <rPh sb="157" eb="159">
-      <t>ガクセイ</t>
-    </rPh>
-    <rPh sb="160" eb="164">
-      <t>ジュケンチョクゴ</t>
-    </rPh>
-    <rPh sb="166" eb="168">
-      <t>フンカン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>&lt;h3&gt;小テストの各質問の配点を変更する方法&lt;/h3&gt;</t>
     <rPh sb="9" eb="12">
       <t>カクシツモン</t>
@@ -3554,109 +3529,6 @@
   </si>
   <si>
     <t>&lt;h4&gt;&lt;a name="manual"&gt;&lt;/a&gt;手動で改ページの位置を変更する方法&lt;/h4&gt;</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>小テストのページ分けは、以下の設定がすることができます
-&lt;ul&gt;
-&lt;li&gt;1問ずつ表示させる&lt;/li&gt;
-&lt;li&gt;一定の問題数(2～50問)ずつ表示させる&lt;/li&gt;
-&lt;li&gt;全問1ページに表示させる&lt;/li&gt;
-&lt;li&gt;手動で改ページの位置を変更する&lt;/li&gt;
-&lt;/ul&gt;
-&lt;u&gt;手動で改ページの位置を変更する方法&lt;/u&gt;のみ設定する方法が異なるため、&lt;a href="#manual"&gt;こちら&lt;/a&gt;を参照してください
-それ以外の設定は、改ページを設定方法を参照してください。</t>
-    <rPh sb="12" eb="14">
-      <t>イカ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="38" eb="39">
-      <t>モン</t>
-    </rPh>
-    <rPh sb="41" eb="43">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="56" eb="58">
-      <t>イッテイ</t>
-    </rPh>
-    <rPh sb="59" eb="62">
-      <t>モンダイスウ</t>
-    </rPh>
-    <rPh sb="71" eb="73">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="86" eb="88">
-      <t>ゼンモン</t>
-    </rPh>
-    <rPh sb="93" eb="95">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="119" eb="121">
-      <t>ヘンコウ</t>
-    </rPh>
-    <rPh sb="149" eb="151">
-      <t>ヘンコウ</t>
-    </rPh>
-    <rPh sb="161" eb="163">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="165" eb="167">
-      <t>ホウホウ</t>
-    </rPh>
-    <rPh sb="168" eb="169">
-      <t>コト</t>
-    </rPh>
-    <rPh sb="211" eb="213">
-      <t>イガイ</t>
-    </rPh>
-    <rPh sb="214" eb="216">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="218" eb="219">
-      <t>カイ</t>
-    </rPh>
-    <rPh sb="223" eb="225">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="225" eb="227">
-      <t>ホウホウ</t>
-    </rPh>
-    <rPh sb="228" eb="230">
-      <t>サンショウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>「1ページあたりの問題数」の選択メニューから選択してください
-&lt;b&gt;「問題１問ごと」&lt;/b&gt;を選択すると、1ページに1問表示されるように設定されています
-&lt;b&gt;「なし、すべての問題を１ページに表示する｣&lt;/b&gt;を選択すると、すべての問題は同一ページに表示されます
-&lt;b&gt;「問題2問ごと」&lt;/b&gt;～&lt;b&gt;「問題50問ごと」&lt;/b&gt;を選択すると、選択した問題数ずつ1ページに表示されます</t>
-    <rPh sb="14" eb="16">
-      <t>センタク</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>センタク</t>
-    </rPh>
-    <rPh sb="35" eb="37">
-      <t>モンダイ</t>
-    </rPh>
-    <rPh sb="38" eb="39">
-      <t>モン</t>
-    </rPh>
-    <rPh sb="47" eb="49">
-      <t>センタク</t>
-    </rPh>
-    <rPh sb="59" eb="60">
-      <t>モン</t>
-    </rPh>
-    <rPh sb="60" eb="62">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="68" eb="70">
-      <t>セッテイ</t>
-    </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -4088,6 +3960,156 @@
     </rPh>
     <rPh sb="61" eb="63">
       <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;h3&gt;設定例：受験後の正解非表示&lt;/h3&gt;デフォルトの状態では、テストの問題、学生の解答、解答の正誤などが表示されるようになっています
+受験を終わった学生はすぐに正解を知ることができます&lt;br&gt;
+例えばグループごとに受験時期をずらしてテストを課す場合など、受験後の学生にテストの正解を見せたくない時は、
+&lt;b&gt;「学生の受験直後(2分間)」&lt;/b&gt;と&lt;b&gt;「学生の受験後、小テストがクローズされるまで」&lt;/b&gt;の&lt;b&gt;「答えの正誤」&lt;/b&gt;や&lt;b&gt;「正解」&lt;/b&gt;のチェックを外すとテストの正解を隠すことができます&lt;br&gt;
+&lt;br&gt;また、テストの正解だけでなく、問題や評点も見せたくない場合は、&lt;b&gt;すべてのチェック&lt;/b&gt;を外したください
+そうすると「評定」にも評点が表示されなくなります。
+この場合、学生がテストを開いた場合に表示されるのは、受験回数と受験日時のみです</t>
+    <rPh sb="4" eb="6">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="157" eb="159">
+      <t>ガクセイ</t>
+    </rPh>
+    <rPh sb="160" eb="164">
+      <t>ジュケンチョクゴ</t>
+    </rPh>
+    <rPh sb="166" eb="168">
+      <t>フンカン</t>
+    </rPh>
+    <rPh sb="184" eb="185">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="186" eb="187">
+      <t>ショウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「1ページあたりの問題数」の選択メニューから選択してください
+&lt;b&gt;「問題１問ごと」&lt;/b&gt;を選択すると、1ページに1問表示されるように設定されています&lt;br&gt;
+&lt;b&gt;「なし、すべての問題を１ページに表示する｣&lt;/b&gt;を選択すると、すべての問題は同一ページに表示されます&lt;br&gt;
+&lt;b&gt;「問題2問ごと」&lt;/b&gt;～&lt;b&gt;「問題50問ごと」&lt;/b&gt;を選択すると、選択した問題数ずつ1ページに表示されます</t>
+    <rPh sb="14" eb="16">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>モンダイ</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>モン</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="59" eb="60">
+      <t>モン</t>
+    </rPh>
+    <rPh sb="60" eb="62">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="68" eb="70">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>小テストのプレビューから改ページが設定できていることを確認してください&lt;br&gt;</t>
+    <rPh sb="0" eb="1">
+      <t>ショウ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>カイ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>小テストのページ分けは、以下の設定がすることができます
+&lt;ul&gt;
+&lt;li&gt;1問ずつ表示させる&lt;/li&gt;
+&lt;li&gt;一定の問題数(2～50問)ずつ表示させる&lt;/li&gt;
+&lt;li&gt;全問1ページに表示させる&lt;/li&gt;
+&lt;li&gt;手動で改ページの位置を変更する&lt;/li&gt;
+&lt;/ul&gt;
+&lt;b&gt;手動で改ページの位置を変更する方法&lt;/b&gt;は設定する方法が異なるため、&lt;a href="#manual"&gt;こちら&lt;/a&gt;から参照してください
+それ以外の設定は、改ページを設定方法を参照してください&lt;br&gt;</t>
+    <rPh sb="12" eb="14">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>モン</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="56" eb="58">
+      <t>イッテイ</t>
+    </rPh>
+    <rPh sb="59" eb="62">
+      <t>モンダイスウ</t>
+    </rPh>
+    <rPh sb="71" eb="73">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="86" eb="88">
+      <t>ゼンモン</t>
+    </rPh>
+    <rPh sb="93" eb="95">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="119" eb="121">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="149" eb="151">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="160" eb="162">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="164" eb="166">
+      <t>ホウホウ</t>
+    </rPh>
+    <rPh sb="167" eb="168">
+      <t>コト</t>
+    </rPh>
+    <rPh sb="211" eb="213">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="214" eb="216">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="218" eb="219">
+      <t>カイ</t>
+    </rPh>
+    <rPh sb="223" eb="225">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="225" eb="227">
+      <t>ホウホウ</t>
+    </rPh>
+    <rPh sb="228" eb="230">
+      <t>サンショウ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -4909,7 +4931,7 @@
   <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8:B11"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -5015,7 +5037,7 @@
     <row r="14" spans="1:4" ht="121.5">
       <c r="A14" s="1"/>
       <c r="B14" s="22" t="s">
-        <v>108</v>
+        <v>150</v>
       </c>
       <c r="C14"/>
       <c r="D14"/>
@@ -5330,7 +5352,7 @@
     <row r="7" spans="1:4">
       <c r="A7" s="1"/>
       <c r="B7" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="6"/>
@@ -5354,25 +5376,25 @@
     <row r="10" spans="1:4" ht="37.5">
       <c r="A10" s="1"/>
       <c r="B10" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="11" spans="1:4" s="21" customFormat="1" ht="37.5">
       <c r="A11" s="1"/>
       <c r="B11" s="11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1"/>
       <c r="B12" s="11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="37.5">
       <c r="A13" s="1"/>
       <c r="B13" s="11" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -5411,9 +5433,11 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21CE9593-2F03-41A2-AB98-644932EEAD3B}">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
@@ -5432,7 +5456,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -5462,7 +5486,7 @@
     <row r="7" spans="1:4">
       <c r="A7" s="1"/>
       <c r="B7" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="6"/>
@@ -5470,85 +5494,94 @@
     <row r="8" spans="1:4" s="21" customFormat="1" ht="121.5">
       <c r="A8" s="1"/>
       <c r="B8" s="3" t="s">
-        <v>124</v>
+        <v>153</v>
       </c>
       <c r="C8" s="25"/>
       <c r="D8" s="26"/>
     </row>
     <row r="9" spans="1:4" s="21" customFormat="1">
       <c r="A9" s="1"/>
-      <c r="B9" s="3" t="s">
-        <v>120</v>
-      </c>
+      <c r="B9" s="3"/>
       <c r="C9" s="25"/>
       <c r="D9" s="26"/>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" s="21" customFormat="1">
       <c r="A10" s="1"/>
-      <c r="B10" t="s">
-        <v>81</v>
-      </c>
+      <c r="B10" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C10" s="25"/>
+      <c r="D10" s="26"/>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1"/>
-      <c r="B11" s="22" t="s">
-        <v>95</v>
+      <c r="B11" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1"/>
-      <c r="B12" s="2" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="54">
+      <c r="B12" s="22" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="1"/>
-      <c r="B13" s="22" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" s="21" customFormat="1">
-      <c r="B14" s="29" t="s">
-        <v>121</v>
+      <c r="B13" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="54">
+      <c r="A14" s="1"/>
+      <c r="B14" s="22" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="15" spans="1:4" s="21" customFormat="1">
       <c r="B15" s="29" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" s="21" customFormat="1">
+      <c r="B16" s="29" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" s="21" customFormat="1">
+      <c r="B17" s="29"/>
+    </row>
+    <row r="18" spans="2:4" s="21" customFormat="1">
+      <c r="B18" s="29"/>
+    </row>
+    <row r="19" spans="2:4">
+      <c r="B19" s="3" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="16" spans="1:4" s="21" customFormat="1">
-      <c r="B16" s="29"/>
-    </row>
-    <row r="17" spans="2:4">
-      <c r="B17" s="3" t="s">
+    <row r="20" spans="2:4">
+      <c r="B20" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4">
+      <c r="B21" s="22" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" ht="93.75">
+      <c r="B22" s="11" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="18" spans="2:4">
-      <c r="B18" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="19" spans="2:4">
-      <c r="B19" s="22" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="20" spans="2:4" ht="93.75">
-      <c r="B20" s="11" t="s">
-        <v>126</v>
-      </c>
-      <c r="C20" s="25" t="s">
+      <c r="C22" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="D20" s="2" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="21" spans="2:4">
-      <c r="B21" s="29" t="s">
-        <v>122</v>
+      <c r="D22" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4">
+      <c r="B23" s="29" t="s">
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -5675,9 +5708,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B299C3BF-BE77-4078-80C4-A276B5FF6349}">
   <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
@@ -5696,7 +5727,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -5726,13 +5757,13 @@
     <row r="7" spans="1:4" s="21" customFormat="1">
       <c r="A7" s="1"/>
       <c r="B7" s="3" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1"/>
       <c r="B8" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="6"/>
@@ -5746,7 +5777,7 @@
     <row r="10" spans="1:4" s="21" customFormat="1">
       <c r="A10" s="1"/>
       <c r="B10" s="27" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C10" s="25"/>
       <c r="D10" s="26"/>
@@ -5754,7 +5785,7 @@
     <row r="11" spans="1:4" s="21" customFormat="1" ht="56.25">
       <c r="A11" s="1"/>
       <c r="B11" s="27" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C11" s="25"/>
       <c r="D11" s="26"/>
@@ -5762,7 +5793,7 @@
     <row r="12" spans="1:4" ht="37.5">
       <c r="A12" s="1"/>
       <c r="B12" s="27" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C12" s="5"/>
       <c r="D12" s="6"/>
@@ -5770,7 +5801,7 @@
     <row r="13" spans="1:4" s="21" customFormat="1">
       <c r="A13" s="1"/>
       <c r="B13" s="27" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C13" s="25"/>
       <c r="D13" s="26"/>
@@ -5778,7 +5809,7 @@
     <row r="14" spans="1:4" s="21" customFormat="1">
       <c r="A14" s="1"/>
       <c r="B14" s="27" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C14" s="25"/>
       <c r="D14" s="26"/>
@@ -5792,7 +5823,7 @@
     <row r="16" spans="1:4" s="21" customFormat="1">
       <c r="A16" s="1"/>
       <c r="B16" s="27" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C16" s="25"/>
       <c r="D16" s="26"/>
@@ -5800,25 +5831,25 @@
     <row r="17" spans="1:2">
       <c r="A17" s="1"/>
       <c r="B17" s="22" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="37.5">
       <c r="A18" s="1"/>
       <c r="B18" s="11" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="150">
       <c r="A19" s="1"/>
       <c r="B19" s="11" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1"/>
       <c r="B20" s="2" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -5877,7 +5908,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -5907,7 +5938,7 @@
     <row r="7" spans="1:4">
       <c r="A7" s="1"/>
       <c r="B7" s="3" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="6"/>
@@ -5915,7 +5946,7 @@
     <row r="8" spans="1:4">
       <c r="A8" s="1"/>
       <c r="B8" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="6"/>
@@ -5929,7 +5960,7 @@
     <row r="10" spans="1:4" s="21" customFormat="1">
       <c r="A10" s="1"/>
       <c r="B10" s="27" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C10" s="25"/>
       <c r="D10" s="26"/>
@@ -5937,7 +5968,7 @@
     <row r="11" spans="1:4" ht="56.25">
       <c r="A11" s="1"/>
       <c r="B11" s="27" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C11" s="5"/>
       <c r="D11" s="6"/>
@@ -5945,19 +5976,19 @@
     <row r="12" spans="1:4" ht="37.5">
       <c r="A12" s="1"/>
       <c r="B12" s="27" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1"/>
       <c r="B13" s="27" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="1"/>
       <c r="B14" s="27" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -5967,19 +5998,19 @@
     <row r="16" spans="1:4">
       <c r="A16" s="1"/>
       <c r="B16" s="27" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="94.5">
       <c r="A17" s="1"/>
       <c r="B17" s="22" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1"/>
       <c r="B18" s="11" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -6203,7 +6234,7 @@
     <row r="11" spans="1:4">
       <c r="A11" s="1"/>
       <c r="B11" s="17" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C11" s="19" t="s">
         <v>25</v>
@@ -6215,7 +6246,7 @@
     <row r="12" spans="1:4">
       <c r="A12" s="1"/>
       <c r="B12" s="17" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C12" s="19" t="s">
         <v>25</v>
@@ -6663,7 +6694,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7407A9D5-C992-4914-B9BF-52E27D2A4B1A}">
   <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
@@ -6684,7 +6715,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -6714,7 +6745,7 @@
     <row r="7" spans="1:4">
       <c r="A7" s="1"/>
       <c r="B7" s="3" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="6"/>
@@ -6722,7 +6753,7 @@
     <row r="8" spans="1:4">
       <c r="A8" s="1"/>
       <c r="B8" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="6"/>
@@ -6736,31 +6767,31 @@
     <row r="10" spans="1:4">
       <c r="A10" s="1"/>
       <c r="B10" s="27" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="56.25">
       <c r="A11" s="1"/>
       <c r="B11" s="27" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="37.5">
       <c r="A12" s="1"/>
       <c r="B12" s="27" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1"/>
       <c r="B13" s="27" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="1"/>
       <c r="B14" s="27" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -6770,19 +6801,19 @@
     <row r="16" spans="1:4">
       <c r="A16" s="1"/>
       <c r="B16" s="27" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="112.5">
       <c r="A17" s="1"/>
       <c r="B17" s="11" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1"/>
       <c r="B18" s="11" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -7539,7 +7570,7 @@
     <row r="7" spans="1:4">
       <c r="A7" s="1"/>
       <c r="B7" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="6"/>
@@ -7653,7 +7684,7 @@
     <row r="7" spans="1:4">
       <c r="A7" s="1"/>
       <c r="B7" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="6"/>
@@ -7828,6 +7859,33 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <SharedWithUsers xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="f2582d4f-4605-4da6-a8d6-8d696d30c27c">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100AFAE8A2D61E2864A87743AC8EBD33013" ma:contentTypeVersion="17" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="131c1c820a00e4fca6ce65346d03e485">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="f2582d4f-4605-4da6-a8d6-8d696d30c27c" xmlns:ns3="c1e6ffc9-f5b9-4159-9447-bea3a992def6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="555fe79fdee1cb282876e6f1e8fa0f7e" ns2:_="" ns3:_="">
     <xsd:import namespace="f2582d4f-4605-4da6-a8d6-8d696d30c27c"/>
@@ -8076,34 +8134,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <SharedWithUsers xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="f2582d4f-4605-4da6-a8d6-8d696d30c27c">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A3B1469-BE58-4E2A-BFC6-1F894EC8921D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A965309B-2D00-4C69-AAF2-00F76E145C17}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="c1e6ffc9-f5b9-4159-9447-bea3a992def6"/>
+    <ds:schemaRef ds:uri="f2582d4f-4605-4da6-a8d6-8d696d30c27c"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{61B073EA-019B-49F1-927B-E5A470D8398D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -8120,23 +8170,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A965309B-2D00-4C69-AAF2-00F76E145C17}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="c1e6ffc9-f5b9-4159-9447-bea3a992def6"/>
-    <ds:schemaRef ds:uri="f2582d4f-4605-4da6-a8d6-8d696d30c27c"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A3B1469-BE58-4E2A-BFC6-1F894EC8921D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/revref_test.xlsx
+++ b/revref_test.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\72446246\Documents\wk\業務関連資料\LMS\70.逆引きマニュアル作成\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\72446246\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B0A35E4-79A9-424D-8D77-07D4B497531F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBF372EF-3F46-4C26-977D-2D8C6F4EEEEF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7605" firstSheet="10" activeTab="16" xr2:uid="{5CD9017C-176B-471B-A8A0-D3A2BE76D3A3}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19095" windowHeight="6330" firstSheet="10" activeTab="3" xr2:uid="{5CD9017C-176B-471B-A8A0-D3A2BE76D3A3}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="8" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="159">
   <si>
     <t>header1</t>
   </si>
@@ -2308,31 +2308,6 @@
     </rPh>
     <rPh sb="31" eb="33">
       <t>サクセイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>すでに小テストを作成している場合は、&lt;a href="#kanaume"&gt;穴埋め問題の作成&lt;/a&gt;から行ってください</t>
-    <rPh sb="3" eb="4">
-      <t>ショウ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>サクセイ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="37" eb="39">
-      <t>アナウ</t>
-    </rPh>
-    <rPh sb="40" eb="42">
-      <t>モンダイ</t>
-    </rPh>
-    <rPh sb="43" eb="45">
-      <t>サクセイ</t>
-    </rPh>
-    <rPh sb="51" eb="52">
-      <t>オコナ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -2533,54 +2508,1521 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>記述例）
-&lt;pre&gt;&lt;code&gt;
-{1:SHORTANSWER:~%100%犬#正解です}も歩けば棒に当たる
-&lt;/code&gt;&lt;/pre&gt;
-と入力すると右の画像のような問題が作成されます
-学生は「犬」と解答すると評点の100%が得点に加算されます&lt;/li&gt;</t>
+    <t>&lt;b&gt;「複数受験」&lt;/b&gt;は複数受験を許可している場合、不正解に対する減点の割合やヒントの設定をすることができます</t>
+    <rPh sb="4" eb="6">
+      <t>フクスウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ジュケン</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>キョカ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>作成中です</t>
+    <rPh sb="0" eb="2">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>チュウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>解答群から複数選択できる質問で、選択状態が完全に正しくないと配点しないようにしたい</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;a href="https://support.vle.hiroshima-u.ac.jp/mdl:faqk#q%E8%A4%87%E6%95%B0%E9%81%B8%E6%8A%9E%E3%81%99%E3%82%8B%E5%95%8F%E9%A1%8C%E3%81%A7_%E9%81%8E%E4%B8%8D%E8%B6%B3%E3%81%AA%E3%81%8F%E6%AD%A3%E8%A7%A3%E3%81%AE%E9%81%B8%E6%8A%9E%E8%82%A2%E3%82%92%E9%81%B8%E3%82%93%E3%81%A0%E3%81%A8%E3%81%8D%E3%81%A0%E3%81%91%E7%82%B9%E6%95%B0%E3%81%8C%E3%81%A7%E3%82%8B%E3%82%88%E3%81%86%E3%81%AB%E3%81%97%E3%81%9F%E3%81%84"&gt;FAQ&lt;/a&gt;を参照</t>
+    <rPh sb="419" eb="421">
+      <t>サンショウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>作成中</t>
     <rPh sb="0" eb="3">
-      <t>キジュツレイ</t>
-    </rPh>
-    <rPh sb="70" eb="72">
+      <t>サクセイチュウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>chartn</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>test-s2.png</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;h5&gt;小テストの設定項目「レビューオプション」を設定することで、学生への結果表示を調節することができます&lt;/h5&gt;</t>
+    <rPh sb="4" eb="5">
+      <t>ショウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ガクセイ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>チョウセツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>編集モードをONにし、対象の小テストを開いてください</t>
+    <rPh sb="0" eb="2">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>タイショウ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ショウ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ヒラ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>小テスト名の下に表示されているメニューの「受験結果」をクリックします</t>
+    <rPh sb="0" eb="1">
+      <t>ショウ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="21" eb="25">
+      <t>ジュケンケッカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>小テスト名の下に表示されているメニューの「設定」をクリックします</t>
+    <rPh sb="0" eb="1">
+      <t>ショウ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;b&gt;「レビューオプション」&lt;/b&gt;を設定していきます</t>
+    <rPh sb="19" eb="21">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>学生が小テストの受験結果のうちのどの情報を確認できるか、またいつ確認できるかを指定します
+チェックボックスにチェックされている項目がそのタイミングで表示されます</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;h3&gt;小テストの設定&lt;/h3&gt;</t>
+    <rPh sb="4" eb="5">
+      <t>ショウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>h3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>&gt;使用上の注意：バージョン管理</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>&lt;/h3&gt;</t>
+    </r>
+    <rPh sb="4" eb="7">
+      <t>シヨウジョウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>チュウイ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;h3&gt;小テストの問題を再利用する方法&lt;/h3&gt;</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>小テストに登録した問題は「問題バンク」に登録されます。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>また「問題バンク」内でも問題を作成することができます
+「問題バンク」の問題は、他の小テストに再利用できるだけでなく、コース内の他の教員も利用することができます</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;h3&gt;問題バンクから問題を再利用する方法&lt;/h3&gt;</t>
+    <rPh sb="4" eb="6">
+      <t>モンダイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>モンダイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>問題バンクとは利用する問題の保管庫の役割を担うもので、小テストから問題バンクの問題を参照して使用することができます。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>&lt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>h4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>&gt;小テストで使用する問題のバージョンの設定方法</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>&lt;/h4&gt;</t>
+    </r>
+    <rPh sb="4" eb="5">
+      <t>ショウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>モンダイ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ホウホウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>小テストで参照する問題は最新バージョンを常に参照するか、特定のバージョンを参照するかを指定することができます</t>
+    <rPh sb="0" eb="1">
+      <t>ショウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>サンショウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>モンダイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>サイシン</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ツネ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>サンショウ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>トクテイ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>サンショウ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>シテイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>小テスト名の下に表示されているメニューの「問題」をクリックします</t>
+    <rPh sb="0" eb="1">
+      <t>ショウ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>モンダイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「追加」をクリックします</t>
+    <rPh sb="1" eb="3">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「＋問題バンクから」をクリックします</t>
+    <rPh sb="2" eb="4">
+      <t>モンダイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1つ問題を複数の小テストから参照している場合、常に最新バージョンを参照するように設定していると、
+問題が編集されると小テスト内の問題も更新されてしまうため注意が必要です</t>
+    <rPh sb="49" eb="51">
+      <t>モンダイ</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <rPh sb="58" eb="59">
+      <t>ショウ</t>
+    </rPh>
+    <rPh sb="62" eb="63">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="64" eb="66">
+      <t>モンダイ</t>
+    </rPh>
+    <rPh sb="67" eb="69">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="77" eb="79">
+      <t>チュウイ</t>
+    </rPh>
+    <rPh sb="80" eb="82">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>利用したい問題にチェックを入れます</t>
+    <rPh sb="0" eb="2">
+      <t>リヨウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>モンダイ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>イ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「選択した問題を小テストに追加する」をクリックする</t>
+    <rPh sb="1" eb="3">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>モンダイ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ショウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>bank1.png</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>bank2.png</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>bank3.png</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>バージョンを変更し、右横にある虫眼鏡マークをクリックするとそのバージョンの問題がプレビューで確認できます</t>
+    <rPh sb="6" eb="8">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ミギヨコ</t>
+    </rPh>
+    <rPh sb="15" eb="18">
+      <t>ムシメガネ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>モンダイ</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>各問題の横に表示されている「常に最新」をクリックして、特定のバージョンを選んでください</t>
+    <rPh sb="0" eb="3">
+      <t>カクモンダイ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ヨコ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ツネ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>サイシン</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>トクテイ</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>エラ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>moodleは問題のバージョン管理を行っています
+問題を編集するたびに、新しいバージョンに更新されます
+（問題を作成すると「</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>v1」になり、その問題を編集し保存すると「v2」となる）</t>
+    </r>
+    <rPh sb="7" eb="9">
+      <t>モンダイ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>モンダイ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>アタラ</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>モンダイ</t>
+    </rPh>
+    <rPh sb="56" eb="58">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="71" eb="73">
+      <t>モンダイ</t>
+    </rPh>
+    <rPh sb="74" eb="76">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <rPh sb="77" eb="79">
+      <t>ホゾン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>例）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>小テスト</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t>A</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>の問題1を</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>小テスト</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t>B</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>で再利用している場合
+小テストAで問題1「ここは&lt;b&gt;日本&lt;/b&gt;ですか？」という問題を作成後に、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック "/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">
+小テスト</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>Bで再利用する際に、問題の内容を「ここは&lt;b&gt;広島&lt;/b&gt;ですか？」と修正してしまうと小テストA内の問題1の内容も「ここは&lt;b&gt;広島&lt;/b&gt;ですか？」に変わります</t>
+    </r>
+    <rPh sb="0" eb="1">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ショウ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ショウ</t>
+    </rPh>
+    <rPh sb="18" eb="21">
+      <t>サイリヨウ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>モンダイ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>ニホン</t>
+    </rPh>
+    <rPh sb="58" eb="60">
+      <t>モンダイ</t>
+    </rPh>
+    <rPh sb="61" eb="63">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="63" eb="64">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="67" eb="68">
+      <t>ショウ</t>
+    </rPh>
+    <rPh sb="73" eb="76">
+      <t>サイリヨウ</t>
+    </rPh>
+    <rPh sb="78" eb="79">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="81" eb="83">
+      <t>モンダイ</t>
+    </rPh>
+    <rPh sb="84" eb="86">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="94" eb="96">
+      <t>ヒロシマ</t>
+    </rPh>
+    <rPh sb="106" eb="108">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="114" eb="115">
+      <t>ショウ</t>
+    </rPh>
+    <rPh sb="119" eb="120">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="121" eb="123">
+      <t>モンダイ</t>
+    </rPh>
+    <rPh sb="125" eb="127">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="147" eb="148">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;h3&gt;小テストの各質問の配点を変更する方法&lt;/h3&gt;</t>
+    <rPh sb="9" eb="12">
+      <t>カクシツモン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ハイテン</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>各質問の右横に表示されている数字が各質問の配点です
+鉛筆マークをクリックして、配点を編集してください</t>
+    <rPh sb="0" eb="1">
+      <t>カク</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>シツモン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ミギヨコ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>スウジ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>カク</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>シツモン</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ハイテン</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>エンピツ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>ハイテン</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>キーボードのEnterキーを押すか、枠外をクリックすると編集を終了します
+キャンセルしたいときは、escapeキーを押します</t>
+    <rPh sb="14" eb="15">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ワクガイ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>シュウリョウ</t>
+    </rPh>
+    <rPh sb="58" eb="59">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「合計評点」が配点の合計値（満点）になります</t>
+    <rPh sb="1" eb="3">
+      <t>ゴウケイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヒョウテン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ハイテン</t>
+    </rPh>
+    <rPh sb="10" eb="13">
+      <t>ゴウケイチ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>マンテン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>右上に表示されている「最大評点」は学生が小テストで満点を取ったときにコース全体の評定に加算される点数です
+配点を変更しても最大評点は変わりませんので、必要に応じて変更してください</t>
+    <rPh sb="0" eb="2">
+      <t>ミギウエ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ガクセイ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ショウ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>マンテン</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>ゼンタイ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>ヒョウテイ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>カサン</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>テンスウ</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>ハイテン</t>
+    </rPh>
+    <rPh sb="56" eb="58">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="61" eb="63">
+      <t>サイダイ</t>
+    </rPh>
+    <rPh sb="63" eb="65">
+      <t>ヒョウテン</t>
+    </rPh>
+    <rPh sb="66" eb="67">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="75" eb="77">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="78" eb="79">
+      <t>オウ</t>
+    </rPh>
+    <rPh sb="81" eb="83">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>小テストのページ分けを変更したい</t>
+    <rPh sb="8" eb="9">
+      <t>ワ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;h3&gt;小テストのページ分けを変更する方法&lt;/h3&gt;</t>
+    <rPh sb="12" eb="13">
+      <t>ワ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ランダム問題について説明（作成中）</t>
+    <rPh sb="4" eb="6">
+      <t>モンダイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>セツメイ</t>
+    </rPh>
+    <rPh sb="13" eb="16">
+      <t>サクセイチュウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>シャッフルについて説明（作成中）</t>
+    <rPh sb="9" eb="11">
+      <t>セツメイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>チュウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>test11.png</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「改ページ調整」をクリックします</t>
+    <rPh sb="1" eb="2">
+      <t>カイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>チョウセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;h4&gt;改ページを設定する&lt;/h4&gt;</t>
+    <rPh sb="9" eb="11">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>選択ができたら、「Go」をクリックします</t>
+    <rPh sb="0" eb="2">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>小テストのプレビューから改ページが設定できていることを確認してください</t>
+    <rPh sb="0" eb="1">
+      <t>ショウ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>カイ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;h4&gt;&lt;a name="manual"&gt;&lt;/a&gt;手動で改ページの位置を変更する方法&lt;/h4&gt;</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>問題と問題の間に表示されている改ページアイコンをクリックすることでその問題の間に改ページの追加・削除ができます
+ページがすでに分かれている場合は、アイコンをクリックすると改ページが&lt;u&gt;削除&lt;/u&gt;されます（矢印が外側を指しているアイコン）
+同一ページに表示されている場合は、アイコンをクリックすると改ページが&lt;u&gt;追加&lt;/u&gt;されます（矢印が内側を指しているアイコン）</t>
+    <rPh sb="0" eb="2">
+      <t>モンダイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>モンダイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>アイダ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>カイ</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>カイ</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="63" eb="64">
+      <t>ワ</t>
+    </rPh>
+    <rPh sb="69" eb="71">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="85" eb="86">
+      <t>カイ</t>
+    </rPh>
+    <rPh sb="93" eb="95">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="104" eb="106">
+      <t>ヤジルシ</t>
+    </rPh>
+    <rPh sb="107" eb="109">
+      <t>ソトガワ</t>
+    </rPh>
+    <rPh sb="110" eb="111">
+      <t>サ</t>
+    </rPh>
+    <rPh sb="121" eb="123">
+      <t>ドウイツ</t>
+    </rPh>
+    <rPh sb="127" eb="129">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="134" eb="136">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="150" eb="151">
+      <t>カイ</t>
+    </rPh>
+    <rPh sb="158" eb="160">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="169" eb="171">
+      <t>ヤジルシ</t>
+    </rPh>
+    <rPh sb="172" eb="174">
+      <t>ウチガワ</t>
+    </rPh>
+    <rPh sb="175" eb="176">
+      <t>サ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;h3&gt;制限時間のあるテストの作成&lt;/h3&gt;</t>
+    <rPh sb="15" eb="17">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>制限時間のあるテストを作りたい</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;h5&gt;小テストの設定項目「タイミング」を設定することで、制限時間のあるテストにすることができます&lt;/h5&gt;</t>
+    <rPh sb="4" eb="5">
+      <t>ショウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>セイゲン</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ジカン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;b&gt;「制限時間」&lt;/b&gt;の横に表示されている「有効にする」のチェックボックスをクリックします
+制限時間の時間と単位を設定します</t>
+    <rPh sb="14" eb="15">
+      <t>ヨコ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ユウコウ</t>
+    </rPh>
+    <rPh sb="48" eb="52">
+      <t>セイゲンジカン</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="56" eb="58">
+      <t>タンイ</t>
+    </rPh>
+    <rPh sb="59" eb="61">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;b&gt;「制限を経過した場合」&lt;/b&gt;で問題を解き始め、まだ提出していない状態で学生がログアウトし、その間に制限時間を過ぎた場合の対処について選択します
+学生がログイン中で小テストを開いている場合は、自動的にその時点での回答が提出されます
+&lt;ul&gt;&lt;li&gt;&lt;b&gt;開いている受験は自動的に提出されます&lt;/b&gt;：制限時間になった時点での解答が自動的に提出されます。&lt;/li&gt;&lt;li&gt;&lt;b&gt;開いている受験を送信できる場合は送信猶予期間を設けますが、問題には解答できません&lt;/b&gt;：送信するためだけの猶予期間が与えられますが、制限時間後に問題を解くことはできません。提出できる答案は制限時間内に解いたもののみです。&lt;/li&gt;&lt;li&gt;&lt;b&gt;受験は制限時間内に提出される必要がありますが、そうでない場合はカウントされません&lt;/b&gt;：小テストは受験したことにはなりません。&lt;/li&gt;&lt;/ul&gt;</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>選択ができたら、「保存して表示する」をクリックします</t>
+    <rPh sb="0" eb="2">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ホゾン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ダイアログから「小テスト」を選択します</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>新しく小テストを作成する場合は、編集モードを開始し、小テストを作成したいセクションのリンクをクリックし表示されたページの「+ 活動またはリソースを追加する」をクリックします</t>
+    <rPh sb="0" eb="1">
+      <t>アタラ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ショウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「名称」と必要であれば「説明」を入力します</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;h4&gt;&lt;a name="timing"&gt;&lt;/a&gt;タイミングの設定&lt;/h4&gt;</t>
+    <rPh sb="31" eb="33">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>受験できる人を、パスワードや端末IPアドレスで制限したい</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;h3&gt;受験できる人を、パスワードや端末IPアドレスで制限する方法&lt;/h3&gt;</t>
+    <rPh sb="4" eb="6">
+      <t>ジュケン</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ヒト</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>タンマツ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>セイゲン</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ホウホウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;h4&gt;&lt;a name="restrict"&gt;&lt;/a&gt;受験に関する特別制限の設定&lt;/h4&gt;</t>
+    <rPh sb="38" eb="40">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>すでに小テストを作成している場合は、編集モードをONにし、対象の小テストを開いてください
+小テスト名の下に表示されているメニューの「設定」をクリックします
+&lt;a href="#timing"&gt;タイミングの設定&lt;/a&gt;を行ってください</t>
+    <rPh sb="3" eb="4">
+      <t>ショウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="102" eb="104">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="109" eb="110">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>すでに小テストを作成している場合は、編集モードをONにし、対象の小テストを開いてください
+小テスト名の下に表示されているメニューの「設定」をクリックします
+&lt;a href="#restrict"&gt;受験に関する特別制限の設定&lt;/a&gt;を行ってください</t>
+    <rPh sb="3" eb="4">
+      <t>ショウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="109" eb="111">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="116" eb="117">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;b&gt;「タイミング」&lt;/b&gt;を設定します</t>
+    <rPh sb="15" eb="17">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「保存して表示する」をクリックします</t>
+    <rPh sb="1" eb="3">
+      <t>ホゾン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;b&gt;「受験に関する特別制限」&lt;/b&gt;を設定します
+&lt;ul&gt;
+&lt;/li&gt;&lt;b&gt;「パスワードを要求する」&lt;/b&gt;にパスワードを設定すると、学生は、同じパスワードを入力してから受験するように設定できます&lt;/li&gt;
+&lt;li&gt;&lt;b&gt;「ネットワークアドレスを要求する」&lt;/b&gt;を設定すると、特定の IP アドレスの端末のみ、受験できるようになります
+例えば、「192.168」とだけ入力すれば「192.168」から始まるすべてのアドレスを許可します&lt;/li&gt;
+&lt;/ul&gt;</t>
+    <rPh sb="20" eb="22">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;h4&gt;小テストの作成&lt;/h4&gt;</t>
+    <rPh sb="4" eb="5">
+      <t>ショウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>合格点や受験可能回数を変更したい</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;h3&gt;合格点や受験可能回数を変更する方法&lt;/h3&gt;</t>
+    <rPh sb="4" eb="7">
+      <t>ゴウカクテン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ジュケン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>カノウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>カイスウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ホウホウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;h5&gt;小テストの設定項目「受験に関する特別制限」を設定することで、パスワードや端末IPアドレスで受験制限することができます&lt;/h5&gt;</t>
+    <rPh sb="4" eb="5">
+      <t>ショウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>タンマツ</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>ジュケン</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>セイゲン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;h5&gt;小テストの設定項目「評点」を設定することで、合格点や受験可能回数を変更することができます&lt;/h5&gt;</t>
+    <rPh sb="4" eb="5">
+      <t>ショウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>テン</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="26" eb="29">
+      <t>ゴウカクテン</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ジュケン</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>カノウ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>カイスウ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;h4&gt;&lt;a name="score"&gt;&lt;/a&gt;評点の設定&lt;/h4&gt;</t>
+    <rPh sb="25" eb="26">
+      <t>テン</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>すでに小テストを作成している場合は、編集モードをONにし、対象の小テストを開いてください
+小テスト名の下に表示されているメニューの「設定」をクリックします
+&lt;a href="#score"&gt;評点の設定&lt;/a&gt;を行ってください</t>
+    <rPh sb="3" eb="4">
+      <t>ショウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="98" eb="100">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="105" eb="106">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;b&gt;「評点」&lt;/b&gt;を設定します
+&lt;ul&gt;
+&lt;li&gt;&lt;b&gt;「合格点」&lt;/b&gt;に点数を入力することで、このテストの合格点が設定できます&lt;/li&gt;
+&lt;li&gt;&lt;b&gt;「受験可能回数」&lt;/b&gt;で小テストを受験可能な回数を指定します
+「無制限」または「1～10」の範囲から選択することができます&lt;/li&gt;
+&lt;/ul&gt;</t>
+    <rPh sb="4" eb="6">
+      <t>ヒョウテン</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>テンスウ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
       <t>ニュウリョク</t>
     </rPh>
-    <rPh sb="75" eb="76">
-      <t>ミギ</t>
-    </rPh>
-    <rPh sb="77" eb="79">
-      <t>ガゾウ</t>
-    </rPh>
-    <rPh sb="83" eb="85">
+    <rPh sb="61" eb="63">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;h3&gt;設定例：受験後の正解非表示&lt;/h3&gt;デフォルトの状態では、テストの問題、学生の解答、解答の正誤などが表示されるようになっています
+受験を終わった学生はすぐに正解を知ることができます&lt;br&gt;
+例えばグループごとに受験時期をずらしてテストを課す場合など、受験後の学生にテストの正解を見せたくない時は、
+&lt;b&gt;「学生の受験直後(2分間)」&lt;/b&gt;と&lt;b&gt;「学生の受験後、小テストがクローズされるまで」&lt;/b&gt;の&lt;b&gt;「答えの正誤」&lt;/b&gt;や&lt;b&gt;「正解」&lt;/b&gt;のチェックを外すとテストの正解を隠すことができます&lt;br&gt;
+&lt;br&gt;また、テストの正解だけでなく、問題や評点も見せたくない場合は、&lt;b&gt;すべてのチェック&lt;/b&gt;を外したください
+そうすると「評定」にも評点が表示されなくなります。
+この場合、学生がテストを開いた場合に表示されるのは、受験回数と受験日時のみです</t>
+    <rPh sb="4" eb="6">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>レイ</t>
+    </rPh>
+    <rPh sb="157" eb="159">
+      <t>ガクセイ</t>
+    </rPh>
+    <rPh sb="160" eb="164">
+      <t>ジュケンチョクゴ</t>
+    </rPh>
+    <rPh sb="166" eb="168">
+      <t>フンカン</t>
+    </rPh>
+    <rPh sb="184" eb="185">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="186" eb="187">
+      <t>ショウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「1ページあたりの問題数」の選択メニューから選択してください
+&lt;b&gt;「問題１問ごと」&lt;/b&gt;を選択すると、1ページに1問表示されるように設定されています&lt;br&gt;
+&lt;b&gt;「なし、すべての問題を１ページに表示する｣&lt;/b&gt;を選択すると、すべての問題は同一ページに表示されます&lt;br&gt;
+&lt;b&gt;「問題2問ごと」&lt;/b&gt;～&lt;b&gt;「問題50問ごと」&lt;/b&gt;を選択すると、選択した問題数ずつ1ページに表示されます</t>
+    <rPh sb="14" eb="16">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="35" eb="37">
       <t>モンダイ</t>
     </rPh>
+    <rPh sb="38" eb="39">
+      <t>モン</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="59" eb="60">
+      <t>モン</t>
+    </rPh>
+    <rPh sb="60" eb="62">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="68" eb="70">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>小テストのプレビューから改ページが設定できていることを確認してください&lt;br&gt;</t>
+    <rPh sb="0" eb="1">
+      <t>ショウ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>カイ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>小テストのページ分けは、以下の設定がすることができます
+&lt;ul&gt;
+&lt;li&gt;1問ずつ表示させる&lt;/li&gt;
+&lt;li&gt;一定の問題数(2～50問)ずつ表示させる&lt;/li&gt;
+&lt;li&gt;全問1ページに表示させる&lt;/li&gt;
+&lt;li&gt;手動で改ページの位置を変更する&lt;/li&gt;
+&lt;/ul&gt;
+&lt;b&gt;手動で改ページの位置を変更する方法&lt;/b&gt;は設定する方法が異なるため、&lt;a href="#manual"&gt;こちら&lt;/a&gt;から参照してください
+それ以外の設定は、改ページを設定方法を参照してください&lt;br&gt;</t>
+    <rPh sb="12" eb="14">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>モン</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="56" eb="58">
+      <t>イッテイ</t>
+    </rPh>
+    <rPh sb="59" eb="62">
+      <t>モンダイスウ</t>
+    </rPh>
+    <rPh sb="71" eb="73">
+      <t>ヒョウジ</t>
+    </rPh>
     <rPh sb="86" eb="88">
+      <t>ゼンモン</t>
+    </rPh>
+    <rPh sb="93" eb="95">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="119" eb="121">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="149" eb="151">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="160" eb="162">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="164" eb="166">
+      <t>ホウホウ</t>
+    </rPh>
+    <rPh sb="167" eb="168">
+      <t>コト</t>
+    </rPh>
+    <rPh sb="211" eb="213">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="214" eb="216">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="218" eb="219">
+      <t>カイ</t>
+    </rPh>
+    <rPh sb="223" eb="225">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="225" eb="227">
+      <t>ホウホウ</t>
+    </rPh>
+    <rPh sb="228" eb="230">
+      <t>サンショウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>すでに小テストを作成している場合は、&lt;a href="#anaume"&gt;穴埋め問題の作成&lt;/a&gt;から行ってください</t>
+    <rPh sb="3" eb="4">
+      <t>ショウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
       <t>サクセイ</t>
     </rPh>
-    <rPh sb="93" eb="95">
-      <t>ガクセイ</t>
-    </rPh>
-    <rPh sb="97" eb="98">
-      <t>イヌ</t>
-    </rPh>
-    <rPh sb="100" eb="102">
-      <t>カイトウ</t>
-    </rPh>
-    <rPh sb="105" eb="107">
-      <t>ヒョウテン</t>
-    </rPh>
-    <rPh sb="113" eb="115">
-      <t>トクテン</t>
-    </rPh>
-    <rPh sb="116" eb="118">
-      <t>カサン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>&lt;ul&gt;&lt;li&gt;&lt;b&gt;「問題名」&lt;/b&gt;を入力します&lt;/li&gt;
-&lt;li&gt;&lt;b&gt;「問題テキスト」&lt;/b&gt;は記号を使用して、穴埋め問題を作成してください
-&lt;small&gt;※ 穴埋め問題で使用する記号は以下となります。&lt;/small&gt; 
+    <rPh sb="14" eb="16">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>アナウ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>モンダイ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="50" eb="51">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「問題名」&lt;/b&gt;を入力します</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;small&gt;※ 穴埋め問題で使用する記号は以下となります。&lt;/small&gt; 
 &lt;table border="1" width="550"&gt;
     &lt;tr&gt;
       &lt;td&gt; {} &lt;/td&gt;&lt;td&gt; 問題となる部分全体をくくります&lt;/td&gt;
@@ -2601,1515 +4043,178 @@
       &lt;td&gt; =  &lt;/td&gt;&lt;td&gt; 以下に続く答えが正答であることを示します&lt;/td&gt;
     &lt;/tr&gt;
   &lt;/table&gt;</t>
-    <rPh sb="40" eb="42">
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>記述例）
+&lt;pre&gt;&lt;code&gt;
+{1:SHORTANSWER:~%100%犬#正解です}も歩けば棒に当たる
+&lt;/code&gt;&lt;/pre&gt;
+と入力すると右の画像のような問題が作成されます
+学生は「犬」と解答すると評点の100%が得点に加算されます</t>
+    <rPh sb="0" eb="3">
+      <t>キジュツレイ</t>
+    </rPh>
+    <rPh sb="70" eb="72">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="75" eb="76">
+      <t>ミギ</t>
+    </rPh>
+    <rPh sb="77" eb="79">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="83" eb="85">
       <t>モンダイ</t>
     </rPh>
-    <rPh sb="52" eb="54">
-      <t>キゴウ</t>
-    </rPh>
-    <rPh sb="55" eb="57">
+    <rPh sb="86" eb="88">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="93" eb="95">
+      <t>ガクセイ</t>
+    </rPh>
+    <rPh sb="97" eb="98">
+      <t>イヌ</t>
+    </rPh>
+    <rPh sb="100" eb="102">
+      <t>カイトウ</t>
+    </rPh>
+    <rPh sb="105" eb="107">
+      <t>ヒョウテン</t>
+    </rPh>
+    <rPh sb="113" eb="115">
+      <t>トクテン</t>
+    </rPh>
+    <rPh sb="116" eb="118">
+      <t>カサン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;b&gt;「全体に対するフィードバック」&lt;/b&gt;は解答後に表示したい内容を入力します</t>
+    <rPh sb="25" eb="27">
+      <t>ナイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;b&gt;「問題テキスト」&lt;/b&gt;は記号を使用して、穴埋め問題を作成してください&lt;br&gt;
+穴埋め問題エディタを使用すると便利です&lt;br&gt;
+「問題テキスト」のエディタの２段目に「穴埋め問題Clozeエディタ」ボタンがあるため、クリックして使用します&lt;br&gt;
+※２段目がない場合は「さらにボタン表示をする」をクリックしてください&lt;br&gt;</t>
+    <rPh sb="68" eb="70">
+      <t>モンダイ</t>
+    </rPh>
+    <rPh sb="86" eb="88">
+      <t>アナウ</t>
+    </rPh>
+    <rPh sb="89" eb="91">
+      <t>モンダイ</t>
+    </rPh>
+    <rPh sb="116" eb="118">
       <t>シヨウ</t>
     </rPh>
-    <rPh sb="60" eb="62">
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「穴埋め問題（Cloze）エディタ」画面が表示されたら、作成したい問題のタイプを選択します&lt;br&gt;
+MULTICHOICE(単一解答のみの多肢選択問題)やMULTIRESPONSE（複数解答を許可できる多肢選択問題）やNUMERICAL(数値問題)、SHORTANSWER(記述問題)などを選択できます&lt;br&gt;
+例えば、「MULTICHOICE_HS」を選択すると「ラジオボタンの横の列」「問題内部をシャッフルする」「単一解答のみ」というタイプの多肢選択問題を追加することができます&lt;br&gt;</t>
+    <rPh sb="1" eb="3">
       <t>アナウ</t>
     </rPh>
-    <rPh sb="63" eb="65">
-      <t>モンダイ</t>
-    </rPh>
-    <rPh sb="66" eb="68">
-      <t>サクセイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>&lt;li&gt;&lt;b&gt;「全体に対するフィードバック」&lt;/b&gt;は解答後に表示したい内容を入力します&lt;/li&gt;&lt;/ul&gt;</t>
-    <rPh sb="36" eb="38">
-      <t>ナイヨウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>&lt;b&gt;「複数受験」&lt;/b&gt;は複数受験を許可している場合、不正解に対する減点の割合やヒントの設定をすることができます</t>
-    <rPh sb="4" eb="6">
-      <t>フクスウ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ジュケン</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>キョカ</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>バアイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>作成中です</t>
-    <rPh sb="0" eb="2">
-      <t>サクセイ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>チュウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>解答群から複数選択できる質問で、選択状態が完全に正しくないと配点しないようにしたい</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>&lt;a href="https://support.vle.hiroshima-u.ac.jp/mdl:faqk#q%E8%A4%87%E6%95%B0%E9%81%B8%E6%8A%9E%E3%81%99%E3%82%8B%E5%95%8F%E9%A1%8C%E3%81%A7_%E9%81%8E%E4%B8%8D%E8%B6%B3%E3%81%AA%E3%81%8F%E6%AD%A3%E8%A7%A3%E3%81%AE%E9%81%B8%E6%8A%9E%E8%82%A2%E3%82%92%E9%81%B8%E3%82%93%E3%81%A0%E3%81%A8%E3%81%8D%E3%81%A0%E3%81%91%E7%82%B9%E6%95%B0%E3%81%8C%E3%81%A7%E3%82%8B%E3%82%88%E3%81%86%E3%81%AB%E3%81%97%E3%81%9F%E3%81%84"&gt;FAQ&lt;/a&gt;を参照</t>
-    <rPh sb="419" eb="421">
-      <t>サンショウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>作成中</t>
-    <rPh sb="0" eb="3">
-      <t>サクセイチュウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>chartn</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>test-s2.png</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>&lt;h5&gt;小テストの設定項目「レビューオプション」を設定することで、学生への結果表示を調節することができます&lt;/h5&gt;</t>
-    <rPh sb="4" eb="5">
-      <t>ショウ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>コウモク</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="33" eb="35">
-      <t>ガクセイ</t>
-    </rPh>
-    <rPh sb="37" eb="39">
-      <t>ケッカ</t>
-    </rPh>
-    <rPh sb="39" eb="41">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="42" eb="44">
-      <t>チョウセツ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>編集モードをONにし、対象の小テストを開いてください</t>
-    <rPh sb="0" eb="2">
-      <t>ヘンシュウ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>タイショウ</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>ショウ</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>ヒラ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>小テスト名の下に表示されているメニューの「受験結果」をクリックします</t>
-    <rPh sb="0" eb="1">
-      <t>ショウ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>シタ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="21" eb="25">
-      <t>ジュケンケッカ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>小テスト名の下に表示されているメニューの「設定」をクリックします</t>
-    <rPh sb="0" eb="1">
-      <t>ショウ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>シタ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>セッテイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>&lt;b&gt;「レビューオプション」&lt;/b&gt;を設定していきます</t>
-    <rPh sb="19" eb="21">
-      <t>セッテイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>学生が小テストの受験結果のうちのどの情報を確認できるか、またいつ確認できるかを指定します
-チェックボックスにチェックされている項目がそのタイミングで表示されます</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>&lt;h3&gt;小テストの設定&lt;/h3&gt;</t>
-    <rPh sb="4" eb="5">
-      <t>ショウ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>セッテイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <r>
-      <t>&lt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>h3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック "/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>&gt;使用上の注意：バージョン管理</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>&lt;/h3&gt;</t>
-    </r>
-    <rPh sb="4" eb="7">
-      <t>シヨウジョウ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>チュウイ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>カンリ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>&lt;h3&gt;小テストの問題を再利用する方法&lt;/h3&gt;</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>小テストに登録した問題は「問題バンク」に登録されます。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>また「問題バンク」内でも問題を作成することができます
-「問題バンク」の問題は、他の小テストに再利用できるだけでなく、コース内の他の教員も利用することができます</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>&lt;h3&gt;問題バンクから問題を再利用する方法&lt;/h3&gt;</t>
     <rPh sb="4" eb="6">
       <t>モンダイ</t>
     </rPh>
-    <rPh sb="11" eb="13">
+    <rPh sb="18" eb="20">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
       <t>モンダイ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>問題バンクとは利用する問題の保管庫の役割を担うもので、小テストから問題バンクの問題を参照して使用することができます。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <r>
-      <t>&lt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>h4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック "/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>&gt;小テストで使用する問題のバージョンの設定方法</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>&lt;/h4&gt;</t>
-    </r>
-    <rPh sb="4" eb="5">
-      <t>ショウ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>シヨウ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
+    <rPh sb="40" eb="42">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="62" eb="66">
+      <t>タンイツカイトウ</t>
+    </rPh>
+    <rPh sb="69" eb="73">
+      <t>タシセンタク</t>
+    </rPh>
+    <rPh sb="73" eb="75">
       <t>モンダイ</t>
     </rPh>
-    <rPh sb="22" eb="24">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>ホウホウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>小テストで参照する問題は最新バージョンを常に参照するか、特定のバージョンを参照するかを指定することができます</t>
-    <rPh sb="0" eb="1">
-      <t>ショウ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>サンショウ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>モンダイ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>サイシン</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>ツネ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>サンショウ</t>
-    </rPh>
-    <rPh sb="28" eb="30">
-      <t>トクテイ</t>
-    </rPh>
-    <rPh sb="37" eb="39">
-      <t>サンショウ</t>
-    </rPh>
-    <rPh sb="43" eb="45">
-      <t>シテイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>小テスト名の下に表示されているメニューの「問題」をクリックします</t>
-    <rPh sb="0" eb="1">
-      <t>ショウ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>シタ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>モンダイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>「追加」をクリックします</t>
+    <rPh sb="145" eb="147">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="156" eb="157">
+      <t>タト</t>
+    </rPh>
+    <rPh sb="177" eb="179">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="230" eb="232">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「追加」をクリックし、評点や解答を設定して「挿入」をクリックします
+エディタ内に穴埋めの内容が記号で追加されます</t>
     <rPh sb="1" eb="3">
       <t>ツイカ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>「＋問題バンクから」をクリックします</t>
-    <rPh sb="2" eb="4">
-      <t>モンダイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>1つ問題を複数の小テストから参照している場合、常に最新バージョンを参照するように設定していると、
-問題が編集されると小テスト内の問題も更新されてしまうため注意が必要です</t>
-    <rPh sb="49" eb="51">
-      <t>モンダイ</t>
-    </rPh>
-    <rPh sb="52" eb="54">
-      <t>ヘンシュウ</t>
-    </rPh>
-    <rPh sb="58" eb="59">
-      <t>ショウ</t>
-    </rPh>
-    <rPh sb="62" eb="63">
-      <t>ナイ</t>
-    </rPh>
-    <rPh sb="64" eb="66">
-      <t>モンダイ</t>
-    </rPh>
-    <rPh sb="67" eb="69">
-      <t>コウシン</t>
-    </rPh>
-    <rPh sb="77" eb="79">
-      <t>チュウイ</t>
-    </rPh>
-    <rPh sb="80" eb="82">
-      <t>ヒツヨウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>利用したい問題にチェックを入れます</t>
-    <rPh sb="0" eb="2">
-      <t>リヨウ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>モンダイ</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>イ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>「選択した問題を小テストに追加する」をクリックする</t>
-    <rPh sb="1" eb="3">
-      <t>センタク</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>モンダイ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>ショウ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>ツイカ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>bank1.png</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>bank2.png</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>bank3.png</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>バージョンを変更し、右横にある虫眼鏡マークをクリックするとそのバージョンの問題がプレビューで確認できます</t>
-    <rPh sb="6" eb="8">
-      <t>ヘンコウ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ミギヨコ</t>
-    </rPh>
-    <rPh sb="15" eb="18">
-      <t>ムシメガネ</t>
-    </rPh>
-    <rPh sb="37" eb="39">
-      <t>モンダイ</t>
-    </rPh>
-    <rPh sb="46" eb="48">
-      <t>カクニン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>各問題の横に表示されている「常に最新」をクリックして、特定のバージョンを選んでください</t>
-    <rPh sb="0" eb="3">
-      <t>カクモンダイ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>ヨコ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>ツネ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>サイシン</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>トクテイ</t>
-    </rPh>
-    <rPh sb="36" eb="37">
-      <t>エラ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <r>
-      <t>moodleは問題のバージョン管理を行っています
-問題を編集するたびに、新しいバージョンに更新されます
-（問題を作成すると「</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>v1」になり、その問題を編集し保存すると「v2」となる）</t>
-    </r>
-    <rPh sb="7" eb="9">
-      <t>モンダイ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>カンリ</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>オコナ</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>モンダイ</t>
-    </rPh>
-    <rPh sb="28" eb="30">
-      <t>ヘンシュウ</t>
-    </rPh>
-    <rPh sb="36" eb="37">
-      <t>アタラ</t>
-    </rPh>
-    <rPh sb="45" eb="47">
-      <t>コウシン</t>
-    </rPh>
-    <rPh sb="53" eb="55">
-      <t>モンダイ</t>
-    </rPh>
-    <rPh sb="56" eb="58">
-      <t>サクセイ</t>
-    </rPh>
-    <rPh sb="71" eb="73">
-      <t>モンダイ</t>
-    </rPh>
-    <rPh sb="74" eb="76">
-      <t>ヘンシュウ</t>
-    </rPh>
-    <rPh sb="77" eb="79">
-      <t>ホゾン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <r>
-      <t>例）</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>小テスト</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t>A</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>の問題1を</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>小テスト</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="3"/>
-      </rPr>
-      <t>B</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>で再利用している場合
-小テストAで問題1「ここは&lt;b&gt;日本&lt;/b&gt;ですか？」という問題を作成後に、</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック "/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">
-小テスト</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>Bで再利用する際に、問題の内容を「ここは&lt;b&gt;広島&lt;/b&gt;ですか？」と修正してしまうと小テストA内の問題1の内容も「ここは&lt;b&gt;広島&lt;/b&gt;ですか？」に変わります</t>
-    </r>
-    <rPh sb="0" eb="1">
-      <t>レイ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ショウ</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>ショウ</t>
-    </rPh>
-    <rPh sb="18" eb="21">
-      <t>サイリヨウ</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="34" eb="36">
-      <t>モンダイ</t>
-    </rPh>
-    <rPh sb="44" eb="46">
-      <t>ニホン</t>
-    </rPh>
-    <rPh sb="58" eb="60">
-      <t>モンダイ</t>
-    </rPh>
-    <rPh sb="61" eb="63">
-      <t>サクセイ</t>
-    </rPh>
-    <rPh sb="63" eb="64">
-      <t>ゴ</t>
-    </rPh>
-    <rPh sb="67" eb="68">
-      <t>ショウ</t>
-    </rPh>
-    <rPh sb="73" eb="76">
-      <t>サイリヨウ</t>
-    </rPh>
-    <rPh sb="78" eb="79">
-      <t>サイ</t>
-    </rPh>
-    <rPh sb="81" eb="83">
-      <t>モンダイ</t>
-    </rPh>
-    <rPh sb="84" eb="86">
-      <t>ナイヨウ</t>
-    </rPh>
-    <rPh sb="94" eb="96">
-      <t>ヒロシマ</t>
-    </rPh>
-    <rPh sb="106" eb="108">
-      <t>シュウセイ</t>
-    </rPh>
-    <rPh sb="114" eb="115">
-      <t>ショウ</t>
-    </rPh>
-    <rPh sb="119" eb="120">
-      <t>ナイ</t>
-    </rPh>
-    <rPh sb="121" eb="123">
-      <t>モンダイ</t>
-    </rPh>
-    <rPh sb="125" eb="127">
-      <t>ナイヨウ</t>
-    </rPh>
-    <rPh sb="147" eb="148">
-      <t>カ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>&lt;h3&gt;小テストの各質問の配点を変更する方法&lt;/h3&gt;</t>
-    <rPh sb="9" eb="12">
-      <t>カクシツモン</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>ハイテン</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>ヘンコウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>各質問の右横に表示されている数字が各質問の配点です
-鉛筆マークをクリックして、配点を編集してください</t>
-    <rPh sb="0" eb="1">
-      <t>カク</t>
-    </rPh>
-    <rPh sb="1" eb="3">
-      <t>シツモン</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ミギヨコ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ヒョウジ</t>
+    <rPh sb="11" eb="13">
+      <t>ヒョウテン</t>
     </rPh>
     <rPh sb="14" eb="16">
-      <t>スウジ</t>
-    </rPh>
-    <rPh sb="17" eb="18">
-      <t>カク</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>シツモン</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>ハイテン</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>エンピツ</t>
-    </rPh>
-    <rPh sb="39" eb="41">
-      <t>ハイテン</t>
-    </rPh>
-    <rPh sb="42" eb="44">
-      <t>ヘンシュウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>キーボードのEnterキーを押すか、枠外をクリックすると編集を終了します
-キャンセルしたいときは、escapeキーを押します</t>
-    <rPh sb="14" eb="15">
-      <t>オ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>ワクガイ</t>
-    </rPh>
-    <rPh sb="28" eb="30">
-      <t>ヘンシュウ</t>
-    </rPh>
-    <rPh sb="31" eb="33">
-      <t>シュウリョウ</t>
-    </rPh>
-    <rPh sb="58" eb="59">
-      <t>オ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>「合計評点」が配点の合計値（満点）になります</t>
-    <rPh sb="1" eb="3">
-      <t>ゴウケイ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ヒョウテン</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ハイテン</t>
-    </rPh>
-    <rPh sb="10" eb="13">
-      <t>ゴウケイチ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>マンテン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>右上に表示されている「最大評点」は学生が小テストで満点を取ったときにコース全体の評定に加算される点数です
-配点を変更しても最大評点は変わりませんので、必要に応じて変更してください</t>
-    <rPh sb="0" eb="2">
-      <t>ミギウエ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>ガクセイ</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>ショウ</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>マンテン</t>
-    </rPh>
-    <rPh sb="28" eb="29">
-      <t>ト</t>
-    </rPh>
-    <rPh sb="37" eb="39">
-      <t>ゼンタイ</t>
-    </rPh>
-    <rPh sb="40" eb="42">
-      <t>ヒョウテイ</t>
-    </rPh>
-    <rPh sb="43" eb="45">
-      <t>カサン</t>
-    </rPh>
-    <rPh sb="48" eb="50">
-      <t>テンスウ</t>
-    </rPh>
-    <rPh sb="53" eb="55">
-      <t>ハイテン</t>
-    </rPh>
-    <rPh sb="56" eb="58">
-      <t>ヘンコウ</t>
-    </rPh>
-    <rPh sb="61" eb="63">
-      <t>サイダイ</t>
-    </rPh>
-    <rPh sb="63" eb="65">
-      <t>ヒョウテン</t>
-    </rPh>
-    <rPh sb="66" eb="67">
-      <t>カ</t>
-    </rPh>
-    <rPh sb="75" eb="77">
-      <t>ヒツヨウ</t>
-    </rPh>
-    <rPh sb="78" eb="79">
-      <t>オウ</t>
-    </rPh>
-    <rPh sb="81" eb="83">
-      <t>ヘンコウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>小テストのページ分けを変更したい</t>
-    <rPh sb="8" eb="9">
-      <t>ワ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>&lt;h3&gt;小テストのページ分けを変更する方法&lt;/h3&gt;</t>
-    <rPh sb="12" eb="13">
-      <t>ワ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>ヘンコウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ランダム問題について説明（作成中）</t>
-    <rPh sb="4" eb="6">
-      <t>モンダイ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>セツメイ</t>
-    </rPh>
-    <rPh sb="13" eb="16">
-      <t>サクセイチュウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>シャッフルについて説明（作成中）</t>
-    <rPh sb="9" eb="11">
-      <t>セツメイ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>サクセイ</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>チュウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>test11.png</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>「改ページ調整」をクリックします</t>
-    <rPh sb="1" eb="2">
-      <t>カイ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>チョウセイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>&lt;h4&gt;改ページを設定する&lt;/h4&gt;</t>
-    <rPh sb="9" eb="11">
-      <t>セッテイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>選択ができたら、「Go」をクリックします</t>
-    <rPh sb="0" eb="2">
-      <t>センタク</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>小テストのプレビューから改ページが設定できていることを確認してください</t>
-    <rPh sb="0" eb="1">
-      <t>ショウ</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>カイ</t>
+      <t>カイトウ</t>
     </rPh>
     <rPh sb="17" eb="19">
       <t>セッテイ</t>
     </rPh>
-    <rPh sb="27" eb="29">
-      <t>カクニン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>&lt;h4&gt;&lt;a name="manual"&gt;&lt;/a&gt;手動で改ページの位置を変更する方法&lt;/h4&gt;</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>問題と問題の間に表示されている改ページアイコンをクリックすることでその問題の間に改ページの追加・削除ができます
-ページがすでに分かれている場合は、アイコンをクリックすると改ページが&lt;u&gt;削除&lt;/u&gt;されます（矢印が外側を指しているアイコン）
-同一ページに表示されている場合は、アイコンをクリックすると改ページが&lt;u&gt;追加&lt;/u&gt;されます（矢印が内側を指しているアイコン）</t>
+    <rPh sb="22" eb="24">
+      <t>ソウニュウ</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>アナウ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>キゴウ</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>穴埋め箇所以外の問題テキストを入力してください</t>
     <rPh sb="0" eb="2">
+      <t>アナウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カショ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
       <t>モンダイ</t>
     </rPh>
-    <rPh sb="3" eb="5">
-      <t>モンダイ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>アイダ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>カイ</t>
-    </rPh>
-    <rPh sb="40" eb="41">
-      <t>カイ</t>
-    </rPh>
-    <rPh sb="45" eb="47">
-      <t>ツイカ</t>
-    </rPh>
-    <rPh sb="48" eb="50">
-      <t>サクジョ</t>
-    </rPh>
-    <rPh sb="63" eb="64">
-      <t>ワ</t>
-    </rPh>
-    <rPh sb="69" eb="71">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="85" eb="86">
-      <t>カイ</t>
-    </rPh>
-    <rPh sb="93" eb="95">
-      <t>サクジョ</t>
-    </rPh>
-    <rPh sb="104" eb="106">
-      <t>ヤジルシ</t>
-    </rPh>
-    <rPh sb="107" eb="109">
-      <t>ソトガワ</t>
-    </rPh>
-    <rPh sb="110" eb="111">
-      <t>サ</t>
-    </rPh>
-    <rPh sb="121" eb="123">
-      <t>ドウイツ</t>
-    </rPh>
-    <rPh sb="127" eb="129">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="134" eb="136">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="150" eb="151">
-      <t>カイ</t>
-    </rPh>
-    <rPh sb="158" eb="160">
-      <t>ツイカ</t>
-    </rPh>
-    <rPh sb="169" eb="171">
-      <t>ヤジルシ</t>
-    </rPh>
-    <rPh sb="172" eb="174">
-      <t>ウチガワ</t>
-    </rPh>
-    <rPh sb="175" eb="176">
-      <t>サ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>&lt;h3&gt;制限時間のあるテストの作成&lt;/h3&gt;</t>
     <rPh sb="15" eb="17">
-      <t>サクセイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>制限時間のあるテストを作りたい</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>&lt;h5&gt;小テストの設定項目「タイミング」を設定することで、制限時間のあるテストにすることができます&lt;/h5&gt;</t>
-    <rPh sb="4" eb="5">
-      <t>ショウ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>コウモク</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="29" eb="31">
-      <t>セイゲン</t>
-    </rPh>
-    <rPh sb="31" eb="33">
-      <t>ジカン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>&lt;b&gt;「制限時間」&lt;/b&gt;の横に表示されている「有効にする」のチェックボックスをクリックします
-制限時間の時間と単位を設定します</t>
-    <rPh sb="14" eb="15">
-      <t>ヨコ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>ユウコウ</t>
-    </rPh>
-    <rPh sb="48" eb="52">
-      <t>セイゲンジカン</t>
-    </rPh>
-    <rPh sb="53" eb="55">
-      <t>ジカン</t>
-    </rPh>
-    <rPh sb="56" eb="58">
-      <t>タンイ</t>
-    </rPh>
-    <rPh sb="59" eb="61">
-      <t>セッテイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>&lt;b&gt;「制限を経過した場合」&lt;/b&gt;で問題を解き始め、まだ提出していない状態で学生がログアウトし、その間に制限時間を過ぎた場合の対処について選択します
-学生がログイン中で小テストを開いている場合は、自動的にその時点での回答が提出されます
-&lt;ul&gt;&lt;li&gt;&lt;b&gt;開いている受験は自動的に提出されます&lt;/b&gt;：制限時間になった時点での解答が自動的に提出されます。&lt;/li&gt;&lt;li&gt;&lt;b&gt;開いている受験を送信できる場合は送信猶予期間を設けますが、問題には解答できません&lt;/b&gt;：送信するためだけの猶予期間が与えられますが、制限時間後に問題を解くことはできません。提出できる答案は制限時間内に解いたもののみです。&lt;/li&gt;&lt;li&gt;&lt;b&gt;受験は制限時間内に提出される必要がありますが、そうでない場合はカウントされません&lt;/b&gt;：小テストは受験したことにはなりません。&lt;/li&gt;&lt;/ul&gt;</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>選択ができたら、「保存して表示する」をクリックします</t>
-    <rPh sb="0" eb="2">
-      <t>センタク</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ホゾン</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ダイアログから「小テスト」を選択します</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>新しく小テストを作成する場合は、編集モードを開始し、小テストを作成したいセクションのリンクをクリックし表示されたページの「+ 活動またはリソースを追加する」をクリックします</t>
-    <rPh sb="0" eb="1">
-      <t>アタラ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>ショウ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>サクセイ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>バアイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>「名称」と必要であれば「説明」を入力します</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>&lt;h4&gt;&lt;a name="timing"&gt;&lt;/a&gt;タイミングの設定&lt;/h4&gt;</t>
-    <rPh sb="31" eb="33">
-      <t>セッテイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>受験できる人を、パスワードや端末IPアドレスで制限したい</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>&lt;h3&gt;受験できる人を、パスワードや端末IPアドレスで制限する方法&lt;/h3&gt;</t>
-    <rPh sb="4" eb="6">
-      <t>ジュケン</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>ヒト</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>タンマツ</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>セイゲン</t>
-    </rPh>
-    <rPh sb="31" eb="33">
-      <t>ホウホウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>&lt;h4&gt;&lt;a name="restrict"&gt;&lt;/a&gt;受験に関する特別制限の設定&lt;/h4&gt;</t>
-    <rPh sb="38" eb="40">
-      <t>セッテイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>すでに小テストを作成している場合は、編集モードをONにし、対象の小テストを開いてください
-小テスト名の下に表示されているメニューの「設定」をクリックします
-&lt;a href="#timing"&gt;タイミングの設定&lt;/a&gt;を行ってください</t>
-    <rPh sb="3" eb="4">
-      <t>ショウ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>サクセイ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="102" eb="104">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="109" eb="110">
-      <t>オコナ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>すでに小テストを作成している場合は、編集モードをONにし、対象の小テストを開いてください
-小テスト名の下に表示されているメニューの「設定」をクリックします
-&lt;a href="#restrict"&gt;受験に関する特別制限の設定&lt;/a&gt;を行ってください</t>
-    <rPh sb="3" eb="4">
-      <t>ショウ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>サクセイ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="109" eb="111">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="116" eb="117">
-      <t>オコナ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>&lt;b&gt;「タイミング」&lt;/b&gt;を設定します</t>
-    <rPh sb="15" eb="17">
-      <t>セッテイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>「保存して表示する」をクリックします</t>
-    <rPh sb="1" eb="3">
-      <t>ホゾン</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>&lt;b&gt;「受験に関する特別制限」&lt;/b&gt;を設定します
-&lt;ul&gt;
-&lt;/li&gt;&lt;b&gt;「パスワードを要求する」&lt;/b&gt;にパスワードを設定すると、学生は、同じパスワードを入力してから受験するように設定できます&lt;/li&gt;
-&lt;li&gt;&lt;b&gt;「ネットワークアドレスを要求する」&lt;/b&gt;を設定すると、特定の IP アドレスの端末のみ、受験できるようになります
-例えば、「192.168」とだけ入力すれば「192.168」から始まるすべてのアドレスを許可します&lt;/li&gt;
-&lt;/ul&gt;</t>
-    <rPh sb="20" eb="22">
-      <t>セッテイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>&lt;h4&gt;小テストの作成&lt;/h4&gt;</t>
-    <rPh sb="4" eb="5">
-      <t>ショウ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>サクセイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>合格点や受験可能回数を変更したい</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>&lt;h3&gt;合格点や受験可能回数を変更する方法&lt;/h3&gt;</t>
-    <rPh sb="4" eb="7">
-      <t>ゴウカクテン</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ジュケン</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>カノウ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>カイスウ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>ヘンコウ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>ホウホウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>&lt;h5&gt;小テストの設定項目「受験に関する特別制限」を設定することで、パスワードや端末IPアドレスで受験制限することができます&lt;/h5&gt;</t>
-    <rPh sb="4" eb="5">
-      <t>ショウ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>コウモク</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="40" eb="42">
-      <t>タンマツ</t>
-    </rPh>
-    <rPh sb="49" eb="51">
-      <t>ジュケン</t>
-    </rPh>
-    <rPh sb="51" eb="53">
-      <t>セイゲン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>&lt;h5&gt;小テストの設定項目「評点」を設定することで、合格点や受験可能回数を変更することができます&lt;/h5&gt;</t>
-    <rPh sb="4" eb="5">
-      <t>ショウ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>コウモク</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>テン</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="26" eb="29">
-      <t>ゴウカクテン</t>
-    </rPh>
-    <rPh sb="30" eb="32">
-      <t>ジュケン</t>
-    </rPh>
-    <rPh sb="32" eb="34">
-      <t>カノウ</t>
-    </rPh>
-    <rPh sb="34" eb="36">
-      <t>カイスウ</t>
-    </rPh>
-    <rPh sb="37" eb="39">
-      <t>ヘンコウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>&lt;h4&gt;&lt;a name="score"&gt;&lt;/a&gt;評点の設定&lt;/h4&gt;</t>
-    <rPh sb="25" eb="26">
-      <t>テン</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>セッテイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>すでに小テストを作成している場合は、編集モードをONにし、対象の小テストを開いてください
-小テスト名の下に表示されているメニューの「設定」をクリックします
-&lt;a href="#score"&gt;評点の設定&lt;/a&gt;を行ってください</t>
-    <rPh sb="3" eb="4">
-      <t>ショウ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>サクセイ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="98" eb="100">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="105" eb="106">
-      <t>オコナ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>&lt;b&gt;「評点」&lt;/b&gt;を設定します
-&lt;ul&gt;
-&lt;li&gt;&lt;b&gt;「合格点」&lt;/b&gt;に点数を入力することで、このテストの合格点が設定できます&lt;/li&gt;
-&lt;li&gt;&lt;b&gt;「受験可能回数」&lt;/b&gt;で小テストを受験可能な回数を指定します
-「無制限」または「1～10」の範囲から選択することができます&lt;/li&gt;
-&lt;/ul&gt;</t>
-    <rPh sb="4" eb="6">
-      <t>ヒョウテン</t>
-    </rPh>
-    <rPh sb="40" eb="42">
-      <t>テンスウ</t>
-    </rPh>
-    <rPh sb="43" eb="45">
       <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="61" eb="63">
-      <t>セッテイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>&lt;h3&gt;設定例：受験後の正解非表示&lt;/h3&gt;デフォルトの状態では、テストの問題、学生の解答、解答の正誤などが表示されるようになっています
-受験を終わった学生はすぐに正解を知ることができます&lt;br&gt;
-例えばグループごとに受験時期をずらしてテストを課す場合など、受験後の学生にテストの正解を見せたくない時は、
-&lt;b&gt;「学生の受験直後(2分間)」&lt;/b&gt;と&lt;b&gt;「学生の受験後、小テストがクローズされるまで」&lt;/b&gt;の&lt;b&gt;「答えの正誤」&lt;/b&gt;や&lt;b&gt;「正解」&lt;/b&gt;のチェックを外すとテストの正解を隠すことができます&lt;br&gt;
-&lt;br&gt;また、テストの正解だけでなく、問題や評点も見せたくない場合は、&lt;b&gt;すべてのチェック&lt;/b&gt;を外したください
-そうすると「評定」にも評点が表示されなくなります。
-この場合、学生がテストを開いた場合に表示されるのは、受験回数と受験日時のみです</t>
-    <rPh sb="4" eb="6">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>レイ</t>
-    </rPh>
-    <rPh sb="157" eb="159">
-      <t>ガクセイ</t>
-    </rPh>
-    <rPh sb="160" eb="164">
-      <t>ジュケンチョクゴ</t>
-    </rPh>
-    <rPh sb="166" eb="168">
-      <t>フンカン</t>
-    </rPh>
-    <rPh sb="184" eb="185">
-      <t>ゴ</t>
-    </rPh>
-    <rPh sb="186" eb="187">
-      <t>ショウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>「1ページあたりの問題数」の選択メニューから選択してください
-&lt;b&gt;「問題１問ごと」&lt;/b&gt;を選択すると、1ページに1問表示されるように設定されています&lt;br&gt;
-&lt;b&gt;「なし、すべての問題を１ページに表示する｣&lt;/b&gt;を選択すると、すべての問題は同一ページに表示されます&lt;br&gt;
-&lt;b&gt;「問題2問ごと」&lt;/b&gt;～&lt;b&gt;「問題50問ごと」&lt;/b&gt;を選択すると、選択した問題数ずつ1ページに表示されます</t>
-    <rPh sb="14" eb="16">
-      <t>センタク</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>センタク</t>
-    </rPh>
-    <rPh sb="35" eb="37">
-      <t>モンダイ</t>
-    </rPh>
-    <rPh sb="38" eb="39">
-      <t>モン</t>
-    </rPh>
-    <rPh sb="47" eb="49">
-      <t>センタク</t>
-    </rPh>
-    <rPh sb="59" eb="60">
-      <t>モン</t>
-    </rPh>
-    <rPh sb="60" eb="62">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="68" eb="70">
-      <t>セッテイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>小テストのプレビューから改ページが設定できていることを確認してください&lt;br&gt;</t>
-    <rPh sb="0" eb="1">
-      <t>ショウ</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>カイ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>カクニン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>小テストのページ分けは、以下の設定がすることができます
-&lt;ul&gt;
-&lt;li&gt;1問ずつ表示させる&lt;/li&gt;
-&lt;li&gt;一定の問題数(2～50問)ずつ表示させる&lt;/li&gt;
-&lt;li&gt;全問1ページに表示させる&lt;/li&gt;
-&lt;li&gt;手動で改ページの位置を変更する&lt;/li&gt;
-&lt;/ul&gt;
-&lt;b&gt;手動で改ページの位置を変更する方法&lt;/b&gt;は設定する方法が異なるため、&lt;a href="#manual"&gt;こちら&lt;/a&gt;から参照してください
-それ以外の設定は、改ページを設定方法を参照してください&lt;br&gt;</t>
-    <rPh sb="12" eb="14">
-      <t>イカ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="38" eb="39">
-      <t>モン</t>
-    </rPh>
-    <rPh sb="41" eb="43">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="56" eb="58">
-      <t>イッテイ</t>
-    </rPh>
-    <rPh sb="59" eb="62">
-      <t>モンダイスウ</t>
-    </rPh>
-    <rPh sb="71" eb="73">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="86" eb="88">
-      <t>ゼンモン</t>
-    </rPh>
-    <rPh sb="93" eb="95">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="119" eb="121">
-      <t>ヘンコウ</t>
-    </rPh>
-    <rPh sb="149" eb="151">
-      <t>ヘンコウ</t>
-    </rPh>
-    <rPh sb="160" eb="162">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="164" eb="166">
-      <t>ホウホウ</t>
-    </rPh>
-    <rPh sb="167" eb="168">
-      <t>コト</t>
-    </rPh>
-    <rPh sb="211" eb="213">
-      <t>イガイ</t>
-    </rPh>
-    <rPh sb="214" eb="216">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="218" eb="219">
-      <t>カイ</t>
-    </rPh>
-    <rPh sb="223" eb="225">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="225" eb="227">
-      <t>ホウホウ</t>
-    </rPh>
-    <rPh sb="228" eb="230">
-      <t>サンショウ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -4744,7 +4849,7 @@
     <row r="7" spans="1:4">
       <c r="A7" s="1"/>
       <c r="B7" s="3" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="6"/>
@@ -4875,7 +4980,7 @@
     <row r="9" spans="1:4">
       <c r="A9" s="1"/>
       <c r="B9" s="22" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="6"/>
@@ -4981,13 +5086,13 @@
     <row r="7" spans="1:4" s="21" customFormat="1">
       <c r="A7" s="1"/>
       <c r="B7" s="3" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1"/>
       <c r="B8" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C8"/>
       <c r="D8"/>
@@ -4995,7 +5100,7 @@
     <row r="9" spans="1:4" s="21" customFormat="1">
       <c r="A9" s="1"/>
       <c r="B9" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C9"/>
       <c r="D9"/>
@@ -5003,7 +5108,7 @@
     <row r="10" spans="1:4" s="21" customFormat="1">
       <c r="A10" s="1"/>
       <c r="B10" s="22" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C10"/>
       <c r="D10"/>
@@ -5011,7 +5116,7 @@
     <row r="11" spans="1:4" s="21" customFormat="1">
       <c r="A11" s="1"/>
       <c r="B11" s="22" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C11"/>
       <c r="D11"/>
@@ -5019,13 +5124,13 @@
     <row r="12" spans="1:4" ht="27">
       <c r="A12" s="1"/>
       <c r="B12" s="23" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C12" s="25" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D12" s="26" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -5037,7 +5142,7 @@
     <row r="14" spans="1:4" ht="121.5">
       <c r="A14" s="1"/>
       <c r="B14" s="22" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C14"/>
       <c r="D14"/>
@@ -5128,25 +5233,25 @@
     <row r="7" spans="1:4" s="21" customFormat="1">
       <c r="A7" s="1"/>
       <c r="B7" s="3" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8" spans="1:4" s="21" customFormat="1">
       <c r="A8" s="1"/>
       <c r="B8" s="3" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="9" spans="1:4" s="21" customFormat="1">
       <c r="A9" s="1"/>
       <c r="B9" s="3" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="40.5">
       <c r="A10" s="1"/>
       <c r="B10" s="23" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="6"/>
@@ -5160,7 +5265,7 @@
     <row r="12" spans="1:4" s="21" customFormat="1">
       <c r="A12" s="1"/>
       <c r="B12" s="3" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C12" s="25"/>
       <c r="D12" s="26"/>
@@ -5168,7 +5273,7 @@
     <row r="13" spans="1:4" s="21" customFormat="1">
       <c r="A13" s="1"/>
       <c r="B13" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C13"/>
       <c r="D13"/>
@@ -5176,7 +5281,7 @@
     <row r="14" spans="1:4" s="21" customFormat="1">
       <c r="A14" s="1"/>
       <c r="B14" s="22" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C14"/>
       <c r="D14"/>
@@ -5184,25 +5289,25 @@
     <row r="15" spans="1:4">
       <c r="A15" s="1"/>
       <c r="B15" s="17" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="16" spans="1:4" s="21" customFormat="1">
       <c r="A16" s="1"/>
       <c r="B16" s="17" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="17" spans="1:4" s="21" customFormat="1">
       <c r="A17" s="1"/>
       <c r="B17" s="28" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="18" spans="1:4" s="21" customFormat="1">
       <c r="A18" s="1"/>
       <c r="B18" s="28" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -5211,37 +5316,37 @@
     <row r="20" spans="1:4">
       <c r="A20" s="1"/>
       <c r="B20" s="17" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="40.5">
       <c r="A21" s="1"/>
       <c r="B21" s="24" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="1"/>
       <c r="B22" s="17" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="23" spans="1:4" s="21" customFormat="1" ht="27">
       <c r="A23" s="1"/>
       <c r="B23" s="24" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="24" spans="1:4" s="21" customFormat="1" ht="59.25">
       <c r="A24" s="1"/>
       <c r="B24" s="24" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C24" s="25" t="s">
         <v>25</v>
       </c>
       <c r="D24" s="21" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="25" spans="1:4" s="21" customFormat="1">
@@ -5251,43 +5356,43 @@
         <v>25</v>
       </c>
       <c r="D25" s="21" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="1"/>
       <c r="B26" s="17" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="1"/>
       <c r="B27" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="1"/>
       <c r="B28" s="22" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="1"/>
       <c r="B29" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C29" s="25" t="s">
         <v>25</v>
       </c>
       <c r="D29" s="21" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="1"/>
       <c r="B30" s="2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -5352,7 +5457,7 @@
     <row r="7" spans="1:4">
       <c r="A7" s="1"/>
       <c r="B7" s="3" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="6"/>
@@ -5360,7 +5465,7 @@
     <row r="8" spans="1:4">
       <c r="A8" s="1"/>
       <c r="B8" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="6"/>
@@ -5368,7 +5473,7 @@
     <row r="9" spans="1:4">
       <c r="A9" s="1"/>
       <c r="B9" s="22" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="6"/>
@@ -5376,25 +5481,25 @@
     <row r="10" spans="1:4" ht="37.5">
       <c r="A10" s="1"/>
       <c r="B10" s="11" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="11" spans="1:4" s="21" customFormat="1" ht="37.5">
       <c r="A11" s="1"/>
       <c r="B11" s="11" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1"/>
       <c r="B12" s="11" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="37.5">
       <c r="A13" s="1"/>
       <c r="B13" s="11" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -5456,7 +5561,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -5486,7 +5591,7 @@
     <row r="7" spans="1:4">
       <c r="A7" s="1"/>
       <c r="B7" s="3" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="6"/>
@@ -5494,7 +5599,7 @@
     <row r="8" spans="1:4" s="21" customFormat="1" ht="121.5">
       <c r="A8" s="1"/>
       <c r="B8" s="3" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C8" s="25"/>
       <c r="D8" s="26"/>
@@ -5508,7 +5613,7 @@
     <row r="10" spans="1:4" s="21" customFormat="1">
       <c r="A10" s="1"/>
       <c r="B10" s="3" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C10" s="25"/>
       <c r="D10" s="26"/>
@@ -5516,35 +5621,35 @@
     <row r="11" spans="1:4">
       <c r="A11" s="1"/>
       <c r="B11" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1"/>
       <c r="B12" s="22" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1"/>
       <c r="B13" s="2" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="54">
       <c r="A14" s="1"/>
       <c r="B14" s="22" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="15" spans="1:4" s="21" customFormat="1">
       <c r="B15" s="29" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="16" spans="1:4" s="21" customFormat="1">
       <c r="B16" s="29" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
     <row r="17" spans="2:4" s="21" customFormat="1">
@@ -5555,33 +5660,33 @@
     </row>
     <row r="19" spans="2:4">
       <c r="B19" s="3" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="20" spans="2:4">
       <c r="B20" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="21" spans="2:4">
       <c r="B21" s="22" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="22" spans="2:4" ht="93.75">
       <c r="B22" s="11" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C22" s="25" t="s">
         <v>25</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="23" spans="2:4">
       <c r="B23" s="29" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -5708,7 +5813,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B299C3BF-BE77-4078-80C4-A276B5FF6349}">
   <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
@@ -5727,7 +5832,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -5757,13 +5862,13 @@
     <row r="7" spans="1:4" s="21" customFormat="1">
       <c r="A7" s="1"/>
       <c r="B7" s="3" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1"/>
       <c r="B8" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="6"/>
@@ -5777,7 +5882,7 @@
     <row r="10" spans="1:4" s="21" customFormat="1">
       <c r="A10" s="1"/>
       <c r="B10" s="27" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C10" s="25"/>
       <c r="D10" s="26"/>
@@ -5785,7 +5890,7 @@
     <row r="11" spans="1:4" s="21" customFormat="1" ht="56.25">
       <c r="A11" s="1"/>
       <c r="B11" s="27" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C11" s="25"/>
       <c r="D11" s="26"/>
@@ -5793,7 +5898,7 @@
     <row r="12" spans="1:4" ht="37.5">
       <c r="A12" s="1"/>
       <c r="B12" s="27" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C12" s="5"/>
       <c r="D12" s="6"/>
@@ -5801,7 +5906,7 @@
     <row r="13" spans="1:4" s="21" customFormat="1">
       <c r="A13" s="1"/>
       <c r="B13" s="27" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C13" s="25"/>
       <c r="D13" s="26"/>
@@ -5809,7 +5914,7 @@
     <row r="14" spans="1:4" s="21" customFormat="1">
       <c r="A14" s="1"/>
       <c r="B14" s="27" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C14" s="25"/>
       <c r="D14" s="26"/>
@@ -5823,7 +5928,7 @@
     <row r="16" spans="1:4" s="21" customFormat="1">
       <c r="A16" s="1"/>
       <c r="B16" s="27" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C16" s="25"/>
       <c r="D16" s="26"/>
@@ -5831,25 +5936,25 @@
     <row r="17" spans="1:2">
       <c r="A17" s="1"/>
       <c r="B17" s="22" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="37.5">
       <c r="A18" s="1"/>
       <c r="B18" s="11" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="150">
       <c r="A19" s="1"/>
       <c r="B19" s="11" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1"/>
       <c r="B20" s="2" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -5908,7 +6013,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -5938,7 +6043,7 @@
     <row r="7" spans="1:4">
       <c r="A7" s="1"/>
       <c r="B7" s="3" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="6"/>
@@ -5946,7 +6051,7 @@
     <row r="8" spans="1:4">
       <c r="A8" s="1"/>
       <c r="B8" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="6"/>
@@ -5960,7 +6065,7 @@
     <row r="10" spans="1:4" s="21" customFormat="1">
       <c r="A10" s="1"/>
       <c r="B10" s="27" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C10" s="25"/>
       <c r="D10" s="26"/>
@@ -5968,7 +6073,7 @@
     <row r="11" spans="1:4" ht="56.25">
       <c r="A11" s="1"/>
       <c r="B11" s="27" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C11" s="5"/>
       <c r="D11" s="6"/>
@@ -5976,19 +6081,19 @@
     <row r="12" spans="1:4" ht="37.5">
       <c r="A12" s="1"/>
       <c r="B12" s="27" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1"/>
       <c r="B13" s="27" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="1"/>
       <c r="B14" s="27" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -5998,19 +6103,19 @@
     <row r="16" spans="1:4">
       <c r="A16" s="1"/>
       <c r="B16" s="27" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="94.5">
       <c r="A17" s="1"/>
       <c r="B17" s="22" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1"/>
       <c r="B18" s="11" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -6234,7 +6339,7 @@
     <row r="11" spans="1:4">
       <c r="A11" s="1"/>
       <c r="B11" s="17" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C11" s="19" t="s">
         <v>25</v>
@@ -6246,7 +6351,7 @@
     <row r="12" spans="1:4">
       <c r="A12" s="1"/>
       <c r="B12" s="17" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C12" s="19" t="s">
         <v>25</v>
@@ -6331,7 +6436,7 @@
     <row r="23" spans="1:2" s="21" customFormat="1" ht="229.5">
       <c r="A23" s="1"/>
       <c r="B23" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -6715,7 +6820,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -6745,7 +6850,7 @@
     <row r="7" spans="1:4">
       <c r="A7" s="1"/>
       <c r="B7" s="3" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="6"/>
@@ -6753,7 +6858,7 @@
     <row r="8" spans="1:4">
       <c r="A8" s="1"/>
       <c r="B8" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="6"/>
@@ -6767,31 +6872,31 @@
     <row r="10" spans="1:4">
       <c r="A10" s="1"/>
       <c r="B10" s="27" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="56.25">
       <c r="A11" s="1"/>
       <c r="B11" s="27" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="37.5">
       <c r="A12" s="1"/>
       <c r="B12" s="27" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1"/>
       <c r="B13" s="27" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="1"/>
       <c r="B14" s="27" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -6801,19 +6906,19 @@
     <row r="16" spans="1:4">
       <c r="A16" s="1"/>
       <c r="B16" s="27" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="112.5">
       <c r="A17" s="1"/>
       <c r="B17" s="11" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1"/>
       <c r="B18" s="11" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -6961,7 +7066,7 @@
     <row r="15" spans="1:4" s="21" customFormat="1" ht="54">
       <c r="A15" s="1"/>
       <c r="B15" s="24" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C15" s="25" t="s">
         <v>25</v>
@@ -7021,7 +7126,7 @@
     <row r="24" spans="1:2" s="21" customFormat="1" ht="175.5">
       <c r="A24" s="1"/>
       <c r="B24" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -7044,11 +7149,9 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD05E85A-61D0-40F4-AA01-CFF3E660149A}">
-  <dimension ref="A1:D28"/>
+  <dimension ref="A1:D33"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
@@ -7105,7 +7208,7 @@
     <row r="8" spans="1:4" s="21" customFormat="1">
       <c r="A8" s="1"/>
       <c r="B8" s="3" t="s">
-        <v>65</v>
+        <v>150</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="40.5">
@@ -7157,7 +7260,7 @@
     <row r="13" spans="1:4" ht="409.5">
       <c r="A13" s="1"/>
       <c r="B13" s="24" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C13" s="25"/>
       <c r="D13" s="26"/>
@@ -7225,58 +7328,93 @@
       <c r="C21" s="25"/>
       <c r="D21"/>
     </row>
-    <row r="22" spans="1:4" ht="409.5">
+    <row r="22" spans="1:4">
       <c r="B22" s="27" t="s">
-        <v>71</v>
+        <v>151</v>
       </c>
       <c r="C22"/>
       <c r="D22"/>
     </row>
-    <row r="23" spans="1:4" s="21" customFormat="1" ht="112.5">
+    <row r="23" spans="1:4" s="21" customFormat="1" ht="75">
       <c r="B23" s="27" t="s">
-        <v>70</v>
-      </c>
-      <c r="C23" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="D23" s="26" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>155</v>
+      </c>
+      <c r="C23"/>
+      <c r="D23"/>
+    </row>
+    <row r="24" spans="1:4" s="21" customFormat="1" ht="93.75">
       <c r="B24" s="27" t="s">
-        <v>72</v>
+        <v>156</v>
       </c>
       <c r="C24"/>
       <c r="D24"/>
     </row>
-    <row r="25" spans="1:4" ht="37.5">
-      <c r="B25" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="C25" s="25"/>
+    <row r="25" spans="1:4" s="21" customFormat="1" ht="37.5">
+      <c r="B25" s="27" t="s">
+        <v>157</v>
+      </c>
+      <c r="C25"/>
       <c r="D25"/>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" s="21" customFormat="1" ht="393.75">
       <c r="B26" s="27" t="s">
-        <v>73</v>
+        <v>152</v>
       </c>
       <c r="C26"/>
       <c r="D26"/>
     </row>
-    <row r="27" spans="1:4">
-      <c r="B27" t="s">
+    <row r="27" spans="1:4" s="21" customFormat="1" ht="112.5">
+      <c r="B27" s="27" t="s">
+        <v>153</v>
+      </c>
+      <c r="C27" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="D27" s="26" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" s="21" customFormat="1">
+      <c r="B28" s="27" t="s">
+        <v>158</v>
+      </c>
+      <c r="C28" s="25"/>
+      <c r="D28" s="26"/>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="B29" s="27" t="s">
+        <v>154</v>
+      </c>
+      <c r="C29"/>
+      <c r="D29"/>
+    </row>
+    <row r="30" spans="1:4" ht="37.5">
+      <c r="B30" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="C30" s="25"/>
+      <c r="D30"/>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="B31" s="27" t="s">
+        <v>69</v>
+      </c>
+      <c r="C31"/>
+      <c r="D31"/>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="B32" t="s">
         <v>38</v>
       </c>
-      <c r="C27"/>
-      <c r="D27"/>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="B28" s="27" t="s">
+      <c r="C32"/>
+      <c r="D32"/>
+    </row>
+    <row r="33" spans="2:4">
+      <c r="B33" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="C28"/>
-      <c r="D28"/>
+      <c r="C33"/>
+      <c r="D33"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
@@ -7340,7 +7478,7 @@
     <row r="7" spans="1:4">
       <c r="A7" s="1"/>
       <c r="B7" s="3" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="6"/>
@@ -7425,7 +7563,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -7461,7 +7599,7 @@
     <row r="8" spans="1:4" ht="67.5">
       <c r="A8" s="1"/>
       <c r="B8" s="3" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="6"/>
@@ -7570,7 +7708,7 @@
     <row r="7" spans="1:4">
       <c r="A7" s="1"/>
       <c r="B7" s="3" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="6"/>
@@ -7684,7 +7822,7 @@
     <row r="7" spans="1:4">
       <c r="A7" s="1"/>
       <c r="B7" s="3" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="6"/>
@@ -7798,7 +7936,7 @@
     <row r="7" spans="1:4">
       <c r="A7" s="1"/>
       <c r="B7" s="3" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="6"/>
@@ -7859,33 +7997,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <SharedWithUsers xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="f2582d4f-4605-4da6-a8d6-8d696d30c27c">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100AFAE8A2D61E2864A87743AC8EBD33013" ma:contentTypeVersion="17" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="131c1c820a00e4fca6ce65346d03e485">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="f2582d4f-4605-4da6-a8d6-8d696d30c27c" xmlns:ns3="c1e6ffc9-f5b9-4159-9447-bea3a992def6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="555fe79fdee1cb282876e6f1e8fa0f7e" ns2:_="" ns3:_="">
     <xsd:import namespace="f2582d4f-4605-4da6-a8d6-8d696d30c27c"/>
@@ -8134,10 +8245,48 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <SharedWithUsers xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="f2582d4f-4605-4da6-a8d6-8d696d30c27c">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A3B1469-BE58-4E2A-BFC6-1F894EC8921D}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{61B073EA-019B-49F1-927B-E5A470D8398D}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="f2582d4f-4605-4da6-a8d6-8d696d30c27c"/>
+    <ds:schemaRef ds:uri="c1e6ffc9-f5b9-4159-9447-bea3a992def6"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -8154,20 +8303,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{61B073EA-019B-49F1-927B-E5A470D8398D}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A3B1469-BE58-4E2A-BFC6-1F894EC8921D}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="f2582d4f-4605-4da6-a8d6-8d696d30c27c"/>
-    <ds:schemaRef ds:uri="c1e6ffc9-f5b9-4159-9447-bea3a992def6"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/revref_test.xlsx
+++ b/revref_test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\72446246\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBF372EF-3F46-4C26-977D-2D8C6F4EEEEF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E33830A-6FF4-47C1-AE45-0E9257E054FF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19095" windowHeight="6330" firstSheet="10" activeTab="3" xr2:uid="{5CD9017C-176B-471B-A8A0-D3A2BE76D3A3}"/>
   </bookViews>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="160">
   <si>
     <t>header1</t>
   </si>
@@ -4117,9 +4117,22 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
+    <t>chartn</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>test12.png</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>test13.png</t>
+  </si>
+  <si>
     <t>「穴埋め問題（Cloze）エディタ」画面が表示されたら、作成したい問題のタイプを選択します&lt;br&gt;
 MULTICHOICE(単一解答のみの多肢選択問題)やMULTIRESPONSE（複数解答を許可できる多肢選択問題）やNUMERICAL(数値問題)、SHORTANSWER(記述問題)などを選択できます&lt;br&gt;
-例えば、「MULTICHOICE_HS」を選択すると「ラジオボタンの横の列」「問題内部をシャッフルする」「単一解答のみ」というタイプの多肢選択問題を追加することができます&lt;br&gt;</t>
+例えば、「MULTICHOICE_HS」を選択すると「ラジオボタンの横の列」「問題内部をシャッフルする」「単一解答のみ」というタイプの多肢選択問題を追加することができます&lt;br&gt;
+「追加」をクリックし、評点や解答を設定して「挿入」をクリックします&lt;br&gt;
+エディタ内に穴埋めの内容が記号で追加されます</t>
     <rPh sb="1" eb="3">
       <t>アナウ</t>
     </rPh>
@@ -4161,60 +4174,6 @@
     </rPh>
     <rPh sb="230" eb="232">
       <t>ツイカ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>「追加」をクリックし、評点や解答を設定して「挿入」をクリックします
-エディタ内に穴埋めの内容が記号で追加されます</t>
-    <rPh sb="1" eb="3">
-      <t>ツイカ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ヒョウテン</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>カイトウ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>ソウニュウ</t>
-    </rPh>
-    <rPh sb="38" eb="39">
-      <t>ナイ</t>
-    </rPh>
-    <rPh sb="40" eb="42">
-      <t>アナウ</t>
-    </rPh>
-    <rPh sb="44" eb="46">
-      <t>ナイヨウ</t>
-    </rPh>
-    <rPh sb="47" eb="49">
-      <t>キゴウ</t>
-    </rPh>
-    <rPh sb="50" eb="52">
-      <t>ツイカ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>穴埋め箇所以外の問題テキストを入力してください</t>
-    <rPh sb="0" eb="2">
-      <t>アナウ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>カショ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>イガイ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>モンダイ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>ニュウリョク</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -7149,9 +7108,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD05E85A-61D0-40F4-AA01-CFF3E660149A}">
-  <dimension ref="A1:D33"/>
+  <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
@@ -7339,82 +7300,76 @@
       <c r="B23" s="27" t="s">
         <v>155</v>
       </c>
-      <c r="C23"/>
-      <c r="D23"/>
-    </row>
-    <row r="24" spans="1:4" s="21" customFormat="1" ht="93.75">
+      <c r="C23" s="25" t="s">
+        <v>156</v>
+      </c>
+      <c r="D23" s="26" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" s="21" customFormat="1" ht="131.25">
       <c r="B24" s="27" t="s">
+        <v>159</v>
+      </c>
+      <c r="C24" s="25" t="s">
         <v>156</v>
       </c>
-      <c r="C24"/>
-      <c r="D24"/>
-    </row>
-    <row r="25" spans="1:4" s="21" customFormat="1" ht="37.5">
+      <c r="D24" s="26" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" s="21" customFormat="1" ht="393.75">
       <c r="B25" s="27" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="C25"/>
       <c r="D25"/>
     </row>
-    <row r="26" spans="1:4" s="21" customFormat="1" ht="393.75">
+    <row r="26" spans="1:4" s="21" customFormat="1" ht="112.5">
       <c r="B26" s="27" t="s">
-        <v>152</v>
-      </c>
-      <c r="C26"/>
-      <c r="D26"/>
-    </row>
-    <row r="27" spans="1:4" s="21" customFormat="1" ht="112.5">
+        <v>153</v>
+      </c>
+      <c r="C26" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="D26" s="26" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="B27" s="27" t="s">
-        <v>153</v>
-      </c>
-      <c r="C27" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="D27" s="26" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" s="21" customFormat="1">
-      <c r="B28" s="27" t="s">
-        <v>158</v>
+        <v>154</v>
+      </c>
+      <c r="C27"/>
+      <c r="D27"/>
+    </row>
+    <row r="28" spans="1:4" ht="37.5">
+      <c r="B28" s="11" t="s">
+        <v>56</v>
       </c>
       <c r="C28" s="25"/>
-      <c r="D28" s="26"/>
+      <c r="D28"/>
     </row>
     <row r="29" spans="1:4">
       <c r="B29" s="27" t="s">
-        <v>154</v>
+        <v>69</v>
       </c>
       <c r="C29"/>
       <c r="D29"/>
     </row>
-    <row r="30" spans="1:4" ht="37.5">
-      <c r="B30" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="C30" s="25"/>
+    <row r="30" spans="1:4">
+      <c r="B30" t="s">
+        <v>38</v>
+      </c>
+      <c r="C30"/>
       <c r="D30"/>
     </row>
     <row r="31" spans="1:4">
       <c r="B31" s="27" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="C31"/>
       <c r="D31"/>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="B32" t="s">
-        <v>38</v>
-      </c>
-      <c r="C32"/>
-      <c r="D32"/>
-    </row>
-    <row r="33" spans="2:4">
-      <c r="B33" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="C33"/>
-      <c r="D33"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
@@ -7997,6 +7952,33 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <SharedWithUsers xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="f2582d4f-4605-4da6-a8d6-8d696d30c27c">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100AFAE8A2D61E2864A87743AC8EBD33013" ma:contentTypeVersion="17" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="131c1c820a00e4fca6ce65346d03e485">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="f2582d4f-4605-4da6-a8d6-8d696d30c27c" xmlns:ns3="c1e6ffc9-f5b9-4159-9447-bea3a992def6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="555fe79fdee1cb282876e6f1e8fa0f7e" ns2:_="" ns3:_="">
     <xsd:import namespace="f2582d4f-4605-4da6-a8d6-8d696d30c27c"/>
@@ -8245,34 +8227,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <SharedWithUsers xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="f2582d4f-4605-4da6-a8d6-8d696d30c27c">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A3B1469-BE58-4E2A-BFC6-1F894EC8921D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A965309B-2D00-4C69-AAF2-00F76E145C17}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="c1e6ffc9-f5b9-4159-9447-bea3a992def6"/>
+    <ds:schemaRef ds:uri="f2582d4f-4605-4da6-a8d6-8d696d30c27c"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{61B073EA-019B-49F1-927B-E5A470D8398D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -8289,23 +8263,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A965309B-2D00-4C69-AAF2-00F76E145C17}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="c1e6ffc9-f5b9-4159-9447-bea3a992def6"/>
-    <ds:schemaRef ds:uri="f2582d4f-4605-4da6-a8d6-8d696d30c27c"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A3B1469-BE58-4E2A-BFC6-1F894EC8921D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/revref_test.xlsx
+++ b/revref_test.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20402"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20406"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\72446246\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E33830A-6FF4-47C1-AE45-0E9257E054FF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67435B98-DCE3-4EB1-A714-1981BD6FD881}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19095" windowHeight="6330" firstSheet="10" activeTab="3" xr2:uid="{5CD9017C-176B-471B-A8A0-D3A2BE76D3A3}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7605" activeTab="4" xr2:uid="{5CD9017C-176B-471B-A8A0-D3A2BE76D3A3}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="8" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="184">
   <si>
     <t>header1</t>
   </si>
@@ -2524,16 +2524,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>作成中です</t>
-    <rPh sb="0" eb="2">
-      <t>サクセイ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>チュウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>解答群から複数選択できる質問で、選択状態が完全に正しくないと配点しないようにしたい</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -4175,6 +4165,229 @@
     <rPh sb="230" eb="232">
       <t>ツイカ</t>
     </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>すでに小テストを作成している場合は、&lt;a href="#quiz"&gt;問題の作成&lt;/a&gt;から行ってください</t>
+    <rPh sb="3" eb="4">
+      <t>ショウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>モンダイ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;h3&gt;&lt;a name="quiz"&gt;&lt;/a&gt;問題の作成&lt;/h3&gt;</t>
+    <rPh sb="23" eb="25">
+      <t>モンダイ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「追加する問題タイプを選択する」ダイアログボックスで、作成したい問題を選択し、「追加」をクリックします</t>
+    <rPh sb="27" eb="29">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>モンダイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>問題文の作成方法は&lt;a href="#list"&gt;各問題形式&lt;/a&gt;から参照してください</t>
+    <rPh sb="0" eb="2">
+      <t>モンダイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ブン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ホウホウ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>カク</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>モンダイ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ケイシキ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>サンショウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;h3&gt;&lt;a name="list"&gt;&lt;/a&gt;広大Moodleで作成できる問題の形式&lt;/h3&gt;</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;h4&gt;&lt;a name="marubatsu"&gt;○/×問題&lt;/a&gt;&lt;/h4&gt;</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;h4&gt;&lt;a name="kumi"&gt;組み合わせ問題&lt;/a&gt;&lt;/h4&gt;</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;h4&gt;&lt;a name="suu"&gt;数値問題&lt;/a&gt;&lt;/h4&gt;</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;h4&gt;&lt;a name="saku"&gt;作文問題&lt;/a&gt;&lt;/h4&gt;</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;h4&gt;&lt;a name="all"&gt;オールオアナッシング多肢選択問題&lt;/a&gt;&lt;/h4&gt;</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;h4&gt;&lt;a name="simple"&gt;シンプル計算問題&lt;/a&gt;&lt;/h4&gt;</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;h4&gt;&lt;a name="drag"&gt;ドラッグ＆ドロップ&lt;/a&gt;&lt;/h4&gt;</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;h4&gt;&lt;a name="missing"&gt;ミッシングワード選択&lt;/a&gt;&lt;/h4&gt;</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;h4&gt;&lt;a name="random"&gt;ランダム記述組み合わせ問題&lt;/a&gt;&lt;/h4&gt;</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;h4&gt;&lt;a name="keisan"&gt;計算問題&lt;/a&gt;&lt;/h4&gt;</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;h4&gt;&lt;a name="tashikeisan"&gt;多肢選択計算問題&lt;/a&gt;数値式を選択肢に含むことのできる多肢選択問題のような問題&lt;/li&gt;</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「正解」で○と×で正解となる方を選択します</t>
+    <rPh sb="1" eb="3">
+      <t>セイカイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>セイカイ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ホウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「変更を保存する」をクリックします</t>
+    <rPh sb="1" eb="3">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ホゾン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「答え」の「問題1」~「問題3」に問題とその下に表示されている「答え」にそれぞれの正答を入力します
+※少なくとも2つの問題および3つの答えを準備する必要があります&lt;br&gt;
+　問題が空白の答えを使用して誤答を余分に提供することもできます&lt;br&gt;
+　問題および答えが空白のエントリは無視されます</t>
+    <rPh sb="1" eb="2">
+      <t>コタ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>モンダイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>モンダイ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>モンダイ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>コタ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>セイトウ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="70" eb="72">
+      <t>ジュンビ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>quiztype1.png</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>quiztype2.png</t>
+  </si>
+  <si>
+    <t>quiztype3.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;ul&gt;
+&lt;li&gt;&lt;a href="p1.html"&gt;多肢選択問題&lt;/a&gt;:所定の一覧より単一または複数の解答を選択する&lt;/li&gt;
+&lt;li&gt;&lt;a href="#marubatsu"&gt;○/×問題&lt;/a&gt;:2つの選択肢「○」および「×」のみで解答する&lt;/li&gt;
+&lt;li&gt;&lt;a href="#kumi"&gt;組み合わせ問題&lt;/a&gt;:複数の問題の答えを一覧より選択する&lt;/li&gt;
+&lt;li&gt;&lt;a href="p2.html"&gt;記述問題&lt;/a&gt;:1つまたは少数の言葉を入力して解答する&lt;/li&gt;
+&lt;li&gt;&lt;a href="#suu"&gt;数値問題&lt;/a&gt;:単位を使って数値で解答する&lt;/li&gt;
+</t>
+    <rPh sb="161" eb="163">
+      <t>フクスウ</t>
+    </rPh>
+    <rPh sb="230" eb="232">
+      <t>カイトウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;li&gt;&lt;a href="#saku"&gt;作文問題&lt;/a&gt;:ファイルアップロードまたはオンラインテキストによる解答する&lt;/li&gt;
+&lt;li&gt;&lt;a href="#all"&gt;オールオアナッシング多肢選択問題&lt;/a&gt;:リストから複数の解答を選択し、過不足なく選択肢を選んだときだけ正解となる&lt;/li&gt;
+&lt;li&gt;&lt;a href="#simple"&gt;シンプル計算問題&lt;/a&gt;:数値問題に似ていて、小テスト受験時、設定された数値がランダムに使用される&lt;/li&gt;
+&lt;li&gt;&lt;a href="#drag"&gt;ドラッグ＆ドロップ&lt;/a&gt;:テキストやイメージをドラッグ＆ドロップして解答する&lt;/li&gt;
+&lt;li&gt;&lt;a href="#missing"&gt;ミッシングワード選択&lt;/a&gt;:ドロップダウンメニューを使って問題テキスト内の足りない言葉を埋める&lt;/li&gt;</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;li&gt;&lt;a href="#random"&gt;ランダム記述組み合わせ問題&lt;/a&gt;:組み合わせ問題と違い、特定のカテゴリ内の記述問題からランダムに作成される&lt;/li&gt;
+&lt;li&gt;&lt;a href="#keisan"&gt;計算問題&lt;/a&gt;:シンプル計算問だよりランダムに表示する数値の設定が詳細にできる&lt;/li&gt;
+&lt;li&gt;&lt;a href="p3.html"&gt;穴埋め問題&lt;/a&gt;:埋め込み式の多肢選択問題、記述問題および数値時問題を作成できる&lt;/li&gt;
+&lt;li&gt;&lt;a href="#tashikeisan"&gt;多肢選択計算問題&lt;/a&gt;数値式を選択肢に含むことのできる多肢選択問題のような問題&lt;/li&gt;
+&lt;ul&gt;</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -4808,7 +5021,7 @@
     <row r="7" spans="1:4">
       <c r="A7" s="1"/>
       <c r="B7" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="6"/>
@@ -4939,7 +5152,7 @@
     <row r="9" spans="1:4">
       <c r="A9" s="1"/>
       <c r="B9" s="22" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="6"/>
@@ -5045,13 +5258,13 @@
     <row r="7" spans="1:4" s="21" customFormat="1">
       <c r="A7" s="1"/>
       <c r="B7" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1"/>
       <c r="B8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C8"/>
       <c r="D8"/>
@@ -5059,7 +5272,7 @@
     <row r="9" spans="1:4" s="21" customFormat="1">
       <c r="A9" s="1"/>
       <c r="B9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C9"/>
       <c r="D9"/>
@@ -5067,7 +5280,7 @@
     <row r="10" spans="1:4" s="21" customFormat="1">
       <c r="A10" s="1"/>
       <c r="B10" s="22" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C10"/>
       <c r="D10"/>
@@ -5075,7 +5288,7 @@
     <row r="11" spans="1:4" s="21" customFormat="1">
       <c r="A11" s="1"/>
       <c r="B11" s="22" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C11"/>
       <c r="D11"/>
@@ -5083,13 +5296,13 @@
     <row r="12" spans="1:4" ht="27">
       <c r="A12" s="1"/>
       <c r="B12" s="23" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C12" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="D12" s="26" t="s">
         <v>74</v>
-      </c>
-      <c r="D12" s="26" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -5101,7 +5314,7 @@
     <row r="14" spans="1:4" ht="121.5">
       <c r="A14" s="1"/>
       <c r="B14" s="22" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C14"/>
       <c r="D14"/>
@@ -5192,25 +5405,25 @@
     <row r="7" spans="1:4" s="21" customFormat="1">
       <c r="A7" s="1"/>
       <c r="B7" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="8" spans="1:4" s="21" customFormat="1">
       <c r="A8" s="1"/>
       <c r="B8" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="9" spans="1:4" s="21" customFormat="1">
       <c r="A9" s="1"/>
       <c r="B9" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="40.5">
       <c r="A10" s="1"/>
       <c r="B10" s="23" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="6"/>
@@ -5224,7 +5437,7 @@
     <row r="12" spans="1:4" s="21" customFormat="1">
       <c r="A12" s="1"/>
       <c r="B12" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C12" s="25"/>
       <c r="D12" s="26"/>
@@ -5232,7 +5445,7 @@
     <row r="13" spans="1:4" s="21" customFormat="1">
       <c r="A13" s="1"/>
       <c r="B13" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C13"/>
       <c r="D13"/>
@@ -5240,7 +5453,7 @@
     <row r="14" spans="1:4" s="21" customFormat="1">
       <c r="A14" s="1"/>
       <c r="B14" s="22" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C14"/>
       <c r="D14"/>
@@ -5248,25 +5461,25 @@
     <row r="15" spans="1:4">
       <c r="A15" s="1"/>
       <c r="B15" s="17" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="16" spans="1:4" s="21" customFormat="1">
       <c r="A16" s="1"/>
       <c r="B16" s="17" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="17" spans="1:4" s="21" customFormat="1">
       <c r="A17" s="1"/>
       <c r="B17" s="28" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="18" spans="1:4" s="21" customFormat="1">
       <c r="A18" s="1"/>
       <c r="B18" s="28" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -5275,37 +5488,37 @@
     <row r="20" spans="1:4">
       <c r="A20" s="1"/>
       <c r="B20" s="17" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="40.5">
       <c r="A21" s="1"/>
       <c r="B21" s="24" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="1"/>
       <c r="B22" s="17" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="23" spans="1:4" s="21" customFormat="1" ht="27">
       <c r="A23" s="1"/>
       <c r="B23" s="24" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="24" spans="1:4" s="21" customFormat="1" ht="59.25">
       <c r="A24" s="1"/>
       <c r="B24" s="24" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C24" s="25" t="s">
         <v>25</v>
       </c>
       <c r="D24" s="21" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="25" spans="1:4" s="21" customFormat="1">
@@ -5315,43 +5528,43 @@
         <v>25</v>
       </c>
       <c r="D25" s="21" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="1"/>
       <c r="B26" s="17" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="1"/>
       <c r="B27" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="1"/>
       <c r="B28" s="22" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="1"/>
       <c r="B29" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C29" s="25" t="s">
         <v>25</v>
       </c>
       <c r="D29" s="21" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="1"/>
       <c r="B30" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -5416,7 +5629,7 @@
     <row r="7" spans="1:4">
       <c r="A7" s="1"/>
       <c r="B7" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="6"/>
@@ -5424,7 +5637,7 @@
     <row r="8" spans="1:4">
       <c r="A8" s="1"/>
       <c r="B8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="6"/>
@@ -5432,7 +5645,7 @@
     <row r="9" spans="1:4">
       <c r="A9" s="1"/>
       <c r="B9" s="22" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="6"/>
@@ -5440,25 +5653,25 @@
     <row r="10" spans="1:4" ht="37.5">
       <c r="A10" s="1"/>
       <c r="B10" s="11" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="11" spans="1:4" s="21" customFormat="1" ht="37.5">
       <c r="A11" s="1"/>
       <c r="B11" s="11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1"/>
       <c r="B12" s="11" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="37.5">
       <c r="A13" s="1"/>
       <c r="B13" s="11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -5520,7 +5733,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -5550,7 +5763,7 @@
     <row r="7" spans="1:4">
       <c r="A7" s="1"/>
       <c r="B7" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="6"/>
@@ -5558,7 +5771,7 @@
     <row r="8" spans="1:4" s="21" customFormat="1" ht="121.5">
       <c r="A8" s="1"/>
       <c r="B8" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C8" s="25"/>
       <c r="D8" s="26"/>
@@ -5572,7 +5785,7 @@
     <row r="10" spans="1:4" s="21" customFormat="1">
       <c r="A10" s="1"/>
       <c r="B10" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C10" s="25"/>
       <c r="D10" s="26"/>
@@ -5580,35 +5793,35 @@
     <row r="11" spans="1:4">
       <c r="A11" s="1"/>
       <c r="B11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1"/>
       <c r="B12" s="22" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1"/>
       <c r="B13" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="54">
       <c r="A14" s="1"/>
       <c r="B14" s="22" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="15" spans="1:4" s="21" customFormat="1">
       <c r="B15" s="29" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="16" spans="1:4" s="21" customFormat="1">
       <c r="B16" s="29" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="17" spans="2:4" s="21" customFormat="1">
@@ -5619,33 +5832,33 @@
     </row>
     <row r="19" spans="2:4">
       <c r="B19" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="20" spans="2:4">
       <c r="B20" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="21" spans="2:4">
       <c r="B21" s="22" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="22" spans="2:4" ht="93.75">
       <c r="B22" s="11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C22" s="25" t="s">
         <v>25</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="23" spans="2:4">
       <c r="B23" s="29" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -5791,7 +6004,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -5821,13 +6034,13 @@
     <row r="7" spans="1:4" s="21" customFormat="1">
       <c r="A7" s="1"/>
       <c r="B7" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1"/>
       <c r="B8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="6"/>
@@ -5841,7 +6054,7 @@
     <row r="10" spans="1:4" s="21" customFormat="1">
       <c r="A10" s="1"/>
       <c r="B10" s="27" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C10" s="25"/>
       <c r="D10" s="26"/>
@@ -5849,7 +6062,7 @@
     <row r="11" spans="1:4" s="21" customFormat="1" ht="56.25">
       <c r="A11" s="1"/>
       <c r="B11" s="27" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C11" s="25"/>
       <c r="D11" s="26"/>
@@ -5857,7 +6070,7 @@
     <row r="12" spans="1:4" ht="37.5">
       <c r="A12" s="1"/>
       <c r="B12" s="27" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C12" s="5"/>
       <c r="D12" s="6"/>
@@ -5865,7 +6078,7 @@
     <row r="13" spans="1:4" s="21" customFormat="1">
       <c r="A13" s="1"/>
       <c r="B13" s="27" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C13" s="25"/>
       <c r="D13" s="26"/>
@@ -5873,7 +6086,7 @@
     <row r="14" spans="1:4" s="21" customFormat="1">
       <c r="A14" s="1"/>
       <c r="B14" s="27" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C14" s="25"/>
       <c r="D14" s="26"/>
@@ -5887,7 +6100,7 @@
     <row r="16" spans="1:4" s="21" customFormat="1">
       <c r="A16" s="1"/>
       <c r="B16" s="27" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C16" s="25"/>
       <c r="D16" s="26"/>
@@ -5895,25 +6108,25 @@
     <row r="17" spans="1:2">
       <c r="A17" s="1"/>
       <c r="B17" s="22" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="37.5">
       <c r="A18" s="1"/>
       <c r="B18" s="11" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="150">
       <c r="A19" s="1"/>
       <c r="B19" s="11" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1"/>
       <c r="B20" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -5972,7 +6185,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -6002,7 +6215,7 @@
     <row r="7" spans="1:4">
       <c r="A7" s="1"/>
       <c r="B7" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="6"/>
@@ -6010,7 +6223,7 @@
     <row r="8" spans="1:4">
       <c r="A8" s="1"/>
       <c r="B8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="6"/>
@@ -6024,7 +6237,7 @@
     <row r="10" spans="1:4" s="21" customFormat="1">
       <c r="A10" s="1"/>
       <c r="B10" s="27" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C10" s="25"/>
       <c r="D10" s="26"/>
@@ -6032,7 +6245,7 @@
     <row r="11" spans="1:4" ht="56.25">
       <c r="A11" s="1"/>
       <c r="B11" s="27" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C11" s="5"/>
       <c r="D11" s="6"/>
@@ -6040,19 +6253,19 @@
     <row r="12" spans="1:4" ht="37.5">
       <c r="A12" s="1"/>
       <c r="B12" s="27" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1"/>
       <c r="B13" s="27" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="1"/>
       <c r="B14" s="27" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -6062,19 +6275,19 @@
     <row r="16" spans="1:4">
       <c r="A16" s="1"/>
       <c r="B16" s="27" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="94.5">
       <c r="A17" s="1"/>
       <c r="B17" s="22" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1"/>
       <c r="B18" s="11" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -6214,7 +6427,7 @@
   <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="C10" sqref="C10:D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -6298,7 +6511,7 @@
     <row r="11" spans="1:4">
       <c r="A11" s="1"/>
       <c r="B11" s="17" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C11" s="19" t="s">
         <v>25</v>
@@ -6310,7 +6523,7 @@
     <row r="12" spans="1:4">
       <c r="A12" s="1"/>
       <c r="B12" s="17" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C12" s="19" t="s">
         <v>25</v>
@@ -6779,7 +6992,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -6809,7 +7022,7 @@
     <row r="7" spans="1:4">
       <c r="A7" s="1"/>
       <c r="B7" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="6"/>
@@ -6817,7 +7030,7 @@
     <row r="8" spans="1:4">
       <c r="A8" s="1"/>
       <c r="B8" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="6"/>
@@ -6831,31 +7044,31 @@
     <row r="10" spans="1:4">
       <c r="A10" s="1"/>
       <c r="B10" s="27" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="56.25">
       <c r="A11" s="1"/>
       <c r="B11" s="27" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="37.5">
       <c r="A12" s="1"/>
       <c r="B12" s="27" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1"/>
       <c r="B13" s="27" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="1"/>
       <c r="B14" s="27" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -6865,19 +7078,19 @@
     <row r="16" spans="1:4">
       <c r="A16" s="1"/>
       <c r="B16" s="27" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="112.5">
       <c r="A17" s="1"/>
       <c r="B17" s="11" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1"/>
       <c r="B18" s="11" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -6900,8 +7113,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFABB89B-389D-4E53-86E8-1C489CE9D7CA}">
   <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23:XFD23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -7110,8 +7323,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD05E85A-61D0-40F4-AA01-CFF3E660149A}">
   <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22:XFD23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -7169,7 +7382,7 @@
     <row r="8" spans="1:4" s="21" customFormat="1">
       <c r="A8" s="1"/>
       <c r="B8" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="40.5">
@@ -7291,43 +7504,43 @@
     </row>
     <row r="22" spans="1:4">
       <c r="B22" s="27" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C22"/>
       <c r="D22"/>
     </row>
     <row r="23" spans="1:4" s="21" customFormat="1" ht="75">
       <c r="B23" s="27" t="s">
+        <v>154</v>
+      </c>
+      <c r="C23" s="25" t="s">
         <v>155</v>
       </c>
-      <c r="C23" s="25" t="s">
+      <c r="D23" s="26" t="s">
         <v>156</v>
-      </c>
-      <c r="D23" s="26" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="24" spans="1:4" s="21" customFormat="1" ht="131.25">
       <c r="B24" s="27" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C24" s="25" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D24" s="26" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="25" spans="1:4" s="21" customFormat="1" ht="393.75">
       <c r="B25" s="27" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C25"/>
       <c r="D25"/>
     </row>
     <row r="26" spans="1:4" s="21" customFormat="1" ht="112.5">
       <c r="B26" s="27" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C26" s="25" t="s">
         <v>25</v>
@@ -7338,7 +7551,7 @@
     </row>
     <row r="27" spans="1:4">
       <c r="B27" s="27" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C27"/>
       <c r="D27"/>
@@ -7380,16 +7593,16 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64B4126F-427D-438D-81C0-4E21B438A36E}">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:D74"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="1" width="9" style="2"/>
-    <col min="2" max="2" width="103.875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="109.875" style="2" customWidth="1"/>
     <col min="3" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
@@ -7432,60 +7645,304 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1"/>
-      <c r="B7" s="3" t="s">
-        <v>70</v>
-      </c>
+      <c r="B7" s="3"/>
       <c r="C7" s="5"/>
       <c r="D7" s="6"/>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" s="21" customFormat="1">
       <c r="A8" s="1"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="6"/>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="B8" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="C8" s="25"/>
+      <c r="D8" s="26"/>
+    </row>
+    <row r="9" spans="1:4" ht="94.5">
       <c r="A9" s="1"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="6"/>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="B9" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="C9" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="26" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="81">
       <c r="A10" s="1"/>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="B10" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="C10" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="26" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" s="21" customFormat="1" ht="81">
       <c r="A11" s="1"/>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="B11" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="C11" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" s="26" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" s="21" customFormat="1">
       <c r="A12" s="1"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="26"/>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1"/>
+      <c r="B13" s="3" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="1"/>
-    </row>
-    <row r="15" spans="1:4">
+      <c r="B14" s="3" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="40.5">
       <c r="A15" s="1"/>
+      <c r="B15" s="24" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="1"/>
-    </row>
-    <row r="17" spans="1:1">
+      <c r="B16" s="3"/>
+    </row>
+    <row r="17" spans="1:2">
       <c r="A17" s="1"/>
-    </row>
-    <row r="18" spans="1:1">
+      <c r="B17" s="17" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
       <c r="A18" s="1"/>
-    </row>
-    <row r="19" spans="1:1">
+      <c r="B18" s="17" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="409.5">
       <c r="A19" s="1"/>
-    </row>
-    <row r="20" spans="1:1">
+      <c r="B19" s="24" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="40.5">
       <c r="A20" s="1"/>
-    </row>
-    <row r="21" spans="1:1">
+      <c r="B20" s="24" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
       <c r="A21" s="1"/>
-    </row>
+      <c r="B21" s="22" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="1"/>
+      <c r="B22" s="21"/>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="1"/>
+      <c r="B23" s="21"/>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="B24" s="21" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="B25" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="B26" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="B27" s="27" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="B28" s="2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="B30" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" s="21" customFormat="1">
+      <c r="A31" s="1"/>
+      <c r="B31" s="21" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" s="21" customFormat="1">
+      <c r="A32" s="1"/>
+      <c r="B32" s="21" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" s="21" customFormat="1">
+      <c r="A33" s="1"/>
+      <c r="B33" s="21" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" s="21" customFormat="1">
+      <c r="B34"/>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="B35" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" s="21" customFormat="1">
+      <c r="A36" s="1"/>
+      <c r="B36" s="21" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" s="21" customFormat="1" ht="75">
+      <c r="A37" s="1"/>
+      <c r="B37" s="11" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" s="21" customFormat="1">
+      <c r="A38" s="1"/>
+      <c r="B38" s="21" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" s="21" customFormat="1">
+      <c r="B39"/>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="B40" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" s="21" customFormat="1">
+      <c r="B41" s="21" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" s="21" customFormat="1"/>
+    <row r="43" spans="1:2" s="21" customFormat="1"/>
+    <row r="44" spans="1:2">
+      <c r="B44" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" s="21" customFormat="1">
+      <c r="B45" s="21" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" s="21" customFormat="1"/>
+    <row r="47" spans="1:2" s="21" customFormat="1"/>
+    <row r="48" spans="1:2">
+      <c r="B48" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2" s="21" customFormat="1">
+      <c r="B49" s="21" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2" s="21" customFormat="1"/>
+    <row r="51" spans="2:2" s="21" customFormat="1"/>
+    <row r="52" spans="2:2">
+      <c r="B52" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="53" spans="2:2" s="21" customFormat="1">
+      <c r="B53" s="21" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="54" spans="2:2" s="21" customFormat="1"/>
+    <row r="55" spans="2:2" s="21" customFormat="1"/>
+    <row r="56" spans="2:2">
+      <c r="B56" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="57" spans="2:2" s="21" customFormat="1">
+      <c r="B57" s="21" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="58" spans="2:2" s="21" customFormat="1"/>
+    <row r="59" spans="2:2" s="21" customFormat="1"/>
+    <row r="60" spans="2:2">
+      <c r="B60" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="61" spans="2:2" s="21" customFormat="1">
+      <c r="B61" s="21" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="62" spans="2:2" s="21" customFormat="1"/>
+    <row r="63" spans="2:2" s="21" customFormat="1"/>
+    <row r="64" spans="2:2">
+      <c r="B64" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="65" spans="2:2" s="21" customFormat="1">
+      <c r="B65" s="21" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="66" spans="2:2" s="21" customFormat="1"/>
+    <row r="67" spans="2:2" s="21" customFormat="1"/>
+    <row r="68" spans="2:2">
+      <c r="B68" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="69" spans="2:2" s="21" customFormat="1">
+      <c r="B69" s="21" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="70" spans="2:2" s="21" customFormat="1"/>
+    <row r="71" spans="2:2" s="21" customFormat="1"/>
+    <row r="72" spans="2:2">
+      <c r="B72" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="73" spans="2:2">
+      <c r="B73" s="21" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="74" spans="2:2" s="21" customFormat="1"/>
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7518,7 +7975,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -7554,7 +8011,7 @@
     <row r="8" spans="1:4" ht="67.5">
       <c r="A8" s="1"/>
       <c r="B8" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="6"/>
@@ -7663,7 +8120,7 @@
     <row r="7" spans="1:4">
       <c r="A7" s="1"/>
       <c r="B7" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="6"/>
@@ -7777,7 +8234,7 @@
     <row r="7" spans="1:4">
       <c r="A7" s="1"/>
       <c r="B7" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="6"/>
@@ -7891,7 +8348,7 @@
     <row r="7" spans="1:4">
       <c r="A7" s="1"/>
       <c r="B7" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="6"/>

--- a/revref_test.xlsx
+++ b/revref_test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\72446246\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67435B98-DCE3-4EB1-A714-1981BD6FD881}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F6C48A6-4F69-4C0A-9B53-48E969D8CFB4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7605" activeTab="4" xr2:uid="{5CD9017C-176B-471B-A8A0-D3A2BE76D3A3}"/>
   </bookViews>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="169">
   <si>
     <t>header1</t>
   </si>
@@ -4210,145 +4210,10 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>問題文の作成方法は&lt;a href="#list"&gt;各問題形式&lt;/a&gt;から参照してください</t>
-    <rPh sb="0" eb="2">
-      <t>モンダイ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ブン</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>サクセイ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ホウホウ</t>
-    </rPh>
-    <rPh sb="25" eb="26">
-      <t>カク</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>モンダイ</t>
-    </rPh>
-    <rPh sb="28" eb="30">
-      <t>ケイシキ</t>
-    </rPh>
-    <rPh sb="36" eb="38">
-      <t>サンショウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>&lt;h3&gt;&lt;a name="list"&gt;&lt;/a&gt;広大Moodleで作成できる問題の形式&lt;/h3&gt;</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>&lt;h4&gt;&lt;a name="marubatsu"&gt;○/×問題&lt;/a&gt;&lt;/h4&gt;</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>&lt;h4&gt;&lt;a name="kumi"&gt;組み合わせ問題&lt;/a&gt;&lt;/h4&gt;</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>&lt;h4&gt;&lt;a name="suu"&gt;数値問題&lt;/a&gt;&lt;/h4&gt;</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>&lt;h4&gt;&lt;a name="saku"&gt;作文問題&lt;/a&gt;&lt;/h4&gt;</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>&lt;h4&gt;&lt;a name="all"&gt;オールオアナッシング多肢選択問題&lt;/a&gt;&lt;/h4&gt;</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>&lt;h4&gt;&lt;a name="simple"&gt;シンプル計算問題&lt;/a&gt;&lt;/h4&gt;</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>&lt;h4&gt;&lt;a name="drag"&gt;ドラッグ＆ドロップ&lt;/a&gt;&lt;/h4&gt;</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>&lt;h4&gt;&lt;a name="missing"&gt;ミッシングワード選択&lt;/a&gt;&lt;/h4&gt;</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>&lt;h4&gt;&lt;a name="random"&gt;ランダム記述組み合わせ問題&lt;/a&gt;&lt;/h4&gt;</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>&lt;h4&gt;&lt;a name="keisan"&gt;計算問題&lt;/a&gt;&lt;/h4&gt;</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>&lt;h4&gt;&lt;a name="tashikeisan"&gt;多肢選択計算問題&lt;/a&gt;数値式を選択肢に含むことのできる多肢選択問題のような問題&lt;/li&gt;</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>「正解」で○と×で正解となる方を選択します</t>
-    <rPh sb="1" eb="3">
-      <t>セイカイ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>セイカイ</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>ホウ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>センタク</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>「変更を保存する」をクリックします</t>
-    <rPh sb="1" eb="3">
-      <t>ヘンコウ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ホゾン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>「答え」の「問題1」~「問題3」に問題とその下に表示されている「答え」にそれぞれの正答を入力します
-※少なくとも2つの問題および3つの答えを準備する必要があります&lt;br&gt;
-　問題が空白の答えを使用して誤答を余分に提供することもできます&lt;br&gt;
-　問題および答えが空白のエントリは無視されます</t>
-    <rPh sb="1" eb="2">
-      <t>コタ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>モンダイ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>モンダイ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>モンダイ</t>
-    </rPh>
-    <rPh sb="22" eb="23">
-      <t>シタ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="32" eb="33">
-      <t>コタ</t>
-    </rPh>
-    <rPh sb="41" eb="43">
-      <t>セイトウ</t>
-    </rPh>
-    <rPh sb="44" eb="46">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="70" eb="72">
-      <t>ジュンビ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>quiztype1.png</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -4360,35 +4225,33 @@
   </si>
   <si>
     <t xml:space="preserve">&lt;ul&gt;
-&lt;li&gt;&lt;a href="p1.html"&gt;多肢選択問題&lt;/a&gt;:所定の一覧より単一または複数の解答を選択する&lt;/li&gt;
-&lt;li&gt;&lt;a href="#marubatsu"&gt;○/×問題&lt;/a&gt;:2つの選択肢「○」および「×」のみで解答する&lt;/li&gt;
-&lt;li&gt;&lt;a href="#kumi"&gt;組み合わせ問題&lt;/a&gt;:複数の問題の答えを一覧より選択する&lt;/li&gt;
-&lt;li&gt;&lt;a href="p2.html"&gt;記述問題&lt;/a&gt;:1つまたは少数の言葉を入力して解答する&lt;/li&gt;
-&lt;li&gt;&lt;a href="#suu"&gt;数値問題&lt;/a&gt;:単位を使って数値で解答する&lt;/li&gt;
+&lt;li&gt;多肢選択問題:所定の一覧より単一または複数の解答を選択する&lt;/li&gt;
+&lt;li&gt;○/×問題:2つの選択肢「○」および「×」のみで解答する&lt;/li&gt;
+&lt;li&gt;組み合わせ問題:複数の問題の答えを一覧より選択する&lt;/li&gt;
+&lt;li&gt;記述問題:1つまたは少数の言葉を入力して解答する&lt;/li&gt;
+&lt;li&gt;数値問題:単位を使って数値で解答する&lt;/li&gt;
 </t>
-    <rPh sb="161" eb="163">
+    <rPh sb="94" eb="96">
       <t>フクスウ</t>
     </rPh>
-    <rPh sb="230" eb="232">
+    <rPh sb="141" eb="143">
       <t>カイトウ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>&lt;li&gt;&lt;a href="#saku"&gt;作文問題&lt;/a&gt;:ファイルアップロードまたはオンラインテキストによる解答する&lt;/li&gt;
-&lt;li&gt;&lt;a href="#all"&gt;オールオアナッシング多肢選択問題&lt;/a&gt;:リストから複数の解答を選択し、過不足なく選択肢を選んだときだけ正解となる&lt;/li&gt;
-&lt;li&gt;&lt;a href="#simple"&gt;シンプル計算問題&lt;/a&gt;:数値問題に似ていて、小テスト受験時、設定された数値がランダムに使用される&lt;/li&gt;
-&lt;li&gt;&lt;a href="#drag"&gt;ドラッグ＆ドロップ&lt;/a&gt;:テキストやイメージをドラッグ＆ドロップして解答する&lt;/li&gt;
-&lt;li&gt;&lt;a href="#missing"&gt;ミッシングワード選択&lt;/a&gt;:ドロップダウンメニューを使って問題テキスト内の足りない言葉を埋める&lt;/li&gt;</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>&lt;li&gt;&lt;a href="#random"&gt;ランダム記述組み合わせ問題&lt;/a&gt;:組み合わせ問題と違い、特定のカテゴリ内の記述問題からランダムに作成される&lt;/li&gt;
-&lt;li&gt;&lt;a href="#keisan"&gt;計算問題&lt;/a&gt;:シンプル計算問だよりランダムに表示する数値の設定が詳細にできる&lt;/li&gt;
-&lt;li&gt;&lt;a href="p3.html"&gt;穴埋め問題&lt;/a&gt;:埋め込み式の多肢選択問題、記述問題および数値時問題を作成できる&lt;/li&gt;
-&lt;li&gt;&lt;a href="#tashikeisan"&gt;多肢選択計算問題&lt;/a&gt;数値式を選択肢に含むことのできる多肢選択問題のような問題&lt;/li&gt;
+    <t>&lt;li&gt;作文問題:ファイルアップロードまたはオンラインテキストによる解答する&lt;/li&gt;
+&lt;li&gt;オールオアナッシング多肢選択問題:リストから複数の解答を選択し、過不足なく選択肢を選んだときだけ正解となる&lt;/li&gt;
+&lt;li&gt;シンプル計算問題:数値問題に似ていて、小テスト受験時、設定された数値がランダムに使用される&lt;/li&gt;
+&lt;li&gt;ドラッグ＆ドロップ:テキストやイメージをドラッグ＆ドロップして解答する&lt;/li&gt;
+&lt;li&gt;ミッシングワード選択:ドロップダウンメニューを使って問題テキスト内の足りない言葉を埋める&lt;/li&gt;</t>
+  </si>
+  <si>
+    <t>&lt;li&gt;ランダム記述組み合わせ問題:組み合わせ問題と違い、特定のカテゴリ内の記述問題からランダムに作成される&lt;/li&gt;
+&lt;li&gt;計算問題:シンプル計算問だよりランダムに表示する数値の設定が詳細にできる&lt;/li&gt;
+&lt;li&gt;穴埋め問題:埋め込み式の多肢選択問題、記述問題および数値時問題を作成できる&lt;/li&gt;
+&lt;li&gt;多肢選択計算問題数値式を選択肢に含むことのできる多肢選択問題のような問題&lt;/li&gt;
 &lt;ul&gt;</t>
-    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
@@ -7593,11 +7456,9 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64B4126F-427D-438D-81C0-4E21B438A36E}">
-  <dimension ref="A1:D74"/>
+  <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
@@ -7652,7 +7513,7 @@
     <row r="8" spans="1:4" s="21" customFormat="1">
       <c r="A8" s="1"/>
       <c r="B8" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C8" s="25"/>
       <c r="D8" s="26"/>
@@ -7660,37 +7521,37 @@
     <row r="9" spans="1:4" ht="94.5">
       <c r="A9" s="1"/>
       <c r="B9" s="3" t="s">
-        <v>181</v>
+        <v>166</v>
       </c>
       <c r="C9" s="25" t="s">
         <v>25</v>
       </c>
       <c r="D9" s="26" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="81">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="67.5">
       <c r="A10" s="1"/>
       <c r="B10" s="3" t="s">
-        <v>182</v>
+        <v>167</v>
       </c>
       <c r="C10" s="25" t="s">
         <v>25</v>
       </c>
       <c r="D10" s="26" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" s="21" customFormat="1" ht="81">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" s="21" customFormat="1" ht="67.5">
       <c r="A11" s="1"/>
       <c r="B11" s="3" t="s">
-        <v>183</v>
+        <v>168</v>
       </c>
       <c r="C11" s="25" t="s">
         <v>25</v>
       </c>
       <c r="D11" s="26" t="s">
-        <v>180</v>
+        <v>165</v>
       </c>
     </row>
     <row r="12" spans="1:4" s="21" customFormat="1">
@@ -7779,170 +7640,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
-      <c r="B28" s="2" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="B30" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" s="21" customFormat="1">
-      <c r="A31" s="1"/>
-      <c r="B31" s="21" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" s="21" customFormat="1">
-      <c r="A32" s="1"/>
-      <c r="B32" s="21" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" s="21" customFormat="1">
-      <c r="A33" s="1"/>
-      <c r="B33" s="21" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" s="21" customFormat="1">
-      <c r="B34"/>
-    </row>
-    <row r="35" spans="1:2">
-      <c r="B35" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" s="21" customFormat="1">
-      <c r="A36" s="1"/>
-      <c r="B36" s="21" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" s="21" customFormat="1" ht="75">
-      <c r="A37" s="1"/>
-      <c r="B37" s="11" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" s="21" customFormat="1">
-      <c r="A38" s="1"/>
-      <c r="B38" s="21" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" s="21" customFormat="1">
-      <c r="B39"/>
-    </row>
-    <row r="40" spans="1:2">
-      <c r="B40" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" s="21" customFormat="1">
-      <c r="B41" s="21" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" s="21" customFormat="1"/>
-    <row r="43" spans="1:2" s="21" customFormat="1"/>
-    <row r="44" spans="1:2">
-      <c r="B44" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" s="21" customFormat="1">
-      <c r="B45" s="21" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" s="21" customFormat="1"/>
-    <row r="47" spans="1:2" s="21" customFormat="1"/>
-    <row r="48" spans="1:2">
-      <c r="B48" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="49" spans="2:2" s="21" customFormat="1">
-      <c r="B49" s="21" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="50" spans="2:2" s="21" customFormat="1"/>
-    <row r="51" spans="2:2" s="21" customFormat="1"/>
-    <row r="52" spans="2:2">
-      <c r="B52" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="53" spans="2:2" s="21" customFormat="1">
-      <c r="B53" s="21" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="54" spans="2:2" s="21" customFormat="1"/>
-    <row r="55" spans="2:2" s="21" customFormat="1"/>
-    <row r="56" spans="2:2">
-      <c r="B56" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="57" spans="2:2" s="21" customFormat="1">
-      <c r="B57" s="21" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="58" spans="2:2" s="21" customFormat="1"/>
-    <row r="59" spans="2:2" s="21" customFormat="1"/>
-    <row r="60" spans="2:2">
-      <c r="B60" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="61" spans="2:2" s="21" customFormat="1">
-      <c r="B61" s="21" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="62" spans="2:2" s="21" customFormat="1"/>
-    <row r="63" spans="2:2" s="21" customFormat="1"/>
-    <row r="64" spans="2:2">
-      <c r="B64" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="65" spans="2:2" s="21" customFormat="1">
-      <c r="B65" s="21" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="66" spans="2:2" s="21" customFormat="1"/>
-    <row r="67" spans="2:2" s="21" customFormat="1"/>
-    <row r="68" spans="2:2">
-      <c r="B68" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="69" spans="2:2" s="21" customFormat="1">
-      <c r="B69" s="21" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="70" spans="2:2" s="21" customFormat="1"/>
-    <row r="71" spans="2:2" s="21" customFormat="1"/>
-    <row r="72" spans="2:2">
-      <c r="B72" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="73" spans="2:2">
-      <c r="B73" s="21" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="74" spans="2:2" s="21" customFormat="1"/>
+    <row r="28" spans="1:2" s="21" customFormat="1"/>
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8409,33 +8107,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <SharedWithUsers xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="f2582d4f-4605-4da6-a8d6-8d696d30c27c">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100AFAE8A2D61E2864A87743AC8EBD33013" ma:contentTypeVersion="17" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="131c1c820a00e4fca6ce65346d03e485">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="f2582d4f-4605-4da6-a8d6-8d696d30c27c" xmlns:ns3="c1e6ffc9-f5b9-4159-9447-bea3a992def6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="555fe79fdee1cb282876e6f1e8fa0f7e" ns2:_="" ns3:_="">
     <xsd:import namespace="f2582d4f-4605-4da6-a8d6-8d696d30c27c"/>
@@ -8684,10 +8355,48 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <SharedWithUsers xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="f2582d4f-4605-4da6-a8d6-8d696d30c27c">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A3B1469-BE58-4E2A-BFC6-1F894EC8921D}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{61B073EA-019B-49F1-927B-E5A470D8398D}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="f2582d4f-4605-4da6-a8d6-8d696d30c27c"/>
+    <ds:schemaRef ds:uri="c1e6ffc9-f5b9-4159-9447-bea3a992def6"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -8704,20 +8413,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{61B073EA-019B-49F1-927B-E5A470D8398D}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A3B1469-BE58-4E2A-BFC6-1F894EC8921D}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="f2582d4f-4605-4da6-a8d6-8d696d30c27c"/>
-    <ds:schemaRef ds:uri="c1e6ffc9-f5b9-4159-9447-bea3a992def6"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/revref_test.xlsx
+++ b/revref_test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\72446246\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F6C48A6-4F69-4C0A-9B53-48E969D8CFB4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBD081A1-9D8C-43DA-B1E7-05109925F8C9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7605" activeTab="4" xr2:uid="{5CD9017C-176B-471B-A8A0-D3A2BE76D3A3}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7605" xr2:uid="{5CD9017C-176B-471B-A8A0-D3A2BE76D3A3}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="8" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="196">
   <si>
     <t>header1</t>
   </si>
@@ -127,9 +127,6 @@
   </si>
   <si>
     <t>小テストの問題の出題順をランダムにしたい</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 小テスト内の問題間で配点を調整したい</t>
   </si>
   <si>
     <t>正解設定が間違っていたので、修正して再評定したい</t>
@@ -2535,13 +2532,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>作成中</t>
-    <rPh sb="0" eb="3">
-      <t>サクセイチュウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>chartn</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -3323,32 +3313,6 @@
     </rPh>
     <rPh sb="15" eb="17">
       <t>ヘンコウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ランダム問題について説明（作成中）</t>
-    <rPh sb="4" eb="6">
-      <t>モンダイ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>セツメイ</t>
-    </rPh>
-    <rPh sb="13" eb="16">
-      <t>サクセイチュウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>シャッフルについて説明（作成中）</t>
-    <rPh sb="9" eb="11">
-      <t>セツメイ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>サクセイ</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>チュウ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -4243,8 +4207,16 @@
     <t>&lt;li&gt;作文問題:ファイルアップロードまたはオンラインテキストによる解答する&lt;/li&gt;
 &lt;li&gt;オールオアナッシング多肢選択問題:リストから複数の解答を選択し、過不足なく選択肢を選んだときだけ正解となる&lt;/li&gt;
 &lt;li&gt;シンプル計算問題:数値問題に似ていて、小テスト受験時、設定された数値がランダムに使用される&lt;/li&gt;
-&lt;li&gt;ドラッグ＆ドロップ:テキストやイメージをドラッグ＆ドロップして解答する&lt;/li&gt;
+&lt;li&gt;ドラッグ＆ドロップ:テキストやイメージ、マーカーをドラッグ＆ドロップして解答する&lt;/li&gt;
 &lt;li&gt;ミッシングワード選択:ドロップダウンメニューを使って問題テキスト内の足りない言葉を埋める&lt;/li&gt;</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;h3&gt;用意された質問群のなかから、ランダムに出題する方法&lt;/h3&gt;</t>
+    <rPh sb="27" eb="29">
+      <t>ホウホウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>&lt;li&gt;ランダム記述組み合わせ問題:組み合わせ問題と違い、特定のカテゴリ内の記述問題からランダムに作成される&lt;/li&gt;
@@ -4252,6 +4224,590 @@
 &lt;li&gt;穴埋め問題:埋め込み式の多肢選択問題、記述問題および数値時問題を作成できる&lt;/li&gt;
 &lt;li&gt;多肢選択計算問題数値式を選択肢に含むことのできる多肢選択問題のような問題&lt;/li&gt;
 &lt;ul&gt;</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;h4&gt;ランダム問題の作成方法&lt;/h4&gt;</t>
+    <rPh sb="11" eb="13">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ホウホウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ランダム問題は、ランダムに出題したい問題をカテゴリにまとめ、そのカテゴリ内の問題をランダムに出題します</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>コースを開き、対象の小テストを開きます</t>
+    <rPh sb="4" eb="5">
+      <t>ヒラ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>タイショウ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ショウ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ヒラ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>小テスト名の下に表示された「問題」をクリックします</t>
+    <rPh sb="0" eb="1">
+      <t>ショウ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>モンダイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「追加」をクリックし、「＋ランダム問題」を選択します</t>
+    <rPh sb="1" eb="3">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>モンダイ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>すでにあるカテゴリの中から出題する場合は、「カテゴリ」から選択してください&lt;br&gt;
+「ランダム問題を追加する」をクリックします</t>
+    <rPh sb="10" eb="11">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>シュツダイ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>モンダイ</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>カテゴリを作成していない場合は、「新しいカテゴリ」をクリックします&lt;br&gt;
+名称を入力します&lt;br&gt;
+コース内の他の小テストでも同じ問題を使用したい場合は、「親カテゴリ」を「（小テスト名）のトップ」から「(コース名)のトップ」に変更してください&lt;br&gt;
+「カテゴリを作成してランダム問題を追加する」をクリックします</t>
+    <rPh sb="5" eb="7">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>アタラ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>メイショウ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="54" eb="55">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="56" eb="57">
+      <t>ホカ</t>
+    </rPh>
+    <rPh sb="58" eb="59">
+      <t>ショウ</t>
+    </rPh>
+    <rPh sb="64" eb="65">
+      <t>オナ</t>
+    </rPh>
+    <rPh sb="66" eb="68">
+      <t>モンダイ</t>
+    </rPh>
+    <rPh sb="69" eb="71">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="74" eb="76">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="79" eb="80">
+      <t>オヤ</t>
+    </rPh>
+    <rPh sb="88" eb="89">
+      <t>ショウ</t>
+    </rPh>
+    <rPh sb="92" eb="93">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="106" eb="107">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="114" eb="116">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="133" eb="135">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="141" eb="143">
+      <t>モンダイ</t>
+    </rPh>
+    <rPh sb="144" eb="146">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;h4&gt;ランダムに出題する問題（質問群）の登録&lt;/h4&gt;</t>
+    <rPh sb="9" eb="11">
+      <t>シュツダイ</t>
+    </rPh>
+    <rPh sb="16" eb="19">
+      <t>シツモングン</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>（ランダム問題の作成から続けて作業していない場合）コースを開き、対象の小テストを開きます&lt;br&gt;
+小テスト名の下に表示された「問題」をクリックします</t>
+    <rPh sb="5" eb="7">
+      <t>モンダイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ツヅ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>サギョウ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>ヒラ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>タイショウ</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>ショウ</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>ヒラ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>カテゴリの作成はランダム問題の作成と一緒に行うことができます</t>
+    <rPh sb="5" eb="7">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>モンダイ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>イッショ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「新しい問題を作成する…」をクリックし、問題を登録してください</t>
+    <rPh sb="1" eb="2">
+      <t>アタラ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>モンダイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>モンダイ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;b&gt;ランダム（ランダム問題名）&lt;/b&gt;の横に表示された「問題を表示する」をクリックします</t>
+    <rPh sb="21" eb="22">
+      <t>ヨコ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>モンダイ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;h4&gt;ランダム問題を小テストで複数出題したい場合&lt;/h4&gt;</t>
+    <rPh sb="11" eb="12">
+      <t>ショウ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>シュツダイ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「既存のカテゴリ」でカテゴリを選択し、
+「ランダム問題を追加する」をクリックします</t>
+    <rPh sb="1" eb="3">
+      <t>キゾン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>モンダイ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;h3&gt;小テストの問題の出題順をランダムにする方法&lt;/h3&gt;</t>
+    <rPh sb="23" eb="25">
+      <t>ホウホウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「&lt;b&gt;シャッフル&lt;/b&gt;」にチェックを入れます</t>
+    <rPh sb="20" eb="21">
+      <t>イ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 小テスト内の問題間で配点を調整したい</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;h3&gt;小テスト内の問題間で配点を調整する方法&lt;/h3&gt;</t>
+    <rPh sb="21" eb="23">
+      <t>ホウホウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>各問題の一番右端に表示されている数字が問題の最大評点（正解した時に与えられる点数）です&lt;br&gt;
+鉛筆マーク（最大評点を編集する）をクリックし、評点を編集してください</t>
+    <rPh sb="0" eb="3">
+      <t>カクモンダイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>イチバン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ミギハシ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>スウジ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>モンダイ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>サイダイ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ヒョウテン</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>セイカイ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>アタ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>テンスウ</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>エンピツ</t>
+    </rPh>
+    <rPh sb="54" eb="56">
+      <t>サイダイ</t>
+    </rPh>
+    <rPh sb="56" eb="58">
+      <t>ヒョウテン</t>
+    </rPh>
+    <rPh sb="59" eb="61">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <rPh sb="71" eb="73">
+      <t>ヒョウテン</t>
+    </rPh>
+    <rPh sb="74" eb="76">
+      <t>ヘンシュウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>全問正解したときの評点が「&lt;b&gt;合計評点&lt;/b&gt;」に表示されます&lt;br&gt;
+配点を変更すると「合計評点」に反映されます</t>
+    <rPh sb="0" eb="2">
+      <t>ゼンモン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>セイカイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ヒョウテン</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ゴウケイ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ヒョウテン</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>ハイテン</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="46" eb="50">
+      <t>ゴウケイヒョウテン</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>ハンエイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>一番右上に表示されている「最大評点」は全問正解したときにコースの評定に加算される点数です&lt;br&gt;
+そのため、配点を変更してもこの値に変更はありません</t>
+    <rPh sb="0" eb="2">
+      <t>イチバン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ミギウエ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>サイダイ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ヒョウテン</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ゼンモン</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>セイカイ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ヒョウテイ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>カサン</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>テンスウ</t>
+    </rPh>
+    <rPh sb="54" eb="56">
+      <t>ハイテン</t>
+    </rPh>
+    <rPh sb="57" eb="59">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="64" eb="65">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="66" eb="68">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;h4&gt;正解設定を修正する&lt;/h4&gt;</t>
+    <rPh sb="4" eb="6">
+      <t>セイカイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>シュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;h3&gt;正解設定が間違っていたので、修正して再評定する方法&lt;/h3&gt;</t>
+    <rPh sb="27" eb="29">
+      <t>ホウホウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>修正したい問題をクリックし、正解設定を変更します</t>
+    <rPh sb="0" eb="2">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>モンダイ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>セイカイ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「変更を保存する」をクリックします</t>
+    <rPh sb="1" eb="3">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ホゾン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>&lt;h4&gt;再評定する&lt;/h4&gt;</t>
+    <rPh sb="4" eb="5">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ヒョウテイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「すべてを再評定する」をクリックします</t>
+    <rPh sb="5" eb="8">
+      <t>サイヒョウテイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>小テスト名の下に表示された「受験結果」をクリックします</t>
+    <rPh sb="0" eb="1">
+      <t>ショウ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ジュケン</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ケッカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>このとき、問題のバージョンが&lt;u&gt;「常に最新」か「V○（最新）」（○はバージョン数が入る）&lt;/u&gt;になっているか確認してください
+なっていない場合は、クリックして変更します</t>
+    <rPh sb="5" eb="7">
+      <t>モンダイ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ツネ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>サイシン</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>サイシン</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>スウ</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>ハイ</t>
+    </rPh>
+    <rPh sb="56" eb="58">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="71" eb="73">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="81" eb="83">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>再評定完了と表示されたら「続ける」をクリックします</t>
+    <rPh sb="0" eb="3">
+      <t>サイヒョウテイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ツヅ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
@@ -4776,7 +5332,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B38953DD-C77F-4062-989A-FDF98227C4BA}">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
@@ -4831,11 +5387,9 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E91D0A89-D195-4A91-BCEB-AB8DB86FF140}">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
-    </sheetView>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
@@ -4854,7 +5408,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -4884,58 +5438,89 @@
     <row r="7" spans="1:4">
       <c r="A7" s="1"/>
       <c r="B7" s="3" t="s">
-        <v>72</v>
+        <v>188</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="6"/>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1"/>
-      <c r="B8" s="3"/>
+      <c r="B8" s="3" t="s">
+        <v>187</v>
+      </c>
       <c r="C8" s="5"/>
       <c r="D8" s="6"/>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1"/>
-      <c r="B9" s="3"/>
+      <c r="B9" s="3" t="s">
+        <v>168</v>
+      </c>
       <c r="C9" s="5"/>
       <c r="D9" s="6"/>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1"/>
+      <c r="B10" s="3" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1"/>
+      <c r="B11" s="3" t="s">
+        <v>189</v>
+      </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1"/>
-    </row>
-    <row r="13" spans="1:4">
+      <c r="B12" s="3" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" s="21" customFormat="1" ht="27">
       <c r="A13" s="1"/>
+      <c r="B13" s="3" t="s">
+        <v>194</v>
+      </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="1"/>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="1"/>
+      <c r="B15" s="3" t="s">
+        <v>191</v>
+      </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="1"/>
-    </row>
-    <row r="17" spans="1:1">
+      <c r="B16" s="3" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
       <c r="A17" s="1"/>
-    </row>
-    <row r="18" spans="1:1">
+      <c r="B17" s="3" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
       <c r="A18" s="1"/>
-    </row>
-    <row r="19" spans="1:1">
+      <c r="B18" s="3" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
       <c r="A19" s="1"/>
     </row>
-    <row r="20" spans="1:1">
+    <row r="20" spans="1:2">
       <c r="A20" s="1"/>
     </row>
-    <row r="21" spans="1:1">
+    <row r="21" spans="1:2">
       <c r="A21" s="1"/>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
@@ -4969,7 +5554,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -4999,7 +5584,7 @@
     <row r="7" spans="1:4">
       <c r="A7" s="1"/>
       <c r="B7" s="22" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="6"/>
@@ -5007,7 +5592,7 @@
     <row r="8" spans="1:4">
       <c r="A8" s="1"/>
       <c r="B8" s="23" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="6"/>
@@ -5015,7 +5600,7 @@
     <row r="9" spans="1:4">
       <c r="A9" s="1"/>
       <c r="B9" s="22" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="6"/>
@@ -5023,7 +5608,7 @@
     <row r="10" spans="1:4" ht="27">
       <c r="A10" s="1"/>
       <c r="B10" s="22" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -5091,7 +5676,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -5121,13 +5706,13 @@
     <row r="7" spans="1:4" s="21" customFormat="1">
       <c r="A7" s="1"/>
       <c r="B7" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1"/>
       <c r="B8" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C8"/>
       <c r="D8"/>
@@ -5135,7 +5720,7 @@
     <row r="9" spans="1:4" s="21" customFormat="1">
       <c r="A9" s="1"/>
       <c r="B9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C9"/>
       <c r="D9"/>
@@ -5143,7 +5728,7 @@
     <row r="10" spans="1:4" s="21" customFormat="1">
       <c r="A10" s="1"/>
       <c r="B10" s="22" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C10"/>
       <c r="D10"/>
@@ -5151,7 +5736,7 @@
     <row r="11" spans="1:4" s="21" customFormat="1">
       <c r="A11" s="1"/>
       <c r="B11" s="22" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C11"/>
       <c r="D11"/>
@@ -5159,13 +5744,13 @@
     <row r="12" spans="1:4" ht="27">
       <c r="A12" s="1"/>
       <c r="B12" s="23" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C12" s="25" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D12" s="26" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -5177,7 +5762,7 @@
     <row r="14" spans="1:4" ht="121.5">
       <c r="A14" s="1"/>
       <c r="B14" s="22" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C14"/>
       <c r="D14"/>
@@ -5238,7 +5823,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -5268,25 +5853,25 @@
     <row r="7" spans="1:4" s="21" customFormat="1">
       <c r="A7" s="1"/>
       <c r="B7" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="8" spans="1:4" s="21" customFormat="1">
       <c r="A8" s="1"/>
       <c r="B8" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="9" spans="1:4" s="21" customFormat="1">
       <c r="A9" s="1"/>
       <c r="B9" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="40.5">
       <c r="A10" s="1"/>
       <c r="B10" s="23" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="6"/>
@@ -5300,7 +5885,7 @@
     <row r="12" spans="1:4" s="21" customFormat="1">
       <c r="A12" s="1"/>
       <c r="B12" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C12" s="25"/>
       <c r="D12" s="26"/>
@@ -5308,7 +5893,7 @@
     <row r="13" spans="1:4" s="21" customFormat="1">
       <c r="A13" s="1"/>
       <c r="B13" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C13"/>
       <c r="D13"/>
@@ -5316,7 +5901,7 @@
     <row r="14" spans="1:4" s="21" customFormat="1">
       <c r="A14" s="1"/>
       <c r="B14" s="22" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C14"/>
       <c r="D14"/>
@@ -5324,25 +5909,25 @@
     <row r="15" spans="1:4">
       <c r="A15" s="1"/>
       <c r="B15" s="17" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="16" spans="1:4" s="21" customFormat="1">
       <c r="A16" s="1"/>
       <c r="B16" s="17" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="17" spans="1:4" s="21" customFormat="1">
       <c r="A17" s="1"/>
       <c r="B17" s="28" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="18" spans="1:4" s="21" customFormat="1">
       <c r="A18" s="1"/>
       <c r="B18" s="28" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -5351,83 +5936,83 @@
     <row r="20" spans="1:4">
       <c r="A20" s="1"/>
       <c r="B20" s="17" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="40.5">
       <c r="A21" s="1"/>
       <c r="B21" s="24" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="1"/>
       <c r="B22" s="17" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="23" spans="1:4" s="21" customFormat="1" ht="27">
       <c r="A23" s="1"/>
       <c r="B23" s="24" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="24" spans="1:4" s="21" customFormat="1" ht="59.25">
       <c r="A24" s="1"/>
       <c r="B24" s="24" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C24" s="25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D24" s="21" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="25" spans="1:4" s="21" customFormat="1">
       <c r="A25" s="1"/>
       <c r="B25" s="24"/>
       <c r="C25" s="25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D25" s="21" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="1"/>
       <c r="B26" s="17" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="1"/>
       <c r="B27" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="1"/>
       <c r="B28" s="22" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="1"/>
       <c r="B29" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C29" s="25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D29" s="21" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="1"/>
       <c r="B30" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -5462,7 +6047,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -5492,7 +6077,7 @@
     <row r="7" spans="1:4">
       <c r="A7" s="1"/>
       <c r="B7" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="6"/>
@@ -5500,7 +6085,7 @@
     <row r="8" spans="1:4">
       <c r="A8" s="1"/>
       <c r="B8" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="6"/>
@@ -5508,7 +6093,7 @@
     <row r="9" spans="1:4">
       <c r="A9" s="1"/>
       <c r="B9" s="22" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="6"/>
@@ -5516,25 +6101,25 @@
     <row r="10" spans="1:4" ht="37.5">
       <c r="A10" s="1"/>
       <c r="B10" s="11" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="11" spans="1:4" s="21" customFormat="1" ht="37.5">
       <c r="A11" s="1"/>
       <c r="B11" s="11" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1"/>
       <c r="B12" s="11" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="37.5">
       <c r="A13" s="1"/>
       <c r="B13" s="11" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -5596,7 +6181,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -5626,7 +6211,7 @@
     <row r="7" spans="1:4">
       <c r="A7" s="1"/>
       <c r="B7" s="3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="6"/>
@@ -5634,7 +6219,7 @@
     <row r="8" spans="1:4" s="21" customFormat="1" ht="121.5">
       <c r="A8" s="1"/>
       <c r="B8" s="3" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C8" s="25"/>
       <c r="D8" s="26"/>
@@ -5648,7 +6233,7 @@
     <row r="10" spans="1:4" s="21" customFormat="1">
       <c r="A10" s="1"/>
       <c r="B10" s="3" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C10" s="25"/>
       <c r="D10" s="26"/>
@@ -5656,35 +6241,35 @@
     <row r="11" spans="1:4">
       <c r="A11" s="1"/>
       <c r="B11" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1"/>
       <c r="B12" s="22" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1"/>
       <c r="B13" s="2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="54">
       <c r="A14" s="1"/>
       <c r="B14" s="22" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
     </row>
     <row r="15" spans="1:4" s="21" customFormat="1">
       <c r="B15" s="29" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="16" spans="1:4" s="21" customFormat="1">
       <c r="B16" s="29" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
     </row>
     <row r="17" spans="2:4" s="21" customFormat="1">
@@ -5695,33 +6280,33 @@
     </row>
     <row r="19" spans="2:4">
       <c r="B19" s="3" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="20" spans="2:4">
       <c r="B20" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="21" spans="2:4">
       <c r="B21" s="22" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="22" spans="2:4" ht="93.75">
       <c r="B22" s="11" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C22" s="25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="23" spans="2:4">
       <c r="B23" s="29" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -5736,7 +6321,7 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -5756,7 +6341,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -5867,7 +6452,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -5897,13 +6482,13 @@
     <row r="7" spans="1:4" s="21" customFormat="1">
       <c r="A7" s="1"/>
       <c r="B7" s="3" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1"/>
       <c r="B8" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="6"/>
@@ -5917,7 +6502,7 @@
     <row r="10" spans="1:4" s="21" customFormat="1">
       <c r="A10" s="1"/>
       <c r="B10" s="27" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C10" s="25"/>
       <c r="D10" s="26"/>
@@ -5925,7 +6510,7 @@
     <row r="11" spans="1:4" s="21" customFormat="1" ht="56.25">
       <c r="A11" s="1"/>
       <c r="B11" s="27" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C11" s="25"/>
       <c r="D11" s="26"/>
@@ -5933,7 +6518,7 @@
     <row r="12" spans="1:4" ht="37.5">
       <c r="A12" s="1"/>
       <c r="B12" s="27" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C12" s="5"/>
       <c r="D12" s="6"/>
@@ -5941,7 +6526,7 @@
     <row r="13" spans="1:4" s="21" customFormat="1">
       <c r="A13" s="1"/>
       <c r="B13" s="27" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C13" s="25"/>
       <c r="D13" s="26"/>
@@ -5949,7 +6534,7 @@
     <row r="14" spans="1:4" s="21" customFormat="1">
       <c r="A14" s="1"/>
       <c r="B14" s="27" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C14" s="25"/>
       <c r="D14" s="26"/>
@@ -5963,7 +6548,7 @@
     <row r="16" spans="1:4" s="21" customFormat="1">
       <c r="A16" s="1"/>
       <c r="B16" s="27" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C16" s="25"/>
       <c r="D16" s="26"/>
@@ -5971,25 +6556,25 @@
     <row r="17" spans="1:2">
       <c r="A17" s="1"/>
       <c r="B17" s="22" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="37.5">
       <c r="A18" s="1"/>
       <c r="B18" s="11" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="150">
       <c r="A19" s="1"/>
       <c r="B19" s="11" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1"/>
       <c r="B20" s="2" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -6048,7 +6633,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -6078,7 +6663,7 @@
     <row r="7" spans="1:4">
       <c r="A7" s="1"/>
       <c r="B7" s="3" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="6"/>
@@ -6086,7 +6671,7 @@
     <row r="8" spans="1:4">
       <c r="A8" s="1"/>
       <c r="B8" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="6"/>
@@ -6100,7 +6685,7 @@
     <row r="10" spans="1:4" s="21" customFormat="1">
       <c r="A10" s="1"/>
       <c r="B10" s="27" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C10" s="25"/>
       <c r="D10" s="26"/>
@@ -6108,7 +6693,7 @@
     <row r="11" spans="1:4" ht="56.25">
       <c r="A11" s="1"/>
       <c r="B11" s="27" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C11" s="5"/>
       <c r="D11" s="6"/>
@@ -6116,19 +6701,19 @@
     <row r="12" spans="1:4" ht="37.5">
       <c r="A12" s="1"/>
       <c r="B12" s="27" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1"/>
       <c r="B13" s="27" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="1"/>
       <c r="B14" s="27" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -6138,19 +6723,19 @@
     <row r="16" spans="1:4">
       <c r="A16" s="1"/>
       <c r="B16" s="27" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="94.5">
       <c r="A17" s="1"/>
       <c r="B17" s="22" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1"/>
       <c r="B18" s="11" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -6197,7 +6782,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -6340,65 +6925,65 @@
     <row r="7" spans="1:4" s="21" customFormat="1">
       <c r="A7" s="1"/>
       <c r="B7" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:4" s="21" customFormat="1">
       <c r="A8" s="1"/>
       <c r="B8" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="40.5">
       <c r="A9" s="1"/>
       <c r="B9" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C9" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="14" t="s">
         <v>25</v>
-      </c>
-      <c r="D9" s="14" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1"/>
       <c r="B10" s="3"/>
       <c r="C10" s="15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D10" s="16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1"/>
       <c r="B11" s="17" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D11" s="20" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1"/>
       <c r="B12" s="17" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C12" s="19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D12" s="20" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1"/>
       <c r="B13" s="18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C13" s="19"/>
       <c r="D13" s="20"/>
@@ -6406,7 +6991,7 @@
     <row r="14" spans="1:4" s="21" customFormat="1" ht="409.5">
       <c r="A14" s="1"/>
       <c r="B14" s="24" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C14" s="25"/>
       <c r="D14" s="26"/>
@@ -6414,25 +6999,25 @@
     <row r="15" spans="1:4" ht="54">
       <c r="A15" s="1"/>
       <c r="B15" s="24" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C15" s="25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D15" s="26" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="1"/>
       <c r="B16" s="22" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C16" s="25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D16" s="26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -6441,47 +7026,47 @@
     <row r="18" spans="1:2">
       <c r="A18" s="1"/>
       <c r="B18" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="19" spans="1:2" s="21" customFormat="1">
       <c r="A19" s="1"/>
       <c r="B19" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="20" spans="1:2" s="21" customFormat="1">
       <c r="A20" s="1"/>
       <c r="B20" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1"/>
       <c r="B21" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1"/>
       <c r="B22" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="23" spans="1:2" s="21" customFormat="1" ht="229.5">
       <c r="A23" s="1"/>
       <c r="B23" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="B24" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="B25" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -6516,7 +7101,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -6629,7 +7214,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -6742,7 +7327,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -6855,7 +7440,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -6885,7 +7470,7 @@
     <row r="7" spans="1:4">
       <c r="A7" s="1"/>
       <c r="B7" s="3" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="6"/>
@@ -6893,7 +7478,7 @@
     <row r="8" spans="1:4">
       <c r="A8" s="1"/>
       <c r="B8" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="6"/>
@@ -6907,31 +7492,31 @@
     <row r="10" spans="1:4">
       <c r="A10" s="1"/>
       <c r="B10" s="27" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="56.25">
       <c r="A11" s="1"/>
       <c r="B11" s="27" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="37.5">
       <c r="A12" s="1"/>
       <c r="B12" s="27" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1"/>
       <c r="B13" s="27" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="1"/>
       <c r="B14" s="27" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -6941,19 +7526,19 @@
     <row r="16" spans="1:4">
       <c r="A16" s="1"/>
       <c r="B16" s="27" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="112.5">
       <c r="A17" s="1"/>
       <c r="B17" s="11" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1"/>
       <c r="B18" s="11" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -7027,65 +7612,65 @@
     <row r="7" spans="1:4" s="21" customFormat="1">
       <c r="A7" s="1"/>
       <c r="B7" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:4" s="21" customFormat="1">
       <c r="A8" s="1"/>
       <c r="B8" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:4" s="21" customFormat="1" ht="40.5">
       <c r="A9" s="1"/>
       <c r="B9" s="24" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C9" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="26" t="s">
         <v>25</v>
-      </c>
-      <c r="D9" s="26" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:4" s="21" customFormat="1">
       <c r="A10" s="1"/>
       <c r="B10" s="3"/>
       <c r="C10" s="25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D10" s="26" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:4" s="21" customFormat="1">
       <c r="A11" s="1"/>
       <c r="B11" s="17" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C11" s="25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D11" s="26" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:4" s="21" customFormat="1">
       <c r="A12" s="1"/>
       <c r="B12" s="17" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C12" s="25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D12" s="26" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:4" s="21" customFormat="1">
       <c r="A13" s="1"/>
       <c r="B13" s="24" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C13" s="25"/>
       <c r="D13" s="26"/>
@@ -7093,7 +7678,7 @@
     <row r="14" spans="1:4" s="21" customFormat="1" ht="409.5">
       <c r="A14" s="1"/>
       <c r="B14" s="24" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C14" s="25"/>
       <c r="D14" s="26"/>
@@ -7101,25 +7686,25 @@
     <row r="15" spans="1:4" s="21" customFormat="1" ht="54">
       <c r="A15" s="1"/>
       <c r="B15" s="24" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C15" s="25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D15" s="26" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:4" s="21" customFormat="1">
       <c r="A16" s="1"/>
       <c r="B16" s="22" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C16" s="25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D16" s="26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:2" s="21" customFormat="1">
@@ -7131,48 +7716,48 @@
     <row r="19" spans="1:2">
       <c r="A19" s="1"/>
       <c r="B19" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="20" spans="1:2" s="21" customFormat="1">
       <c r="A20" s="1"/>
       <c r="B20" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="21" spans="1:2" s="21" customFormat="1">
       <c r="A21" s="1"/>
       <c r="B21" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1"/>
       <c r="B22" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="23" spans="1:2" s="21" customFormat="1">
       <c r="A23" s="1"/>
       <c r="B23" s="21" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="24" spans="1:2" s="21" customFormat="1" ht="175.5">
       <c r="A24" s="1"/>
       <c r="B24" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="1"/>
       <c r="B25" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="B26" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -7237,7 +7822,7 @@
     <row r="7" spans="1:4">
       <c r="A7" s="1"/>
       <c r="B7" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C7" s="21"/>
       <c r="D7" s="21"/>
@@ -7245,59 +7830,59 @@
     <row r="8" spans="1:4" s="21" customFormat="1">
       <c r="A8" s="1"/>
       <c r="B8" s="3" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="40.5">
       <c r="A9" s="1"/>
       <c r="B9" s="24" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C9" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="26" t="s">
         <v>25</v>
-      </c>
-      <c r="D9" s="26" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1"/>
       <c r="B10" s="3"/>
       <c r="C10" s="25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D10" s="26" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1"/>
       <c r="B11" s="17" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C11" s="25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D11" s="26" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1"/>
       <c r="B12" s="17" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C12" s="25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D12" s="26" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="409.5">
       <c r="A13" s="1"/>
       <c r="B13" s="24" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C13" s="25"/>
       <c r="D13" s="26"/>
@@ -7305,25 +7890,25 @@
     <row r="14" spans="1:4" ht="40.5">
       <c r="A14" s="1"/>
       <c r="B14" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" s="26" t="s">
         <v>30</v>
-      </c>
-      <c r="C14" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" s="26" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="1"/>
       <c r="B15" s="22" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C15" s="25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D15" s="26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -7341,7 +7926,7 @@
     <row r="18" spans="1:4">
       <c r="A18" s="1"/>
       <c r="B18" s="21" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C18" s="21"/>
       <c r="D18" s="21"/>
@@ -7349,100 +7934,100 @@
     <row r="19" spans="1:4">
       <c r="A19" s="1"/>
       <c r="B19" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="1"/>
       <c r="B20" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="B21" s="27" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C21" s="25"/>
       <c r="D21"/>
     </row>
     <row r="22" spans="1:4">
       <c r="B22" s="27" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C22"/>
       <c r="D22"/>
     </row>
     <row r="23" spans="1:4" s="21" customFormat="1" ht="75">
       <c r="B23" s="27" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C23" s="25" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="D23" s="26" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="24" spans="1:4" s="21" customFormat="1" ht="131.25">
       <c r="B24" s="27" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C24" s="25" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="D24" s="26" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
     </row>
     <row r="25" spans="1:4" s="21" customFormat="1" ht="393.75">
       <c r="B25" s="27" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C25"/>
       <c r="D25"/>
     </row>
     <row r="26" spans="1:4" s="21" customFormat="1" ht="112.5">
       <c r="B26" s="27" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="C26" s="25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D26" s="26" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="B27" s="27" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C27"/>
       <c r="D27"/>
     </row>
     <row r="28" spans="1:4" ht="37.5">
       <c r="B28" s="11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C28" s="25"/>
       <c r="D28"/>
     </row>
     <row r="29" spans="1:4">
       <c r="B29" s="27" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C29"/>
       <c r="D29"/>
     </row>
     <row r="30" spans="1:4">
       <c r="B30" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C30"/>
       <c r="D30"/>
     </row>
     <row r="31" spans="1:4">
       <c r="B31" s="27" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C31"/>
       <c r="D31"/>
@@ -7458,7 +8043,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64B4126F-427D-438D-81C0-4E21B438A36E}">
   <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
@@ -7513,7 +8100,7 @@
     <row r="8" spans="1:4" s="21" customFormat="1">
       <c r="A8" s="1"/>
       <c r="B8" s="3" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C8" s="25"/>
       <c r="D8" s="26"/>
@@ -7521,37 +8108,37 @@
     <row r="9" spans="1:4" ht="94.5">
       <c r="A9" s="1"/>
       <c r="B9" s="3" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C9" s="25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D9" s="26" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="67.5">
       <c r="A10" s="1"/>
       <c r="B10" s="3" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="C10" s="25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D10" s="26" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
     </row>
     <row r="11" spans="1:4" s="21" customFormat="1" ht="67.5">
       <c r="A11" s="1"/>
       <c r="B11" s="3" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C11" s="25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D11" s="26" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="12" spans="1:4" s="21" customFormat="1">
@@ -7563,19 +8150,19 @@
     <row r="13" spans="1:4">
       <c r="A13" s="1"/>
       <c r="B13" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="1"/>
       <c r="B14" s="3" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="40.5">
       <c r="A15" s="1"/>
       <c r="B15" s="24" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -7585,31 +8172,31 @@
     <row r="17" spans="1:2">
       <c r="A17" s="1"/>
       <c r="B17" s="17" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1"/>
       <c r="B18" s="17" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="409.5">
       <c r="A19" s="1"/>
       <c r="B19" s="24" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="40.5">
       <c r="A20" s="1"/>
       <c r="B20" s="24" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1"/>
       <c r="B21" s="22" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -7622,22 +8209,22 @@
     </row>
     <row r="24" spans="1:2">
       <c r="B24" s="21" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="B25" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="B26" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="B27" s="27" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="28" spans="1:2" s="21" customFormat="1"/>
@@ -7673,7 +8260,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -7709,7 +8296,7 @@
     <row r="8" spans="1:4" ht="67.5">
       <c r="A8" s="1"/>
       <c r="B8" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="6"/>
@@ -7765,10 +8352,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1B5C86B-3DF3-4C25-B4F9-254CDB6683A6}">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B12" sqref="B12:B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -7818,57 +8405,113 @@
     <row r="7" spans="1:4">
       <c r="A7" s="1"/>
       <c r="B7" s="3" t="s">
-        <v>110</v>
+        <v>164</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="6"/>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1"/>
+      <c r="B8" s="3" t="s">
+        <v>167</v>
+      </c>
       <c r="C8" s="5"/>
       <c r="D8" s="6"/>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" s="21" customFormat="1">
       <c r="A9" s="1"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="6"/>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="B9" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="C9" s="25"/>
+      <c r="D9" s="26"/>
+    </row>
+    <row r="10" spans="1:4" s="21" customFormat="1">
       <c r="A10" s="1"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="26"/>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1"/>
+      <c r="B11" s="2" t="s">
+        <v>166</v>
+      </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1"/>
+      <c r="B12" s="3" t="s">
+        <v>168</v>
+      </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1"/>
+      <c r="B13" s="3" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="1"/>
-    </row>
-    <row r="15" spans="1:4">
+      <c r="B14" s="3" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="27">
       <c r="A15" s="1"/>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="B15" s="3" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="67.5">
       <c r="A16" s="1"/>
-    </row>
-    <row r="17" spans="1:1">
+      <c r="B16" s="3" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
       <c r="A17" s="1"/>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:2">
       <c r="A18" s="1"/>
-    </row>
-    <row r="19" spans="1:1">
+      <c r="B18" s="21" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="27">
       <c r="A19" s="1"/>
-    </row>
-    <row r="20" spans="1:1">
+      <c r="B19" s="3" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
       <c r="A20" s="1"/>
-    </row>
-    <row r="21" spans="1:1">
+      <c r="B20" s="3" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
       <c r="A21" s="1"/>
+      <c r="B21" s="3" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="1"/>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="B23" s="21" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="B24" s="3" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="27">
+      <c r="B25" s="3" t="s">
+        <v>179</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
@@ -7882,7 +8525,7 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B7" sqref="B7:B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -7932,24 +8575,32 @@
     <row r="7" spans="1:4">
       <c r="A7" s="1"/>
       <c r="B7" s="3" t="s">
-        <v>111</v>
+        <v>180</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="6"/>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1"/>
+      <c r="B8" s="3" t="s">
+        <v>168</v>
+      </c>
       <c r="C8" s="5"/>
       <c r="D8" s="6"/>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1"/>
-      <c r="B9" s="3"/>
+      <c r="B9" s="3" t="s">
+        <v>169</v>
+      </c>
       <c r="C9" s="5"/>
       <c r="D9" s="6"/>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1"/>
+      <c r="B10" s="3" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1"/>
@@ -7996,7 +8647,7 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B8" sqref="B8:B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -8016,7 +8667,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>15</v>
+        <v>182</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -8046,31 +8697,44 @@
     <row r="7" spans="1:4">
       <c r="A7" s="1"/>
       <c r="B7" s="3" t="s">
-        <v>72</v>
+        <v>183</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="6"/>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1"/>
-      <c r="B8" s="3"/>
+      <c r="B8" s="3" t="s">
+        <v>168</v>
+      </c>
       <c r="C8" s="5"/>
       <c r="D8" s="6"/>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1"/>
-      <c r="B9" s="3"/>
+      <c r="B9" s="3" t="s">
+        <v>169</v>
+      </c>
       <c r="C9" s="5"/>
       <c r="D9" s="6"/>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" ht="27">
       <c r="A10" s="1"/>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="B10" s="3" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="27">
       <c r="A11" s="1"/>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="B11" s="3" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="37.5">
       <c r="A12" s="1"/>
+      <c r="B12" s="11" t="s">
+        <v>186</v>
+      </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1"/>
@@ -8404,10 +9068,16 @@
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A965309B-2D00-4C69-AAF2-00F76E145C17}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="f2582d4f-4605-4da6-a8d6-8d696d30c27c"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="c1e6ffc9-f5b9-4159-9447-bea3a992def6"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="c1e6ffc9-f5b9-4159-9447-bea3a992def6"/>
-    <ds:schemaRef ds:uri="f2582d4f-4605-4da6-a8d6-8d696d30c27c"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/revref_test.xlsx
+++ b/revref_test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\72446246\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBD081A1-9D8C-43DA-B1E7-05109925F8C9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DCD1DCE-6A62-43D3-8E95-12784B4FB8DB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7605" xr2:uid="{5CD9017C-176B-471B-A8A0-D3A2BE76D3A3}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7605" activeTab="6" xr2:uid="{5CD9017C-176B-471B-A8A0-D3A2BE76D3A3}"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="8" r:id="rId1"/>
@@ -4491,23 +4491,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>「既存のカテゴリ」でカテゴリを選択し、
-「ランダム問題を追加する」をクリックします</t>
-    <rPh sb="1" eb="3">
-      <t>キゾン</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>センタク</t>
-    </rPh>
-    <rPh sb="25" eb="27">
-      <t>モンダイ</t>
-    </rPh>
-    <rPh sb="28" eb="30">
-      <t>ツイカ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>&lt;h3&gt;小テストの問題の出題順をランダムにする方法&lt;/h3&gt;</t>
     <rPh sb="23" eb="25">
       <t>ホウホウ</t>
@@ -4806,6 +4789,35 @@
     </rPh>
     <rPh sb="13" eb="14">
       <t>ツヅ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「既存のカテゴリ」タブのまま「カテゴリ」を選択し、「ランダム問題数」で追加したい問題数を選択してください
+「ランダム問題を追加する」をクリックします</t>
+    <rPh sb="1" eb="3">
+      <t>キゾン</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="30" eb="33">
+      <t>モンダイスウ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="40" eb="43">
+      <t>モンダイスウ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="58" eb="60">
+      <t>モンダイ</t>
+    </rPh>
+    <rPh sb="61" eb="63">
+      <t>ツイカ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -5332,7 +5344,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B38953DD-C77F-4062-989A-FDF98227C4BA}">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
@@ -5438,7 +5450,7 @@
     <row r="7" spans="1:4">
       <c r="A7" s="1"/>
       <c r="B7" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="6"/>
@@ -5446,7 +5458,7 @@
     <row r="8" spans="1:4">
       <c r="A8" s="1"/>
       <c r="B8" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="6"/>
@@ -5468,19 +5480,19 @@
     <row r="11" spans="1:4">
       <c r="A11" s="1"/>
       <c r="B11" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1"/>
       <c r="B12" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="13" spans="1:4" s="21" customFormat="1" ht="27">
       <c r="A13" s="1"/>
       <c r="B13" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -5489,25 +5501,25 @@
     <row r="15" spans="1:4">
       <c r="A15" s="1"/>
       <c r="B15" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="1"/>
       <c r="B16" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1"/>
       <c r="B17" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1"/>
       <c r="B18" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -8354,8 +8366,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1B5C86B-3DF3-4C25-B4F9-254CDB6683A6}">
   <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12:B13"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -8510,7 +8522,7 @@
     </row>
     <row r="25" spans="1:2" ht="27">
       <c r="B25" s="3" t="s">
-        <v>179</v>
+        <v>195</v>
       </c>
     </row>
   </sheetData>
@@ -8575,7 +8587,7 @@
     <row r="7" spans="1:4">
       <c r="A7" s="1"/>
       <c r="B7" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="6"/>
@@ -8599,7 +8611,7 @@
     <row r="10" spans="1:4">
       <c r="A10" s="1"/>
       <c r="B10" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -8667,7 +8679,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -8697,7 +8709,7 @@
     <row r="7" spans="1:4">
       <c r="A7" s="1"/>
       <c r="B7" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="6"/>
@@ -8721,19 +8733,19 @@
     <row r="10" spans="1:4" ht="27">
       <c r="A10" s="1"/>
       <c r="B10" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="27">
       <c r="A11" s="1"/>
       <c r="B11" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="37.5">
       <c r="A12" s="1"/>
       <c r="B12" s="11" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -8771,6 +8783,33 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <SharedWithUsers xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="f2582d4f-4605-4da6-a8d6-8d696d30c27c">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100AFAE8A2D61E2864A87743AC8EBD33013" ma:contentTypeVersion="17" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="131c1c820a00e4fca6ce65346d03e485">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="f2582d4f-4605-4da6-a8d6-8d696d30c27c" xmlns:ns3="c1e6ffc9-f5b9-4159-9447-bea3a992def6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="555fe79fdee1cb282876e6f1e8fa0f7e" ns2:_="" ns3:_="">
     <xsd:import namespace="f2582d4f-4605-4da6-a8d6-8d696d30c27c"/>
@@ -9019,48 +9058,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <SharedWithUsers xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="f2582d4f-4605-4da6-a8d6-8d696d30c27c">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="c1e6ffc9-f5b9-4159-9447-bea3a992def6" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{61B073EA-019B-49F1-927B-E5A470D8398D}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A3B1469-BE58-4E2A-BFC6-1F894EC8921D}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="f2582d4f-4605-4da6-a8d6-8d696d30c27c"/>
-    <ds:schemaRef ds:uri="c1e6ffc9-f5b9-4159-9447-bea3a992def6"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -9083,9 +9084,20 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9A3B1469-BE58-4E2A-BFC6-1F894EC8921D}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{61B073EA-019B-49F1-927B-E5A470D8398D}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="f2582d4f-4605-4da6-a8d6-8d696d30c27c"/>
+    <ds:schemaRef ds:uri="c1e6ffc9-f5b9-4159-9447-bea3a992def6"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>